--- a/l3kernel/expl3-datatype-analysis.xlsx
+++ b/l3kernel/expl3-datatype-analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="17715" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="200" windowWidth="21140" windowHeight="15280"/>
   </bookViews>
   <sheets>
     <sheet name="data types" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">constants!$A$1:$C$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data types'!$A$1:$AT$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data types'!$A$1:$AT$326</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Frank:</t>
         </r>
@@ -42,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 + means the command has additionally a conditional version but also exists without
@@ -354,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="550">
   <si>
     <t>action</t>
   </si>
@@ -2001,13 +2006,16 @@
   </si>
   <si>
     <t>range_ignore_spaces</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2043,19 +2051,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2114,7 +2109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2237,9 +2232,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -2249,9 +2241,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2550,53 +2548,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AT325"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:AT326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI336" sqref="AI336:AJ336"/>
+      <selection pane="bottomRight" activeCell="AV266" sqref="AV266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="3.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="3.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="3.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="3.1640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="3" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="3.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="3.5" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="4" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="22" width="3.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="3.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="22" width="3.5" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="3.1640625" style="2" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="3" style="9" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="25" max="25" width="3.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="3.1640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="4" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="4.28515625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="4.33203125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="4" style="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="3.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="3.5" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="3" style="9" customWidth="1" collapsed="1"/>
     <col min="31" max="31" width="3" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="3.5703125" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="33" max="33" width="4.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="35" width="4.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="3.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="4.28515625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="3.7109375" style="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="3.5" style="2" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="33" max="33" width="4.5" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="35" width="4.33203125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="3.5" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="4.33203125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="3.6640625" style="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="44" width="4" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="3.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="3.5" style="2" customWidth="1" collapsed="1"/>
     <col min="46" max="46" width="40" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" ht="125.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="127">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2726,7 +2724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="A2" s="15" t="s">
         <v>262</v>
       </c>
@@ -2734,15 +2732,15 @@
         <f>IF(CONCATENATE(M2,X2,AE2,AL2)="","","-")</f>
         <v>-</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="21"/>
       <c r="K2" s="13"/>
       <c r="L2" s="32" t="s">
@@ -2853,7 +2851,7 @@
       </c>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" outlineLevel="1">
       <c r="A3" s="36" t="s">
         <v>102</v>
       </c>
@@ -2921,7 +2919,7 @@
       <c r="AS3" s="17"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" outlineLevel="1">
       <c r="A4" s="36" t="s">
         <v>104</v>
       </c>
@@ -2987,7 +2985,7 @@
       <c r="AS4" s="17"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" outlineLevel="1">
       <c r="A5" s="36" t="s">
         <v>153</v>
       </c>
@@ -3044,7 +3042,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" outlineLevel="1">
       <c r="A6" s="36" t="s">
         <v>49</v>
       </c>
@@ -3119,7 +3117,7 @@
       </c>
       <c r="AS6" s="17"/>
     </row>
-    <row r="7" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" outlineLevel="1">
       <c r="A7" s="36" t="s">
         <v>1</v>
       </c>
@@ -3215,7 +3213,7 @@
       </c>
       <c r="AS7" s="17"/>
     </row>
-    <row r="8" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A8" s="36" t="s">
         <v>1</v>
       </c>
@@ -3260,7 +3258,7 @@
       </c>
       <c r="AS8" s="17"/>
     </row>
-    <row r="9" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A9" s="36" t="s">
         <v>217</v>
       </c>
@@ -3305,7 +3303,7 @@
       </c>
       <c r="AS9" s="17"/>
     </row>
-    <row r="10" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A10" s="36" t="s">
         <v>214</v>
       </c>
@@ -3350,7 +3348,7 @@
       </c>
       <c r="AS10" s="17"/>
     </row>
-    <row r="11" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A11" s="36" t="s">
         <v>215</v>
       </c>
@@ -3395,7 +3393,7 @@
       </c>
       <c r="AS11" s="17"/>
     </row>
-    <row r="12" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A12" s="36" t="s">
         <v>216</v>
       </c>
@@ -3440,7 +3438,7 @@
       </c>
       <c r="AS12" s="17"/>
     </row>
-    <row r="13" spans="1:46" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" outlineLevel="1" collapsed="1">
       <c r="A13" s="36" t="s">
         <v>5</v>
       </c>
@@ -3530,7 +3528,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A14" s="36" t="s">
         <v>5</v>
       </c>
@@ -3575,7 +3573,7 @@
       </c>
       <c r="AS14" s="33"/>
     </row>
-    <row r="15" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A15" s="36" t="s">
         <v>5</v>
       </c>
@@ -3627,7 +3625,7 @@
       </c>
       <c r="AS15" s="17"/>
     </row>
-    <row r="16" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A16" s="36" t="s">
         <v>5</v>
       </c>
@@ -3672,7 +3670,7 @@
       </c>
       <c r="AS16" s="34"/>
     </row>
-    <row r="17" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A17" s="36" t="s">
         <v>516</v>
       </c>
@@ -3723,7 +3721,7 @@
       </c>
       <c r="AS17" s="33"/>
     </row>
-    <row r="18" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A18" s="36" t="s">
         <v>5</v>
       </c>
@@ -3768,7 +3766,7 @@
       </c>
       <c r="AS18" s="17"/>
     </row>
-    <row r="19" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" outlineLevel="2">
       <c r="A19" s="36" t="s">
         <v>14</v>
       </c>
@@ -3855,7 +3853,7 @@
       </c>
       <c r="AS19" s="17"/>
     </row>
-    <row r="20" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A20" s="36" t="s">
         <v>412</v>
       </c>
@@ -3900,7 +3898,7 @@
       </c>
       <c r="AS20" s="33"/>
     </row>
-    <row r="21" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A21" s="36" t="s">
         <v>413</v>
       </c>
@@ -3948,7 +3946,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="22" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A22" s="36" t="s">
         <v>189</v>
       </c>
@@ -3993,7 +3991,7 @@
       </c>
       <c r="AS22" s="17"/>
     </row>
-    <row r="23" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A23" s="36" t="s">
         <v>417</v>
       </c>
@@ -4038,7 +4036,7 @@
       </c>
       <c r="AS23" s="33"/>
     </row>
-    <row r="24" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A24" s="36" t="s">
         <v>418</v>
       </c>
@@ -4083,7 +4081,7 @@
       </c>
       <c r="AS24" s="33"/>
     </row>
-    <row r="25" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A25" s="36" t="s">
         <v>419</v>
       </c>
@@ -4128,7 +4126,7 @@
       </c>
       <c r="AS25" s="33"/>
     </row>
-    <row r="26" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A26" s="36" t="s">
         <v>420</v>
       </c>
@@ -4173,7 +4171,7 @@
       </c>
       <c r="AS26" s="33"/>
     </row>
-    <row r="27" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A27" s="36" t="s">
         <v>421</v>
       </c>
@@ -4218,7 +4216,7 @@
       </c>
       <c r="AS27" s="33"/>
     </row>
-    <row r="28" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A28" s="36" t="s">
         <v>422</v>
       </c>
@@ -4263,7 +4261,7 @@
       </c>
       <c r="AS28" s="33"/>
     </row>
-    <row r="29" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A29" s="36" t="s">
         <v>423</v>
       </c>
@@ -4308,7 +4306,7 @@
       </c>
       <c r="AS29" s="33"/>
     </row>
-    <row r="30" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A30" s="36" t="s">
         <v>424</v>
       </c>
@@ -4353,7 +4351,7 @@
       </c>
       <c r="AS30" s="33"/>
     </row>
-    <row r="31" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A31" s="36" t="s">
         <v>425</v>
       </c>
@@ -4398,7 +4396,7 @@
       </c>
       <c r="AS31" s="33"/>
     </row>
-    <row r="32" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A32" s="36" t="s">
         <v>426</v>
       </c>
@@ -4443,7 +4441,7 @@
       </c>
       <c r="AS32" s="33"/>
     </row>
-    <row r="33" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A33" s="36" t="s">
         <v>427</v>
       </c>
@@ -4488,7 +4486,7 @@
       </c>
       <c r="AS33" s="33"/>
     </row>
-    <row r="34" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A34" s="36" t="s">
         <v>428</v>
       </c>
@@ -4533,7 +4531,7 @@
       </c>
       <c r="AS34" s="33"/>
     </row>
-    <row r="35" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A35" s="36" t="s">
         <v>429</v>
       </c>
@@ -4578,7 +4576,7 @@
       </c>
       <c r="AS35" s="33"/>
     </row>
-    <row r="36" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A36" s="36" t="s">
         <v>430</v>
       </c>
@@ -4623,7 +4621,7 @@
       </c>
       <c r="AS36" s="33"/>
     </row>
-    <row r="37" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A37" s="36" t="s">
         <v>431</v>
       </c>
@@ -4668,7 +4666,7 @@
       </c>
       <c r="AS37" s="33"/>
     </row>
-    <row r="38" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A38" s="36" t="s">
         <v>432</v>
       </c>
@@ -4713,7 +4711,7 @@
       </c>
       <c r="AS38" s="33"/>
     </row>
-    <row r="39" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A39" s="36" t="s">
         <v>415</v>
       </c>
@@ -4758,7 +4756,7 @@
       </c>
       <c r="AS39" s="33"/>
     </row>
-    <row r="40" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A40" s="36" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4804,7 @@
       </c>
       <c r="AS40" s="17"/>
     </row>
-    <row r="41" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" outlineLevel="1">
       <c r="A41" s="36" t="s">
         <v>474</v>
       </c>
@@ -4851,7 +4849,7 @@
       </c>
       <c r="AS41" s="33"/>
     </row>
-    <row r="42" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" outlineLevel="1">
       <c r="A42" s="36" t="s">
         <v>171</v>
       </c>
@@ -4899,7 +4897,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" outlineLevel="1">
       <c r="A43" s="36" t="s">
         <v>171</v>
       </c>
@@ -4947,7 +4945,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A44" s="36" t="s">
         <v>220</v>
       </c>
@@ -4992,7 +4990,7 @@
       </c>
       <c r="AS44" s="17"/>
     </row>
-    <row r="45" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" outlineLevel="1">
       <c r="A45" s="36" t="s">
         <v>178</v>
       </c>
@@ -5037,7 +5035,7 @@
       </c>
       <c r="AS45" s="33"/>
     </row>
-    <row r="46" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A46" s="36" t="s">
         <v>434</v>
       </c>
@@ -5083,7 +5081,7 @@
       </c>
       <c r="AS46" s="33"/>
     </row>
-    <row r="47" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" outlineLevel="1">
       <c r="A47" s="36" t="s">
         <v>476</v>
       </c>
@@ -5128,7 +5126,7 @@
       </c>
       <c r="AS47" s="33"/>
     </row>
-    <row r="48" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A48" s="36" t="s">
         <v>435</v>
       </c>
@@ -5174,7 +5172,7 @@
       </c>
       <c r="AS48" s="17"/>
     </row>
-    <row r="49" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A49" s="36" t="s">
         <v>209</v>
       </c>
@@ -5219,7 +5217,7 @@
       </c>
       <c r="AS49" s="17"/>
     </row>
-    <row r="50" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A50" s="36" t="s">
         <v>210</v>
       </c>
@@ -5264,7 +5262,7 @@
       </c>
       <c r="AS50" s="17"/>
     </row>
-    <row r="51" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" hidden="1" outlineLevel="2">
       <c r="A51" s="36" t="s">
         <v>211</v>
       </c>
@@ -5309,7 +5307,7 @@
       </c>
       <c r="AS51" s="17"/>
     </row>
-    <row r="52" spans="1:46" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" outlineLevel="1" collapsed="1">
       <c r="A52" s="36" t="s">
         <v>117</v>
       </c>
@@ -5354,7 +5352,7 @@
       </c>
       <c r="AS52" s="17"/>
     </row>
-    <row r="53" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A53" s="36" t="s">
         <v>436</v>
       </c>
@@ -5400,7 +5398,7 @@
       </c>
       <c r="AS53" s="33"/>
     </row>
-    <row r="54" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" outlineLevel="1">
       <c r="A54" s="36" t="s">
         <v>173</v>
       </c>
@@ -5448,7 +5446,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A55" s="36" t="s">
         <v>519</v>
       </c>
@@ -5493,7 +5491,7 @@
       </c>
       <c r="AS55" s="34"/>
     </row>
-    <row r="56" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A56" s="36" t="s">
         <v>517</v>
       </c>
@@ -5538,7 +5536,7 @@
       </c>
       <c r="AS56" s="34"/>
     </row>
-    <row r="57" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A57" s="36" t="s">
         <v>529</v>
       </c>
@@ -5586,7 +5584,7 @@
       </c>
       <c r="AS57" s="34"/>
     </row>
-    <row r="58" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A58" s="36" t="s">
         <v>521</v>
       </c>
@@ -5631,7 +5629,7 @@
       </c>
       <c r="AS58" s="34"/>
     </row>
-    <row r="59" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A59" s="36" t="s">
         <v>8</v>
       </c>
@@ -5679,7 +5677,7 @@
       </c>
       <c r="AS59" s="17"/>
     </row>
-    <row r="60" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A60" s="36" t="s">
         <v>437</v>
       </c>
@@ -5725,7 +5723,7 @@
       </c>
       <c r="AS60" s="17"/>
     </row>
-    <row r="61" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A61" s="36" t="s">
         <v>218</v>
       </c>
@@ -5767,7 +5765,7 @@
       </c>
       <c r="AS61" s="17"/>
     </row>
-    <row r="62" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A62" s="36" t="s">
         <v>51</v>
       </c>
@@ -5827,7 +5825,7 @@
       </c>
       <c r="AS62" s="27"/>
     </row>
-    <row r="63" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A63" s="36" t="s">
         <v>298</v>
       </c>
@@ -5887,7 +5885,7 @@
       </c>
       <c r="AS63" s="17"/>
     </row>
-    <row r="64" spans="1:46" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" s="1" customFormat="1" hidden="1">
       <c r="A64" s="5"/>
       <c r="B64" s="43" t="str">
         <f t="shared" si="1"/>
@@ -5950,7 +5948,7 @@
       <c r="AS64" s="18"/>
       <c r="AT64" s="5"/>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46">
       <c r="A65" s="15" t="s">
         <v>256</v>
       </c>
@@ -5958,15 +5956,15 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
       <c r="J65" s="21"/>
       <c r="K65" s="13"/>
       <c r="L65" s="32" t="s">
@@ -6065,7 +6063,7 @@
       </c>
       <c r="AT65"/>
     </row>
-    <row r="66" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A66" s="36" t="s">
         <v>502</v>
       </c>
@@ -6113,7 +6111,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="67" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" outlineLevel="1">
       <c r="A67" s="36" t="s">
         <v>165</v>
       </c>
@@ -6161,7 +6159,7 @@
       </c>
       <c r="AS67" s="17"/>
     </row>
-    <row r="68" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" outlineLevel="1">
       <c r="A68" s="36" t="s">
         <v>181</v>
       </c>
@@ -6206,7 +6204,7 @@
       </c>
       <c r="AS68" s="17"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" outlineLevel="1">
       <c r="A69" s="36" t="s">
         <v>183</v>
       </c>
@@ -6254,7 +6252,7 @@
       </c>
       <c r="AS69" s="17"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" outlineLevel="1">
       <c r="A70" s="36" t="s">
         <v>105</v>
       </c>
@@ -6308,7 +6306,7 @@
       </c>
       <c r="AS70" s="17"/>
     </row>
-    <row r="71" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" outlineLevel="1">
       <c r="A71" s="36" t="s">
         <v>107</v>
       </c>
@@ -6362,7 +6360,7 @@
       </c>
       <c r="AS71" s="17"/>
     </row>
-    <row r="72" spans="1:46" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" s="1" customFormat="1" hidden="1">
       <c r="A72" s="5"/>
       <c r="B72" s="43" t="str">
         <f t="shared" si="1"/>
@@ -6425,7 +6423,7 @@
       <c r="AS72" s="18"/>
       <c r="AT72" s="5"/>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46">
       <c r="A73" s="15" t="s">
         <v>257</v>
       </c>
@@ -6433,15 +6431,15 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
       <c r="J73" s="21"/>
       <c r="K73" s="13"/>
       <c r="L73" s="32" t="s">
@@ -6550,7 +6548,7 @@
       </c>
       <c r="AT73"/>
     </row>
-    <row r="74" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" outlineLevel="1">
       <c r="A74" s="36" t="s">
         <v>164</v>
       </c>
@@ -6602,7 +6600,7 @@
       <c r="AS74" s="17"/>
       <c r="AT74"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" outlineLevel="1">
       <c r="A75" s="36" t="s">
         <v>164</v>
       </c>
@@ -6650,7 +6648,7 @@
       </c>
       <c r="AS75" s="17"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" outlineLevel="1">
       <c r="A76" s="36" t="s">
         <v>160</v>
       </c>
@@ -6698,7 +6696,7 @@
       </c>
       <c r="AS76" s="17"/>
     </row>
-    <row r="77" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" outlineLevel="1">
       <c r="A77" s="36" t="s">
         <v>161</v>
       </c>
@@ -6746,7 +6744,7 @@
       </c>
       <c r="AS77" s="17"/>
     </row>
-    <row r="78" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A78" s="36" t="s">
         <v>503</v>
       </c>
@@ -6791,7 +6789,7 @@
       </c>
       <c r="AS78" s="33"/>
     </row>
-    <row r="79" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" outlineLevel="1">
       <c r="A79" s="36" t="s">
         <v>295</v>
       </c>
@@ -6840,7 +6838,7 @@
       <c r="AS79" s="17"/>
       <c r="AT79" s="10"/>
     </row>
-    <row r="80" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" outlineLevel="1">
       <c r="A80" s="36" t="s">
         <v>115</v>
       </c>
@@ -6892,7 +6890,7 @@
       <c r="AS80" s="17"/>
       <c r="AT80" s="10"/>
     </row>
-    <row r="81" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" outlineLevel="1">
       <c r="A81" s="36" t="s">
         <v>163</v>
       </c>
@@ -6940,7 +6938,7 @@
       </c>
       <c r="AS81" s="17"/>
     </row>
-    <row r="82" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" outlineLevel="1">
       <c r="A82" s="36" t="s">
         <v>114</v>
       </c>
@@ -6991,7 +6989,7 @@
       </c>
       <c r="AS82" s="17"/>
     </row>
-    <row r="83" spans="1:46" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" s="1" customFormat="1" hidden="1">
       <c r="A83" s="5"/>
       <c r="B83" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7054,7 +7052,7 @@
       <c r="AS83" s="18"/>
       <c r="AT83" s="5"/>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46">
       <c r="A84" s="15" t="s">
         <v>258</v>
       </c>
@@ -7062,15 +7060,15 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="C84" s="45" t="s">
+      <c r="C84" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
       <c r="J84" s="21"/>
       <c r="K84" s="13"/>
       <c r="L84" s="32" t="s">
@@ -7179,7 +7177,7 @@
       </c>
       <c r="AT84"/>
     </row>
-    <row r="85" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A85" s="36" t="s">
         <v>497</v>
       </c>
@@ -7228,7 +7226,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" outlineLevel="1">
       <c r="A86" s="36" t="s">
         <v>6</v>
       </c>
@@ -7285,7 +7283,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="87" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" outlineLevel="1">
       <c r="A87" s="36" t="s">
         <v>6</v>
       </c>
@@ -7334,7 +7332,7 @@
       <c r="AS87" s="17"/>
       <c r="AT87"/>
     </row>
-    <row r="88" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" outlineLevel="1">
       <c r="A88" s="36" t="s">
         <v>6</v>
       </c>
@@ -7386,7 +7384,7 @@
       <c r="AS88" s="33"/>
       <c r="AT88"/>
     </row>
-    <row r="89" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" outlineLevel="1">
       <c r="A89" s="38" t="s">
         <v>300</v>
       </c>
@@ -7443,7 +7441,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" outlineLevel="1">
       <c r="A90" s="36" t="s">
         <v>157</v>
       </c>
@@ -7491,7 +7489,7 @@
       </c>
       <c r="AS90" s="17"/>
     </row>
-    <row r="91" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" outlineLevel="1">
       <c r="A91" s="36" t="s">
         <v>158</v>
       </c>
@@ -7539,7 +7537,7 @@
       </c>
       <c r="AS91" s="17"/>
     </row>
-    <row r="92" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" outlineLevel="1">
       <c r="A92" s="36" t="s">
         <v>141</v>
       </c>
@@ -7590,7 +7588,7 @@
       </c>
       <c r="AS92" s="17"/>
     </row>
-    <row r="93" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" outlineLevel="1">
       <c r="A93" s="36" t="s">
         <v>543</v>
       </c>
@@ -7638,7 +7636,7 @@
       </c>
       <c r="AS93" s="44"/>
     </row>
-    <row r="94" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" outlineLevel="1">
       <c r="A94" s="36" t="s">
         <v>141</v>
       </c>
@@ -7689,7 +7687,7 @@
       </c>
       <c r="AS94" s="17"/>
     </row>
-    <row r="95" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" outlineLevel="1">
       <c r="A95" s="36" t="s">
         <v>167</v>
       </c>
@@ -7740,7 +7738,7 @@
       </c>
       <c r="AS95" s="25"/>
     </row>
-    <row r="96" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" outlineLevel="1">
       <c r="A96" s="36" t="s">
         <v>167</v>
       </c>
@@ -7792,7 +7790,7 @@
       <c r="AS96" s="17"/>
       <c r="AT96" s="10"/>
     </row>
-    <row r="97" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A97" s="36" t="s">
         <v>545</v>
       </c>
@@ -7826,7 +7824,7 @@
       <c r="AS97" s="44"/>
       <c r="AT97" s="10"/>
     </row>
-    <row r="98" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A98" s="36" t="s">
         <v>545</v>
       </c>
@@ -7860,7 +7858,7 @@
       <c r="AS98" s="44"/>
       <c r="AT98" s="10"/>
     </row>
-    <row r="99" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A99" s="36" t="s">
         <v>548</v>
       </c>
@@ -7894,7 +7892,7 @@
       <c r="AS99" s="44"/>
       <c r="AT99" s="10"/>
     </row>
-    <row r="100" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" outlineLevel="1">
       <c r="A100" s="36" t="s">
         <v>142</v>
       </c>
@@ -7942,7 +7940,7 @@
       </c>
       <c r="AS100" s="25"/>
     </row>
-    <row r="101" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" outlineLevel="1">
       <c r="A101" s="36" t="s">
         <v>544</v>
       </c>
@@ -7987,7 +7985,7 @@
       </c>
       <c r="AS101" s="44"/>
     </row>
-    <row r="102" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" outlineLevel="1">
       <c r="A102" s="36" t="s">
         <v>142</v>
       </c>
@@ -8035,7 +8033,7 @@
       </c>
       <c r="AS102" s="17"/>
     </row>
-    <row r="103" spans="1:46" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" s="1" customFormat="1" hidden="1">
       <c r="A103" s="5"/>
       <c r="B103" s="43" t="str">
         <f t="shared" si="21"/>
@@ -8098,7 +8096,7 @@
       <c r="AS103" s="18"/>
       <c r="AT103" s="5"/>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46">
       <c r="A104" s="15" t="s">
         <v>278</v>
       </c>
@@ -8106,15 +8104,15 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="C104" s="45" t="s">
+      <c r="C104" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="45"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="49"/>
       <c r="J104" s="21"/>
       <c r="K104" s="13"/>
       <c r="L104" s="32" t="s">
@@ -8223,7 +8221,7 @@
       </c>
       <c r="AT104"/>
     </row>
-    <row r="105" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A105" s="36" t="s">
         <v>54</v>
       </c>
@@ -8281,7 +8279,7 @@
       <c r="AS105" s="17"/>
       <c r="AT105"/>
     </row>
-    <row r="106" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A106" s="36" t="s">
         <v>246</v>
       </c>
@@ -8326,7 +8324,7 @@
       </c>
       <c r="AS106" s="17"/>
     </row>
-    <row r="107" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A107" s="36" t="s">
         <v>404</v>
       </c>
@@ -8369,7 +8367,7 @@
       <c r="AS107" s="17"/>
       <c r="AT107"/>
     </row>
-    <row r="108" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A108" s="36" t="s">
         <v>55</v>
       </c>
@@ -8415,7 +8413,7 @@
       <c r="AS108" s="17"/>
       <c r="AT108"/>
     </row>
-    <row r="109" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A109" s="36" t="s">
         <v>56</v>
       </c>
@@ -8461,7 +8459,7 @@
       <c r="AS109" s="17"/>
       <c r="AT109"/>
     </row>
-    <row r="110" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A110" s="36" t="s">
         <v>247</v>
       </c>
@@ -8506,7 +8504,7 @@
       </c>
       <c r="AS110" s="17"/>
     </row>
-    <row r="111" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" outlineLevel="1">
       <c r="A111" s="36" t="s">
         <v>113</v>
       </c>
@@ -8551,7 +8549,7 @@
       </c>
       <c r="AS111" s="17"/>
     </row>
-    <row r="112" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" outlineLevel="1">
       <c r="A112" s="36" t="s">
         <v>108</v>
       </c>
@@ -8596,7 +8594,7 @@
       </c>
       <c r="AS112" s="17"/>
     </row>
-    <row r="113" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A113" s="36" t="s">
         <v>242</v>
       </c>
@@ -8641,7 +8639,7 @@
       </c>
       <c r="AS113" s="17"/>
     </row>
-    <row r="114" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A114" s="36" t="s">
         <v>407</v>
       </c>
@@ -8686,7 +8684,7 @@
       </c>
       <c r="AS114" s="33"/>
     </row>
-    <row r="115" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A115" s="36" t="s">
         <v>408</v>
       </c>
@@ -8731,7 +8729,7 @@
       </c>
       <c r="AS115" s="33"/>
     </row>
-    <row r="116" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" outlineLevel="1">
       <c r="A116" s="36" t="s">
         <v>139</v>
       </c>
@@ -8782,7 +8780,7 @@
       </c>
       <c r="AS116" s="17"/>
     </row>
-    <row r="117" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A117" s="36" t="s">
         <v>243</v>
       </c>
@@ -8827,7 +8825,7 @@
       </c>
       <c r="AS117" s="17"/>
     </row>
-    <row r="118" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A118" s="36" t="s">
         <v>244</v>
       </c>
@@ -8872,7 +8870,7 @@
       </c>
       <c r="AS118" s="33"/>
     </row>
-    <row r="119" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A119" s="36" t="s">
         <v>199</v>
       </c>
@@ -8920,7 +8918,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A120" s="36" t="s">
         <v>238</v>
       </c>
@@ -8962,7 +8960,7 @@
       </c>
       <c r="AS120" s="17"/>
     </row>
-    <row r="121" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A121" s="36" t="s">
         <v>200</v>
       </c>
@@ -9010,7 +9008,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A122" s="36" t="s">
         <v>239</v>
       </c>
@@ -9052,7 +9050,7 @@
       </c>
       <c r="AS122" s="17"/>
     </row>
-    <row r="123" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A123" s="36" t="s">
         <v>201</v>
       </c>
@@ -9100,7 +9098,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="124" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A124" s="36" t="s">
         <v>60</v>
       </c>
@@ -9157,7 +9155,7 @@
       </c>
       <c r="AS124" s="29"/>
     </row>
-    <row r="125" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A125" s="36" t="s">
         <v>410</v>
       </c>
@@ -9205,7 +9203,7 @@
       </c>
       <c r="AS125" s="33"/>
     </row>
-    <row r="126" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" outlineLevel="1">
       <c r="A126" s="36" t="s">
         <v>140</v>
       </c>
@@ -9250,7 +9248,7 @@
       </c>
       <c r="AS126" s="33"/>
     </row>
-    <row r="127" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A127" s="36" t="s">
         <v>411</v>
       </c>
@@ -9298,7 +9296,7 @@
       </c>
       <c r="AS127" s="33"/>
     </row>
-    <row r="128" spans="1:46" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" s="1" customFormat="1" hidden="1">
       <c r="A128" s="5"/>
       <c r="B128" s="43" t="str">
         <f t="shared" si="21"/>
@@ -9361,7 +9359,7 @@
       <c r="AS128" s="18"/>
       <c r="AT128" s="5"/>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46">
       <c r="A129" s="15" t="s">
         <v>269</v>
       </c>
@@ -9369,15 +9367,15 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="C129" s="45" t="s">
+      <c r="C129" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="D129" s="45"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="45"/>
-      <c r="I129" s="45"/>
+      <c r="D129" s="49"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="49"/>
+      <c r="I129" s="49"/>
       <c r="K129" s="2"/>
       <c r="L129" s="32" t="s">
         <v>13</v>
@@ -9485,7 +9483,7 @@
       </c>
       <c r="AT129"/>
     </row>
-    <row r="130" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" outlineLevel="1">
       <c r="A130" s="36" t="s">
         <v>293</v>
       </c>
@@ -9540,7 +9538,7 @@
       <c r="AS130" s="17"/>
       <c r="AT130"/>
     </row>
-    <row r="131" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" outlineLevel="1">
       <c r="A131" s="36" t="s">
         <v>293</v>
       </c>
@@ -9589,7 +9587,7 @@
       <c r="AS131" s="17"/>
       <c r="AT131"/>
     </row>
-    <row r="132" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" outlineLevel="1">
       <c r="A132" s="36" t="s">
         <v>541</v>
       </c>
@@ -9638,7 +9636,7 @@
       <c r="AS132" s="44"/>
       <c r="AT132"/>
     </row>
-    <row r="133" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" outlineLevel="1">
       <c r="A133" s="36" t="s">
         <v>542</v>
       </c>
@@ -9687,7 +9685,7 @@
       <c r="AS133" s="44"/>
       <c r="AT133"/>
     </row>
-    <row r="134" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" outlineLevel="1">
       <c r="A134" s="36" t="s">
         <v>542</v>
       </c>
@@ -9736,7 +9734,7 @@
       <c r="AS134" s="44"/>
       <c r="AT134"/>
     </row>
-    <row r="135" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" outlineLevel="1">
       <c r="A135" s="36" t="s">
         <v>294</v>
       </c>
@@ -9785,7 +9783,7 @@
       <c r="AS135" s="17"/>
       <c r="AT135"/>
     </row>
-    <row r="136" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A136" s="36" t="s">
         <v>196</v>
       </c>
@@ -9837,7 +9835,7 @@
       <c r="AS136" s="17"/>
       <c r="AT136"/>
     </row>
-    <row r="137" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A137" s="36" t="s">
         <v>198</v>
       </c>
@@ -9889,7 +9887,7 @@
       <c r="AS137" s="17"/>
       <c r="AT137"/>
     </row>
-    <row r="138" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A138" s="36" t="s">
         <v>213</v>
       </c>
@@ -9940,7 +9938,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="139" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A139" s="36" t="s">
         <v>197</v>
       </c>
@@ -9991,7 +9989,7 @@
       </c>
       <c r="AS139" s="17"/>
     </row>
-    <row r="140" spans="1:46" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" s="1" customFormat="1" hidden="1">
       <c r="A140" s="5"/>
       <c r="B140" s="43" t="str">
         <f t="shared" si="21"/>
@@ -10054,7 +10052,7 @@
       <c r="AS140" s="18"/>
       <c r="AT140" s="5"/>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46">
       <c r="A141" s="15" t="s">
         <v>266</v>
       </c>
@@ -10174,7 +10172,7 @@
       </c>
       <c r="AT141"/>
     </row>
-    <row r="142" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A142" s="36" t="s">
         <v>479</v>
       </c>
@@ -10222,7 +10220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" outlineLevel="1">
       <c r="A143" s="36" t="s">
         <v>449</v>
       </c>
@@ -10279,7 +10277,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="144" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" outlineLevel="1">
       <c r="A144" s="36" t="s">
         <v>449</v>
       </c>
@@ -10330,7 +10328,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="145" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" outlineLevel="1">
       <c r="A145" s="36" t="s">
         <v>454</v>
       </c>
@@ -10378,7 +10376,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="146" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A146" s="36" t="s">
         <v>483</v>
       </c>
@@ -10424,7 +10422,7 @@
       <c r="AS146" s="33"/>
       <c r="AT146"/>
     </row>
-    <row r="147" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A147" s="36" t="s">
         <v>484</v>
       </c>
@@ -10472,7 +10470,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="148" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A148" s="36" t="s">
         <v>485</v>
       </c>
@@ -10520,7 +10518,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="149" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A149" s="36" t="s">
         <v>486</v>
       </c>
@@ -10568,7 +10566,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="150" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A150" s="36" t="s">
         <v>487</v>
       </c>
@@ -10616,7 +10614,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="151" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A151" s="36" t="s">
         <v>488</v>
       </c>
@@ -10664,7 +10662,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="152" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A152" s="36" t="s">
         <v>489</v>
       </c>
@@ -10712,7 +10710,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="153" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A153" s="36" t="s">
         <v>490</v>
       </c>
@@ -10760,7 +10758,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="154" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A154" s="36" t="s">
         <v>61</v>
       </c>
@@ -10812,7 +10810,7 @@
       <c r="AS154" s="33"/>
       <c r="AT154"/>
     </row>
-    <row r="155" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A155" s="36" t="s">
         <v>61</v>
       </c>
@@ -10864,7 +10862,7 @@
       <c r="AS155" s="33"/>
       <c r="AT155"/>
     </row>
-    <row r="156" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A156" s="36" t="s">
         <v>66</v>
       </c>
@@ -10916,7 +10914,7 @@
       <c r="AS156" s="33"/>
       <c r="AT156"/>
     </row>
-    <row r="157" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A157" s="36" t="s">
         <v>66</v>
       </c>
@@ -10971,7 +10969,7 @@
       <c r="AS157" s="33"/>
       <c r="AT157"/>
     </row>
-    <row r="158" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A158" s="36" t="s">
         <v>66</v>
       </c>
@@ -11020,7 +11018,7 @@
       <c r="AS158" s="33"/>
       <c r="AT158"/>
     </row>
-    <row r="159" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A159" s="36" t="s">
         <v>67</v>
       </c>
@@ -11072,7 +11070,7 @@
       <c r="AS159" s="33"/>
       <c r="AT159"/>
     </row>
-    <row r="160" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A160" s="36" t="s">
         <v>67</v>
       </c>
@@ -11127,7 +11125,7 @@
       <c r="AS160" s="17"/>
       <c r="AT160"/>
     </row>
-    <row r="161" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A161" s="36" t="s">
         <v>67</v>
       </c>
@@ -11175,7 +11173,7 @@
       </c>
       <c r="AS161" s="17"/>
     </row>
-    <row r="162" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A162" s="36" t="s">
         <v>22</v>
       </c>
@@ -11224,7 +11222,7 @@
       </c>
       <c r="AS162" s="17"/>
     </row>
-    <row r="163" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A163" s="36" t="s">
         <v>22</v>
       </c>
@@ -11270,7 +11268,7 @@
       </c>
       <c r="AS163" s="17"/>
     </row>
-    <row r="164" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" outlineLevel="1">
       <c r="A164" s="36" t="s">
         <v>123</v>
       </c>
@@ -11318,7 +11316,7 @@
       </c>
       <c r="AS164" s="17"/>
     </row>
-    <row r="165" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A165" s="36" t="s">
         <v>460</v>
       </c>
@@ -11366,7 +11364,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="166" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" outlineLevel="1">
       <c r="A166" s="36" t="s">
         <v>124</v>
       </c>
@@ -11429,7 +11427,7 @@
       </c>
       <c r="AS166" s="17"/>
     </row>
-    <row r="167" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" outlineLevel="1">
       <c r="A167" s="36" t="s">
         <v>124</v>
       </c>
@@ -11480,7 +11478,7 @@
       </c>
       <c r="AS167" s="17"/>
     </row>
-    <row r="168" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" outlineLevel="1">
       <c r="A168" s="36" t="s">
         <v>125</v>
       </c>
@@ -11528,7 +11526,7 @@
       </c>
       <c r="AS168" s="17"/>
     </row>
-    <row r="169" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" outlineLevel="1">
       <c r="A169" s="36" t="s">
         <v>125</v>
       </c>
@@ -11576,7 +11574,7 @@
       </c>
       <c r="AS169" s="33"/>
     </row>
-    <row r="170" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A170" s="36" t="s">
         <v>125</v>
       </c>
@@ -11624,7 +11622,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A171" s="36" t="s">
         <v>456</v>
       </c>
@@ -11669,7 +11667,7 @@
       </c>
       <c r="AS171" s="33"/>
     </row>
-    <row r="172" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A172" s="36" t="s">
         <v>457</v>
       </c>
@@ -11714,7 +11712,7 @@
       </c>
       <c r="AS172" s="33"/>
     </row>
-    <row r="173" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A173" s="36" t="s">
         <v>458</v>
       </c>
@@ -11759,7 +11757,7 @@
       </c>
       <c r="AS173" s="33"/>
     </row>
-    <row r="174" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" outlineLevel="1">
       <c r="A174" s="36" t="s">
         <v>323</v>
       </c>
@@ -11808,7 +11806,7 @@
       <c r="AS174" s="33"/>
       <c r="AT174" s="7"/>
     </row>
-    <row r="175" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A175" s="36" t="s">
         <v>64</v>
       </c>
@@ -11853,7 +11851,7 @@
       </c>
       <c r="AS175" s="33"/>
     </row>
-    <row r="176" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" outlineLevel="1">
       <c r="A176" s="36" t="s">
         <v>212</v>
       </c>
@@ -11945,7 +11943,7 @@
       </c>
       <c r="AS176" s="33"/>
     </row>
-    <row r="177" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A177" s="36" t="s">
         <v>212</v>
       </c>
@@ -12006,7 +12004,7 @@
       <c r="AO177" s="9"/>
       <c r="AS177" s="33"/>
     </row>
-    <row r="178" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A178" s="36" t="s">
         <v>471</v>
       </c>
@@ -12068,7 +12066,7 @@
       <c r="AO178" s="9"/>
       <c r="AS178" s="17"/>
     </row>
-    <row r="179" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A179" s="36" t="s">
         <v>286</v>
       </c>
@@ -12116,7 +12114,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="180" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A180" s="36" t="s">
         <v>443</v>
       </c>
@@ -12161,7 +12159,7 @@
       </c>
       <c r="AS180" s="17"/>
     </row>
-    <row r="181" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" outlineLevel="1">
       <c r="A181" s="36" t="s">
         <v>145</v>
       </c>
@@ -12206,7 +12204,7 @@
       </c>
       <c r="AS181" s="17"/>
     </row>
-    <row r="182" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" outlineLevel="1">
       <c r="A182" s="36" t="s">
         <v>144</v>
       </c>
@@ -12251,7 +12249,7 @@
       </c>
       <c r="AS182" s="33"/>
     </row>
-    <row r="183" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" outlineLevel="1">
       <c r="A183" s="36" t="s">
         <v>147</v>
       </c>
@@ -12296,7 +12294,7 @@
       </c>
       <c r="AS183" s="17"/>
     </row>
-    <row r="184" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" outlineLevel="1">
       <c r="A184" s="36" t="s">
         <v>327</v>
       </c>
@@ -12341,7 +12339,7 @@
       </c>
       <c r="AS184" s="33"/>
     </row>
-    <row r="185" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" outlineLevel="1">
       <c r="A185" s="36" t="s">
         <v>328</v>
       </c>
@@ -12386,7 +12384,7 @@
       </c>
       <c r="AS185" s="24"/>
     </row>
-    <row r="186" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" outlineLevel="1">
       <c r="A186" s="36" t="s">
         <v>329</v>
       </c>
@@ -12431,7 +12429,7 @@
       </c>
       <c r="AS186" s="17"/>
     </row>
-    <row r="187" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A187" s="36" t="s">
         <v>203</v>
       </c>
@@ -12479,7 +12477,7 @@
       </c>
       <c r="AS187" s="17"/>
     </row>
-    <row r="188" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" outlineLevel="1">
       <c r="A188" s="36" t="s">
         <v>127</v>
       </c>
@@ -12536,7 +12534,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="189" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" outlineLevel="1">
       <c r="A189" s="36" t="s">
         <v>127</v>
       </c>
@@ -12587,7 +12585,7 @@
       </c>
       <c r="AS189" s="17"/>
     </row>
-    <row r="190" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A190" s="36" t="s">
         <v>461</v>
       </c>
@@ -12635,7 +12633,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="191" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A191" s="36" t="s">
         <v>462</v>
       </c>
@@ -12683,7 +12681,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="192" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A192" s="36" t="s">
         <v>32</v>
       </c>
@@ -12731,7 +12729,7 @@
       </c>
       <c r="AS192" s="17"/>
     </row>
-    <row r="193" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A193" s="36" t="s">
         <v>33</v>
       </c>
@@ -12779,7 +12777,7 @@
       </c>
       <c r="AS193" s="17"/>
     </row>
-    <row r="194" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A194" s="36" t="s">
         <v>65</v>
       </c>
@@ -12824,7 +12822,7 @@
       </c>
       <c r="AS194" s="17"/>
     </row>
-    <row r="195" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" outlineLevel="1">
       <c r="A195" s="36" t="s">
         <v>128</v>
       </c>
@@ -12869,7 +12867,7 @@
       </c>
       <c r="AS195" s="17"/>
     </row>
-    <row r="196" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" outlineLevel="1">
       <c r="A196" s="36" t="s">
         <v>128</v>
       </c>
@@ -12914,7 +12912,7 @@
       </c>
       <c r="AS196" s="17"/>
     </row>
-    <row r="197" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" outlineLevel="1">
       <c r="A197" s="36" t="s">
         <v>129</v>
       </c>
@@ -12962,7 +12960,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="198" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A198" s="36" t="s">
         <v>463</v>
       </c>
@@ -13010,7 +13008,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="199" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A199" s="36" t="s">
         <v>464</v>
       </c>
@@ -13058,7 +13056,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="200" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A200" s="36" t="s">
         <v>204</v>
       </c>
@@ -13106,7 +13104,7 @@
       </c>
       <c r="AS200" s="17"/>
     </row>
-    <row r="201" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A201" s="36" t="s">
         <v>500</v>
       </c>
@@ -13154,7 +13152,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A202" s="36" t="s">
         <v>213</v>
       </c>
@@ -13202,7 +13200,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="203" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A203" s="36" t="s">
         <v>491</v>
       </c>
@@ -13250,7 +13248,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="204" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A204" s="36" t="s">
         <v>492</v>
       </c>
@@ -13298,7 +13296,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="205" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A205" s="36" t="s">
         <v>493</v>
       </c>
@@ -13346,7 +13344,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="206" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A206" s="36" t="s">
         <v>494</v>
       </c>
@@ -13389,7 +13387,7 @@
       <c r="AS206" s="33"/>
       <c r="AT206"/>
     </row>
-    <row r="207" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A207" s="36" t="s">
         <v>305</v>
       </c>
@@ -13434,7 +13432,7 @@
       </c>
       <c r="AS207" s="31"/>
     </row>
-    <row r="208" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A208" s="36" t="s">
         <v>303</v>
       </c>
@@ -13479,7 +13477,7 @@
       </c>
       <c r="AS208" s="31"/>
     </row>
-    <row r="209" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A209" s="36" t="s">
         <v>306</v>
       </c>
@@ -13524,7 +13522,7 @@
       </c>
       <c r="AS209" s="31"/>
     </row>
-    <row r="210" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A210" s="36" t="s">
         <v>25</v>
       </c>
@@ -13557,7 +13555,7 @@
       </c>
       <c r="W210" s="17"/>
       <c r="X210" s="35" t="str">
-        <f t="shared" ref="X210:X273" si="50">IF(CONCATENATE(Y210,Z210,AA210,AB210,AC210)="","","-")</f>
+        <f t="shared" ref="X210:X274" si="50">IF(CONCATENATE(Y210,Z210,AA210,AB210,AC210)="","","-")</f>
         <v/>
       </c>
       <c r="AD210" s="17"/>
@@ -13572,12 +13570,12 @@
       </c>
       <c r="AS210" s="17"/>
     </row>
-    <row r="211" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A211" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B211" s="43" t="str">
-        <f t="shared" ref="B211:B274" si="51">IF(CONCATENATE(M211,X211,AE211,AL211)="","","-")</f>
+        <f t="shared" ref="B211:B275" si="51">IF(CONCATENATE(M211,X211,AE211,AL211)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -13594,7 +13592,7 @@
       </c>
       <c r="L211" s="33"/>
       <c r="M211" s="43" t="str">
-        <f t="shared" ref="M211:M274" si="52">IF(CONCATENATE(N211,O211,P211,Q211,R211,S211,T211,U211,V211)="","","-")</f>
+        <f t="shared" ref="M211:M275" si="52">IF(CONCATENATE(N211,O211,P211,Q211,R211,S211,T211,U211,V211)="","","-")</f>
         <v/>
       </c>
       <c r="W211" s="24"/>
@@ -13613,17 +13611,17 @@
       </c>
       <c r="AD211" s="24"/>
       <c r="AE211" s="35" t="str">
-        <f t="shared" ref="AE211:AE274" si="53">IF(CONCATENATE(AF211,AG211,AH211,AI211,AJ211)="","","-")</f>
+        <f t="shared" ref="AE211:AE275" si="53">IF(CONCATENATE(AF211,AG211,AH211,AI211,AJ211)="","","-")</f>
         <v/>
       </c>
       <c r="AK211" s="18"/>
       <c r="AL211" s="35" t="str">
-        <f t="shared" ref="AL211:AL274" si="54">IF(CONCATENATE(AM211,AN211,AO211,AP211,AQ211,AR211)="","","-")</f>
+        <f t="shared" ref="AL211:AL275" si="54">IF(CONCATENATE(AM211,AN211,AO211,AP211,AQ211,AR211)="","","-")</f>
         <v/>
       </c>
       <c r="AS211" s="24"/>
     </row>
-    <row r="212" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A212" s="36" t="s">
         <v>25</v>
       </c>
@@ -13677,7 +13675,7 @@
       </c>
       <c r="AS212" s="17"/>
     </row>
-    <row r="213" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A213" s="36" t="s">
         <v>29</v>
       </c>
@@ -13725,7 +13723,7 @@
       </c>
       <c r="AS213" s="17"/>
     </row>
-    <row r="214" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A214" s="36" t="s">
         <v>29</v>
       </c>
@@ -13776,7 +13774,7 @@
       </c>
       <c r="AS214" s="17"/>
     </row>
-    <row r="215" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A215" s="36" t="s">
         <v>29</v>
       </c>
@@ -13830,7 +13828,7 @@
       </c>
       <c r="AS215" s="24"/>
     </row>
-    <row r="216" spans="1:46" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" s="1" customFormat="1" hidden="1">
       <c r="A216" s="5"/>
       <c r="B216" s="43" t="str">
         <f t="shared" si="51"/>
@@ -13893,7 +13891,7 @@
       <c r="AS216" s="18"/>
       <c r="AT216" s="5"/>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46">
       <c r="A217" s="15" t="s">
         <v>259</v>
       </c>
@@ -13901,16 +13899,16 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
-      <c r="C217" s="45" t="s">
+      <c r="C217" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="D217" s="45"/>
-      <c r="E217" s="45"/>
-      <c r="F217" s="45"/>
-      <c r="G217" s="45"/>
-      <c r="H217" s="45"/>
-      <c r="I217" s="45"/>
-      <c r="J217" s="45"/>
+      <c r="D217" s="49"/>
+      <c r="E217" s="49"/>
+      <c r="F217" s="49"/>
+      <c r="G217" s="49"/>
+      <c r="H217" s="49"/>
+      <c r="I217" s="49"/>
+      <c r="J217" s="49"/>
       <c r="K217" s="2"/>
       <c r="L217" s="32" t="s">
         <v>13</v>
@@ -14002,7 +14000,7 @@
       </c>
       <c r="AT217"/>
     </row>
-    <row r="218" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A218" s="36" t="s">
         <v>40</v>
       </c>
@@ -14058,7 +14056,7 @@
       <c r="AS218" s="17"/>
       <c r="AT218"/>
     </row>
-    <row r="219" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A219" s="36" t="s">
         <v>41</v>
       </c>
@@ -14110,7 +14108,7 @@
       <c r="AS219" s="17"/>
       <c r="AT219"/>
     </row>
-    <row r="220" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A220" s="36" t="s">
         <v>42</v>
       </c>
@@ -14162,7 +14160,7 @@
       <c r="AS220" s="17"/>
       <c r="AT220"/>
     </row>
-    <row r="221" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A221" s="36" t="s">
         <v>38</v>
       </c>
@@ -14222,7 +14220,7 @@
       </c>
       <c r="AS221" s="17"/>
     </row>
-    <row r="222" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" outlineLevel="1">
       <c r="A222" s="36" t="s">
         <v>151</v>
       </c>
@@ -14270,7 +14268,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="223" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" outlineLevel="1">
       <c r="A223" s="36" t="s">
         <v>149</v>
       </c>
@@ -14318,7 +14316,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="224" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" outlineLevel="1">
       <c r="A224" s="36" t="s">
         <v>438</v>
       </c>
@@ -14378,7 +14376,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="225" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" outlineLevel="1">
       <c r="A225" s="36" t="s">
         <v>130</v>
       </c>
@@ -14432,7 +14430,7 @@
       </c>
       <c r="AS225" s="17"/>
     </row>
-    <row r="226" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" outlineLevel="1">
       <c r="A226" s="36" t="s">
         <v>130</v>
       </c>
@@ -14480,7 +14478,7 @@
       </c>
       <c r="AS226" s="17"/>
     </row>
-    <row r="227" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" outlineLevel="1">
       <c r="A227" s="36" t="s">
         <v>134</v>
       </c>
@@ -14537,7 +14535,7 @@
       </c>
       <c r="AS227" s="33"/>
     </row>
-    <row r="228" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A228" s="36" t="s">
         <v>472</v>
       </c>
@@ -14585,7 +14583,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="229" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" outlineLevel="1">
       <c r="A229" s="36" t="s">
         <v>134</v>
       </c>
@@ -14633,7 +14631,7 @@
       </c>
       <c r="AS229" s="17"/>
     </row>
-    <row r="230" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" outlineLevel="1">
       <c r="A230" s="37" t="s">
         <v>187</v>
       </c>
@@ -14681,7 +14679,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="231" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" outlineLevel="1">
       <c r="A231" s="36" t="s">
         <v>136</v>
       </c>
@@ -14730,7 +14728,7 @@
       </c>
       <c r="AS231" s="17"/>
     </row>
-    <row r="232" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" outlineLevel="1">
       <c r="A232" s="36" t="s">
         <v>136</v>
       </c>
@@ -14776,7 +14774,7 @@
       </c>
       <c r="AS232" s="17"/>
     </row>
-    <row r="233" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" outlineLevel="1">
       <c r="A233" s="36" t="s">
         <v>169</v>
       </c>
@@ -14827,7 +14825,7 @@
       </c>
       <c r="AS233" s="17"/>
     </row>
-    <row r="234" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A234" s="36" t="s">
         <v>43</v>
       </c>
@@ -14881,7 +14879,7 @@
       </c>
       <c r="AS234" s="17"/>
     </row>
-    <row r="235" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A235" s="36" t="s">
         <v>44</v>
       </c>
@@ -14935,7 +14933,7 @@
       </c>
       <c r="AS235" s="17"/>
     </row>
-    <row r="236" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A236" s="36" t="s">
         <v>48</v>
       </c>
@@ -14983,7 +14981,7 @@
       </c>
       <c r="AS236" s="17"/>
     </row>
-    <row r="237" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A237" s="36" t="s">
         <v>96</v>
       </c>
@@ -15028,7 +15026,7 @@
       </c>
       <c r="AS237" s="17"/>
     </row>
-    <row r="238" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" outlineLevel="1">
       <c r="A238" s="37" t="s">
         <v>334</v>
       </c>
@@ -15076,7 +15074,7 @@
       </c>
       <c r="AS238" s="17"/>
     </row>
-    <row r="239" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" outlineLevel="1">
       <c r="A239" s="36" t="s">
         <v>139</v>
       </c>
@@ -15124,7 +15122,7 @@
       </c>
       <c r="AS239" s="33"/>
     </row>
-    <row r="240" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" outlineLevel="1">
       <c r="A240" s="36" t="s">
         <v>292</v>
       </c>
@@ -15172,7 +15170,7 @@
       </c>
       <c r="AS240" s="33"/>
     </row>
-    <row r="241" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" outlineLevel="1">
       <c r="A241" s="36" t="s">
         <v>148</v>
       </c>
@@ -15220,7 +15218,7 @@
       </c>
       <c r="AS241" s="33"/>
     </row>
-    <row r="242" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A242" s="36" t="s">
         <v>284</v>
       </c>
@@ -15268,7 +15266,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="243" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A243" s="36" t="s">
         <v>285</v>
       </c>
@@ -15316,7 +15314,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="244" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A244" s="36" t="s">
         <v>72</v>
       </c>
@@ -15361,7 +15359,7 @@
       </c>
       <c r="AS244" s="17"/>
     </row>
-    <row r="245" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A245" s="36" t="s">
         <v>73</v>
       </c>
@@ -15406,7 +15404,7 @@
       </c>
       <c r="AS245" s="17"/>
     </row>
-    <row r="246" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A246" s="36" t="s">
         <v>71</v>
       </c>
@@ -15451,7 +15449,7 @@
       </c>
       <c r="AS246" s="17"/>
     </row>
-    <row r="247" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A247" s="36" t="s">
         <v>79</v>
       </c>
@@ -15496,7 +15494,7 @@
       </c>
       <c r="AS247" s="17"/>
     </row>
-    <row r="248" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A248" s="36" t="s">
         <v>74</v>
       </c>
@@ -15541,7 +15539,7 @@
       </c>
       <c r="AS248" s="17"/>
     </row>
-    <row r="249" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A249" s="36" t="s">
         <v>279</v>
       </c>
@@ -15586,7 +15584,7 @@
       </c>
       <c r="AS249" s="33"/>
     </row>
-    <row r="250" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A250" s="36" t="s">
         <v>222</v>
       </c>
@@ -15631,7 +15629,7 @@
       </c>
       <c r="AS250" s="17"/>
     </row>
-    <row r="251" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A251" s="36" t="s">
         <v>289</v>
       </c>
@@ -15676,7 +15674,7 @@
       </c>
       <c r="AS251" s="17"/>
     </row>
-    <row r="252" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A252" s="36" t="s">
         <v>75</v>
       </c>
@@ -15721,7 +15719,7 @@
       </c>
       <c r="AS252" s="24"/>
     </row>
-    <row r="253" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A253" s="36" t="s">
         <v>223</v>
       </c>
@@ -15766,7 +15764,7 @@
       </c>
       <c r="AS253" s="24"/>
     </row>
-    <row r="254" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:46" outlineLevel="1">
       <c r="A254" s="37" t="s">
         <v>120</v>
       </c>
@@ -15811,7 +15809,7 @@
       </c>
       <c r="AS254" s="24"/>
     </row>
-    <row r="255" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A255" s="36" t="s">
         <v>76</v>
       </c>
@@ -15856,7 +15854,7 @@
       </c>
       <c r="AS255" s="23"/>
     </row>
-    <row r="256" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A256" s="36" t="s">
         <v>77</v>
       </c>
@@ -15901,7 +15899,7 @@
       </c>
       <c r="AS256" s="23"/>
     </row>
-    <row r="257" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A257" s="36" t="s">
         <v>78</v>
       </c>
@@ -15946,7 +15944,7 @@
       </c>
       <c r="AS257" s="17"/>
     </row>
-    <row r="258" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A258" s="36" t="s">
         <v>280</v>
       </c>
@@ -15991,7 +15989,7 @@
       </c>
       <c r="AS258" s="17"/>
     </row>
-    <row r="259" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" outlineLevel="1">
       <c r="A259" s="36" t="s">
         <v>138</v>
       </c>
@@ -16042,7 +16040,7 @@
       </c>
       <c r="AS259" s="17"/>
     </row>
-    <row r="260" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" outlineLevel="1">
       <c r="A260" s="36" t="s">
         <v>138</v>
       </c>
@@ -16087,7 +16085,7 @@
       </c>
       <c r="AS260" s="17"/>
     </row>
-    <row r="261" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A261" s="36" t="s">
         <v>281</v>
       </c>
@@ -16132,7 +16130,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="262" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A262" s="36" t="s">
         <v>224</v>
       </c>
@@ -16177,7 +16175,7 @@
       </c>
       <c r="AS262" s="17"/>
     </row>
-    <row r="263" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" outlineLevel="1">
       <c r="A263" s="37" t="s">
         <v>121</v>
       </c>
@@ -16222,7 +16220,7 @@
       </c>
       <c r="AS263" s="17"/>
     </row>
-    <row r="264" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" outlineLevel="1">
       <c r="A264" s="36" t="s">
         <v>140</v>
       </c>
@@ -16267,7 +16265,7 @@
       </c>
       <c r="AS264" s="17"/>
     </row>
-    <row r="265" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" outlineLevel="1">
       <c r="A265" s="36" t="s">
         <v>89</v>
       </c>
@@ -16315,72 +16313,42 @@
       </c>
       <c r="AS265" s="29"/>
     </row>
-    <row r="266" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:46" outlineLevel="1">
       <c r="A266" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B266" s="43" t="str">
-        <f t="shared" si="51"/>
-        <v>-</v>
-      </c>
+      <c r="B266" s="43"/>
       <c r="C266" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>3</v>
+        <v>549</v>
       </c>
       <c r="H266" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I266" t="s">
-        <v>19</v>
-      </c>
-      <c r="L266" s="33"/>
-      <c r="M266" s="43" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="W266" s="17"/>
-      <c r="X266" s="35" t="str">
-        <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-      <c r="Y266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB266" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD266" s="17"/>
-      <c r="AE266" s="35" t="str">
-        <f t="shared" si="53"/>
-        <v>-</v>
-      </c>
-      <c r="AF266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ266" s="22" t="s">
-        <v>227</v>
+        <v>109</v>
+      </c>
+      <c r="L266" s="45"/>
+      <c r="M266" s="43"/>
+      <c r="W266" s="45"/>
+      <c r="X266" s="35"/>
+      <c r="AD266" s="45"/>
+      <c r="AE266" s="35"/>
+      <c r="AG266" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH266" s="30" t="s">
+        <v>3</v>
       </c>
       <c r="AK266" s="18"/>
-      <c r="AL266" s="35" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AS266" s="17"/>
-    </row>
-    <row r="267" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AL266" s="35"/>
+      <c r="AS266" s="45"/>
+    </row>
+    <row r="267" spans="1:46" outlineLevel="1">
       <c r="A267" s="36" t="s">
-        <v>343</v>
+        <v>89</v>
       </c>
       <c r="B267" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16393,39 +16361,57 @@
         <v>3</v>
       </c>
       <c r="H267" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I267" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L267" s="33"/>
       <c r="M267" s="43" t="str">
         <f t="shared" si="52"/>
-        <v>-</v>
-      </c>
-      <c r="R267" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W267" s="33"/>
+        <v/>
+      </c>
+      <c r="W267" s="17"/>
       <c r="X267" s="35" t="str">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AD267" s="33"/>
+        <v>-</v>
+      </c>
+      <c r="Y267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB267" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD267" s="17"/>
       <c r="AE267" s="35" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="AF267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ267" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="AK267" s="18"/>
       <c r="AL267" s="35" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS267" s="33"/>
-    </row>
-    <row r="268" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AS267" s="17"/>
+    </row>
+    <row r="268" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A268" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B268" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16468,9 +16454,9 @@
       </c>
       <c r="AS268" s="33"/>
     </row>
-    <row r="269" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A269" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B269" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16513,9 +16499,9 @@
       </c>
       <c r="AS269" s="33"/>
     </row>
-    <row r="270" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A270" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B270" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16558,22 +16544,40 @@
       </c>
       <c r="AS270" s="33"/>
     </row>
-    <row r="271" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:46" hidden="1" outlineLevel="1">
+      <c r="A271" s="36" t="s">
+        <v>346</v>
+      </c>
       <c r="B271" s="43" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H271" t="s">
+        <v>39</v>
+      </c>
+      <c r="I271" t="s">
+        <v>46</v>
       </c>
       <c r="L271" s="33"/>
       <c r="M271" s="43" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="W271" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="R271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W271" s="33"/>
       <c r="X271" s="35" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="AD271" s="17"/>
+      <c r="AD271" s="33"/>
       <c r="AE271" s="35" t="str">
         <f t="shared" si="53"/>
         <v/>
@@ -16583,179 +16587,160 @@
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS271" s="17"/>
-    </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A272" s="15" t="s">
-        <v>265</v>
-      </c>
+      <c r="AS271" s="33"/>
+    </row>
+    <row r="272" spans="1:46" hidden="1">
       <c r="B272" s="43" t="str">
         <f t="shared" si="51"/>
-        <v>-</v>
-      </c>
-      <c r="C272" s="11"/>
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
-      <c r="F272" s="11"/>
-      <c r="G272" s="33"/>
-      <c r="H272" s="11"/>
-      <c r="I272" s="11"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L272" s="33"/>
       <c r="M272" s="43" t="str">
         <f t="shared" si="52"/>
-        <v>-</v>
-      </c>
-      <c r="N272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="R272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S272" s="32"/>
-      <c r="T272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="V272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="W272" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="W272" s="17"/>
       <c r="X272" s="35" t="str">
         <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-      <c r="Y272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD272" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AD272" s="17"/>
       <c r="AE272" s="35" t="str">
         <f t="shared" si="53"/>
-        <v>-</v>
-      </c>
-      <c r="AF272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK272" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AK272" s="18"/>
       <c r="AL272" s="35" t="str">
         <f t="shared" si="54"/>
-        <v>-</v>
-      </c>
-      <c r="AM272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS272" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT272"/>
-    </row>
-    <row r="273" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="36" t="s">
-        <v>81</v>
+        <v/>
+      </c>
+      <c r="AS272" s="17"/>
+    </row>
+    <row r="273" spans="1:46">
+      <c r="A273" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="B273" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H273" t="s">
-        <v>39</v>
-      </c>
-      <c r="I273" t="s">
-        <v>46</v>
-      </c>
-      <c r="L273" s="33"/>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="33"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="11"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M273" s="43" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="W273" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="N273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S273" s="32"/>
+      <c r="T273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="W273" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X273" s="35" t="str">
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="Y273" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD273" s="17"/>
+      <c r="Y273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD273" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AE273" s="35" t="str">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AK273" s="18"/>
+        <v>-</v>
+      </c>
+      <c r="AF273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK273" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AL273" s="35" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AS273" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="AM273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR273" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS273" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AT273"/>
     </row>
-    <row r="274" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A274" s="36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B274" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16768,10 +16753,10 @@
         <v>3</v>
       </c>
       <c r="H274" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I274" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="L274" s="33"/>
       <c r="M274" s="43" t="str">
@@ -16780,7 +16765,7 @@
       </c>
       <c r="W274" s="17"/>
       <c r="X274" s="35" t="str">
-        <f t="shared" ref="X274:X322" si="55">IF(CONCATENATE(Y274,Z274,AA274,AB274,AC274)="","","-")</f>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y274" s="2" t="s">
@@ -16799,12 +16784,12 @@
       <c r="AS274" s="17"/>
       <c r="AT274"/>
     </row>
-    <row r="275" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A275" s="36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B275" s="43" t="str">
-        <f t="shared" ref="B275:B320" si="56">IF(CONCATENATE(M275,X275,AE275,AL275)="","","-")</f>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -16814,19 +16799,19 @@
         <v>3</v>
       </c>
       <c r="H275" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I275" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="L275" s="33"/>
       <c r="M275" s="43" t="str">
-        <f t="shared" ref="M275:M322" si="57">IF(CONCATENATE(N275,O275,P275,Q275,R275,S275,T275,U275,V275)="","","-")</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W275" s="17"/>
       <c r="X275" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="X275:X323" si="55">IF(CONCATENATE(Y275,Z275,AA275,AB275,AC275)="","","-")</f>
         <v>-</v>
       </c>
       <c r="Y275" s="2" t="s">
@@ -16834,23 +16819,23 @@
       </c>
       <c r="AD275" s="17"/>
       <c r="AE275" s="35" t="str">
-        <f t="shared" ref="AE275:AE322" si="58">IF(CONCATENATE(AF275,AG275,AH275,AI275,AJ275)="","","-")</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK275" s="18"/>
       <c r="AL275" s="35" t="str">
-        <f t="shared" ref="AL275:AL322" si="59">IF(CONCATENATE(AM275,AN275,AO275,AP275,AQ275,AR275)="","","-")</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS275" s="17"/>
       <c r="AT275"/>
     </row>
-    <row r="276" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A276" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B276" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="B276:B321" si="56">IF(CONCATENATE(M276,X276,AE276,AL276)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -16867,7 +16852,7 @@
       </c>
       <c r="L276" s="33"/>
       <c r="M276" s="43" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="M276:M323" si="57">IF(CONCATENATE(N276,O276,P276,Q276,R276,S276,T276,U276,V276)="","","-")</f>
         <v/>
       </c>
       <c r="W276" s="17"/>
@@ -16880,20 +16865,20 @@
       </c>
       <c r="AD276" s="17"/>
       <c r="AE276" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="AE276:AE323" si="58">IF(CONCATENATE(AF276,AG276,AH276,AI276,AJ276)="","","-")</f>
         <v/>
       </c>
       <c r="AK276" s="18"/>
       <c r="AL276" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="AL276:AL323" si="59">IF(CONCATENATE(AM276,AN276,AO276,AP276,AQ276,AR276)="","","-")</f>
         <v/>
       </c>
       <c r="AS276" s="17"/>
       <c r="AT276"/>
     </row>
-    <row r="277" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A277" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B277" s="43" t="str">
         <f t="shared" si="56"/>
@@ -16937,9 +16922,9 @@
       <c r="AS277" s="17"/>
       <c r="AT277"/>
     </row>
-    <row r="278" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A278" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B278" s="43" t="str">
         <f t="shared" si="56"/>
@@ -16983,279 +16968,276 @@
       <c r="AS278" s="17"/>
       <c r="AT278"/>
     </row>
-    <row r="279" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="16"/>
+    <row r="279" spans="1:46" hidden="1" outlineLevel="1">
+      <c r="A279" s="36" t="s">
+        <v>85</v>
+      </c>
       <c r="B279" s="43" t="str">
         <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="F279"/>
-      <c r="G279"/>
-      <c r="I279" s="2"/>
-      <c r="K279" s="2"/>
+        <v>-</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H279" t="s">
+        <v>39</v>
+      </c>
+      <c r="I279" t="s">
+        <v>46</v>
+      </c>
       <c r="L279" s="33"/>
       <c r="M279" s="43" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="N279"/>
-      <c r="O279" s="6"/>
       <c r="W279" s="17"/>
       <c r="X279" s="35" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="Y279"/>
-      <c r="Z279"/>
-      <c r="AA279"/>
-      <c r="AB279" s="8"/>
-      <c r="AC279"/>
-      <c r="AD279" s="19"/>
+        <v>-</v>
+      </c>
+      <c r="Y279" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD279" s="17"/>
       <c r="AE279" s="35" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="AF279"/>
-      <c r="AG279"/>
-      <c r="AH279"/>
-      <c r="AI279"/>
-      <c r="AJ279"/>
       <c r="AK279" s="18"/>
       <c r="AL279" s="35" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="AM279"/>
-      <c r="AN279"/>
-      <c r="AO279"/>
-      <c r="AP279"/>
-      <c r="AQ279"/>
-      <c r="AR279"/>
-      <c r="AS279" s="19"/>
+      <c r="AS279" s="17"/>
       <c r="AT279"/>
     </row>
-    <row r="280" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A280" s="15" t="s">
-        <v>263</v>
-      </c>
+    <row r="280" spans="1:46" hidden="1">
+      <c r="A280" s="16"/>
       <c r="B280" s="43" t="str">
         <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C280" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="D280" s="45"/>
-      <c r="E280" s="45"/>
-      <c r="F280" s="45"/>
-      <c r="G280" s="45"/>
-      <c r="H280" s="45"/>
-      <c r="I280" s="45"/>
+        <v/>
+      </c>
+      <c r="F280"/>
+      <c r="G280"/>
+      <c r="I280" s="2"/>
       <c r="K280" s="2"/>
-      <c r="L280" s="32" t="s">
-        <v>13</v>
-      </c>
+      <c r="L280" s="33"/>
       <c r="M280" s="43" t="str">
         <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="R280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S280" s="32"/>
-      <c r="T280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="V280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="W280" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="N280"/>
+      <c r="O280" s="6"/>
+      <c r="W280" s="17"/>
       <c r="X280" s="35" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD280" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Y280"/>
+      <c r="Z280"/>
+      <c r="AA280"/>
+      <c r="AB280" s="8"/>
+      <c r="AC280"/>
+      <c r="AD280" s="19"/>
       <c r="AE280" s="35" t="str">
         <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK280" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AF280"/>
+      <c r="AG280"/>
+      <c r="AH280"/>
+      <c r="AI280"/>
+      <c r="AJ280"/>
+      <c r="AK280" s="18"/>
       <c r="AL280" s="35" t="str">
         <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR280" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS280" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AM280"/>
+      <c r="AN280"/>
+      <c r="AO280"/>
+      <c r="AP280"/>
+      <c r="AQ280"/>
+      <c r="AR280"/>
+      <c r="AS280" s="19"/>
       <c r="AT280"/>
     </row>
-    <row r="281" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="36" t="s">
+    <row r="281" spans="1:46">
+      <c r="A281" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B281" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="C281" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="D281" s="49"/>
+      <c r="E281" s="49"/>
+      <c r="F281" s="49"/>
+      <c r="G281" s="49"/>
+      <c r="H281" s="49"/>
+      <c r="I281" s="49"/>
+      <c r="K281" s="2"/>
+      <c r="L281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M281" s="43" t="str">
+        <f t="shared" si="57"/>
+        <v>-</v>
+      </c>
+      <c r="N281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S281" s="32"/>
+      <c r="T281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="W281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X281" s="35" t="str">
+        <f t="shared" si="55"/>
+        <v>-</v>
+      </c>
+      <c r="Y281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE281" s="35" t="str">
+        <f t="shared" si="58"/>
+        <v>-</v>
+      </c>
+      <c r="AF281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL281" s="35" t="str">
+        <f t="shared" si="59"/>
+        <v>-</v>
+      </c>
+      <c r="AM281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS281" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT281"/>
+    </row>
+    <row r="282" spans="1:46" hidden="1" outlineLevel="1">
+      <c r="A282" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="B281" s="43" t="str">
-        <f t="shared" ref="B281:B299" si="60">IF(CONCATENATE(M281,X281,AE281,AL281)="","","-")</f>
-        <v>-</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H281" t="s">
-        <v>18</v>
-      </c>
-      <c r="I281" t="s">
-        <v>19</v>
-      </c>
-      <c r="L281" s="33"/>
-      <c r="M281" s="43" t="str">
-        <f t="shared" ref="M281:M288" si="61">IF(CONCATENATE(N281,O281,P281,Q281,R281,S281,T281,U281,V281)="","","-")</f>
-        <v/>
-      </c>
-      <c r="W281" s="33"/>
-      <c r="X281" s="35" t="str">
-        <f t="shared" ref="X281:X288" si="62">IF(CONCATENATE(Y281,Z281,AA281,AB281,AC281)="","","-")</f>
-        <v/>
-      </c>
-      <c r="AD281" s="33"/>
-      <c r="AE281" s="35" t="str">
-        <f t="shared" ref="AE281:AE288" si="63">IF(CONCATENATE(AF281,AG281,AH281,AI281,AJ281)="","","-")</f>
-        <v/>
-      </c>
-      <c r="AK281" s="18"/>
-      <c r="AL281" s="35" t="str">
-        <f t="shared" ref="AL281:AL299" si="64">IF(CONCATENATE(AM281,AN281,AO281,AP281,AQ281,AR281)="","","-")</f>
-        <v>-</v>
-      </c>
-      <c r="AM281" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS281" s="33"/>
-      <c r="AT281"/>
-    </row>
-    <row r="282" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="36" t="s">
-        <v>99</v>
-      </c>
       <c r="B282" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="B282:B300" si="60">IF(CONCATENATE(M282,X282,AE282,AL282)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F282" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="G282" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H282" t="s">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="I282" t="s">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c r="L282" s="33"/>
       <c r="M282" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="M282:M289" si="61">IF(CONCATENATE(N282,O282,P282,Q282,R282,S282,T282,U282,V282)="","","-")</f>
         <v/>
       </c>
       <c r="W282" s="33"/>
       <c r="X282" s="35" t="str">
-        <f t="shared" si="62"/>
-        <v>-</v>
-      </c>
-      <c r="AA282" s="2" t="s">
-        <v>3</v>
+        <f t="shared" ref="X282:X289" si="62">IF(CONCATENATE(Y282,Z282,AA282,AB282,AC282)="","","-")</f>
+        <v/>
       </c>
       <c r="AD282" s="33"/>
       <c r="AE282" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="AE282:AE289" si="63">IF(CONCATENATE(AF282,AG282,AH282,AI282,AJ282)="","","-")</f>
         <v/>
       </c>
       <c r="AK282" s="18"/>
       <c r="AL282" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v/>
+        <f t="shared" ref="AL282:AL300" si="64">IF(CONCATENATE(AM282,AN282,AO282,AP282,AQ282,AR282)="","","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AM282" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AS282" s="33"/>
       <c r="AT282"/>
     </row>
-    <row r="283" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A283" s="36" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="B283" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17264,14 +17246,17 @@
       <c r="C283" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="F283" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="G283" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H283" t="s">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="I283" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="L283" s="33"/>
       <c r="M283" s="43" t="str">
@@ -17281,7 +17266,10 @@
       <c r="W283" s="33"/>
       <c r="X283" s="35" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="AA283" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AD283" s="33"/>
       <c r="AE283" s="35" t="str">
@@ -17291,16 +17279,14 @@
       <c r="AK283" s="18"/>
       <c r="AL283" s="35" t="str">
         <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AM283" s="2" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="AS283" s="33"/>
-    </row>
-    <row r="284" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AT283"/>
+    </row>
+    <row r="284" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A284" s="36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B284" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17343,9 +17329,9 @@
       </c>
       <c r="AS284" s="33"/>
     </row>
-    <row r="285" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A285" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B285" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17388,9 +17374,9 @@
       </c>
       <c r="AS285" s="33"/>
     </row>
-    <row r="286" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A286" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B286" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17413,12 +17399,12 @@
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="W286" s="17"/>
+      <c r="W286" s="33"/>
       <c r="X286" s="35" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
-      <c r="AD286" s="17"/>
+      <c r="AD286" s="33"/>
       <c r="AE286" s="35" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -17431,11 +17417,11 @@
       <c r="AM286" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS286" s="17"/>
-    </row>
-    <row r="287" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AS286" s="33"/>
+    </row>
+    <row r="287" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A287" s="36" t="s">
-        <v>531</v>
+        <v>193</v>
       </c>
       <c r="B287" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17448,22 +17434,22 @@
         <v>3</v>
       </c>
       <c r="H287" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I287" t="s">
-        <v>530</v>
-      </c>
-      <c r="L287" s="34"/>
+        <v>195</v>
+      </c>
+      <c r="L287" s="33"/>
       <c r="M287" s="43" t="str">
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="W287" s="34"/>
+      <c r="W287" s="17"/>
       <c r="X287" s="35" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
-      <c r="AD287" s="34"/>
+      <c r="AD287" s="17"/>
       <c r="AE287" s="35" t="str">
         <f t="shared" si="63"/>
         <v/>
@@ -17473,14 +17459,14 @@
         <f t="shared" si="64"/>
         <v>-</v>
       </c>
-      <c r="AN287" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS287" s="34"/>
-    </row>
-    <row r="288" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AM287" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS287" s="17"/>
+    </row>
+    <row r="288" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A288" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B288" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17523,9 +17509,9 @@
       </c>
       <c r="AS288" s="34"/>
     </row>
-    <row r="289" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A289" s="36" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="B289" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17538,31 +17524,39 @@
         <v>3</v>
       </c>
       <c r="H289" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I289" t="s">
-        <v>510</v>
-      </c>
-      <c r="L289" s="33"/>
-      <c r="M289" s="43"/>
-      <c r="W289" s="33"/>
-      <c r="X289" s="35"/>
-      <c r="AD289" s="33"/>
-      <c r="AE289" s="35"/>
+        <v>530</v>
+      </c>
+      <c r="L289" s="34"/>
+      <c r="M289" s="43" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="W289" s="34"/>
+      <c r="X289" s="35" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="AD289" s="34"/>
+      <c r="AE289" s="35" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
       <c r="AK289" s="18"/>
       <c r="AL289" s="35" t="str">
         <f t="shared" si="64"/>
         <v>-</v>
       </c>
-      <c r="AO289" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS289" s="33"/>
-      <c r="AT289"/>
-    </row>
-    <row r="290" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AN289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS289" s="34"/>
+    </row>
+    <row r="290" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A290" s="36" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B290" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17572,7 +17566,7 @@
         <v>231</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="H290" t="s">
         <v>45</v>
@@ -17582,24 +17576,24 @@
       </c>
       <c r="L290" s="33"/>
       <c r="M290" s="43"/>
-      <c r="W290" s="17"/>
+      <c r="W290" s="33"/>
       <c r="X290" s="35"/>
-      <c r="AD290" s="17"/>
+      <c r="AD290" s="33"/>
       <c r="AE290" s="35"/>
       <c r="AK290" s="18"/>
       <c r="AL290" s="35" t="str">
         <f t="shared" si="64"/>
         <v>-</v>
       </c>
-      <c r="AN290" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS290" s="17"/>
+      <c r="AO290" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS290" s="33"/>
       <c r="AT290"/>
     </row>
-    <row r="291" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A291" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B291" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17609,13 +17603,13 @@
         <v>231</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>3</v>
+        <v>508</v>
       </c>
       <c r="H291" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I291" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L291" s="33"/>
       <c r="M291" s="43"/>
@@ -17631,15 +17625,12 @@
       <c r="AN291" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AO291" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AS291" s="17"/>
       <c r="AT291"/>
     </row>
-    <row r="292" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A292" s="36" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B292" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17657,26 +17648,29 @@
       <c r="I292" t="s">
         <v>507</v>
       </c>
-      <c r="L292" s="34"/>
+      <c r="L292" s="33"/>
       <c r="M292" s="43"/>
-      <c r="W292" s="34"/>
+      <c r="W292" s="17"/>
       <c r="X292" s="35"/>
-      <c r="AD292" s="34"/>
+      <c r="AD292" s="17"/>
       <c r="AE292" s="35"/>
       <c r="AK292" s="18"/>
       <c r="AL292" s="35" t="str">
         <f t="shared" si="64"/>
         <v>-</v>
       </c>
+      <c r="AN292" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="AO292" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS292" s="34"/>
+      <c r="AS292" s="17"/>
       <c r="AT292"/>
     </row>
-    <row r="293" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A293" s="36" t="s">
-        <v>250</v>
+        <v>523</v>
       </c>
       <c r="B293" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17688,43 +17682,32 @@
       <c r="G293" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H293" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="I293" s="14" t="s">
-        <v>249</v>
+      <c r="H293" t="s">
+        <v>39</v>
+      </c>
+      <c r="I293" t="s">
+        <v>507</v>
       </c>
       <c r="L293" s="34"/>
-      <c r="M293" s="43" t="str">
-        <f>IF(CONCATENATE(N293,O293,P293,Q293,R293,S293,T293,U293,V293)="","","-")</f>
-        <v/>
-      </c>
+      <c r="M293" s="43"/>
       <c r="W293" s="34"/>
-      <c r="X293" s="35" t="str">
-        <f>IF(CONCATENATE(Y293,Z293,AA293,AB293,AC293)="","","-")</f>
-        <v/>
-      </c>
+      <c r="X293" s="35"/>
       <c r="AD293" s="34"/>
-      <c r="AE293" s="35" t="str">
-        <f>IF(CONCATENATE(AF293,AG293,AH293,AI293,AJ293)="","","-")</f>
-        <v/>
-      </c>
+      <c r="AE293" s="35"/>
       <c r="AK293" s="18"/>
       <c r="AL293" s="35" t="str">
         <f t="shared" si="64"/>
         <v>-</v>
       </c>
-      <c r="AP293" s="2" t="s">
+      <c r="AO293" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AS293" s="34"/>
-      <c r="AT293" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="294" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AT293"/>
+    </row>
+    <row r="294" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A294" s="36" t="s">
-        <v>524</v>
+        <v>250</v>
       </c>
       <c r="B294" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17736,35 +17719,43 @@
       <c r="G294" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H294" t="s">
-        <v>18</v>
-      </c>
-      <c r="I294" t="s">
-        <v>19</v>
-      </c>
-      <c r="L294" s="33"/>
-      <c r="M294" s="43"/>
-      <c r="W294" s="17"/>
-      <c r="X294" s="35"/>
-      <c r="AD294" s="17"/>
-      <c r="AE294" s="35"/>
+      <c r="H294" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="I294" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="L294" s="34"/>
+      <c r="M294" s="43" t="str">
+        <f>IF(CONCATENATE(N294,O294,P294,Q294,R294,S294,T294,U294,V294)="","","-")</f>
+        <v/>
+      </c>
+      <c r="W294" s="34"/>
+      <c r="X294" s="35" t="str">
+        <f>IF(CONCATENATE(Y294,Z294,AA294,AB294,AC294)="","","-")</f>
+        <v/>
+      </c>
+      <c r="AD294" s="34"/>
+      <c r="AE294" s="35" t="str">
+        <f>IF(CONCATENATE(AF294,AG294,AH294,AI294,AJ294)="","","-")</f>
+        <v/>
+      </c>
       <c r="AK294" s="18"/>
       <c r="AL294" s="35" t="str">
         <f t="shared" si="64"/>
         <v>-</v>
       </c>
-      <c r="AN294" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO294" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS294" s="17"/>
-      <c r="AT294"/>
-    </row>
-    <row r="295" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AP294" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS294" s="34"/>
+      <c r="AT294" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="295" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A295" s="36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B295" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17802,9 +17793,9 @@
       <c r="AS295" s="17"/>
       <c r="AT295"/>
     </row>
-    <row r="296" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A296" s="36" t="s">
-        <v>89</v>
+        <v>525</v>
       </c>
       <c r="B296" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17823,33 +17814,28 @@
         <v>19</v>
       </c>
       <c r="L296" s="33"/>
-      <c r="M296" s="43" t="str">
-        <f>IF(CONCATENATE(N296,O296,P296,Q296,R296,S296,T296,U296,V296)="","","-")</f>
-        <v/>
-      </c>
-      <c r="W296" s="33"/>
-      <c r="X296" s="35" t="str">
-        <f>IF(CONCATENATE(Y296,Z296,AA296,AB296,AC296)="","","-")</f>
-        <v/>
-      </c>
-      <c r="AD296" s="33"/>
-      <c r="AE296" s="35" t="str">
-        <f>IF(CONCATENATE(AF296,AG296,AH296,AI296,AJ296)="","","-")</f>
-        <v/>
-      </c>
+      <c r="M296" s="43"/>
+      <c r="W296" s="17"/>
+      <c r="X296" s="35"/>
+      <c r="AD296" s="17"/>
+      <c r="AE296" s="35"/>
       <c r="AK296" s="18"/>
       <c r="AL296" s="35" t="str">
         <f t="shared" si="64"/>
         <v>-</v>
       </c>
-      <c r="AM296" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS296" s="33"/>
-    </row>
-    <row r="297" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AN296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS296" s="17"/>
+      <c r="AT296"/>
+    </row>
+    <row r="297" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A297" s="36" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="B297" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17872,12 +17858,12 @@
         <f>IF(CONCATENATE(N297,O297,P297,Q297,R297,S297,T297,U297,V297)="","","-")</f>
         <v/>
       </c>
-      <c r="W297" s="17"/>
+      <c r="W297" s="33"/>
       <c r="X297" s="35" t="str">
         <f>IF(CONCATENATE(Y297,Z297,AA297,AB297,AC297)="","","-")</f>
         <v/>
       </c>
-      <c r="AD297" s="17"/>
+      <c r="AD297" s="33"/>
       <c r="AE297" s="35" t="str">
         <f>IF(CONCATENATE(AF297,AG297,AH297,AI297,AJ297)="","","-")</f>
         <v/>
@@ -17890,11 +17876,11 @@
       <c r="AM297" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS297" s="17"/>
-    </row>
-    <row r="298" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AS297" s="33"/>
+    </row>
+    <row r="298" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A298" s="36" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="B298" s="43" t="str">
         <f t="shared" si="60"/>
@@ -17903,32 +17889,26 @@
       <c r="C298" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F298" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="G298" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H298" t="s">
-        <v>336</v>
+        <v>18</v>
       </c>
       <c r="I298" t="s">
-        <v>337</v>
-      </c>
-      <c r="L298" s="34"/>
+        <v>19</v>
+      </c>
+      <c r="L298" s="33"/>
       <c r="M298" s="43" t="str">
         <f>IF(CONCATENATE(N298,O298,P298,Q298,R298,S298,T298,U298,V298)="","","-")</f>
         <v/>
       </c>
-      <c r="W298" s="34"/>
+      <c r="W298" s="17"/>
       <c r="X298" s="35" t="str">
         <f>IF(CONCATENATE(Y298,Z298,AA298,AB298,AC298)="","","-")</f>
-        <v>-</v>
-      </c>
-      <c r="AA298" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD298" s="34"/>
+        <v/>
+      </c>
+      <c r="AD298" s="17"/>
       <c r="AE298" s="35" t="str">
         <f>IF(CONCATENATE(AF298,AG298,AH298,AI298,AJ298)="","","-")</f>
         <v/>
@@ -17936,12 +17916,17 @@
       <c r="AK298" s="18"/>
       <c r="AL298" s="35" t="str">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="AS298" s="34"/>
-    </row>
-    <row r="299" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="36"/>
+        <v>-</v>
+      </c>
+      <c r="AM298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS298" s="17"/>
+    </row>
+    <row r="299" spans="1:46" hidden="1" outlineLevel="1">
+      <c r="A299" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="B299" s="43" t="str">
         <f t="shared" si="60"/>
         <v>-</v>
@@ -17949,254 +17934,258 @@
       <c r="C299" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="F299" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="G299" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H299" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="I299" t="s">
-        <v>507</v>
-      </c>
-      <c r="L299" s="33"/>
-      <c r="M299" s="43"/>
-      <c r="W299" s="17"/>
-      <c r="X299" s="35"/>
-      <c r="AD299" s="17"/>
-      <c r="AE299" s="35"/>
+        <v>337</v>
+      </c>
+      <c r="L299" s="34"/>
+      <c r="M299" s="43" t="str">
+        <f>IF(CONCATENATE(N299,O299,P299,Q299,R299,S299,T299,U299,V299)="","","-")</f>
+        <v/>
+      </c>
+      <c r="W299" s="34"/>
+      <c r="X299" s="35" t="str">
+        <f>IF(CONCATENATE(Y299,Z299,AA299,AB299,AC299)="","","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AA299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD299" s="34"/>
+      <c r="AE299" s="35" t="str">
+        <f>IF(CONCATENATE(AF299,AG299,AH299,AI299,AJ299)="","","-")</f>
+        <v/>
+      </c>
       <c r="AK299" s="18"/>
       <c r="AL299" s="35" t="str">
         <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AN299" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO299" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS299" s="17"/>
-      <c r="AT299"/>
-    </row>
-    <row r="300" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="16"/>
+        <v/>
+      </c>
+      <c r="AS299" s="34"/>
+    </row>
+    <row r="300" spans="1:46" hidden="1" outlineLevel="1">
+      <c r="A300" s="36"/>
       <c r="B300" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="F300"/>
-      <c r="G300"/>
-      <c r="I300" s="2"/>
-      <c r="K300" s="2"/>
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H300" t="s">
+        <v>39</v>
+      </c>
+      <c r="I300" t="s">
+        <v>507</v>
+      </c>
       <c r="L300" s="33"/>
-      <c r="M300" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="N300"/>
-      <c r="O300" s="6"/>
+      <c r="M300" s="43"/>
       <c r="W300" s="17"/>
-      <c r="X300" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="Y300"/>
-      <c r="Z300"/>
-      <c r="AA300"/>
-      <c r="AB300" s="8"/>
-      <c r="AC300"/>
-      <c r="AD300" s="19"/>
-      <c r="AE300" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF300"/>
-      <c r="AG300"/>
-      <c r="AH300"/>
-      <c r="AI300"/>
-      <c r="AJ300"/>
+      <c r="X300" s="35"/>
+      <c r="AD300" s="17"/>
+      <c r="AE300" s="35"/>
       <c r="AK300" s="18"/>
       <c r="AL300" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AM300"/>
-      <c r="AN300"/>
-      <c r="AO300"/>
-      <c r="AP300"/>
-      <c r="AQ300"/>
-      <c r="AR300"/>
-      <c r="AS300" s="19"/>
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AN300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS300" s="17"/>
       <c r="AT300"/>
     </row>
-    <row r="301" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A301" s="15" t="s">
-        <v>260</v>
-      </c>
+    <row r="301" spans="1:46" hidden="1">
+      <c r="A301" s="16"/>
       <c r="B301" s="43" t="str">
         <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C301" s="11"/>
-      <c r="D301" s="11"/>
-      <c r="E301" s="11"/>
-      <c r="F301" s="11"/>
-      <c r="G301" s="33"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="11"/>
-      <c r="J301" s="21"/>
-      <c r="K301" s="13"/>
-      <c r="L301" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F301"/>
+      <c r="G301"/>
+      <c r="I301" s="2"/>
+      <c r="K301" s="2"/>
+      <c r="L301" s="33"/>
       <c r="M301" s="43" t="str">
         <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="R301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S301" s="32"/>
-      <c r="T301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="V301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="W301" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="N301"/>
+      <c r="O301" s="6"/>
+      <c r="W301" s="17"/>
       <c r="X301" s="35" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD301" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Y301"/>
+      <c r="Z301"/>
+      <c r="AA301"/>
+      <c r="AB301" s="8"/>
+      <c r="AC301"/>
+      <c r="AD301" s="19"/>
       <c r="AE301" s="35" t="str">
         <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK301" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AF301"/>
+      <c r="AG301"/>
+      <c r="AH301"/>
+      <c r="AI301"/>
+      <c r="AJ301"/>
+      <c r="AK301" s="18"/>
       <c r="AL301" s="35" t="str">
         <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR301" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS301" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AM301"/>
+      <c r="AN301"/>
+      <c r="AO301"/>
+      <c r="AP301"/>
+      <c r="AQ301"/>
+      <c r="AR301"/>
+      <c r="AS301" s="19"/>
       <c r="AT301"/>
     </row>
-    <row r="302" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="36" t="s">
-        <v>251</v>
+    <row r="302" spans="1:46">
+      <c r="A302" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="B302" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H302" t="s">
-        <v>21</v>
-      </c>
-      <c r="L302" s="18"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+      <c r="G302" s="33"/>
+      <c r="H302" s="11"/>
+      <c r="I302" s="11"/>
+      <c r="J302" s="21"/>
+      <c r="K302" s="13"/>
+      <c r="L302" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M302" s="43" t="str">
         <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="W302" s="18"/>
+        <v>-</v>
+      </c>
+      <c r="N302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S302" s="32"/>
+      <c r="T302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="W302" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X302" s="35" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AD302" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="Y302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD302" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AE302" s="35" t="str">
         <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AK302" s="18"/>
+        <v>-</v>
+      </c>
+      <c r="AF302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK302" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AL302" s="35" t="str">
         <f t="shared" si="59"/>
         <v>-</v>
       </c>
-      <c r="AP302" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS302" s="17"/>
-    </row>
-    <row r="303" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AM302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS302" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT302"/>
+    </row>
+    <row r="303" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A303" s="36" t="s">
-        <v>467</v>
+        <v>251</v>
       </c>
       <c r="B303" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18205,23 +18194,23 @@
       <c r="C303" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="G303" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H303" t="s">
-        <v>439</v>
+        <v>21</v>
       </c>
       <c r="L303" s="18"/>
       <c r="M303" s="43" t="str">
         <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="V303" s="2" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="W303" s="18"/>
       <c r="X303" s="35" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="AD303" s="33"/>
+      <c r="AD303" s="17"/>
       <c r="AE303" s="35" t="str">
         <f t="shared" si="58"/>
         <v/>
@@ -18229,16 +18218,16 @@
       <c r="AK303" s="18"/>
       <c r="AL303" s="35" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS303" s="33"/>
-      <c r="AT303" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="304" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>-</v>
+      </c>
+      <c r="AP303" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS303" s="17"/>
+    </row>
+    <row r="304" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A304" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B304" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18255,10 +18244,7 @@
         <f t="shared" si="57"/>
         <v>-</v>
       </c>
-      <c r="T304" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U304" s="2" t="s">
+      <c r="V304" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W304" s="18"/>
@@ -18278,12 +18264,12 @@
       </c>
       <c r="AS304" s="33"/>
       <c r="AT304" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="305" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="305" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A305" s="36" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="B305" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18293,20 +18279,20 @@
         <v>231</v>
       </c>
       <c r="H305" t="s">
-        <v>39</v>
-      </c>
-      <c r="I305" t="s">
-        <v>122</v>
-      </c>
-      <c r="L305" s="33"/>
+        <v>439</v>
+      </c>
+      <c r="L305" s="18"/>
       <c r="M305" s="43" t="str">
         <f t="shared" si="57"/>
         <v>-</v>
       </c>
+      <c r="T305" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="U305" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W305" s="33"/>
+      <c r="W305" s="18"/>
       <c r="X305" s="35" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -18316,15 +18302,17 @@
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="AG305" s="9"/>
       <c r="AK305" s="18"/>
       <c r="AL305" s="35" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS305" s="33"/>
-    </row>
-    <row r="306" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AT305" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="306" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A306" s="36" t="s">
         <v>371</v>
       </c>
@@ -18336,22 +18324,25 @@
         <v>231</v>
       </c>
       <c r="H306" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="I306" t="s">
-        <v>338</v>
+        <v>122</v>
       </c>
       <c r="L306" s="33"/>
       <c r="M306" s="43" t="str">
         <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="W306" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="U306" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W306" s="33"/>
       <c r="X306" s="35" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="AD306" s="17"/>
+      <c r="AD306" s="33"/>
       <c r="AE306" s="35" t="str">
         <f t="shared" si="58"/>
         <v/>
@@ -18360,16 +18351,13 @@
       <c r="AK306" s="18"/>
       <c r="AL306" s="35" t="str">
         <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM306" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS306" s="17"/>
-    </row>
-    <row r="307" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="AS306" s="33"/>
+    </row>
+    <row r="307" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A307" s="36" t="s">
-        <v>87</v>
+        <v>371</v>
       </c>
       <c r="B307" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18379,65 +18367,27 @@
         <v>231</v>
       </c>
       <c r="H307" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I307" t="s">
-        <v>19</v>
-      </c>
-      <c r="J307" s="6" t="s">
-        <v>88</v>
+        <v>338</v>
       </c>
       <c r="L307" s="33"/>
       <c r="M307" s="43" t="str">
         <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W307" s="33"/>
+        <v/>
+      </c>
+      <c r="W307" s="17"/>
       <c r="X307" s="35" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB307" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD307" s="33"/>
+        <v/>
+      </c>
+      <c r="AD307" s="17"/>
       <c r="AE307" s="35" t="str">
         <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG307" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI307" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ307" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AG307" s="9"/>
       <c r="AK307" s="18"/>
       <c r="AL307" s="35" t="str">
         <f t="shared" si="59"/>
@@ -18446,9 +18396,9 @@
       <c r="AM307" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS307" s="33"/>
-    </row>
-    <row r="308" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AS307" s="17"/>
+    </row>
+    <row r="308" spans="1:46" outlineLevel="1">
       <c r="A308" s="36" t="s">
         <v>87</v>
       </c>
@@ -18460,27 +18410,65 @@
         <v>231</v>
       </c>
       <c r="H308" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I308" t="s">
-        <v>338</v>
+        <v>19</v>
+      </c>
+      <c r="J308" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="L308" s="33"/>
       <c r="M308" s="43" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="N308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P308" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="W308" s="33"/>
       <c r="X308" s="35" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="Y308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB308" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC308" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AD308" s="33"/>
       <c r="AE308" s="35" t="str">
         <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AG308" s="9"/>
+        <v>-</v>
+      </c>
+      <c r="AF308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG308" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ308" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="AK308" s="18"/>
       <c r="AL308" s="35" t="str">
         <f t="shared" si="59"/>
@@ -18491,7 +18479,7 @@
       </c>
       <c r="AS308" s="33"/>
     </row>
-    <row r="309" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A309" s="36" t="s">
         <v>87</v>
       </c>
@@ -18503,61 +18491,40 @@
         <v>231</v>
       </c>
       <c r="H309" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="I309" t="s">
-        <v>46</v>
+        <v>338</v>
       </c>
       <c r="L309" s="33"/>
       <c r="M309" s="43" t="str">
         <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="P309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W309" s="17"/>
+        <v/>
+      </c>
+      <c r="W309" s="33"/>
       <c r="X309" s="35" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB309" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC309" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD309" s="17"/>
+        <v/>
+      </c>
+      <c r="AD309" s="33"/>
       <c r="AE309" s="35" t="str">
         <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF309" s="2" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="AG309" s="9"/>
-      <c r="AH309" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AK309" s="18"/>
       <c r="AL309" s="35" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS309" s="17"/>
-    </row>
-    <row r="310" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>-</v>
+      </c>
+      <c r="AM309" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS309" s="33"/>
+    </row>
+    <row r="310" spans="1:46" outlineLevel="1">
       <c r="A310" s="36" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="B310" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18567,42 +18534,61 @@
         <v>231</v>
       </c>
       <c r="H310" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I310" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L310" s="33"/>
       <c r="M310" s="43" t="str">
         <f t="shared" si="57"/>
         <v>-</v>
       </c>
-      <c r="R310" s="2" t="s">
+      <c r="P310" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W310" s="17"/>
       <c r="X310" s="35" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="Y310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB310" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC310" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="AD310" s="17"/>
       <c r="AE310" s="35" t="str">
         <f t="shared" si="58"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="AF310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG310" s="9"/>
+      <c r="AH310" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AK310" s="18"/>
       <c r="AL310" s="35" t="str">
         <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AP310" s="2" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="AS310" s="17"/>
     </row>
-    <row r="311" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A311" s="36" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="B311" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18612,10 +18598,10 @@
         <v>231</v>
       </c>
       <c r="H311" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I311" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L311" s="33"/>
       <c r="M311" s="43" t="str">
@@ -18625,12 +18611,12 @@
       <c r="R311" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W311" s="33"/>
+      <c r="W311" s="17"/>
       <c r="X311" s="35" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="AD311" s="33"/>
+      <c r="AD311" s="17"/>
       <c r="AE311" s="35" t="str">
         <f t="shared" si="58"/>
         <v/>
@@ -18638,13 +18624,16 @@
       <c r="AK311" s="18"/>
       <c r="AL311" s="35" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS311" s="33"/>
-    </row>
-    <row r="312" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>-</v>
+      </c>
+      <c r="AP311" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS311" s="17"/>
+    </row>
+    <row r="312" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A312" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B312" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18684,9 +18673,9 @@
       </c>
       <c r="AS312" s="33"/>
     </row>
-    <row r="313" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A313" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B313" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18726,9 +18715,9 @@
       </c>
       <c r="AS313" s="33"/>
     </row>
-    <row r="314" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A314" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B314" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18768,218 +18757,215 @@
       </c>
       <c r="AS314" s="33"/>
     </row>
-    <row r="315" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="16"/>
+    <row r="315" spans="1:46" hidden="1" outlineLevel="1">
+      <c r="A315" s="36" t="s">
+        <v>342</v>
+      </c>
       <c r="B315" s="43" t="str">
         <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="F315"/>
-      <c r="G315"/>
-      <c r="I315" s="2"/>
-      <c r="K315" s="2"/>
+        <v>-</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H315" t="s">
+        <v>39</v>
+      </c>
+      <c r="I315" t="s">
+        <v>46</v>
+      </c>
       <c r="L315" s="33"/>
       <c r="M315" s="43" t="str">
         <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="N315"/>
-      <c r="O315" s="6"/>
-      <c r="W315" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="R315" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W315" s="33"/>
       <c r="X315" s="35" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="Y315"/>
-      <c r="Z315"/>
-      <c r="AA315"/>
-      <c r="AB315" s="8"/>
-      <c r="AC315"/>
-      <c r="AD315" s="19"/>
+      <c r="AD315" s="33"/>
       <c r="AE315" s="35" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="AF315"/>
-      <c r="AG315"/>
-      <c r="AH315"/>
-      <c r="AI315"/>
-      <c r="AJ315"/>
       <c r="AK315" s="18"/>
       <c r="AL315" s="35" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="AM315"/>
-      <c r="AN315"/>
-      <c r="AO315"/>
-      <c r="AP315"/>
-      <c r="AQ315"/>
-      <c r="AR315"/>
-      <c r="AS315" s="19"/>
-      <c r="AT315"/>
-    </row>
-    <row r="316" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A316" s="15" t="s">
-        <v>267</v>
-      </c>
+      <c r="AS315" s="33"/>
+    </row>
+    <row r="316" spans="1:46" hidden="1">
+      <c r="A316" s="16"/>
       <c r="B316" s="43" t="str">
         <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C316" s="11"/>
-      <c r="D316" s="11"/>
-      <c r="E316" s="11"/>
-      <c r="F316" s="11"/>
-      <c r="G316" s="33"/>
-      <c r="H316" s="11"/>
-      <c r="I316" s="11"/>
-      <c r="J316" s="21"/>
-      <c r="K316" s="13"/>
-      <c r="L316" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F316"/>
+      <c r="G316"/>
+      <c r="I316" s="2"/>
+      <c r="K316" s="2"/>
+      <c r="L316" s="33"/>
       <c r="M316" s="43" t="str">
         <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q316" s="32"/>
-      <c r="R316" s="32"/>
-      <c r="S316" s="32"/>
-      <c r="T316" s="32"/>
-      <c r="U316" s="32"/>
-      <c r="V316" s="32"/>
-      <c r="W316" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="N316"/>
+      <c r="O316" s="6"/>
+      <c r="W316" s="17"/>
       <c r="X316" s="35" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD316" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Y316"/>
+      <c r="Z316"/>
+      <c r="AA316"/>
+      <c r="AB316" s="8"/>
+      <c r="AC316"/>
+      <c r="AD316" s="19"/>
       <c r="AE316" s="35" t="str">
         <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK316" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AF316"/>
+      <c r="AG316"/>
+      <c r="AH316"/>
+      <c r="AI316"/>
+      <c r="AJ316"/>
+      <c r="AK316" s="18"/>
       <c r="AL316" s="35" t="str">
         <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR316" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS316" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AM316"/>
+      <c r="AN316"/>
+      <c r="AO316"/>
+      <c r="AP316"/>
+      <c r="AQ316"/>
+      <c r="AR316"/>
+      <c r="AS316" s="19"/>
       <c r="AT316"/>
     </row>
-    <row r="317" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="36" t="s">
-        <v>252</v>
+    <row r="317" spans="1:46">
+      <c r="A317" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="B317" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H317" t="s">
-        <v>253</v>
-      </c>
-      <c r="I317" t="s">
-        <v>254</v>
-      </c>
-      <c r="L317" s="33"/>
+      <c r="C317" s="11"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
+      <c r="F317" s="11"/>
+      <c r="G317" s="33"/>
+      <c r="H317" s="11"/>
+      <c r="I317" s="11"/>
+      <c r="J317" s="21"/>
+      <c r="K317" s="13"/>
+      <c r="L317" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M317" s="43" t="str">
         <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="W317" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="N317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q317" s="32"/>
+      <c r="R317" s="32"/>
+      <c r="S317" s="32"/>
+      <c r="T317" s="32"/>
+      <c r="U317" s="32"/>
+      <c r="V317" s="32"/>
+      <c r="W317" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X317" s="35" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AD317" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="Y317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD317" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AE317" s="35" t="str">
         <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AK317" s="18"/>
+        <v>-</v>
+      </c>
+      <c r="AF317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK317" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AL317" s="35" t="str">
         <f t="shared" si="59"/>
         <v>-</v>
       </c>
-      <c r="AP317" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS317" s="17"/>
-      <c r="AT317" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="318" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AM317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS317" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT317"/>
+    </row>
+    <row r="318" spans="1:46" hidden="1" outlineLevel="1">
       <c r="A318" s="36" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B318" s="43" t="str">
         <f t="shared" si="56"/>
@@ -18989,22 +18975,22 @@
         <v>231</v>
       </c>
       <c r="H318" t="s">
-        <v>288</v>
+        <v>253</v>
+      </c>
+      <c r="I318" t="s">
+        <v>254</v>
       </c>
       <c r="L318" s="33"/>
       <c r="M318" s="43" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="W318" s="33"/>
+      <c r="W318" s="17"/>
       <c r="X318" s="35" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="AA318" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD318" s="33"/>
+        <v/>
+      </c>
+      <c r="AD318" s="17"/>
       <c r="AE318" s="35" t="str">
         <f t="shared" si="58"/>
         <v/>
@@ -19012,318 +18998,363 @@
       <c r="AK318" s="18"/>
       <c r="AL318" s="35" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS318" s="33"/>
-      <c r="AT318" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="319" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="16"/>
+        <v>-</v>
+      </c>
+      <c r="AP318" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS318" s="17"/>
+      <c r="AT318" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="319" spans="1:46" hidden="1" outlineLevel="1">
+      <c r="A319" s="36" t="s">
+        <v>287</v>
+      </c>
       <c r="B319" s="43" t="str">
         <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="F319"/>
-      <c r="G319"/>
-      <c r="I319" s="2"/>
-      <c r="K319" s="2"/>
+        <v>-</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H319" t="s">
+        <v>288</v>
+      </c>
       <c r="L319" s="33"/>
       <c r="M319" s="43" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="N319"/>
-      <c r="O319" s="6"/>
-      <c r="W319" s="17"/>
+      <c r="W319" s="33"/>
       <c r="X319" s="35" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="Y319"/>
-      <c r="Z319"/>
-      <c r="AA319"/>
-      <c r="AB319" s="8"/>
-      <c r="AC319"/>
-      <c r="AD319" s="19"/>
+        <v>-</v>
+      </c>
+      <c r="AA319" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD319" s="33"/>
       <c r="AE319" s="35" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="AF319"/>
-      <c r="AG319"/>
-      <c r="AH319"/>
-      <c r="AI319"/>
-      <c r="AJ319"/>
       <c r="AK319" s="18"/>
       <c r="AL319" s="35" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="AM319"/>
-      <c r="AN319"/>
-      <c r="AO319"/>
-      <c r="AP319"/>
-      <c r="AQ319"/>
-      <c r="AR319"/>
-      <c r="AS319" s="19"/>
-      <c r="AT319"/>
-    </row>
-    <row r="320" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A320" s="15" t="s">
-        <v>268</v>
-      </c>
+      <c r="AS319" s="33"/>
+      <c r="AT319" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="320" spans="1:46" hidden="1">
+      <c r="A320" s="16"/>
       <c r="B320" s="43" t="str">
         <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C320" s="11"/>
-      <c r="D320" s="11"/>
-      <c r="E320" s="11"/>
-      <c r="F320" s="11"/>
-      <c r="G320" s="33"/>
-      <c r="H320" s="11"/>
-      <c r="I320" s="11"/>
-      <c r="J320" s="21"/>
-      <c r="K320" s="13"/>
-      <c r="L320" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F320"/>
+      <c r="G320"/>
+      <c r="I320" s="2"/>
+      <c r="K320" s="2"/>
+      <c r="L320" s="33"/>
       <c r="M320" s="43" t="str">
         <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q320" s="32"/>
-      <c r="R320" s="32"/>
-      <c r="S320" s="32"/>
-      <c r="T320" s="32"/>
-      <c r="U320" s="32"/>
-      <c r="V320" s="32"/>
-      <c r="W320" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="N320"/>
+      <c r="O320" s="6"/>
+      <c r="W320" s="17"/>
       <c r="X320" s="35" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD320" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Y320"/>
+      <c r="Z320"/>
+      <c r="AA320"/>
+      <c r="AB320" s="8"/>
+      <c r="AC320"/>
+      <c r="AD320" s="19"/>
       <c r="AE320" s="35" t="str">
         <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK320" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AF320"/>
+      <c r="AG320"/>
+      <c r="AH320"/>
+      <c r="AI320"/>
+      <c r="AJ320"/>
+      <c r="AK320" s="18"/>
       <c r="AL320" s="35" t="str">
         <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR320" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS320" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AM320"/>
+      <c r="AN320"/>
+      <c r="AO320"/>
+      <c r="AP320"/>
+      <c r="AQ320"/>
+      <c r="AR320"/>
+      <c r="AS320" s="19"/>
       <c r="AT320"/>
     </row>
-    <row r="321" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="L321" s="33"/>
+    <row r="321" spans="1:46">
+      <c r="A321" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B321" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="C321" s="11"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
+      <c r="F321" s="11"/>
+      <c r="G321" s="33"/>
+      <c r="H321" s="11"/>
+      <c r="I321" s="11"/>
+      <c r="J321" s="21"/>
+      <c r="K321" s="13"/>
+      <c r="L321" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M321" s="43" t="str">
         <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="W321" s="23"/>
+        <v>-</v>
+      </c>
+      <c r="N321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q321" s="32"/>
+      <c r="R321" s="32"/>
+      <c r="S321" s="32"/>
+      <c r="T321" s="32"/>
+      <c r="U321" s="32"/>
+      <c r="V321" s="32"/>
+      <c r="W321" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X321" s="35" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AD321" s="23"/>
+        <v>-</v>
+      </c>
+      <c r="Y321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD321" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AE321" s="35" t="str">
         <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AK321" s="18"/>
+        <v>-</v>
+      </c>
+      <c r="AF321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK321" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AL321" s="35" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS321" s="23"/>
+        <v>-</v>
+      </c>
+      <c r="AM321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR321" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS321" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AT321"/>
     </row>
-    <row r="322" spans="1:46" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="L322" s="32" t="s">
-        <v>13</v>
-      </c>
+    <row r="322" spans="1:46" hidden="1" outlineLevel="1">
+      <c r="L322" s="33"/>
       <c r="M322" s="43" t="str">
         <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="R322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="T322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="V322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="W322" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="W322" s="23"/>
       <c r="X322" s="35" t="str">
         <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD322" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AD322" s="23"/>
       <c r="AE322" s="35" t="str">
         <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK322" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AK322" s="18"/>
       <c r="AL322" s="35" t="str">
         <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS322" s="32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="323" spans="1:46" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="324" spans="1:46" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+        <v/>
+      </c>
+      <c r="AS322" s="23"/>
+      <c r="AT322"/>
+    </row>
+    <row r="323" spans="1:46" collapsed="1">
+      <c r="L323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M323" s="43" t="str">
+        <f t="shared" si="57"/>
+        <v>-</v>
+      </c>
+      <c r="N323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="W323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X323" s="35" t="str">
+        <f t="shared" si="55"/>
+        <v>-</v>
+      </c>
+      <c r="Y323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE323" s="35" t="str">
+        <f t="shared" si="58"/>
+        <v>-</v>
+      </c>
+      <c r="AF323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL323" s="35" t="str">
+        <f t="shared" si="59"/>
+        <v>-</v>
+      </c>
+      <c r="AM323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS323" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:46" hidden="1"/>
+    <row r="325" spans="1:46" hidden="1"/>
+    <row r="326" spans="1:46" hidden="1">
+      <c r="A326" t="s">
         <v>290</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AT325">
+  <autoFilter ref="A1:AT326">
     <filterColumn colId="30">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19334,7 +19365,7 @@
     <sortCondition ref="A270"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="C280:I280"/>
+    <mergeCell ref="C281:I281"/>
     <mergeCell ref="C129:I129"/>
     <mergeCell ref="C217:J217"/>
     <mergeCell ref="C2:I2"/>
@@ -19344,8 +19375,13 @@
     <mergeCell ref="C104:I104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19360,16 +19396,16 @@
       <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="2" customWidth="1"/>
-    <col min="4" max="19" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="22.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="2" customWidth="1"/>
+    <col min="4" max="19" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="44">
       <c r="A1" s="40"/>
       <c r="B1" s="4" t="s">
         <v>35</v>
@@ -19426,7 +19462,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>348</v>
       </c>
@@ -19451,32 +19487,32 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:19" s="1" customFormat="1">
+      <c r="A3" s="48" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1">
       <c r="A4" s="10" t="s">
         <v>349</v>
       </c>
@@ -19501,7 +19537,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="1" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>350</v>
       </c>
@@ -19526,7 +19562,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="1" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>351</v>
       </c>
@@ -19551,7 +19587,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="1" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>352</v>
       </c>
@@ -19576,7 +19612,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="10" t="s">
         <v>353</v>
       </c>
@@ -19584,7 +19620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
         <v>355</v>
       </c>
@@ -19592,7 +19628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="10" t="s">
         <v>356</v>
       </c>
@@ -19600,7 +19636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="10" t="s">
         <v>357</v>
       </c>
@@ -19608,7 +19644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="10" t="s">
         <v>359</v>
       </c>
@@ -19616,7 +19652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="10" t="s">
         <v>360</v>
       </c>
@@ -19639,7 +19675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="10" t="s">
         <v>361</v>
       </c>
@@ -19647,7 +19683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="10" t="s">
         <v>362</v>
       </c>
@@ -19655,7 +19691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="10" t="s">
         <v>363</v>
       </c>
@@ -19663,7 +19699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="10" t="s">
         <v>364</v>
       </c>
@@ -19671,7 +19707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="10" t="s">
         <v>365</v>
       </c>
@@ -19679,7 +19715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="10" t="s">
         <v>366</v>
       </c>
@@ -19687,7 +19723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="10" t="s">
         <v>367</v>
       </c>
@@ -19695,32 +19731,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:19">
+      <c r="A21" s="48" t="s">
         <v>538</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="10" t="s">
         <v>368</v>
       </c>
@@ -19728,7 +19764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="10" t="s">
         <v>369</v>
       </c>
@@ -19736,7 +19772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="10" t="s">
         <v>370</v>
       </c>
@@ -19744,32 +19780,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:19">
+      <c r="A25" s="48" t="s">
         <v>536</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="10" t="s">
         <v>371</v>
       </c>
@@ -19777,7 +19813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="10" t="s">
         <v>372</v>
       </c>
@@ -19785,7 +19821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="10" t="s">
         <v>373</v>
       </c>
@@ -19793,7 +19829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="10" t="s">
         <v>374</v>
       </c>
@@ -19801,7 +19837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="10" t="s">
         <v>43</v>
       </c>
@@ -19818,7 +19854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="10" t="s">
         <v>375</v>
       </c>
@@ -19826,7 +19862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="10" t="s">
         <v>376</v>
       </c>
@@ -19834,7 +19870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="10" t="s">
         <v>377</v>
       </c>
@@ -19842,7 +19878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="10" t="s">
         <v>378</v>
       </c>
@@ -19850,7 +19886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="10" t="s">
         <v>379</v>
       </c>
@@ -19858,7 +19894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="10" t="s">
         <v>380</v>
       </c>
@@ -19866,7 +19902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="10" t="s">
         <v>380</v>
       </c>
@@ -19874,7 +19910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="10" t="s">
         <v>381</v>
       </c>
@@ -19882,7 +19918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="10" t="s">
         <v>382</v>
       </c>
@@ -19890,7 +19926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="10" t="s">
         <v>383</v>
       </c>
@@ -19898,7 +19934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="10" t="s">
         <v>384</v>
       </c>
@@ -19906,32 +19942,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+    <row r="42" spans="1:19">
+      <c r="A42" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="10" t="s">
         <v>385</v>
       </c>
@@ -19939,32 +19975,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+    <row r="44" spans="1:19">
+      <c r="A44" s="48" t="s">
         <v>537</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="10" t="s">
         <v>386</v>
       </c>
@@ -19972,7 +20008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="10" t="s">
         <v>387</v>
       </c>
@@ -19980,7 +20016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="10" t="s">
         <v>388</v>
       </c>
@@ -19988,12 +20024,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="10" t="s">
         <v>389</v>
       </c>
@@ -20001,7 +20037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="10" t="s">
         <v>389</v>
       </c>
@@ -20009,7 +20045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="7" t="s">
         <v>143</v>
       </c>
@@ -20017,7 +20053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="10" t="s">
         <v>390</v>
       </c>
@@ -20025,7 +20061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="10" t="s">
         <v>391</v>
       </c>
@@ -20036,7 +20072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="10" t="s">
         <v>392</v>
       </c>
@@ -20044,7 +20080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="10" t="s">
         <v>393</v>
       </c>
@@ -20052,7 +20088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="10" t="s">
         <v>394</v>
       </c>
@@ -20060,7 +20096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="10" t="s">
         <v>395</v>
       </c>
@@ -20068,7 +20104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="10" t="s">
         <v>396</v>
       </c>
@@ -20076,32 +20112,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
+    <row r="59" spans="1:19">
+      <c r="A59" s="48" t="s">
         <v>539</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="10" t="s">
         <v>397</v>
       </c>
@@ -20109,7 +20145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="10" t="s">
         <v>398</v>
       </c>
@@ -20117,7 +20153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="10" t="s">
         <v>399</v>
       </c>
@@ -20125,7 +20161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="10" t="s">
         <v>400</v>
       </c>
@@ -20133,7 +20169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="10" t="s">
         <v>401</v>
       </c>
@@ -20141,7 +20177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="10" t="s">
         <v>51</v>
       </c>
@@ -20170,7 +20206,12 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20179,15 +20220,15 @@
   <dimension ref="A4:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -20197,5 +20238,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/l3kernel/expl3-datatype-analysis.xlsx
+++ b/l3kernel/expl3-datatype-analysis.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mittelba\Documents\svn\l3\l3kernel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="195" windowWidth="21135" windowHeight="15285"/>
   </bookViews>
@@ -13,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">constants!$A$1:$C$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data types'!$A$2:$AT$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data types'!$A$2:$AT$327</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
     <author>Frank</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="0">
+    <comment ref="AF5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0">
+    <comment ref="AG5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="0">
+    <comment ref="AH5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI5" authorId="0">
+    <comment ref="AI5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM5" authorId="0">
+    <comment ref="AM5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y64" authorId="0">
+    <comment ref="Y64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z64" authorId="0">
+    <comment ref="Z64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA64" authorId="0">
+    <comment ref="AA64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB64" authorId="0">
+    <comment ref="AB64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC64" authorId="0">
+    <comment ref="AC64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI189" authorId="0">
+    <comment ref="AI189" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ190" authorId="0">
+    <comment ref="AJ190" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="556">
   <si>
     <t>action</t>
   </si>
@@ -1213,12 +1218,6 @@
     <t>:nnn</t>
   </si>
   <si>
-    <t>strip_bp</t>
-  </si>
-  <si>
-    <t>strip_pt</t>
-  </si>
-  <si>
     <t>if_finite</t>
   </si>
   <si>
@@ -1957,12 +1956,6 @@
     <t>overlap_right</t>
   </si>
   <si>
-    <t>suggested name: to_bp</t>
-  </si>
-  <si>
-    <t>suggested name: to_pt</t>
-  </si>
-  <si>
     <t>backslash</t>
   </si>
   <si>
@@ -2030,6 +2023,15 @@
   </si>
   <si>
     <t>G == always global</t>
+  </si>
+  <si>
+    <t>{&lt;expr&gt;}{&lt;expr&gt;}</t>
+  </si>
+  <si>
+    <t>to_decimal_in_bp</t>
+  </si>
+  <si>
+    <t>to_decimal_in_unit</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2270,11 +2272,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2282,14 +2287,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2327,9 +2335,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2364,7 +2372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2399,7 +2407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2573,16 +2581,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AT332"/>
+  <dimension ref="A2:AT333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A267" sqref="A267:XFD267"/>
+      <selection pane="bottomRight" activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="9" customWidth="1"/>
@@ -2618,12 +2626,12 @@
     <col min="46" max="46" width="40" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" s="1" customFormat="1" ht="125.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>230</v>
@@ -2638,7 +2646,7 @@
         <v>93</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>17</v>
@@ -2654,7 +2662,7 @@
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>206</v>
@@ -2681,11 +2689,11 @@
         <v>226</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Y2" s="13" t="s">
         <v>37</v>
@@ -2704,7 +2712,7 @@
       </c>
       <c r="AD2" s="18"/>
       <c r="AE2" s="41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AF2" s="13" t="s">
         <v>101</v>
@@ -2723,25 +2731,25 @@
       </c>
       <c r="AK2" s="18"/>
       <c r="AL2" s="41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AM2" s="13" t="s">
         <v>188</v>
       </c>
       <c r="AN2" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AP2" s="13" t="s">
         <v>237</v>
       </c>
       <c r="AQ2" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AS2" s="18"/>
       <c r="AT2" s="5" t="s">
@@ -2756,15 +2764,15 @@
         <f>IF(CONCATENATE(M3,X3,AE3,AL3)="","","-")</f>
         <v>-</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="21"/>
       <c r="K3" s="13"/>
       <c r="L3" s="32" t="s">
@@ -2980,16 +2988,16 @@
         <v>-</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AJ5" s="22" t="s">
         <v>227</v>
@@ -3000,7 +3008,7 @@
         <v>-</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AP5" s="22" t="s">
         <v>227</v>
@@ -3100,19 +3108,19 @@
         <v>-</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AD7" s="17"/>
       <c r="AE7" s="35" t="str">
@@ -3120,19 +3128,19 @@
         <v>-</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG7" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="AH7" s="30" t="s">
-        <v>446</v>
+      <c r="AH7" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="AI7" s="22" t="s">
         <v>227</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AK7" s="18"/>
       <c r="AL7" s="35" t="str">
@@ -3170,19 +3178,19 @@
         <v>-</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W8" s="17"/>
       <c r="X8" s="35" t="str">
@@ -3190,19 +3198,19 @@
         <v>-</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AD8" s="17"/>
       <c r="AE8" s="35" t="str">
@@ -3210,19 +3218,19 @@
         <v>-</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AK8" s="18"/>
       <c r="AL8" s="35" t="str">
@@ -3230,10 +3238,10 @@
         <v>-</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AS8" s="17"/>
     </row>
@@ -3249,10 +3257,10 @@
         <v>231</v>
       </c>
       <c r="H9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>13</v>
@@ -3263,7 +3271,7 @@
         <v>-</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W9" s="17"/>
       <c r="X9" s="35" t="str">
@@ -3339,10 +3347,10 @@
         <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>13</v>
@@ -3353,7 +3361,7 @@
         <v>-</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="35" t="str">
@@ -3384,10 +3392,10 @@
         <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>13</v>
@@ -3398,7 +3406,7 @@
         <v>-</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="35" t="str">
@@ -3429,10 +3437,10 @@
         <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>13</v>
@@ -3443,7 +3451,7 @@
         <v>-</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="35" t="str">
@@ -3545,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AQ14" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS14" s="33"/>
       <c r="AT14" s="6" t="s">
@@ -3567,7 +3575,7 @@
         <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>13</v>
@@ -3593,7 +3601,7 @@
         <v>-</v>
       </c>
       <c r="AR15" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS15" s="33"/>
     </row>
@@ -3609,10 +3617,10 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -3645,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="AQ16" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS16" s="17"/>
     </row>
@@ -3661,10 +3669,10 @@
         <v>231</v>
       </c>
       <c r="H17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>13</v>
@@ -3690,13 +3698,13 @@
         <v>-</v>
       </c>
       <c r="AR17" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS17" s="34"/>
     </row>
     <row r="18" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B18" s="43" t="str">
         <f t="shared" si="5"/>
@@ -3706,7 +3714,7 @@
         <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>12</v>
@@ -3738,10 +3746,10 @@
         <v>3</v>
       </c>
       <c r="AQ18" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AR18" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS18" s="33"/>
     </row>
@@ -3757,10 +3765,10 @@
         <v>231</v>
       </c>
       <c r="H19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -3873,13 +3881,13 @@
         <v>3</v>
       </c>
       <c r="AP20" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS20" s="17"/>
     </row>
     <row r="21" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B21" s="43" t="str">
         <f t="shared" si="1"/>
@@ -3924,7 +3932,7 @@
     </row>
     <row r="22" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B22" s="43" t="str">
         <f t="shared" si="1"/>
@@ -3967,7 +3975,7 @@
       </c>
       <c r="AS22" s="33"/>
       <c r="AT22" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4017,7 +4025,7 @@
     </row>
     <row r="24" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B24" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4027,10 +4035,10 @@
         <v>231</v>
       </c>
       <c r="H24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>13</v>
@@ -4041,7 +4049,7 @@
         <v>-</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W24" s="33"/>
       <c r="X24" s="35" t="str">
@@ -4062,7 +4070,7 @@
     </row>
     <row r="25" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B25" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4072,10 +4080,10 @@
         <v>231</v>
       </c>
       <c r="H25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>13</v>
@@ -4086,7 +4094,7 @@
         <v>-</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W25" s="33"/>
       <c r="X25" s="35" t="str">
@@ -4107,7 +4115,7 @@
     </row>
     <row r="26" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B26" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4117,10 +4125,10 @@
         <v>231</v>
       </c>
       <c r="H26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>13</v>
@@ -4131,7 +4139,7 @@
         <v>-</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W26" s="33"/>
       <c r="X26" s="35" t="str">
@@ -4152,7 +4160,7 @@
     </row>
     <row r="27" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B27" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4162,10 +4170,10 @@
         <v>231</v>
       </c>
       <c r="H27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>13</v>
@@ -4176,7 +4184,7 @@
         <v>-</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W27" s="33"/>
       <c r="X27" s="35" t="str">
@@ -4197,7 +4205,7 @@
     </row>
     <row r="28" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B28" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4207,10 +4215,10 @@
         <v>231</v>
       </c>
       <c r="H28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>13</v>
@@ -4221,7 +4229,7 @@
         <v>-</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W28" s="33"/>
       <c r="X28" s="35" t="str">
@@ -4242,7 +4250,7 @@
     </row>
     <row r="29" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B29" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4252,10 +4260,10 @@
         <v>231</v>
       </c>
       <c r="H29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>13</v>
@@ -4266,7 +4274,7 @@
         <v>-</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W29" s="33"/>
       <c r="X29" s="35" t="str">
@@ -4287,7 +4295,7 @@
     </row>
     <row r="30" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B30" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4297,10 +4305,10 @@
         <v>231</v>
       </c>
       <c r="H30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>13</v>
@@ -4311,7 +4319,7 @@
         <v>-</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W30" s="33"/>
       <c r="X30" s="35" t="str">
@@ -4332,7 +4340,7 @@
     </row>
     <row r="31" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B31" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4342,10 +4350,10 @@
         <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>13</v>
@@ -4356,7 +4364,7 @@
         <v>-</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W31" s="33"/>
       <c r="X31" s="35" t="str">
@@ -4377,7 +4385,7 @@
     </row>
     <row r="32" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B32" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4387,10 +4395,10 @@
         <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>13</v>
@@ -4401,7 +4409,7 @@
         <v>-</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W32" s="33"/>
       <c r="X32" s="35" t="str">
@@ -4422,7 +4430,7 @@
     </row>
     <row r="33" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B33" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4432,10 +4440,10 @@
         <v>231</v>
       </c>
       <c r="H33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>13</v>
@@ -4446,7 +4454,7 @@
         <v>-</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W33" s="33"/>
       <c r="X33" s="35" t="str">
@@ -4467,7 +4475,7 @@
     </row>
     <row r="34" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B34" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4477,10 +4485,10 @@
         <v>231</v>
       </c>
       <c r="H34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I34" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>13</v>
@@ -4491,7 +4499,7 @@
         <v>-</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W34" s="33"/>
       <c r="X34" s="35" t="str">
@@ -4512,7 +4520,7 @@
     </row>
     <row r="35" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B35" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4522,10 +4530,10 @@
         <v>231</v>
       </c>
       <c r="H35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>13</v>
@@ -4536,7 +4544,7 @@
         <v>-</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W35" s="33"/>
       <c r="X35" s="35" t="str">
@@ -4557,7 +4565,7 @@
     </row>
     <row r="36" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B36" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4567,10 +4575,10 @@
         <v>231</v>
       </c>
       <c r="H36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>13</v>
@@ -4581,7 +4589,7 @@
         <v>-</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W36" s="33"/>
       <c r="X36" s="35" t="str">
@@ -4602,7 +4610,7 @@
     </row>
     <row r="37" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B37" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4612,10 +4620,10 @@
         <v>231</v>
       </c>
       <c r="H37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>13</v>
@@ -4626,7 +4634,7 @@
         <v>-</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W37" s="33"/>
       <c r="X37" s="35" t="str">
@@ -4647,7 +4655,7 @@
     </row>
     <row r="38" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B38" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4657,10 +4665,10 @@
         <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I38" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>13</v>
@@ -4671,7 +4679,7 @@
         <v>-</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W38" s="33"/>
       <c r="X38" s="35" t="str">
@@ -4692,7 +4700,7 @@
     </row>
     <row r="39" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B39" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4702,10 +4710,10 @@
         <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I39" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>13</v>
@@ -4716,7 +4724,7 @@
         <v>-</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W39" s="33"/>
       <c r="X39" s="35" t="str">
@@ -4737,7 +4745,7 @@
     </row>
     <row r="40" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B40" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4750,7 +4758,7 @@
         <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>13</v>
@@ -4761,7 +4769,7 @@
         <v>-</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W40" s="33"/>
       <c r="X40" s="35" t="str">
@@ -4830,7 +4838,7 @@
     </row>
     <row r="42" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B42" s="43" t="str">
         <f t="shared" ref="B42:B49" si="15">IF(CONCATENATE(M42,X42,AE42,AL42)="","","-")</f>
@@ -4843,7 +4851,7 @@
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K42" t="s">
         <v>12</v>
@@ -4918,7 +4926,7 @@
       </c>
       <c r="AS43" s="17"/>
       <c r="AT43" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4936,7 +4944,7 @@
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K44" t="s">
         <v>12</v>
@@ -4966,7 +4974,7 @@
       </c>
       <c r="AS44" s="28"/>
       <c r="AT44" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5061,7 +5069,7 @@
     </row>
     <row r="47" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B47" s="43" t="str">
         <f t="shared" si="15"/>
@@ -5074,7 +5082,7 @@
         <v>45</v>
       </c>
       <c r="I47" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>13</v>
@@ -5085,7 +5093,7 @@
         <v>-</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W47" s="33"/>
       <c r="X47" s="35" t="str">
@@ -5107,7 +5115,7 @@
     </row>
     <row r="48" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B48" s="43" t="str">
         <f t="shared" si="15"/>
@@ -5120,7 +5128,7 @@
         <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K48" t="s">
         <v>12</v>
@@ -5152,7 +5160,7 @@
     </row>
     <row r="49" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B49" s="43" t="str">
         <f t="shared" si="15"/>
@@ -5165,7 +5173,7 @@
         <v>45</v>
       </c>
       <c r="I49" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>13</v>
@@ -5176,7 +5184,7 @@
         <v>-</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W49" s="17"/>
       <c r="X49" s="35" t="str">
@@ -5208,10 +5216,10 @@
         <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I50" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
@@ -5253,10 +5261,10 @@
         <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K51" t="s">
         <v>12</v>
@@ -5298,10 +5306,10 @@
         <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I52" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
         <v>12</v>
@@ -5378,7 +5386,7 @@
     </row>
     <row r="54" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B54" s="43" t="str">
         <f t="shared" si="1"/>
@@ -5391,7 +5399,7 @@
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>13</v>
@@ -5402,7 +5410,7 @@
         <v>-</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W54" s="33"/>
       <c r="X54" s="35" t="str">
@@ -5467,12 +5475,12 @@
       </c>
       <c r="AS55" s="33"/>
       <c r="AT55" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B56" s="43" t="str">
         <f>IF(CONCATENATE(M56,X56,AE56,AL56)="","","-")</f>
@@ -5485,7 +5493,7 @@
         <v>137</v>
       </c>
       <c r="I56" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>13</v>
@@ -5511,13 +5519,13 @@
         <v>-</v>
       </c>
       <c r="AO56" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS56" s="34"/>
     </row>
     <row r="57" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B57" s="43" t="str">
         <f>IF(CONCATENATE(M57,X57,AE57,AL57)="","","-")</f>
@@ -5530,7 +5538,7 @@
         <v>110</v>
       </c>
       <c r="I57" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K57" t="s">
         <v>12</v>
@@ -5562,7 +5570,7 @@
     </row>
     <row r="58" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B58" s="43" t="str">
         <f>IF(CONCATENATE(M58,X58,AE58,AL58)="","","-")</f>
@@ -5575,7 +5583,7 @@
         <v>110</v>
       </c>
       <c r="I58" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K58" t="s">
         <v>12</v>
@@ -5604,13 +5612,13 @@
         <v>3</v>
       </c>
       <c r="AO58" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AS58" s="34"/>
     </row>
     <row r="59" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B59" s="43" t="str">
         <f>IF(CONCATENATE(M59,X59,AE59,AL59)="","","-")</f>
@@ -5623,7 +5631,7 @@
         <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K59" t="s">
         <v>12</v>
@@ -5703,7 +5711,7 @@
     </row>
     <row r="61" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B61" s="43" t="str">
         <f t="shared" si="1"/>
@@ -5716,7 +5724,7 @@
         <v>45</v>
       </c>
       <c r="I61" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>13</v>
@@ -5727,7 +5735,7 @@
         <v>-</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W61" s="17"/>
       <c r="X61" s="35" t="str">
@@ -5851,7 +5859,7 @@
     </row>
     <row r="64" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B64" s="43" t="str">
         <f t="shared" si="1"/>
@@ -5883,19 +5891,19 @@
         <v>-</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AD64" s="17"/>
       <c r="AE64" s="35" t="str">
@@ -5980,15 +5988,15 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
       <c r="J66" s="21"/>
       <c r="K66" s="13"/>
       <c r="L66" s="32" t="s">
@@ -6089,7 +6097,7 @@
     </row>
     <row r="67" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B67" s="43" t="str">
         <f t="shared" si="1"/>
@@ -6102,7 +6110,7 @@
         <v>39</v>
       </c>
       <c r="I67" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>13</v>
@@ -6113,7 +6121,7 @@
         <v>-</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W67" s="33"/>
       <c r="X67" s="35" t="str">
@@ -6132,7 +6140,7 @@
       </c>
       <c r="AS67" s="33"/>
       <c r="AT67" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6455,15 +6463,15 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="51"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
       <c r="J74" s="21"/>
       <c r="K74" s="13"/>
       <c r="L74" s="32" t="s">
@@ -6770,7 +6778,7 @@
     </row>
     <row r="79" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B79" s="43" t="str">
         <f t="shared" si="21"/>
@@ -6783,7 +6791,7 @@
         <v>39</v>
       </c>
       <c r="I79" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>13</v>
@@ -6794,7 +6802,7 @@
         <v>-</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W79" s="33"/>
       <c r="X79" s="35" t="str">
@@ -6815,7 +6823,7 @@
     </row>
     <row r="80" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B80" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7084,15 +7092,15 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="51"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
       <c r="J85" s="21"/>
       <c r="K85" s="13"/>
       <c r="L85" s="32" t="s">
@@ -7203,7 +7211,7 @@
     </row>
     <row r="86" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B86" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7219,7 +7227,7 @@
         <v>131</v>
       </c>
       <c r="I86" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="33"/>
@@ -7247,7 +7255,7 @@
       </c>
       <c r="AS86" s="17"/>
       <c r="AT86" s="36" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7304,7 +7312,7 @@
       </c>
       <c r="AS87" s="17"/>
       <c r="AT87" s="36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7407,12 +7415,12 @@
       </c>
       <c r="AS89" s="33"/>
       <c r="AT89" s="36" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="90" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B90" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7464,7 +7472,7 @@
       </c>
       <c r="AS90" s="17"/>
       <c r="AT90" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7616,7 +7624,7 @@
     </row>
     <row r="94" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B94" s="43" t="str">
         <f t="shared" ref="B94" si="25">IF(CONCATENATE(M94,X94,AE94,AL94)="","","-")</f>
@@ -7782,7 +7790,7 @@
         <v>45</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L97" s="33"/>
       <c r="M97" s="43" t="str">
@@ -7818,7 +7826,7 @@
     </row>
     <row r="98" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B98" s="43"/>
       <c r="C98" s="2" t="s">
@@ -7831,7 +7839,7 @@
         <v>110</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L98" s="44"/>
       <c r="M98" s="43"/>
@@ -7852,7 +7860,7 @@
     </row>
     <row r="99" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B99" s="43"/>
       <c r="C99" s="2" t="s">
@@ -7865,7 +7873,7 @@
         <v>283</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L99" s="44"/>
       <c r="M99" s="43"/>
@@ -7886,7 +7894,7 @@
     </row>
     <row r="100" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B100" s="43"/>
       <c r="C100" s="2" t="s">
@@ -7899,7 +7907,7 @@
         <v>283</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L100" s="44"/>
       <c r="M100" s="43"/>
@@ -7968,7 +7976,7 @@
     </row>
     <row r="102" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B102" s="43" t="str">
         <f t="shared" ref="B102" si="30">IF(CONCATENATE(M102,X102,AE102,AL102)="","","-")</f>
@@ -8130,15 +8138,15 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="52"/>
       <c r="J105" s="21"/>
       <c r="K105" s="13"/>
       <c r="L105" s="32" t="s">
@@ -8346,13 +8354,13 @@
         <v>-</v>
       </c>
       <c r="AP107" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS107" s="17"/>
     </row>
     <row r="108" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B108" s="43" t="str">
         <f>IF(CONCATENATE(M108,X108,AE108,AL108)="","","-")</f>
@@ -8526,7 +8534,7 @@
         <v>-</v>
       </c>
       <c r="AP111" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS111" s="17"/>
     </row>
@@ -8658,16 +8666,16 @@
         <v>-</v>
       </c>
       <c r="AM114" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP114" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS114" s="17"/>
     </row>
     <row r="115" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B115" s="43" t="str">
         <f t="shared" si="21"/>
@@ -8703,7 +8711,7 @@
         <v>-</v>
       </c>
       <c r="AM115" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP115" s="22" t="s">
         <v>119</v>
@@ -8712,7 +8720,7 @@
     </row>
     <row r="116" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B116" s="43" t="str">
         <f t="shared" si="21"/>
@@ -8748,7 +8756,7 @@
         <v>-</v>
       </c>
       <c r="AM116" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP116" s="22" t="s">
         <v>119</v>
@@ -8773,7 +8781,7 @@
         <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L117" s="33"/>
       <c r="M117" s="43" t="str">
@@ -8844,10 +8852,10 @@
         <v>-</v>
       </c>
       <c r="AM118" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP118" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS118" s="17"/>
     </row>
@@ -8866,7 +8874,7 @@
         <v>110</v>
       </c>
       <c r="I119" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L119" s="33"/>
       <c r="M119" s="43" t="str">
@@ -8889,10 +8897,10 @@
         <v>-</v>
       </c>
       <c r="AM119" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP119" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS119" s="33"/>
     </row>
@@ -8934,14 +8942,14 @@
         <v>-</v>
       </c>
       <c r="AM120" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP120" s="22" t="s">
         <v>119</v>
       </c>
       <c r="AS120" s="17"/>
       <c r="AT120" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8982,7 +8990,7 @@
         <v>-</v>
       </c>
       <c r="AP121" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS121" s="17"/>
     </row>
@@ -9024,14 +9032,14 @@
         <v>-</v>
       </c>
       <c r="AM122" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP122" s="22" t="s">
         <v>119</v>
       </c>
       <c r="AS122" s="33"/>
       <c r="AT122" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9072,7 +9080,7 @@
         <v>-</v>
       </c>
       <c r="AP123" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AS123" s="17"/>
     </row>
@@ -9114,14 +9122,14 @@
         <v>-</v>
       </c>
       <c r="AM124" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP124" s="22" t="s">
         <v>119</v>
       </c>
       <c r="AS124" s="33"/>
       <c r="AT124" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9183,7 +9191,7 @@
     </row>
     <row r="126" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B126" s="43" t="str">
         <f t="shared" si="21"/>
@@ -9222,10 +9230,10 @@
         <v>-</v>
       </c>
       <c r="AM126" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP126" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AS126" s="33"/>
     </row>
@@ -9247,7 +9255,7 @@
         <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L127" s="33"/>
       <c r="M127" s="43" t="str">
@@ -9276,7 +9284,7 @@
     </row>
     <row r="128" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B128" s="43" t="str">
         <f t="shared" si="21"/>
@@ -9315,10 +9323,10 @@
         <v>-</v>
       </c>
       <c r="AM128" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AP128" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AS128" s="33"/>
     </row>
@@ -9393,15 +9401,15 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="C130" s="51" t="s">
+      <c r="C130" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="D130" s="51"/>
-      <c r="E130" s="51"/>
-      <c r="F130" s="51"/>
-      <c r="G130" s="51"/>
-      <c r="H130" s="51"/>
-      <c r="I130" s="51"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="52"/>
       <c r="K130" s="2"/>
       <c r="L130" s="32" t="s">
         <v>13</v>
@@ -9511,7 +9519,7 @@
     </row>
     <row r="131" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B131" s="43" t="str">
         <f t="shared" si="21"/>
@@ -9566,14 +9574,14 @@
     </row>
     <row r="132" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B132" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>3</v>
@@ -9615,14 +9623,14 @@
     </row>
     <row r="133" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B133" s="43" t="str">
         <f t="shared" ref="B133:B135" si="35">IF(CONCATENATE(M133,X133,AE133,AL133)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>3</v>
@@ -9664,14 +9672,14 @@
     </row>
     <row r="134" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B134" s="43" t="str">
         <f t="shared" ref="B134" si="40">IF(CONCATENATE(M134,X134,AE134,AL134)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>3</v>
@@ -9713,14 +9721,14 @@
     </row>
     <row r="135" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B135" s="43" t="str">
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>3</v>
@@ -9762,7 +9770,7 @@
     </row>
     <row r="136" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B136" s="43" t="str">
         <f t="shared" si="21"/>
@@ -9961,7 +9969,7 @@
       </c>
       <c r="AS139" s="17"/>
       <c r="AT139" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10200,7 +10208,7 @@
     </row>
     <row r="143" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B143" s="43" t="str">
         <f t="shared" si="21"/>
@@ -10210,13 +10218,13 @@
         <v>231</v>
       </c>
       <c r="H143" t="s">
+        <v>477</v>
+      </c>
+      <c r="I143" t="s">
+        <v>478</v>
+      </c>
+      <c r="K143" t="s">
         <v>479</v>
-      </c>
-      <c r="I143" t="s">
-        <v>480</v>
-      </c>
-      <c r="K143" t="s">
-        <v>481</v>
       </c>
       <c r="L143" s="33"/>
       <c r="M143" s="43" t="str">
@@ -10248,7 +10256,7 @@
     </row>
     <row r="144" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B144" s="43" t="str">
         <f t="shared" si="21"/>
@@ -10264,7 +10272,7 @@
         <v>283</v>
       </c>
       <c r="I144" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L144" s="33"/>
       <c r="M144" s="43" t="str">
@@ -10300,12 +10308,12 @@
       </c>
       <c r="AS144" s="17"/>
       <c r="AT144" s="36" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B145" s="43" t="str">
         <f t="shared" si="21"/>
@@ -10321,7 +10329,7 @@
         <v>110</v>
       </c>
       <c r="I145" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L145" s="33"/>
       <c r="M145" s="43" t="str">
@@ -10351,12 +10359,12 @@
       </c>
       <c r="AS145" s="33"/>
       <c r="AT145" s="36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B146" s="43" t="str">
         <f t="shared" si="21"/>
@@ -10372,7 +10380,7 @@
         <v>283</v>
       </c>
       <c r="I146" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L146" s="33"/>
       <c r="M146" s="43" t="str">
@@ -10399,12 +10407,12 @@
       </c>
       <c r="AS146" s="33"/>
       <c r="AT146" s="36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B147" s="43" t="str">
         <f t="shared" si="21"/>
@@ -10420,7 +10428,7 @@
         <v>18</v>
       </c>
       <c r="I147" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L147" s="33"/>
       <c r="M147" s="43" t="str">
@@ -10450,7 +10458,7 @@
     </row>
     <row r="148" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B148" s="43" t="str">
         <f t="shared" ref="B148:B211" si="46">IF(CONCATENATE(M148,X148,AE148,AL148)="","","-")</f>
@@ -10466,7 +10474,7 @@
         <v>18</v>
       </c>
       <c r="I148" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L148" s="33"/>
       <c r="M148" s="43" t="str">
@@ -10493,12 +10501,12 @@
       </c>
       <c r="AS148" s="33"/>
       <c r="AT148" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B149" s="43" t="str">
         <f t="shared" si="46"/>
@@ -10514,7 +10522,7 @@
         <v>18</v>
       </c>
       <c r="I149" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L149" s="33"/>
       <c r="M149" s="43" t="str">
@@ -10541,12 +10549,12 @@
       </c>
       <c r="AS149" s="33"/>
       <c r="AT149" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B150" s="43" t="str">
         <f t="shared" si="46"/>
@@ -10562,7 +10570,7 @@
         <v>18</v>
       </c>
       <c r="I150" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L150" s="33"/>
       <c r="M150" s="43" t="str">
@@ -10589,12 +10597,12 @@
       </c>
       <c r="AS150" s="33"/>
       <c r="AT150" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="151" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B151" s="43" t="str">
         <f t="shared" si="46"/>
@@ -10610,7 +10618,7 @@
         <v>18</v>
       </c>
       <c r="I151" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L151" s="33"/>
       <c r="M151" s="43" t="str">
@@ -10637,12 +10645,12 @@
       </c>
       <c r="AS151" s="33"/>
       <c r="AT151" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B152" s="43" t="str">
         <f t="shared" si="46"/>
@@ -10658,7 +10666,7 @@
         <v>18</v>
       </c>
       <c r="I152" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L152" s="33"/>
       <c r="M152" s="43" t="str">
@@ -10685,12 +10693,12 @@
       </c>
       <c r="AS152" s="33"/>
       <c r="AT152" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="153" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B153" s="43" t="str">
         <f t="shared" si="46"/>
@@ -10706,7 +10714,7 @@
         <v>18</v>
       </c>
       <c r="I153" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L153" s="33"/>
       <c r="M153" s="43" t="str">
@@ -10733,12 +10741,12 @@
       </c>
       <c r="AS153" s="33"/>
       <c r="AT153" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B154" s="43" t="str">
         <f t="shared" si="46"/>
@@ -10754,7 +10762,7 @@
         <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L154" s="33"/>
       <c r="M154" s="43" t="str">
@@ -10781,7 +10789,7 @@
       </c>
       <c r="AS154" s="33"/>
       <c r="AT154" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10897,7 +10905,7 @@
         <v>-</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>3</v>
@@ -10949,7 +10957,7 @@
         <v>-</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>3</v>
@@ -11004,7 +11012,7 @@
         <v>-</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>3</v>
@@ -11053,7 +11061,7 @@
         <v>-</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>3</v>
@@ -11105,7 +11113,7 @@
         <v>-</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>3</v>
@@ -11160,7 +11168,7 @@
         <v>-</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>3</v>
@@ -11344,7 +11352,7 @@
     </row>
     <row r="166" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B166" s="43" t="str">
         <f t="shared" si="46"/>
@@ -11360,7 +11368,7 @@
         <v>18</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L166" s="33"/>
       <c r="M166" s="43" t="str">
@@ -11387,7 +11395,7 @@
       </c>
       <c r="AS166" s="24"/>
       <c r="AT166" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11431,7 +11439,7 @@
       <c r="AG167" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AH167" s="30" t="s">
+      <c r="AH167" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AI167" s="2" t="s">
@@ -11631,7 +11639,7 @@
         <v>-</v>
       </c>
       <c r="AA171" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AD171" s="33"/>
       <c r="AE171" s="35" t="str">
@@ -11645,12 +11653,12 @@
       </c>
       <c r="AS171" s="33"/>
       <c r="AT171" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B172" s="43" t="str">
         <f t="shared" si="46"/>
@@ -11666,7 +11674,7 @@
         <v>20</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L172" s="33"/>
       <c r="M172" s="43" t="str">
@@ -11695,7 +11703,7 @@
     </row>
     <row r="173" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B173" s="43" t="str">
         <f t="shared" si="46"/>
@@ -11711,7 +11719,7 @@
         <v>20</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L173" s="33"/>
       <c r="M173" s="43" t="str">
@@ -11740,7 +11748,7 @@
     </row>
     <row r="174" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B174" s="43" t="str">
         <f t="shared" si="46"/>
@@ -11756,7 +11764,7 @@
         <v>20</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L174" s="33"/>
       <c r="M174" s="43" t="str">
@@ -11785,7 +11793,7 @@
     </row>
     <row r="175" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B175" s="43" t="str">
         <f t="shared" si="46"/>
@@ -11987,7 +11995,7 @@
         <v>39</v>
       </c>
       <c r="I178" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L178" s="33"/>
       <c r="M178" s="43" t="str">
@@ -12032,7 +12040,7 @@
     </row>
     <row r="179" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B179" s="43" t="str">
         <f t="shared" si="46"/>
@@ -12094,7 +12102,7 @@
     </row>
     <row r="180" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B180" s="43" t="str">
         <f t="shared" si="46"/>
@@ -12137,12 +12145,12 @@
       </c>
       <c r="AS180" s="17"/>
       <c r="AT180" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B181" s="43" t="str">
         <f t="shared" si="46"/>
@@ -12322,7 +12330,7 @@
     </row>
     <row r="185" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B185" s="43" t="str">
         <f t="shared" si="46"/>
@@ -12367,7 +12375,7 @@
     </row>
     <row r="186" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B186" s="43" t="str">
         <f t="shared" si="46"/>
@@ -12412,7 +12420,7 @@
     </row>
     <row r="187" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B187" s="43" t="str">
         <f t="shared" si="46"/>
@@ -12613,7 +12621,7 @@
     </row>
     <row r="191" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B191" s="43" t="str">
         <f t="shared" si="46"/>
@@ -12629,7 +12637,7 @@
         <v>18</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L191" s="33"/>
       <c r="M191" s="43" t="str">
@@ -12656,12 +12664,12 @@
       </c>
       <c r="AS191" s="17"/>
       <c r="AT191" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="192" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B192" s="43" t="str">
         <f t="shared" si="46"/>
@@ -12677,7 +12685,7 @@
         <v>18</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L192" s="33"/>
       <c r="M192" s="43" t="str">
@@ -12704,7 +12712,7 @@
       </c>
       <c r="AS192" s="17"/>
       <c r="AT192" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="193" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -12722,10 +12730,10 @@
         <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I193" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>13</v>
@@ -12770,10 +12778,10 @@
         <v>3</v>
       </c>
       <c r="H194" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I194" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>13</v>
@@ -12983,12 +12991,12 @@
       </c>
       <c r="AS198" s="17"/>
       <c r="AT198" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="199" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B199" s="43" t="str">
         <f t="shared" si="46"/>
@@ -13004,7 +13012,7 @@
         <v>18</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L199" s="33"/>
       <c r="M199" s="43" t="str">
@@ -13031,12 +13039,12 @@
       </c>
       <c r="AS199" s="17"/>
       <c r="AT199" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="200" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B200" s="43" t="str">
         <f t="shared" si="46"/>
@@ -13052,7 +13060,7 @@
         <v>18</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L200" s="33"/>
       <c r="M200" s="43" t="str">
@@ -13079,7 +13087,7 @@
       </c>
       <c r="AS200" s="17"/>
       <c r="AT200" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="201" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13132,7 +13140,7 @@
     </row>
     <row r="202" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="36" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B202" s="43" t="str">
         <f t="shared" si="46"/>
@@ -13148,7 +13156,7 @@
         <v>39</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L202" s="33"/>
       <c r="M202" s="43" t="str">
@@ -13175,7 +13183,7 @@
       </c>
       <c r="AS202" s="33"/>
       <c r="AT202" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="203" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13196,7 +13204,7 @@
         <v>18</v>
       </c>
       <c r="I203" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L203" s="33"/>
       <c r="M203" s="43" t="str">
@@ -13223,12 +13231,12 @@
       </c>
       <c r="AS203" s="17"/>
       <c r="AT203" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="204" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="36" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B204" s="43" t="str">
         <f t="shared" si="46"/>
@@ -13244,7 +13252,7 @@
         <v>18</v>
       </c>
       <c r="I204" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L204" s="33"/>
       <c r="M204" s="43" t="str">
@@ -13271,12 +13279,12 @@
       </c>
       <c r="AS204" s="17"/>
       <c r="AT204" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="205" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A205" s="36" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B205" s="43" t="str">
         <f t="shared" si="46"/>
@@ -13292,7 +13300,7 @@
         <v>18</v>
       </c>
       <c r="I205" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L205" s="33"/>
       <c r="M205" s="43" t="str">
@@ -13319,12 +13327,12 @@
       </c>
       <c r="AS205" s="17"/>
       <c r="AT205" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="206" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="36" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B206" s="43" t="str">
         <f t="shared" si="46"/>
@@ -13340,7 +13348,7 @@
         <v>18</v>
       </c>
       <c r="I206" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L206" s="33"/>
       <c r="M206" s="43" t="str">
@@ -13367,12 +13375,12 @@
       </c>
       <c r="AS206" s="24"/>
       <c r="AT206" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A207" s="36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B207" s="43" t="str">
         <f t="shared" si="46"/>
@@ -13385,7 +13393,7 @@
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L207" s="33"/>
       <c r="M207" s="43" t="str">
@@ -13415,23 +13423,23 @@
     </row>
     <row r="208" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A208" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B208" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I208" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L208" s="33"/>
       <c r="M208" s="43" t="str">
@@ -13460,7 +13468,7 @@
     </row>
     <row r="209" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B209" s="43" t="str">
         <f t="shared" si="46"/>
@@ -13473,10 +13481,10 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I209" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L209" s="33"/>
       <c r="M209" s="43" t="str">
@@ -13505,7 +13513,7 @@
     </row>
     <row r="210" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A210" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B210" s="43" t="str">
         <f t="shared" si="46"/>
@@ -13518,10 +13526,10 @@
         <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I210" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L210" s="33"/>
       <c r="M210" s="43" t="str">
@@ -13557,7 +13565,7 @@
         <v>-</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>3</v>
@@ -13581,7 +13589,7 @@
       </c>
       <c r="W211" s="17"/>
       <c r="X211" s="35" t="str">
-        <f t="shared" ref="X211:X275" si="50">IF(CONCATENATE(Y211,Z211,AA211,AB211,AC211)="","","-")</f>
+        <f t="shared" ref="X211:X276" si="50">IF(CONCATENATE(Y211,Z211,AA211,AB211,AC211)="","","-")</f>
         <v/>
       </c>
       <c r="AD211" s="17"/>
@@ -13601,11 +13609,11 @@
         <v>25</v>
       </c>
       <c r="B212" s="43" t="str">
-        <f t="shared" ref="B212:B276" si="51">IF(CONCATENATE(M212,X212,AE212,AL212)="","","-")</f>
+        <f t="shared" ref="B212:B277" si="51">IF(CONCATENATE(M212,X212,AE212,AL212)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>3</v>
@@ -13618,7 +13626,7 @@
       </c>
       <c r="L212" s="33"/>
       <c r="M212" s="43" t="str">
-        <f t="shared" ref="M212:M276" si="52">IF(CONCATENATE(N212,O212,P212,Q212,R212,S212,T212,U212,V212)="","","-")</f>
+        <f t="shared" ref="M212:M277" si="52">IF(CONCATENATE(N212,O212,P212,Q212,R212,S212,T212,U212,V212)="","","-")</f>
         <v/>
       </c>
       <c r="W212" s="24"/>
@@ -13637,12 +13645,12 @@
       </c>
       <c r="AD212" s="24"/>
       <c r="AE212" s="35" t="str">
-        <f t="shared" ref="AE212:AE276" si="53">IF(CONCATENATE(AF212,AG212,AH212,AI212,AJ212)="","","-")</f>
+        <f t="shared" ref="AE212:AE277" si="53">IF(CONCATENATE(AF212,AG212,AH212,AI212,AJ212)="","","-")</f>
         <v/>
       </c>
       <c r="AK212" s="18"/>
       <c r="AL212" s="35" t="str">
-        <f t="shared" ref="AL212:AL276" si="54">IF(CONCATENATE(AM212,AN212,AO212,AP212,AQ212,AR212)="","","-")</f>
+        <f t="shared" ref="AL212:AL277" si="54">IF(CONCATENATE(AM212,AN212,AO212,AP212,AQ212,AR212)="","","-")</f>
         <v/>
       </c>
       <c r="AS212" s="24"/>
@@ -13656,7 +13664,7 @@
         <v>-</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>3</v>
@@ -13710,7 +13718,7 @@
         <v>-</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>3</v>
@@ -13758,7 +13766,7 @@
         <v>-</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>3</v>
@@ -13809,7 +13817,7 @@
         <v>-</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>3</v>
@@ -13925,16 +13933,16 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
-      <c r="C218" s="51" t="s">
+      <c r="C218" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="D218" s="51"/>
-      <c r="E218" s="51"/>
-      <c r="F218" s="51"/>
-      <c r="G218" s="51"/>
-      <c r="H218" s="51"/>
-      <c r="I218" s="51"/>
-      <c r="J218" s="51"/>
+      <c r="D218" s="52"/>
+      <c r="E218" s="52"/>
+      <c r="F218" s="52"/>
+      <c r="G218" s="52"/>
+      <c r="H218" s="52"/>
+      <c r="I218" s="52"/>
+      <c r="J218" s="52"/>
       <c r="K218" s="2"/>
       <c r="L218" s="32" t="s">
         <v>13</v>
@@ -14291,7 +14299,7 @@
       </c>
       <c r="AS223" s="17"/>
       <c r="AT223" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="224" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -14339,28 +14347,28 @@
       </c>
       <c r="AS224" s="17"/>
       <c r="AT224" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="36" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B225" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I225" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L225" s="33"/>
       <c r="M225" s="43" t="str">
@@ -14399,7 +14407,7 @@
       </c>
       <c r="AS225" s="33"/>
       <c r="AT225" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="226" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -14411,7 +14419,7 @@
         <v>-</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>3</v>
@@ -14465,7 +14473,7 @@
         <v>-</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>3</v>
@@ -14563,7 +14571,7 @@
     </row>
     <row r="229" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B229" s="43" t="str">
         <f t="shared" si="51"/>
@@ -14606,7 +14614,7 @@
       </c>
       <c r="AS229" s="17"/>
       <c r="AT229" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="230" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -14666,7 +14674,7 @@
         <v>-</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>3</v>
@@ -14702,7 +14710,7 @@
       </c>
       <c r="AS231" s="17"/>
       <c r="AT231" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="232" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -14809,7 +14817,7 @@
         <v>-</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>3</v>
@@ -15054,7 +15062,7 @@
     </row>
     <row r="239" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B239" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15070,7 +15078,7 @@
         <v>45</v>
       </c>
       <c r="I239" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K239" s="3" t="s">
         <v>13</v>
@@ -15118,7 +15126,7 @@
         <v>39</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K240" s="3" t="s">
         <v>13</v>
@@ -15148,9 +15156,9 @@
       </c>
       <c r="AS240" s="33"/>
     </row>
-    <row r="241" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A241" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B241" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15166,7 +15174,7 @@
         <v>39</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K241" s="3" t="s">
         <v>13</v>
@@ -15196,7 +15204,7 @@
       </c>
       <c r="AS241" s="33"/>
     </row>
-    <row r="242" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A242" s="36" t="s">
         <v>148</v>
       </c>
@@ -15214,7 +15222,7 @@
         <v>39</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K242" s="3" t="s">
         <v>13</v>
@@ -15244,9 +15252,9 @@
       </c>
       <c r="AS242" s="33"/>
     </row>
-    <row r="243" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A243" s="36" t="s">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="B243" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15274,7 +15282,7 @@
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="Z243" s="30" t="s">
+      <c r="Y243" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD243" s="17"/>
@@ -15288,13 +15296,10 @@
         <v/>
       </c>
       <c r="AS243" s="17"/>
-      <c r="AT243" s="7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="244" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A244" s="36" t="s">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="B244" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15322,7 +15327,7 @@
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="Z244" s="30" t="s">
+      <c r="Y244" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD244" s="17"/>
@@ -15336,13 +15341,10 @@
         <v/>
       </c>
       <c r="AS244" s="17"/>
-      <c r="AT244" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="245" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A245" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B245" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15385,9 +15387,9 @@
       </c>
       <c r="AS245" s="17"/>
     </row>
-    <row r="246" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A246" s="36" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B246" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15400,10 +15402,10 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I246" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="L246" s="33"/>
       <c r="M246" s="43" t="str">
@@ -15430,9 +15432,9 @@
       </c>
       <c r="AS246" s="17"/>
     </row>
-    <row r="247" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A247" s="36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B247" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15475,9 +15477,9 @@
       </c>
       <c r="AS247" s="17"/>
     </row>
-    <row r="248" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A248" s="36" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="B248" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15490,25 +15492,28 @@
         <v>3</v>
       </c>
       <c r="H248" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I248" t="s">
-        <v>80</v>
-      </c>
-      <c r="L248" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="L248" s="51"/>
       <c r="M248" s="43" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="W248" s="17"/>
+      <c r="W248" s="51"/>
       <c r="X248" s="35" t="str">
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="Y248" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD248" s="17"/>
+      <c r="Z248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD248" s="51"/>
       <c r="AE248" s="35" t="str">
         <f t="shared" si="53"/>
         <v/>
@@ -15518,11 +15523,11 @@
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS248" s="17"/>
-    </row>
-    <row r="249" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AS248" s="51"/>
+    </row>
+    <row r="249" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="36" t="s">
-        <v>74</v>
+        <v>554</v>
       </c>
       <c r="B249" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15540,20 +15545,20 @@
       <c r="I249" t="s">
         <v>46</v>
       </c>
-      <c r="L249" s="33"/>
+      <c r="L249" s="51"/>
       <c r="M249" s="43" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="W249" s="17"/>
+      <c r="W249" s="51"/>
       <c r="X249" s="35" t="str">
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="Y249" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD249" s="17"/>
+      <c r="Z249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD249" s="51"/>
       <c r="AE249" s="35" t="str">
         <f t="shared" si="53"/>
         <v/>
@@ -15563,14 +15568,14 @@
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS249" s="17"/>
-    </row>
-    <row r="250" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AS249" s="51"/>
+    </row>
+    <row r="250" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A250" s="36" t="s">
-        <v>279</v>
+        <v>555</v>
       </c>
       <c r="B250" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="B250" si="55">IF(CONCATENATE(M250,X250,AE250,AL250)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -15580,39 +15585,39 @@
         <v>3</v>
       </c>
       <c r="H250" t="s">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="I250" t="s">
-        <v>336</v>
-      </c>
-      <c r="L250" s="33"/>
+        <v>553</v>
+      </c>
+      <c r="L250" s="51"/>
       <c r="M250" s="43" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="W250" s="33"/>
+        <f t="shared" ref="M250" si="56">IF(CONCATENATE(N250,O250,P250,Q250,R250,S250,T250,U250,V250)="","","-")</f>
+        <v/>
+      </c>
+      <c r="W250" s="51"/>
       <c r="X250" s="35" t="str">
-        <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-      <c r="AC250" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD250" s="33"/>
+        <f t="shared" ref="X250" si="57">IF(CONCATENATE(Y250,Z250,AA250,AB250,AC250)="","","-")</f>
+        <v>-</v>
+      </c>
+      <c r="Z250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD250" s="51"/>
       <c r="AE250" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="AE250" si="58">IF(CONCATENATE(AF250,AG250,AH250,AI250,AJ250)="","","-")</f>
         <v/>
       </c>
       <c r="AK250" s="18"/>
       <c r="AL250" s="35" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AS250" s="33"/>
-    </row>
-    <row r="251" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AL250" si="59">IF(CONCATENATE(AM250,AN250,AO250,AP250,AQ250,AR250)="","","-")</f>
+        <v/>
+      </c>
+      <c r="AS250" s="51"/>
+    </row>
+    <row r="251" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A251" s="36" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="B251" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15625,17 +15630,17 @@
         <v>3</v>
       </c>
       <c r="H251" t="s">
-        <v>335</v>
+        <v>18</v>
       </c>
       <c r="I251" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="L251" s="33"/>
       <c r="M251" s="43" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="W251" s="17"/>
+      <c r="W251" s="33"/>
       <c r="X251" s="35" t="str">
         <f t="shared" si="50"/>
         <v>-</v>
@@ -15643,7 +15648,7 @@
       <c r="AC251" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AD251" s="17"/>
+      <c r="AD251" s="33"/>
       <c r="AE251" s="35" t="str">
         <f t="shared" si="53"/>
         <v/>
@@ -15653,11 +15658,11 @@
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS251" s="17"/>
-    </row>
-    <row r="252" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AS251" s="33"/>
+    </row>
+    <row r="252" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A252" s="36" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="B252" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15670,10 +15675,10 @@
         <v>3</v>
       </c>
       <c r="H252" t="s">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="I252" t="s">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c r="L252" s="33"/>
       <c r="M252" s="43" t="str">
@@ -15685,7 +15690,7 @@
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="Z252" s="2" t="s">
+      <c r="AC252" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD252" s="17"/>
@@ -15700,9 +15705,9 @@
       </c>
       <c r="AS252" s="17"/>
     </row>
-    <row r="253" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A253" s="36" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="B253" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15725,15 +15730,15 @@
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="W253" s="24"/>
+      <c r="W253" s="17"/>
       <c r="X253" s="35" t="str">
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="Y253" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD253" s="24"/>
+      <c r="Z253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD253" s="17"/>
       <c r="AE253" s="35" t="str">
         <f t="shared" si="53"/>
         <v/>
@@ -15743,11 +15748,11 @@
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS253" s="24"/>
-    </row>
-    <row r="254" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AS253" s="17"/>
+    </row>
+    <row r="254" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A254" s="36" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="B254" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15760,10 +15765,10 @@
         <v>3</v>
       </c>
       <c r="H254" t="s">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="I254" t="s">
-        <v>336</v>
+        <v>46</v>
       </c>
       <c r="L254" s="33"/>
       <c r="M254" s="43" t="str">
@@ -15775,7 +15780,7 @@
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="AC254" s="2" t="s">
+      <c r="Y254" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD254" s="24"/>
@@ -15790,25 +15795,25 @@
       </c>
       <c r="AS254" s="24"/>
     </row>
-    <row r="255" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="37" t="s">
-        <v>120</v>
+    <row r="255" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="B255" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
-      <c r="C255" s="12" t="s">
-        <v>231</v>
+      <c r="C255" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H255" t="s">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="I255" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="L255" s="33"/>
       <c r="M255" s="43" t="str">
@@ -15818,15 +15823,15 @@
       <c r="W255" s="24"/>
       <c r="X255" s="35" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="AC255" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AD255" s="24"/>
       <c r="AE255" s="35" t="str">
         <f t="shared" si="53"/>
-        <v>-</v>
-      </c>
-      <c r="AF255" s="2" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="AK255" s="18"/>
       <c r="AL255" s="35" t="str">
@@ -15835,16 +15840,16 @@
       </c>
       <c r="AS255" s="24"/>
     </row>
-    <row r="256" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="36" t="s">
-        <v>76</v>
+    <row r="256" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="B256" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>232</v>
+      <c r="C256" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>3</v>
@@ -15853,36 +15858,36 @@
         <v>39</v>
       </c>
       <c r="I256" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="L256" s="33"/>
       <c r="M256" s="43" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="W256" s="23"/>
+      <c r="W256" s="24"/>
       <c r="X256" s="35" t="str">
         <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-      <c r="Y256" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD256" s="23"/>
+        <v/>
+      </c>
+      <c r="AD256" s="24"/>
       <c r="AE256" s="35" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="AF256" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AK256" s="18"/>
       <c r="AL256" s="35" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS256" s="23"/>
+      <c r="AS256" s="24"/>
     </row>
     <row r="257" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B257" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15927,7 +15932,7 @@
     </row>
     <row r="258" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A258" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B258" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15950,7 +15955,7 @@
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="W258" s="17"/>
+      <c r="W258" s="23"/>
       <c r="X258" s="35" t="str">
         <f t="shared" si="50"/>
         <v>-</v>
@@ -15958,7 +15963,7 @@
       <c r="Y258" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AD258" s="17"/>
+      <c r="AD258" s="23"/>
       <c r="AE258" s="35" t="str">
         <f t="shared" si="53"/>
         <v/>
@@ -15968,11 +15973,11 @@
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS258" s="17"/>
+      <c r="AS258" s="23"/>
     </row>
     <row r="259" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A259" s="36" t="s">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="B259" s="43" t="str">
         <f t="shared" si="51"/>
@@ -15985,10 +15990,10 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>335</v>
+        <v>39</v>
       </c>
       <c r="I259" t="s">
-        <v>336</v>
+        <v>46</v>
       </c>
       <c r="L259" s="33"/>
       <c r="M259" s="43" t="str">
@@ -16000,7 +16005,7 @@
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="AC259" s="2" t="s">
+      <c r="Y259" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD259" s="17"/>
@@ -16017,7 +16022,7 @@
     </row>
     <row r="260" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A260" s="36" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="B260" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16030,34 +16035,28 @@
         <v>3</v>
       </c>
       <c r="H260" t="s">
-        <v>18</v>
-      </c>
-      <c r="I260" s="6" t="s">
-        <v>19</v>
+        <v>333</v>
+      </c>
+      <c r="I260" t="s">
+        <v>334</v>
       </c>
       <c r="L260" s="33"/>
       <c r="M260" s="43" t="str">
         <f t="shared" si="52"/>
-        <v>-</v>
-      </c>
-      <c r="N260" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q260" s="2" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="W260" s="17"/>
       <c r="X260" s="35" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="AC260" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AD260" s="17"/>
       <c r="AE260" s="35" t="str">
         <f t="shared" si="53"/>
-        <v>-</v>
-      </c>
-      <c r="AF260" s="2" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="AK260" s="18"/>
       <c r="AL260" s="35" t="str">
@@ -16081,15 +16080,21 @@
         <v>3</v>
       </c>
       <c r="H261" t="s">
-        <v>39</v>
-      </c>
-      <c r="I261" t="s">
-        <v>122</v>
+        <v>18</v>
+      </c>
+      <c r="I261" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="L261" s="33"/>
       <c r="M261" s="43" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="N261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q261" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="W261" s="17"/>
       <c r="X261" s="35" t="str">
@@ -16113,7 +16118,7 @@
     </row>
     <row r="262" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="36" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="B262" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16126,7 +16131,10 @@
         <v>3</v>
       </c>
       <c r="H262" t="s">
-        <v>283</v>
+        <v>39</v>
+      </c>
+      <c r="I262" t="s">
+        <v>122</v>
       </c>
       <c r="L262" s="33"/>
       <c r="M262" s="43" t="str">
@@ -16136,15 +16144,15 @@
       <c r="W262" s="17"/>
       <c r="X262" s="35" t="str">
         <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-      <c r="Y262" s="2" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="AD262" s="17"/>
       <c r="AE262" s="35" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="AF262" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AK262" s="18"/>
       <c r="AL262" s="35" t="str">
@@ -16152,13 +16160,10 @@
         <v/>
       </c>
       <c r="AS262" s="17"/>
-      <c r="AT262" s="6" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="263" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="36" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="B263" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16171,10 +16176,7 @@
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>335</v>
-      </c>
-      <c r="I263" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="L263" s="33"/>
       <c r="M263" s="43" t="str">
@@ -16186,7 +16188,7 @@
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="AC263" s="2" t="s">
+      <c r="Y263" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD263" s="17"/>
@@ -16200,26 +16202,29 @@
         <v/>
       </c>
       <c r="AS263" s="17"/>
+      <c r="AT263" s="6" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="264" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="37" t="s">
-        <v>121</v>
+      <c r="A264" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="B264" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
-      <c r="C264" s="12" t="s">
-        <v>231</v>
+      <c r="C264" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H264" t="s">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="I264" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="L264" s="33"/>
       <c r="M264" s="43" t="str">
@@ -16229,15 +16234,15 @@
       <c r="W264" s="17"/>
       <c r="X264" s="35" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="AC264" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AD264" s="17"/>
       <c r="AE264" s="35" t="str">
         <f t="shared" si="53"/>
-        <v>-</v>
-      </c>
-      <c r="AF264" s="2" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="AK264" s="18"/>
       <c r="AL264" s="35" t="str">
@@ -16247,15 +16252,15 @@
       <c r="AS264" s="17"/>
     </row>
     <row r="265" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="36" t="s">
-        <v>140</v>
+      <c r="A265" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="B265" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>232</v>
+      <c r="C265" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>3</v>
@@ -16293,7 +16298,7 @@
     </row>
     <row r="266" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="36" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="B266" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16306,30 +16311,27 @@
         <v>3</v>
       </c>
       <c r="H266" t="s">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="I266" t="s">
-        <v>332</v>
+        <v>122</v>
       </c>
       <c r="L266" s="33"/>
       <c r="M266" s="43" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="W266" s="29"/>
+      <c r="W266" s="17"/>
       <c r="X266" s="35" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="AD266" s="29"/>
+      <c r="AD266" s="17"/>
       <c r="AE266" s="35" t="str">
         <f t="shared" si="53"/>
         <v>-</v>
       </c>
-      <c r="AG266" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH266" s="9" t="s">
+      <c r="AF266" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AK266" s="18"/>
@@ -16337,31 +16339,43 @@
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS266" s="29"/>
+      <c r="AS266" s="17"/>
     </row>
     <row r="267" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B267" s="43"/>
+      <c r="B267" s="43" t="str">
+        <f t="shared" si="51"/>
+        <v>-</v>
+      </c>
       <c r="C267" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>548</v>
+        <v>3</v>
       </c>
       <c r="H267" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="I267" t="s">
-        <v>109</v>
-      </c>
-      <c r="L267" s="45"/>
-      <c r="M267" s="43"/>
-      <c r="W267" s="45"/>
-      <c r="X267" s="35"/>
-      <c r="AD267" s="45"/>
-      <c r="AE267" s="35"/>
+        <v>330</v>
+      </c>
+      <c r="L267" s="33"/>
+      <c r="M267" s="43" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="W267" s="29"/>
+      <c r="X267" s="35" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="AD267" s="29"/>
+      <c r="AE267" s="35" t="str">
+        <f t="shared" si="53"/>
+        <v>-</v>
+      </c>
       <c r="AG267" s="9" t="s">
         <v>3</v>
       </c>
@@ -16369,75 +16383,48 @@
         <v>3</v>
       </c>
       <c r="AK267" s="18"/>
-      <c r="AL267" s="35"/>
-      <c r="AS267" s="45"/>
+      <c r="AL267" s="35" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="AS267" s="29"/>
     </row>
     <row r="268" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B268" s="43" t="str">
-        <f t="shared" si="51"/>
-        <v>-</v>
-      </c>
+      <c r="B268" s="43"/>
       <c r="C268" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>3</v>
+        <v>544</v>
       </c>
       <c r="H268" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I268" t="s">
-        <v>19</v>
-      </c>
-      <c r="L268" s="33"/>
-      <c r="M268" s="43" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="W268" s="17"/>
-      <c r="X268" s="35" t="str">
-        <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-      <c r="Y268" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z268" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA268" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB268" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC268" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD268" s="17"/>
-      <c r="AE268" s="35" t="str">
-        <f t="shared" si="53"/>
-        <v>-</v>
-      </c>
-      <c r="AF268" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ268" s="22" t="s">
-        <v>227</v>
+        <v>109</v>
+      </c>
+      <c r="L268" s="45"/>
+      <c r="M268" s="43"/>
+      <c r="W268" s="45"/>
+      <c r="X268" s="35"/>
+      <c r="AD268" s="45"/>
+      <c r="AE268" s="35"/>
+      <c r="AG268" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH268" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="AK268" s="18"/>
-      <c r="AL268" s="35" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AS268" s="17"/>
+      <c r="AL268" s="35"/>
+      <c r="AS268" s="45"/>
     </row>
     <row r="269" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A269" s="36" t="s">
-        <v>342</v>
+        <v>89</v>
       </c>
       <c r="B269" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16450,39 +16437,57 @@
         <v>3</v>
       </c>
       <c r="H269" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I269" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L269" s="33"/>
       <c r="M269" s="43" t="str">
         <f t="shared" si="52"/>
-        <v>-</v>
-      </c>
-      <c r="R269" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W269" s="33"/>
+        <v/>
+      </c>
+      <c r="W269" s="17"/>
       <c r="X269" s="35" t="str">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="AD269" s="33"/>
+        <v>-</v>
+      </c>
+      <c r="Y269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB269" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD269" s="17"/>
       <c r="AE269" s="35" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="AF269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ269" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="AK269" s="18"/>
       <c r="AL269" s="35" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS269" s="33"/>
+      <c r="AS269" s="17"/>
     </row>
     <row r="270" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B270" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16527,7 +16532,7 @@
     </row>
     <row r="271" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B271" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16572,7 +16577,7 @@
     </row>
     <row r="272" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="36" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B272" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16615,22 +16620,40 @@
       </c>
       <c r="AS272" s="33"/>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="36" t="s">
+        <v>343</v>
+      </c>
       <c r="B273" s="43" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H273" t="s">
+        <v>39</v>
+      </c>
+      <c r="I273" t="s">
+        <v>46</v>
       </c>
       <c r="L273" s="33"/>
       <c r="M273" s="43" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="W273" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="R273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W273" s="33"/>
       <c r="X273" s="35" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="AD273" s="17"/>
+      <c r="AD273" s="33"/>
       <c r="AE273" s="35" t="str">
         <f t="shared" si="53"/>
         <v/>
@@ -16640,179 +16663,160 @@
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AS273" s="17"/>
+      <c r="AS273" s="33"/>
     </row>
     <row r="274" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A274" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="B274" s="43" t="str">
         <f t="shared" si="51"/>
-        <v>-</v>
-      </c>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
-      <c r="F274" s="11"/>
-      <c r="G274" s="33"/>
-      <c r="H274" s="11"/>
-      <c r="I274" s="11"/>
-      <c r="K274" s="2"/>
-      <c r="L274" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L274" s="33"/>
       <c r="M274" s="43" t="str">
         <f t="shared" si="52"/>
-        <v>-</v>
-      </c>
-      <c r="N274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="R274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S274" s="32"/>
-      <c r="T274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="V274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="W274" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="W274" s="17"/>
       <c r="X274" s="35" t="str">
         <f t="shared" si="50"/>
-        <v>-</v>
-      </c>
-      <c r="Y274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD274" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AD274" s="17"/>
       <c r="AE274" s="35" t="str">
         <f t="shared" si="53"/>
-        <v>-</v>
-      </c>
-      <c r="AF274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK274" s="32" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AK274" s="18"/>
       <c r="AL274" s="35" t="str">
         <f t="shared" si="54"/>
-        <v>-</v>
-      </c>
-      <c r="AM274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS274" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT274"/>
-    </row>
-    <row r="275" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="36" t="s">
-        <v>81</v>
+        <v/>
+      </c>
+      <c r="AS274" s="17"/>
+    </row>
+    <row r="275" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A275" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="B275" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H275" t="s">
-        <v>39</v>
-      </c>
-      <c r="I275" t="s">
-        <v>46</v>
-      </c>
-      <c r="L275" s="33"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="33"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="11"/>
+      <c r="K275" s="2"/>
+      <c r="L275" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M275" s="43" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="W275" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="N275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S275" s="32"/>
+      <c r="T275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="W275" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X275" s="35" t="str">
         <f t="shared" si="50"/>
         <v>-</v>
       </c>
-      <c r="Y275" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD275" s="17"/>
+      <c r="Y275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD275" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AE275" s="35" t="str">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AK275" s="18"/>
+        <v>-</v>
+      </c>
+      <c r="AF275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK275" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AL275" s="35" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="AS275" s="17"/>
+        <v>-</v>
+      </c>
+      <c r="AM275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR275" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS275" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AT275"/>
     </row>
     <row r="276" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A276" s="36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B276" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16825,10 +16829,10 @@
         <v>3</v>
       </c>
       <c r="H276" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I276" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="L276" s="33"/>
       <c r="M276" s="43" t="str">
@@ -16837,7 +16841,7 @@
       </c>
       <c r="W276" s="17"/>
       <c r="X276" s="35" t="str">
-        <f t="shared" ref="X276:X324" si="55">IF(CONCATENATE(Y276,Z276,AA276,AB276,AC276)="","","-")</f>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y276" s="2" t="s">
@@ -16858,10 +16862,10 @@
     </row>
     <row r="277" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A277" s="36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B277" s="43" t="str">
-        <f t="shared" ref="B277:B322" si="56">IF(CONCATENATE(M277,X277,AE277,AL277)="","","-")</f>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -16871,19 +16875,19 @@
         <v>3</v>
       </c>
       <c r="H277" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I277" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="L277" s="33"/>
       <c r="M277" s="43" t="str">
-        <f t="shared" ref="M277:M324" si="57">IF(CONCATENATE(N277,O277,P277,Q277,R277,S277,T277,U277,V277)="","","-")</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W277" s="17"/>
       <c r="X277" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="X277:X325" si="60">IF(CONCATENATE(Y277,Z277,AA277,AB277,AC277)="","","-")</f>
         <v>-</v>
       </c>
       <c r="Y277" s="2" t="s">
@@ -16891,12 +16895,12 @@
       </c>
       <c r="AD277" s="17"/>
       <c r="AE277" s="35" t="str">
-        <f t="shared" ref="AE277:AE324" si="58">IF(CONCATENATE(AF277,AG277,AH277,AI277,AJ277)="","","-")</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK277" s="18"/>
       <c r="AL277" s="35" t="str">
-        <f t="shared" ref="AL277:AL324" si="59">IF(CONCATENATE(AM277,AN277,AO277,AP277,AQ277,AR277)="","","-")</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS277" s="17"/>
@@ -16904,10 +16908,10 @@
     </row>
     <row r="278" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A278" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B278" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="B278:B323" si="61">IF(CONCATENATE(M278,X278,AE278,AL278)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -16924,12 +16928,12 @@
       </c>
       <c r="L278" s="33"/>
       <c r="M278" s="43" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="M278:M325" si="62">IF(CONCATENATE(N278,O278,P278,Q278,R278,S278,T278,U278,V278)="","","-")</f>
         <v/>
       </c>
       <c r="W278" s="17"/>
       <c r="X278" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>-</v>
       </c>
       <c r="Y278" s="2" t="s">
@@ -16937,12 +16941,12 @@
       </c>
       <c r="AD278" s="17"/>
       <c r="AE278" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="AE278:AE325" si="63">IF(CONCATENATE(AF278,AG278,AH278,AI278,AJ278)="","","-")</f>
         <v/>
       </c>
       <c r="AK278" s="18"/>
       <c r="AL278" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="AL278:AL325" si="64">IF(CONCATENATE(AM278,AN278,AO278,AP278,AQ278,AR278)="","","-")</f>
         <v/>
       </c>
       <c r="AS278" s="17"/>
@@ -16950,10 +16954,10 @@
     </row>
     <row r="279" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A279" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B279" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -16970,12 +16974,12 @@
       </c>
       <c r="L279" s="33"/>
       <c r="M279" s="43" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="W279" s="17"/>
       <c r="X279" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>-</v>
       </c>
       <c r="Y279" s="2" t="s">
@@ -16983,12 +16987,12 @@
       </c>
       <c r="AD279" s="17"/>
       <c r="AE279" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK279" s="18"/>
       <c r="AL279" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AS279" s="17"/>
@@ -16996,10 +17000,10 @@
     </row>
     <row r="280" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A280" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B280" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -17016,12 +17020,12 @@
       </c>
       <c r="L280" s="33"/>
       <c r="M280" s="43" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="W280" s="17"/>
       <c r="X280" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>-</v>
       </c>
       <c r="Y280" s="2" t="s">
@@ -17029,338 +17033,339 @@
       </c>
       <c r="AD280" s="17"/>
       <c r="AE280" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK280" s="18"/>
       <c r="AL280" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AS280" s="17"/>
       <c r="AT280"/>
     </row>
-    <row r="281" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A281" s="16"/>
+    <row r="281" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="36" t="s">
+        <v>85</v>
+      </c>
       <c r="B281" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="F281"/>
-      <c r="G281"/>
-      <c r="I281" s="2"/>
-      <c r="K281" s="2"/>
+        <f t="shared" si="61"/>
+        <v>-</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H281" t="s">
+        <v>39</v>
+      </c>
+      <c r="I281" t="s">
+        <v>46</v>
+      </c>
       <c r="L281" s="33"/>
       <c r="M281" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="N281"/>
-      <c r="O281" s="6"/>
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
       <c r="W281" s="17"/>
       <c r="X281" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="Y281"/>
-      <c r="Z281"/>
-      <c r="AA281"/>
-      <c r="AB281" s="8"/>
-      <c r="AC281"/>
-      <c r="AD281" s="19"/>
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="Y281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD281" s="17"/>
       <c r="AE281" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF281"/>
-      <c r="AG281"/>
-      <c r="AH281"/>
-      <c r="AI281"/>
-      <c r="AJ281"/>
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
       <c r="AK281" s="18"/>
       <c r="AL281" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AM281"/>
-      <c r="AN281"/>
-      <c r="AO281"/>
-      <c r="AP281"/>
-      <c r="AQ281"/>
-      <c r="AR281"/>
-      <c r="AS281" s="19"/>
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AS281" s="17"/>
       <c r="AT281"/>
     </row>
     <row r="282" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A282" s="15" t="s">
+      <c r="A282" s="16"/>
+      <c r="B282" s="43" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="F282"/>
+      <c r="G282"/>
+      <c r="I282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="33"/>
+      <c r="M282" s="43" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="N282"/>
+      <c r="O282" s="6"/>
+      <c r="W282" s="17"/>
+      <c r="X282" s="35" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="Y282"/>
+      <c r="Z282"/>
+      <c r="AA282"/>
+      <c r="AB282" s="8"/>
+      <c r="AC282"/>
+      <c r="AD282" s="19"/>
+      <c r="AE282" s="35" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AF282"/>
+      <c r="AG282"/>
+      <c r="AH282"/>
+      <c r="AI282"/>
+      <c r="AJ282"/>
+      <c r="AK282" s="18"/>
+      <c r="AL282" s="35" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AM282"/>
+      <c r="AN282"/>
+      <c r="AO282"/>
+      <c r="AP282"/>
+      <c r="AQ282"/>
+      <c r="AR282"/>
+      <c r="AS282" s="19"/>
+      <c r="AT282"/>
+    </row>
+    <row r="283" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A283" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B282" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C282" s="51" t="s">
+      <c r="B283" s="43" t="str">
+        <f t="shared" si="61"/>
+        <v>-</v>
+      </c>
+      <c r="C283" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="D282" s="51"/>
-      <c r="E282" s="51"/>
-      <c r="F282" s="51"/>
-      <c r="G282" s="51"/>
-      <c r="H282" s="51"/>
-      <c r="I282" s="51"/>
-      <c r="K282" s="2"/>
-      <c r="L282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M282" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="R282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S282" s="32"/>
-      <c r="T282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="V282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="W282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X282" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE282" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL282" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS282" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT282"/>
-    </row>
-    <row r="283" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="B283" s="43" t="str">
-        <f t="shared" ref="B283:B301" si="60">IF(CONCATENATE(M283,X283,AE283,AL283)="","","-")</f>
-        <v>-</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H283" t="s">
-        <v>18</v>
-      </c>
-      <c r="I283" t="s">
-        <v>19</v>
-      </c>
-      <c r="L283" s="33"/>
+      <c r="D283" s="52"/>
+      <c r="E283" s="52"/>
+      <c r="F283" s="52"/>
+      <c r="G283" s="52"/>
+      <c r="H283" s="52"/>
+      <c r="I283" s="52"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M283" s="43" t="str">
-        <f t="shared" ref="M283:M290" si="61">IF(CONCATENATE(N283,O283,P283,Q283,R283,S283,T283,U283,V283)="","","-")</f>
-        <v/>
-      </c>
-      <c r="W283" s="33"/>
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="N283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S283" s="32"/>
+      <c r="T283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="W283" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X283" s="35" t="str">
-        <f t="shared" ref="X283:X290" si="62">IF(CONCATENATE(Y283,Z283,AA283,AB283,AC283)="","","-")</f>
-        <v/>
-      </c>
-      <c r="AD283" s="33"/>
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="Y283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD283" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AE283" s="35" t="str">
-        <f t="shared" ref="AE283:AE290" si="63">IF(CONCATENATE(AF283,AG283,AH283,AI283,AJ283)="","","-")</f>
-        <v/>
-      </c>
-      <c r="AK283" s="18"/>
+        <f t="shared" si="63"/>
+        <v>-</v>
+      </c>
+      <c r="AF283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK283" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AL283" s="35" t="str">
-        <f t="shared" ref="AL283:AL301" si="64">IF(CONCATENATE(AM283,AN283,AO283,AP283,AQ283,AR283)="","","-")</f>
-        <v>-</v>
-      </c>
-      <c r="AM283" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS283" s="33"/>
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AM283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR283" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS283" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AT283"/>
     </row>
     <row r="284" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A284" s="36" t="s">
-        <v>99</v>
+        <v>402</v>
       </c>
       <c r="B284" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="B284:B302" si="65">IF(CONCATENATE(M284,X284,AE284,AL284)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F284" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="G284" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H284" t="s">
-        <v>335</v>
+        <v>18</v>
       </c>
       <c r="I284" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="L284" s="33"/>
       <c r="M284" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="M284:M291" si="66">IF(CONCATENATE(N284,O284,P284,Q284,R284,S284,T284,U284,V284)="","","-")</f>
         <v/>
       </c>
       <c r="W284" s="33"/>
       <c r="X284" s="35" t="str">
-        <f t="shared" si="62"/>
-        <v>-</v>
-      </c>
-      <c r="AA284" s="2" t="s">
-        <v>3</v>
+        <f t="shared" ref="X284:X291" si="67">IF(CONCATENATE(Y284,Z284,AA284,AB284,AC284)="","","-")</f>
+        <v/>
       </c>
       <c r="AD284" s="33"/>
       <c r="AE284" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="AE284:AE291" si="68">IF(CONCATENATE(AF284,AG284,AH284,AI284,AJ284)="","","-")</f>
         <v/>
       </c>
       <c r="AK284" s="18"/>
       <c r="AL284" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v/>
+        <f t="shared" ref="AL284:AL302" si="69">IF(CONCATENATE(AM284,AN284,AO284,AP284,AQ284,AR284)="","","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AM284" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AS284" s="33"/>
       <c r="AT284"/>
     </row>
     <row r="285" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A285" s="36" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="B285" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="F285" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="G285" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H285" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="I285" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="L285" s="33"/>
       <c r="M285" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="W285" s="33"/>
       <c r="X285" s="35" t="str">
-        <f t="shared" si="62"/>
-        <v/>
+        <f t="shared" si="67"/>
+        <v>-</v>
+      </c>
+      <c r="AA285" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AD285" s="33"/>
       <c r="AE285" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK285" s="18"/>
       <c r="AL285" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AM285" s="2" t="s">
-        <v>3</v>
+        <f t="shared" si="69"/>
+        <v/>
       </c>
       <c r="AS285" s="33"/>
+      <c r="AT285"/>
     </row>
     <row r="286" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A286" s="36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B286" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C286" s="9" t="s">
@@ -17377,22 +17382,22 @@
       </c>
       <c r="L286" s="33"/>
       <c r="M286" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="W286" s="33"/>
       <c r="X286" s="35" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AD286" s="33"/>
       <c r="AE286" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK286" s="18"/>
       <c r="AL286" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM286" s="2" t="s">
@@ -17402,10 +17407,10 @@
     </row>
     <row r="287" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A287" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B287" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C287" s="9" t="s">
@@ -17422,22 +17427,22 @@
       </c>
       <c r="L287" s="33"/>
       <c r="M287" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="W287" s="33"/>
       <c r="X287" s="35" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AD287" s="33"/>
       <c r="AE287" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK287" s="18"/>
       <c r="AL287" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM287" s="2" t="s">
@@ -17447,10 +17452,10 @@
     </row>
     <row r="288" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A288" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B288" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C288" s="9" t="s">
@@ -17467,35 +17472,35 @@
       </c>
       <c r="L288" s="33"/>
       <c r="M288" s="43" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-      <c r="W288" s="17"/>
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="W288" s="33"/>
       <c r="X288" s="35" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-      <c r="AD288" s="17"/>
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="AD288" s="33"/>
       <c r="AE288" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK288" s="18"/>
       <c r="AL288" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM288" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS288" s="17"/>
+      <c r="AS288" s="33"/>
     </row>
     <row r="289" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A289" s="36" t="s">
-        <v>530</v>
+        <v>193</v>
       </c>
       <c r="B289" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C289" s="9" t="s">
@@ -17505,42 +17510,42 @@
         <v>3</v>
       </c>
       <c r="H289" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I289" t="s">
-        <v>529</v>
-      </c>
-      <c r="L289" s="34"/>
+        <v>195</v>
+      </c>
+      <c r="L289" s="33"/>
       <c r="M289" s="43" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-      <c r="W289" s="34"/>
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="W289" s="17"/>
       <c r="X289" s="35" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-      <c r="AD289" s="34"/>
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="AD289" s="17"/>
       <c r="AE289" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK289" s="18"/>
       <c r="AL289" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AN289" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS289" s="34"/>
+        <f t="shared" si="69"/>
+        <v>-</v>
+      </c>
+      <c r="AM289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS289" s="17"/>
     </row>
     <row r="290" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A290" s="36" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B290" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C290" s="9" t="s">
@@ -17553,26 +17558,26 @@
         <v>21</v>
       </c>
       <c r="I290" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L290" s="34"/>
       <c r="M290" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="W290" s="34"/>
       <c r="X290" s="35" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="AD290" s="34"/>
       <c r="AE290" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK290" s="18"/>
       <c r="AL290" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AN290" s="2" t="s">
@@ -17582,10 +17587,10 @@
     </row>
     <row r="291" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A291" s="36" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="B291" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C291" s="9" t="s">
@@ -17595,84 +17600,92 @@
         <v>3</v>
       </c>
       <c r="H291" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I291" t="s">
-        <v>509</v>
-      </c>
-      <c r="L291" s="33"/>
-      <c r="M291" s="43"/>
-      <c r="W291" s="33"/>
-      <c r="X291" s="35"/>
-      <c r="AD291" s="33"/>
-      <c r="AE291" s="35"/>
+        <v>527</v>
+      </c>
+      <c r="L291" s="34"/>
+      <c r="M291" s="43" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="W291" s="34"/>
+      <c r="X291" s="35" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="AD291" s="34"/>
+      <c r="AE291" s="35" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
       <c r="AK291" s="18"/>
       <c r="AL291" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AO291" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS291" s="33"/>
-      <c r="AT291"/>
+        <f t="shared" si="69"/>
+        <v>-</v>
+      </c>
+      <c r="AN291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS291" s="34"/>
     </row>
     <row r="292" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A292" s="36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B292" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>231</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="H292" t="s">
         <v>45</v>
       </c>
       <c r="I292" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L292" s="33"/>
       <c r="M292" s="43"/>
-      <c r="W292" s="17"/>
+      <c r="W292" s="33"/>
       <c r="X292" s="35"/>
-      <c r="AD292" s="17"/>
+      <c r="AD292" s="33"/>
       <c r="AE292" s="35"/>
       <c r="AK292" s="18"/>
       <c r="AL292" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AN292" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS292" s="17"/>
+        <f t="shared" si="69"/>
+        <v>-</v>
+      </c>
+      <c r="AO292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS292" s="33"/>
       <c r="AT292"/>
     </row>
     <row r="293" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A293" s="36" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B293" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>231</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>3</v>
+        <v>505</v>
       </c>
       <c r="H293" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I293" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L293" s="33"/>
       <c r="M293" s="43"/>
@@ -17682,13 +17695,10 @@
       <c r="AE293" s="35"/>
       <c r="AK293" s="18"/>
       <c r="AL293" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AN293" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO293" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AS293" s="17"/>
@@ -17696,10 +17706,10 @@
     </row>
     <row r="294" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A294" s="36" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B294" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C294" s="9" t="s">
@@ -17712,31 +17722,34 @@
         <v>39</v>
       </c>
       <c r="I294" t="s">
-        <v>506</v>
-      </c>
-      <c r="L294" s="34"/>
+        <v>504</v>
+      </c>
+      <c r="L294" s="33"/>
       <c r="M294" s="43"/>
-      <c r="W294" s="34"/>
+      <c r="W294" s="17"/>
       <c r="X294" s="35"/>
-      <c r="AD294" s="34"/>
+      <c r="AD294" s="17"/>
       <c r="AE294" s="35"/>
       <c r="AK294" s="18"/>
       <c r="AL294" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v>-</v>
+        <f t="shared" si="69"/>
+        <v>-</v>
+      </c>
+      <c r="AN294" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AO294" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS294" s="34"/>
+      <c r="AS294" s="17"/>
       <c r="AT294"/>
     </row>
     <row r="295" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="36" t="s">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="B295" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C295" s="9" t="s">
@@ -17745,46 +17758,35 @@
       <c r="G295" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H295" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="I295" s="14" t="s">
-        <v>249</v>
+      <c r="H295" t="s">
+        <v>39</v>
+      </c>
+      <c r="I295" t="s">
+        <v>504</v>
       </c>
       <c r="L295" s="34"/>
-      <c r="M295" s="43" t="str">
-        <f>IF(CONCATENATE(N295,O295,P295,Q295,R295,S295,T295,U295,V295)="","","-")</f>
-        <v/>
-      </c>
+      <c r="M295" s="43"/>
       <c r="W295" s="34"/>
-      <c r="X295" s="35" t="str">
-        <f>IF(CONCATENATE(Y295,Z295,AA295,AB295,AC295)="","","-")</f>
-        <v/>
-      </c>
+      <c r="X295" s="35"/>
       <c r="AD295" s="34"/>
-      <c r="AE295" s="35" t="str">
-        <f>IF(CONCATENATE(AF295,AG295,AH295,AI295,AJ295)="","","-")</f>
-        <v/>
-      </c>
+      <c r="AE295" s="35"/>
       <c r="AK295" s="18"/>
       <c r="AL295" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AP295" s="2" t="s">
+        <f t="shared" si="69"/>
+        <v>-</v>
+      </c>
+      <c r="AO295" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AS295" s="34"/>
-      <c r="AT295" s="7" t="s">
-        <v>405</v>
-      </c>
+      <c r="AT295"/>
     </row>
     <row r="296" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A296" s="36" t="s">
-        <v>523</v>
+        <v>250</v>
       </c>
       <c r="B296" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C296" s="9" t="s">
@@ -17793,38 +17795,46 @@
       <c r="G296" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H296" t="s">
-        <v>18</v>
-      </c>
-      <c r="I296" t="s">
-        <v>19</v>
-      </c>
-      <c r="L296" s="33"/>
-      <c r="M296" s="43"/>
-      <c r="W296" s="17"/>
-      <c r="X296" s="35"/>
-      <c r="AD296" s="17"/>
-      <c r="AE296" s="35"/>
+      <c r="H296" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="I296" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="L296" s="34"/>
+      <c r="M296" s="43" t="str">
+        <f>IF(CONCATENATE(N296,O296,P296,Q296,R296,S296,T296,U296,V296)="","","-")</f>
+        <v/>
+      </c>
+      <c r="W296" s="34"/>
+      <c r="X296" s="35" t="str">
+        <f>IF(CONCATENATE(Y296,Z296,AA296,AB296,AC296)="","","-")</f>
+        <v/>
+      </c>
+      <c r="AD296" s="34"/>
+      <c r="AE296" s="35" t="str">
+        <f>IF(CONCATENATE(AF296,AG296,AH296,AI296,AJ296)="","","-")</f>
+        <v/>
+      </c>
       <c r="AK296" s="18"/>
       <c r="AL296" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AN296" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO296" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS296" s="17"/>
-      <c r="AT296"/>
+        <f t="shared" si="69"/>
+        <v>-</v>
+      </c>
+      <c r="AP296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS296" s="34"/>
+      <c r="AT296" s="7" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="297" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A297" s="36" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B297" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C297" s="9" t="s">
@@ -17847,7 +17857,7 @@
       <c r="AE297" s="35"/>
       <c r="AK297" s="18"/>
       <c r="AL297" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AN297" s="2" t="s">
@@ -17861,10 +17871,10 @@
     </row>
     <row r="298" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="36" t="s">
-        <v>89</v>
+        <v>522</v>
       </c>
       <c r="B298" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C298" s="9" t="s">
@@ -17880,36 +17890,31 @@
         <v>19</v>
       </c>
       <c r="L298" s="33"/>
-      <c r="M298" s="43" t="str">
-        <f>IF(CONCATENATE(N298,O298,P298,Q298,R298,S298,T298,U298,V298)="","","-")</f>
-        <v/>
-      </c>
-      <c r="W298" s="33"/>
-      <c r="X298" s="35" t="str">
-        <f>IF(CONCATENATE(Y298,Z298,AA298,AB298,AC298)="","","-")</f>
-        <v/>
-      </c>
-      <c r="AD298" s="33"/>
-      <c r="AE298" s="35" t="str">
-        <f>IF(CONCATENATE(AF298,AG298,AH298,AI298,AJ298)="","","-")</f>
-        <v/>
-      </c>
+      <c r="M298" s="43"/>
+      <c r="W298" s="17"/>
+      <c r="X298" s="35"/>
+      <c r="AD298" s="17"/>
+      <c r="AE298" s="35"/>
       <c r="AK298" s="18"/>
       <c r="AL298" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AM298" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS298" s="33"/>
+        <f t="shared" si="69"/>
+        <v>-</v>
+      </c>
+      <c r="AN298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS298" s="17"/>
+      <c r="AT298"/>
     </row>
     <row r="299" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A299" s="36" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="B299" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C299" s="9" t="s">
@@ -17929,618 +17934,620 @@
         <f>IF(CONCATENATE(N299,O299,P299,Q299,R299,S299,T299,U299,V299)="","","-")</f>
         <v/>
       </c>
-      <c r="W299" s="17"/>
+      <c r="W299" s="33"/>
       <c r="X299" s="35" t="str">
         <f>IF(CONCATENATE(Y299,Z299,AA299,AB299,AC299)="","","-")</f>
         <v/>
       </c>
-      <c r="AD299" s="17"/>
+      <c r="AD299" s="33"/>
       <c r="AE299" s="35" t="str">
         <f>IF(CONCATENATE(AF299,AG299,AH299,AI299,AJ299)="","","-")</f>
         <v/>
       </c>
       <c r="AK299" s="18"/>
       <c r="AL299" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM299" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS299" s="17"/>
+      <c r="AS299" s="33"/>
     </row>
     <row r="300" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A300" s="36" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="B300" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C300" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F300" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="G300" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H300" t="s">
-        <v>335</v>
+        <v>18</v>
       </c>
       <c r="I300" t="s">
-        <v>336</v>
-      </c>
-      <c r="L300" s="34"/>
+        <v>19</v>
+      </c>
+      <c r="L300" s="33"/>
       <c r="M300" s="43" t="str">
         <f>IF(CONCATENATE(N300,O300,P300,Q300,R300,S300,T300,U300,V300)="","","-")</f>
         <v/>
       </c>
-      <c r="W300" s="34"/>
+      <c r="W300" s="17"/>
       <c r="X300" s="35" t="str">
         <f>IF(CONCATENATE(Y300,Z300,AA300,AB300,AC300)="","","-")</f>
-        <v>-</v>
-      </c>
-      <c r="AA300" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD300" s="34"/>
+        <v/>
+      </c>
+      <c r="AD300" s="17"/>
       <c r="AE300" s="35" t="str">
         <f>IF(CONCATENATE(AF300,AG300,AH300,AI300,AJ300)="","","-")</f>
         <v/>
       </c>
       <c r="AK300" s="18"/>
       <c r="AL300" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="AS300" s="34"/>
+        <f t="shared" si="69"/>
+        <v>-</v>
+      </c>
+      <c r="AM300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS300" s="17"/>
     </row>
     <row r="301" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="36"/>
+      <c r="A301" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="B301" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="F301" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="G301" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H301" t="s">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="I301" t="s">
-        <v>506</v>
-      </c>
-      <c r="L301" s="33"/>
-      <c r="M301" s="43"/>
-      <c r="W301" s="17"/>
-      <c r="X301" s="35"/>
-      <c r="AD301" s="17"/>
-      <c r="AE301" s="35"/>
+        <v>334</v>
+      </c>
+      <c r="L301" s="34"/>
+      <c r="M301" s="43" t="str">
+        <f>IF(CONCATENATE(N301,O301,P301,Q301,R301,S301,T301,U301,V301)="","","-")</f>
+        <v/>
+      </c>
+      <c r="W301" s="34"/>
+      <c r="X301" s="35" t="str">
+        <f>IF(CONCATENATE(Y301,Z301,AA301,AB301,AC301)="","","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AA301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD301" s="34"/>
+      <c r="AE301" s="35" t="str">
+        <f>IF(CONCATENATE(AF301,AG301,AH301,AI301,AJ301)="","","-")</f>
+        <v/>
+      </c>
       <c r="AK301" s="18"/>
       <c r="AL301" s="35" t="str">
-        <f t="shared" si="64"/>
-        <v>-</v>
-      </c>
-      <c r="AN301" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO301" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS301" s="17"/>
-      <c r="AT301"/>
-    </row>
-    <row r="302" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A302" s="16"/>
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="AS301" s="34"/>
+    </row>
+    <row r="302" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="36"/>
       <c r="B302" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="F302"/>
-      <c r="G302"/>
-      <c r="I302" s="2"/>
-      <c r="K302" s="2"/>
+        <f t="shared" si="65"/>
+        <v>-</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H302" t="s">
+        <v>39</v>
+      </c>
+      <c r="I302" t="s">
+        <v>504</v>
+      </c>
       <c r="L302" s="33"/>
-      <c r="M302" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="N302"/>
-      <c r="O302" s="6"/>
+      <c r="M302" s="43"/>
       <c r="W302" s="17"/>
-      <c r="X302" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="Y302"/>
-      <c r="Z302"/>
-      <c r="AA302"/>
-      <c r="AB302" s="8"/>
-      <c r="AC302"/>
-      <c r="AD302" s="19"/>
-      <c r="AE302" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF302"/>
-      <c r="AG302"/>
-      <c r="AH302"/>
-      <c r="AI302"/>
-      <c r="AJ302"/>
+      <c r="X302" s="35"/>
+      <c r="AD302" s="17"/>
+      <c r="AE302" s="35"/>
       <c r="AK302" s="18"/>
       <c r="AL302" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AM302"/>
-      <c r="AN302"/>
-      <c r="AO302"/>
-      <c r="AP302"/>
-      <c r="AQ302"/>
-      <c r="AR302"/>
-      <c r="AS302" s="19"/>
+        <f t="shared" si="69"/>
+        <v>-</v>
+      </c>
+      <c r="AN302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS302" s="17"/>
       <c r="AT302"/>
     </row>
     <row r="303" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A303" s="15" t="s">
+      <c r="A303" s="16"/>
+      <c r="B303" s="43" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="F303"/>
+      <c r="G303"/>
+      <c r="I303" s="2"/>
+      <c r="K303" s="2"/>
+      <c r="L303" s="33"/>
+      <c r="M303" s="43" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="N303"/>
+      <c r="O303" s="6"/>
+      <c r="W303" s="17"/>
+      <c r="X303" s="35" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="Y303"/>
+      <c r="Z303"/>
+      <c r="AA303"/>
+      <c r="AB303" s="8"/>
+      <c r="AC303"/>
+      <c r="AD303" s="19"/>
+      <c r="AE303" s="35" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AF303"/>
+      <c r="AG303"/>
+      <c r="AH303"/>
+      <c r="AI303"/>
+      <c r="AJ303"/>
+      <c r="AK303" s="18"/>
+      <c r="AL303" s="35" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AM303"/>
+      <c r="AN303"/>
+      <c r="AO303"/>
+      <c r="AP303"/>
+      <c r="AQ303"/>
+      <c r="AR303"/>
+      <c r="AS303" s="19"/>
+      <c r="AT303"/>
+    </row>
+    <row r="304" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A304" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B303" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C303" s="11"/>
-      <c r="D303" s="11"/>
-      <c r="E303" s="11"/>
-      <c r="F303" s="11"/>
-      <c r="G303" s="33"/>
-      <c r="H303" s="11"/>
-      <c r="I303" s="11"/>
-      <c r="J303" s="21"/>
-      <c r="K303" s="13"/>
-      <c r="L303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M303" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="R303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S303" s="32"/>
-      <c r="T303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="V303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="W303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X303" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE303" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL303" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS303" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT303"/>
-    </row>
-    <row r="304" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="36" t="s">
-        <v>251</v>
-      </c>
       <c r="B304" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H304" t="s">
-        <v>21</v>
-      </c>
-      <c r="L304" s="18"/>
+        <f t="shared" si="61"/>
+        <v>-</v>
+      </c>
+      <c r="C304" s="11"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
+      <c r="G304" s="33"/>
+      <c r="H304" s="11"/>
+      <c r="I304" s="11"/>
+      <c r="J304" s="21"/>
+      <c r="K304" s="13"/>
+      <c r="L304" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M304" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="W304" s="18"/>
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="N304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S304" s="32"/>
+      <c r="T304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="W304" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X304" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AD304" s="17"/>
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="Y304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD304" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AE304" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AK304" s="18"/>
+        <f t="shared" si="63"/>
+        <v>-</v>
+      </c>
+      <c r="AF304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK304" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AL304" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AP304" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS304" s="17"/>
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AM304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS304" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT304"/>
     </row>
     <row r="305" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A305" s="36" t="s">
-        <v>466</v>
+        <v>251</v>
       </c>
       <c r="B305" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="G305" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H305" t="s">
-        <v>438</v>
+        <v>21</v>
       </c>
       <c r="L305" s="18"/>
       <c r="M305" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="V305" s="2" t="s">
-        <v>3</v>
+        <f t="shared" si="62"/>
+        <v/>
       </c>
       <c r="W305" s="18"/>
       <c r="X305" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AD305" s="33"/>
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="AD305" s="17"/>
       <c r="AE305" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK305" s="18"/>
       <c r="AL305" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS305" s="33"/>
-      <c r="AT305" s="7" t="s">
-        <v>469</v>
-      </c>
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AP305" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS305" s="17"/>
     </row>
     <row r="306" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A306" s="36" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B306" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H306" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L306" s="18"/>
       <c r="M306" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="T306" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U306" s="2" t="s">
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="V306" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W306" s="18"/>
       <c r="X306" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AD306" s="33"/>
       <c r="AE306" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK306" s="18"/>
       <c r="AL306" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AS306" s="33"/>
       <c r="AT306" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="307" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="36" t="s">
-        <v>370</v>
+        <v>465</v>
       </c>
       <c r="B307" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H307" t="s">
-        <v>39</v>
-      </c>
-      <c r="I307" t="s">
-        <v>122</v>
-      </c>
-      <c r="L307" s="33"/>
+        <v>436</v>
+      </c>
+      <c r="L307" s="18"/>
       <c r="M307" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="T307" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="U307" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W307" s="33"/>
+      <c r="W307" s="18"/>
       <c r="X307" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AD307" s="33"/>
       <c r="AE307" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AG307" s="9"/>
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
       <c r="AK307" s="18"/>
       <c r="AL307" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AS307" s="33"/>
+      <c r="AT307" s="7" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="308" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A308" s="36" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B308" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H308" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="I308" t="s">
-        <v>337</v>
+        <v>122</v>
       </c>
       <c r="L308" s="33"/>
       <c r="M308" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="W308" s="17"/>
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="U308" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W308" s="33"/>
       <c r="X308" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AD308" s="17"/>
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="AD308" s="33"/>
       <c r="AE308" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AG308" s="9"/>
       <c r="AK308" s="18"/>
       <c r="AL308" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM308" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS308" s="17"/>
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AS308" s="33"/>
     </row>
     <row r="309" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A309" s="36" t="s">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="B309" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H309" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I309" t="s">
-        <v>19</v>
-      </c>
-      <c r="J309" s="6" t="s">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c r="L309" s="33"/>
       <c r="M309" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W309" s="33"/>
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="W309" s="17"/>
       <c r="X309" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB309" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD309" s="33"/>
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="AD309" s="17"/>
       <c r="AE309" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG309" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ309" s="2" t="s">
-        <v>3</v>
-      </c>
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AG309" s="9"/>
       <c r="AK309" s="18"/>
       <c r="AL309" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-</v>
       </c>
       <c r="AM309" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS309" s="33"/>
+      <c r="AS309" s="17"/>
     </row>
     <row r="310" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A310" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B310" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H310" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I310" t="s">
-        <v>337</v>
+        <v>19</v>
+      </c>
+      <c r="J310" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="L310" s="33"/>
       <c r="M310" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="N310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P310" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="W310" s="33"/>
       <c r="X310" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="Y310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB310" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC310" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AD310" s="33"/>
       <c r="AE310" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AG310" s="9"/>
+        <f t="shared" si="63"/>
+        <v>-</v>
+      </c>
+      <c r="AF310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG310" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ310" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="AK310" s="18"/>
       <c r="AL310" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-</v>
       </c>
       <c r="AM310" s="2" t="s">
@@ -18553,158 +18560,159 @@
         <v>87</v>
       </c>
       <c r="B311" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H311" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="I311" t="s">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="L311" s="33"/>
       <c r="M311" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="P311" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W311" s="17"/>
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="W311" s="33"/>
       <c r="X311" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y311" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z311" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA311" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB311" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC311" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD311" s="17"/>
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="AD311" s="33"/>
       <c r="AE311" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF311" s="2" t="s">
-        <v>3</v>
+        <f t="shared" si="63"/>
+        <v/>
       </c>
       <c r="AG311" s="9"/>
-      <c r="AH311" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AK311" s="18"/>
       <c r="AL311" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS311" s="17"/>
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AM311" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS311" s="33"/>
     </row>
     <row r="312" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A312" s="36" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="B312" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H312" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I312" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L312" s="33"/>
       <c r="M312" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="R312" s="2" t="s">
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="P312" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W312" s="17"/>
       <c r="X312" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="Y312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB312" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC312" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="AD312" s="17"/>
       <c r="AE312" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
+        <f t="shared" si="63"/>
+        <v>-</v>
+      </c>
+      <c r="AF312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG312" s="9"/>
+      <c r="AH312" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AK312" s="18"/>
       <c r="AL312" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AP312" s="2" t="s">
-        <v>3</v>
+        <f t="shared" si="64"/>
+        <v/>
       </c>
       <c r="AS312" s="17"/>
     </row>
     <row r="313" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A313" s="36" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="B313" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H313" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I313" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L313" s="33"/>
       <c r="M313" s="43" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-</v>
       </c>
       <c r="R313" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W313" s="33"/>
+      <c r="W313" s="17"/>
       <c r="X313" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AD313" s="33"/>
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="AD313" s="17"/>
       <c r="AE313" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK313" s="18"/>
       <c r="AL313" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS313" s="33"/>
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AP313" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS313" s="17"/>
     </row>
     <row r="314" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="36" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B314" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C314" s="2" t="s">
@@ -18718,7 +18726,7 @@
       </c>
       <c r="L314" s="33"/>
       <c r="M314" s="43" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-</v>
       </c>
       <c r="R314" s="2" t="s">
@@ -18726,27 +18734,27 @@
       </c>
       <c r="W314" s="33"/>
       <c r="X314" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AD314" s="33"/>
       <c r="AE314" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK314" s="18"/>
       <c r="AL314" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AS314" s="33"/>
     </row>
     <row r="315" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B315" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C315" s="2" t="s">
@@ -18760,7 +18768,7 @@
       </c>
       <c r="L315" s="33"/>
       <c r="M315" s="43" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-</v>
       </c>
       <c r="R315" s="2" t="s">
@@ -18768,27 +18776,27 @@
       </c>
       <c r="W315" s="33"/>
       <c r="X315" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AD315" s="33"/>
       <c r="AE315" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK315" s="18"/>
       <c r="AL315" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AS315" s="33"/>
     </row>
     <row r="316" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B316" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -18802,7 +18810,7 @@
       </c>
       <c r="L316" s="33"/>
       <c r="M316" s="43" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-</v>
       </c>
       <c r="R316" s="2" t="s">
@@ -18810,606 +18818,648 @@
       </c>
       <c r="W316" s="33"/>
       <c r="X316" s="35" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="AD316" s="33"/>
       <c r="AE316" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK316" s="18"/>
       <c r="AL316" s="35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="AS316" s="33"/>
     </row>
-    <row r="317" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A317" s="16"/>
+    <row r="317" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="36" t="s">
+        <v>339</v>
+      </c>
       <c r="B317" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="F317"/>
-      <c r="G317"/>
-      <c r="I317" s="2"/>
-      <c r="K317" s="2"/>
+        <f t="shared" si="61"/>
+        <v>-</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H317" t="s">
+        <v>39</v>
+      </c>
+      <c r="I317" t="s">
+        <v>46</v>
+      </c>
       <c r="L317" s="33"/>
       <c r="M317" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="N317"/>
-      <c r="O317" s="6"/>
-      <c r="W317" s="17"/>
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="R317" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W317" s="33"/>
       <c r="X317" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="Y317"/>
-      <c r="Z317"/>
-      <c r="AA317"/>
-      <c r="AB317" s="8"/>
-      <c r="AC317"/>
-      <c r="AD317" s="19"/>
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="AD317" s="33"/>
       <c r="AE317" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF317"/>
-      <c r="AG317"/>
-      <c r="AH317"/>
-      <c r="AI317"/>
-      <c r="AJ317"/>
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
       <c r="AK317" s="18"/>
       <c r="AL317" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AM317"/>
-      <c r="AN317"/>
-      <c r="AO317"/>
-      <c r="AP317"/>
-      <c r="AQ317"/>
-      <c r="AR317"/>
-      <c r="AS317" s="19"/>
-      <c r="AT317"/>
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AS317" s="33"/>
     </row>
     <row r="318" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A318" s="15" t="s">
+      <c r="A318" s="16"/>
+      <c r="B318" s="43" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="F318"/>
+      <c r="G318"/>
+      <c r="I318" s="2"/>
+      <c r="K318" s="2"/>
+      <c r="L318" s="33"/>
+      <c r="M318" s="43" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="N318"/>
+      <c r="O318" s="6"/>
+      <c r="W318" s="17"/>
+      <c r="X318" s="35" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="Y318"/>
+      <c r="Z318"/>
+      <c r="AA318"/>
+      <c r="AB318" s="8"/>
+      <c r="AC318"/>
+      <c r="AD318" s="19"/>
+      <c r="AE318" s="35" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AF318"/>
+      <c r="AG318"/>
+      <c r="AH318"/>
+      <c r="AI318"/>
+      <c r="AJ318"/>
+      <c r="AK318" s="18"/>
+      <c r="AL318" s="35" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AM318"/>
+      <c r="AN318"/>
+      <c r="AO318"/>
+      <c r="AP318"/>
+      <c r="AQ318"/>
+      <c r="AR318"/>
+      <c r="AS318" s="19"/>
+      <c r="AT318"/>
+    </row>
+    <row r="319" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A319" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B318" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C318" s="11"/>
-      <c r="D318" s="11"/>
-      <c r="E318" s="11"/>
-      <c r="F318" s="11"/>
-      <c r="G318" s="33"/>
-      <c r="H318" s="11"/>
-      <c r="I318" s="11"/>
-      <c r="J318" s="21"/>
-      <c r="K318" s="13"/>
-      <c r="L318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M318" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q318" s="32"/>
-      <c r="R318" s="32"/>
-      <c r="S318" s="32"/>
-      <c r="T318" s="32"/>
-      <c r="U318" s="32"/>
-      <c r="V318" s="32"/>
-      <c r="W318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X318" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE318" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL318" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS318" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT318"/>
-    </row>
-    <row r="319" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="36" t="s">
-        <v>252</v>
-      </c>
       <c r="B319" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H319" t="s">
-        <v>253</v>
-      </c>
-      <c r="I319" t="s">
-        <v>254</v>
-      </c>
-      <c r="L319" s="33"/>
+        <f t="shared" si="61"/>
+        <v>-</v>
+      </c>
+      <c r="C319" s="11"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="11"/>
+      <c r="F319" s="11"/>
+      <c r="G319" s="33"/>
+      <c r="H319" s="11"/>
+      <c r="I319" s="11"/>
+      <c r="J319" s="21"/>
+      <c r="K319" s="13"/>
+      <c r="L319" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M319" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="W319" s="17"/>
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="N319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q319" s="32"/>
+      <c r="R319" s="32"/>
+      <c r="S319" s="32"/>
+      <c r="T319" s="32"/>
+      <c r="U319" s="32"/>
+      <c r="V319" s="32"/>
+      <c r="W319" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X319" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AD319" s="17"/>
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="Y319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD319" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AE319" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AK319" s="18"/>
+        <f t="shared" si="63"/>
+        <v>-</v>
+      </c>
+      <c r="AF319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK319" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AL319" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AP319" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS319" s="17"/>
-      <c r="AT319" s="6" t="s">
-        <v>346</v>
-      </c>
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AM319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS319" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT319"/>
     </row>
     <row r="320" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="36" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B320" s="43" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H320" t="s">
-        <v>288</v>
+        <v>253</v>
+      </c>
+      <c r="I320" t="s">
+        <v>254</v>
       </c>
       <c r="L320" s="33"/>
       <c r="M320" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="W320" s="33"/>
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="W320" s="17"/>
       <c r="X320" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="AA320" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD320" s="33"/>
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="AD320" s="17"/>
       <c r="AE320" s="35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="AK320" s="18"/>
       <c r="AL320" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS320" s="33"/>
-      <c r="AT320" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="321" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A321" s="16"/>
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AP320" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS320" s="17"/>
+      <c r="AT320" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="321" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="36" t="s">
+        <v>285</v>
+      </c>
       <c r="B321" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="F321"/>
-      <c r="G321"/>
-      <c r="I321" s="2"/>
-      <c r="K321" s="2"/>
+        <f t="shared" si="61"/>
+        <v>-</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H321" t="s">
+        <v>286</v>
+      </c>
       <c r="L321" s="33"/>
       <c r="M321" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="N321"/>
-      <c r="O321" s="6"/>
-      <c r="W321" s="17"/>
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="W321" s="33"/>
       <c r="X321" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="Y321"/>
-      <c r="Z321"/>
-      <c r="AA321"/>
-      <c r="AB321" s="8"/>
-      <c r="AC321"/>
-      <c r="AD321" s="19"/>
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="AA321" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD321" s="33"/>
       <c r="AE321" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF321"/>
-      <c r="AG321"/>
-      <c r="AH321"/>
-      <c r="AI321"/>
-      <c r="AJ321"/>
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
       <c r="AK321" s="18"/>
       <c r="AL321" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AM321"/>
-      <c r="AN321"/>
-      <c r="AO321"/>
-      <c r="AP321"/>
-      <c r="AQ321"/>
-      <c r="AR321"/>
-      <c r="AS321" s="19"/>
-      <c r="AT321"/>
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AS321" s="33"/>
+      <c r="AT321" s="7" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="322" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A322" s="15" t="s">
+      <c r="A322" s="16"/>
+      <c r="B322" s="43" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="F322"/>
+      <c r="G322"/>
+      <c r="I322" s="2"/>
+      <c r="K322" s="2"/>
+      <c r="L322" s="33"/>
+      <c r="M322" s="43" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="N322"/>
+      <c r="O322" s="6"/>
+      <c r="W322" s="17"/>
+      <c r="X322" s="35" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="Y322"/>
+      <c r="Z322"/>
+      <c r="AA322"/>
+      <c r="AB322" s="8"/>
+      <c r="AC322"/>
+      <c r="AD322" s="19"/>
+      <c r="AE322" s="35" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AF322"/>
+      <c r="AG322"/>
+      <c r="AH322"/>
+      <c r="AI322"/>
+      <c r="AJ322"/>
+      <c r="AK322" s="18"/>
+      <c r="AL322" s="35" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AM322"/>
+      <c r="AN322"/>
+      <c r="AO322"/>
+      <c r="AP322"/>
+      <c r="AQ322"/>
+      <c r="AR322"/>
+      <c r="AS322" s="19"/>
+      <c r="AT322"/>
+    </row>
+    <row r="323" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A323" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B322" s="43" t="str">
-        <f t="shared" si="56"/>
-        <v>-</v>
-      </c>
-      <c r="C322" s="11"/>
-      <c r="D322" s="11"/>
-      <c r="E322" s="11"/>
-      <c r="F322" s="11"/>
-      <c r="G322" s="33"/>
-      <c r="H322" s="11"/>
-      <c r="I322" s="11"/>
-      <c r="J322" s="21"/>
-      <c r="K322" s="13"/>
-      <c r="L322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M322" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q322" s="32"/>
-      <c r="R322" s="32"/>
-      <c r="S322" s="32"/>
-      <c r="T322" s="32"/>
-      <c r="U322" s="32"/>
-      <c r="V322" s="32"/>
-      <c r="W322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="X322" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE322" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL322" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS322" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT322"/>
-    </row>
-    <row r="323" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="L323" s="33"/>
+      <c r="B323" s="43" t="str">
+        <f t="shared" si="61"/>
+        <v>-</v>
+      </c>
+      <c r="C323" s="11"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
+      <c r="F323" s="11"/>
+      <c r="G323" s="33"/>
+      <c r="H323" s="11"/>
+      <c r="I323" s="11"/>
+      <c r="J323" s="21"/>
+      <c r="K323" s="13"/>
+      <c r="L323" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="M323" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="W323" s="23"/>
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="N323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q323" s="32"/>
+      <c r="R323" s="32"/>
+      <c r="S323" s="32"/>
+      <c r="T323" s="32"/>
+      <c r="U323" s="32"/>
+      <c r="V323" s="32"/>
+      <c r="W323" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="X323" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AD323" s="23"/>
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="Y323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD323" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AE323" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AK323" s="18"/>
+        <f t="shared" si="63"/>
+        <v>-</v>
+      </c>
+      <c r="AF323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK323" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AL323" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="AS323" s="23"/>
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AM323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR323" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS323" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="AT323"/>
     </row>
-    <row r="324" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L324" s="32" t="s">
-        <v>13</v>
-      </c>
+    <row r="324" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="L324" s="33"/>
       <c r="M324" s="43" t="str">
-        <f t="shared" si="57"/>
-        <v>-</v>
-      </c>
-      <c r="N324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="P324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="R324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="S324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="T324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="V324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="W324" s="32" t="s">
-        <v>13</v>
-      </c>
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="W324" s="23"/>
       <c r="X324" s="35" t="str">
-        <f t="shared" si="55"/>
-        <v>-</v>
-      </c>
-      <c r="Y324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD324" s="32" t="s">
-        <v>13</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="AD324" s="23"/>
       <c r="AE324" s="35" t="str">
-        <f t="shared" si="58"/>
-        <v>-</v>
-      </c>
-      <c r="AF324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK324" s="32" t="s">
-        <v>13</v>
-      </c>
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="AK324" s="18"/>
       <c r="AL324" s="35" t="str">
-        <f t="shared" si="59"/>
-        <v>-</v>
-      </c>
-      <c r="AM324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR324" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS324" s="32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="328" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="I328" s="49" t="s">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="AS324" s="23"/>
+      <c r="AT324"/>
+    </row>
+    <row r="325" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="L325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M325" s="43" t="str">
+        <f t="shared" si="62"/>
+        <v>-</v>
+      </c>
+      <c r="N325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="S325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="U325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="W325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X325" s="35" t="str">
+        <f t="shared" si="60"/>
+        <v>-</v>
+      </c>
+      <c r="Y325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE325" s="35" t="str">
+        <f t="shared" si="63"/>
+        <v>-</v>
+      </c>
+      <c r="AF325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL325" s="35" t="str">
+        <f t="shared" si="64"/>
+        <v>-</v>
+      </c>
+      <c r="AM325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR325" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS325" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="I329" s="49" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="330" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="I330" s="50" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="331" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="I331" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="J331" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="332" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="I332" t="s">
+        <v>550</v>
+      </c>
+      <c r="J332" s="6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="329" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="I329" s="50" t="s">
+    <row r="333" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="J333" s="6" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="330" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="I330" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="J330" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="331" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="I331" t="s">
-        <v>554</v>
-      </c>
-      <c r="J331" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="332" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="J332" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AT326"/>
+  <autoFilter ref="A2:AT327"/>
   <sortState ref="A270:AT287">
     <sortCondition ref="A270"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="C282:I282"/>
+    <mergeCell ref="C283:I283"/>
     <mergeCell ref="C130:I130"/>
     <mergeCell ref="C218:J218"/>
     <mergeCell ref="C3:I3"/>
@@ -19440,7 +19490,7 @@
       <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="2" customWidth="1"/>
@@ -19458,13 +19508,13 @@
         <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>219</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>188</v>
@@ -19482,7 +19532,7 @@
         <v>152</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>226</v>
@@ -19508,7 +19558,7 @@
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -19533,7 +19583,7 @@
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -19558,7 +19608,7 @@
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -19583,7 +19633,7 @@
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -19608,7 +19658,7 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -19633,7 +19683,7 @@
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -19658,7 +19708,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -19666,7 +19716,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -19674,7 +19724,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
@@ -19682,7 +19732,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -19690,7 +19740,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -19698,7 +19748,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -19721,7 +19771,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>3</v>
@@ -19729,7 +19779,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>3</v>
@@ -19737,7 +19787,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
@@ -19745,7 +19795,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>3</v>
@@ -19753,7 +19803,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>3</v>
@@ -19761,7 +19811,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
@@ -19769,7 +19819,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
@@ -19777,7 +19827,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -19802,7 +19852,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>3</v>
@@ -19810,7 +19860,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -19818,7 +19868,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -19826,7 +19876,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -19851,7 +19901,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>3</v>
@@ -19859,7 +19909,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
@@ -19867,7 +19917,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
@@ -19875,7 +19925,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
@@ -19900,7 +19950,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>3</v>
@@ -19908,7 +19958,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
@@ -19916,7 +19966,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>3</v>
@@ -19924,7 +19974,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>3</v>
@@ -19932,7 +19982,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>3</v>
@@ -19940,7 +19990,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>3</v>
@@ -19948,7 +19998,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>3</v>
@@ -19956,7 +20006,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>3</v>
@@ -19964,7 +20014,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>3</v>
@@ -19972,7 +20022,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -19980,7 +20030,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
@@ -19988,7 +20038,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -20013,7 +20063,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>3</v>
@@ -20021,7 +20071,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -20046,7 +20096,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>3</v>
@@ -20054,7 +20104,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>3</v>
@@ -20062,7 +20112,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>3</v>
@@ -20075,7 +20125,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>3</v>
@@ -20083,7 +20133,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
@@ -20099,7 +20149,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>3</v>
@@ -20107,7 +20157,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>3</v>
@@ -20118,7 +20168,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>3</v>
@@ -20126,7 +20176,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>3</v>
@@ -20134,7 +20184,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>3</v>
@@ -20142,7 +20192,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>3</v>
@@ -20150,7 +20200,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>3</v>
@@ -20158,7 +20208,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B59" s="46"/>
       <c r="C59" s="46"/>
@@ -20183,7 +20233,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>3</v>
@@ -20191,7 +20241,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>3</v>
@@ -20199,7 +20249,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>3</v>
@@ -20207,7 +20257,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>3</v>
@@ -20215,7 +20265,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>3</v>
@@ -20267,7 +20317,7 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>

--- a/l3kernel/expl3-datatype-analysis.xlsx
+++ b/l3kernel/expl3-datatype-analysis.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mittelba\Documents\svn\l3\l3kernel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="195" windowWidth="21135" windowHeight="15285"/>
   </bookViews>
@@ -20,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">constants!$A$1:$C$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data types'!$A$2:$AT$327</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +30,7 @@
     <author>Frank</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="0" shapeId="0">
+    <comment ref="AF5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0" shapeId="0">
+    <comment ref="AG5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="0" shapeId="0">
+    <comment ref="AH5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI5" authorId="0" shapeId="0">
+    <comment ref="AI5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM5" authorId="0" shapeId="0">
+    <comment ref="AM5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y64" authorId="0" shapeId="0">
+    <comment ref="Y64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z64" authorId="0" shapeId="0">
+    <comment ref="Z64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA64" authorId="0" shapeId="0">
+    <comment ref="AA64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB64" authorId="0" shapeId="0">
+    <comment ref="AB64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC64" authorId="0" shapeId="0">
+    <comment ref="AC64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI189" authorId="0" shapeId="0">
+    <comment ref="AI189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ190" authorId="0" shapeId="0">
+    <comment ref="AJ190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -588,15 +583,6 @@
     <t>to_Alph</t>
   </si>
   <si>
-    <t>to_binary</t>
-  </si>
-  <si>
-    <t>to_hexadecimal</t>
-  </si>
-  <si>
-    <t>to_octal</t>
-  </si>
-  <si>
     <t>to_roman</t>
   </si>
   <si>
@@ -2032,6 +2018,15 @@
   </si>
   <si>
     <t>to_decimal_in_unit</t>
+  </si>
+  <si>
+    <t>to_hex</t>
+  </si>
+  <si>
+    <t>to_oct</t>
+  </si>
+  <si>
+    <t>to_bin</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2372,7 +2367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2584,10 +2579,10 @@
   <dimension ref="A2:AT333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A244" sqref="A244"/>
+      <selection pane="bottomRight" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2631,22 +2626,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>17</v>
@@ -2655,17 +2650,17 @@
         <v>17</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>31</v>
@@ -2683,73 +2678,73 @@
         <v>36</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Y2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB2" s="26" t="s">
-        <v>98</v>
-      </c>
       <c r="AC2" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AD2" s="18"/>
       <c r="AE2" s="41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AH2" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AJ2" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AK2" s="18"/>
       <c r="AL2" s="41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AN2" s="13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AQ2" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AS2" s="18"/>
       <c r="AT2" s="5" t="s">
@@ -2758,14 +2753,14 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B3" s="43" t="str">
         <f>IF(CONCATENATE(M3,X3,AE3,AL3)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
@@ -2885,14 +2880,14 @@
     </row>
     <row r="4" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="43" t="str">
         <f t="shared" ref="B4:B74" si="1">IF(CONCATENATE(M4,X4,AE4,AL4)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -2901,7 +2896,7 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="43" t="str">
@@ -2932,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="AJ4" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK4" s="18"/>
       <c r="AL4" s="35" t="str">
@@ -2953,14 +2948,14 @@
     </row>
     <row r="5" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -2969,7 +2964,7 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="43" t="str">
@@ -2988,19 +2983,19 @@
         <v>-</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AJ5" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK5" s="18"/>
       <c r="AL5" s="35" t="str">
@@ -3008,10 +3003,10 @@
         <v>-</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AP5" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AQ5" s="9"/>
       <c r="AS5" s="17"/>
@@ -3019,23 +3014,23 @@
     </row>
     <row r="6" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="43" t="str">
@@ -3062,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="AJ6" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK6" s="18"/>
       <c r="AL6" s="35" t="str">
@@ -3071,7 +3066,7 @@
       </c>
       <c r="AS6" s="33"/>
       <c r="AT6" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3083,7 +3078,7 @@
         <v>-</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -3092,7 +3087,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>13</v>
@@ -3108,19 +3103,19 @@
         <v>-</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AD7" s="17"/>
       <c r="AE7" s="35" t="str">
@@ -3128,19 +3123,19 @@
         <v>-</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG7" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AK7" s="18"/>
       <c r="AL7" s="35" t="str">
@@ -3158,7 +3153,7 @@
         <v>-</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -3178,19 +3173,19 @@
         <v>-</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="W8" s="17"/>
       <c r="X8" s="35" t="str">
@@ -3198,19 +3193,19 @@
         <v>-</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AD8" s="17"/>
       <c r="AE8" s="35" t="str">
@@ -3218,19 +3213,19 @@
         <v>-</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AK8" s="18"/>
       <c r="AL8" s="35" t="str">
@@ -3238,10 +3233,10 @@
         <v>-</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AS8" s="17"/>
     </row>
@@ -3254,13 +3249,13 @@
         <v>-</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>13</v>
@@ -3271,7 +3266,7 @@
         <v>-</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="W9" s="17"/>
       <c r="X9" s="35" t="str">
@@ -3292,14 +3287,14 @@
     </row>
     <row r="10" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B10" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
@@ -3337,20 +3332,20 @@
     </row>
     <row r="11" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B11" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>13</v>
@@ -3361,7 +3356,7 @@
         <v>-</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="35" t="str">
@@ -3382,20 +3377,20 @@
     </row>
     <row r="12" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B12" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>13</v>
@@ -3406,7 +3401,7 @@
         <v>-</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="35" t="str">
@@ -3427,20 +3422,20 @@
     </row>
     <row r="13" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B13" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>13</v>
@@ -3451,7 +3446,7 @@
         <v>-</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="35" t="str">
@@ -3479,7 +3474,7 @@
         <v>-</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
@@ -3530,13 +3525,13 @@
         <v>3</v>
       </c>
       <c r="AG14" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AH14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AI14" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>3</v>
@@ -3553,11 +3548,11 @@
         <v>3</v>
       </c>
       <c r="AQ14" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS14" s="33"/>
       <c r="AT14" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3569,13 +3564,13 @@
         <v>-</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>13</v>
@@ -3601,7 +3596,7 @@
         <v>-</v>
       </c>
       <c r="AR15" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS15" s="33"/>
     </row>
@@ -3614,13 +3609,13 @@
         <v>-</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -3653,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="AQ16" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS16" s="17"/>
     </row>
@@ -3666,13 +3661,13 @@
         <v>-</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H17" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I17" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>13</v>
@@ -3698,23 +3693,23 @@
         <v>-</v>
       </c>
       <c r="AR17" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS17" s="34"/>
     </row>
     <row r="18" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B18" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>12</v>
@@ -3746,10 +3741,10 @@
         <v>3</v>
       </c>
       <c r="AQ18" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AR18" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS18" s="33"/>
     </row>
@@ -3762,13 +3757,13 @@
         <v>-</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H19" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -3807,7 +3802,7 @@
         <v>-</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -3870,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="AJ20" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK20" s="18"/>
       <c r="AL20" s="35" t="str">
@@ -3881,26 +3876,26 @@
         <v>3</v>
       </c>
       <c r="AP20" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS20" s="17"/>
     </row>
     <row r="21" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B21" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s">
         <v>12</v>
@@ -3932,14 +3927,14 @@
     </row>
     <row r="22" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B22" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
@@ -3975,19 +3970,19 @@
       </c>
       <c r="AS22" s="33"/>
       <c r="AT22" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B23" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -4025,20 +4020,20 @@
     </row>
     <row r="24" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B24" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I24" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>13</v>
@@ -4049,7 +4044,7 @@
         <v>-</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W24" s="33"/>
       <c r="X24" s="35" t="str">
@@ -4070,20 +4065,20 @@
     </row>
     <row r="25" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B25" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I25" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>13</v>
@@ -4094,7 +4089,7 @@
         <v>-</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W25" s="33"/>
       <c r="X25" s="35" t="str">
@@ -4115,20 +4110,20 @@
     </row>
     <row r="26" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B26" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I26" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>13</v>
@@ -4139,7 +4134,7 @@
         <v>-</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W26" s="33"/>
       <c r="X26" s="35" t="str">
@@ -4160,20 +4155,20 @@
     </row>
     <row r="27" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B27" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>13</v>
@@ -4184,7 +4179,7 @@
         <v>-</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W27" s="33"/>
       <c r="X27" s="35" t="str">
@@ -4205,20 +4200,20 @@
     </row>
     <row r="28" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B28" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I28" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>13</v>
@@ -4229,7 +4224,7 @@
         <v>-</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W28" s="33"/>
       <c r="X28" s="35" t="str">
@@ -4250,20 +4245,20 @@
     </row>
     <row r="29" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B29" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H29" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I29" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>13</v>
@@ -4274,7 +4269,7 @@
         <v>-</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W29" s="33"/>
       <c r="X29" s="35" t="str">
@@ -4295,20 +4290,20 @@
     </row>
     <row r="30" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B30" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I30" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>13</v>
@@ -4319,7 +4314,7 @@
         <v>-</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W30" s="33"/>
       <c r="X30" s="35" t="str">
@@ -4340,20 +4335,20 @@
     </row>
     <row r="31" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B31" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I31" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>13</v>
@@ -4364,7 +4359,7 @@
         <v>-</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W31" s="33"/>
       <c r="X31" s="35" t="str">
@@ -4385,20 +4380,20 @@
     </row>
     <row r="32" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B32" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H32" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>13</v>
@@ -4409,7 +4404,7 @@
         <v>-</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W32" s="33"/>
       <c r="X32" s="35" t="str">
@@ -4430,20 +4425,20 @@
     </row>
     <row r="33" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B33" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I33" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>13</v>
@@ -4454,7 +4449,7 @@
         <v>-</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W33" s="33"/>
       <c r="X33" s="35" t="str">
@@ -4475,20 +4470,20 @@
     </row>
     <row r="34" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B34" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I34" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>13</v>
@@ -4499,7 +4494,7 @@
         <v>-</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W34" s="33"/>
       <c r="X34" s="35" t="str">
@@ -4520,20 +4515,20 @@
     </row>
     <row r="35" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B35" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H35" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I35" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>13</v>
@@ -4544,7 +4539,7 @@
         <v>-</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W35" s="33"/>
       <c r="X35" s="35" t="str">
@@ -4565,20 +4560,20 @@
     </row>
     <row r="36" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B36" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H36" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I36" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>13</v>
@@ -4589,7 +4584,7 @@
         <v>-</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W36" s="33"/>
       <c r="X36" s="35" t="str">
@@ -4610,20 +4605,20 @@
     </row>
     <row r="37" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B37" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H37" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>13</v>
@@ -4634,7 +4629,7 @@
         <v>-</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W37" s="33"/>
       <c r="X37" s="35" t="str">
@@ -4655,20 +4650,20 @@
     </row>
     <row r="38" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B38" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H38" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I38" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>13</v>
@@ -4679,7 +4674,7 @@
         <v>-</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W38" s="33"/>
       <c r="X38" s="35" t="str">
@@ -4700,20 +4695,20 @@
     </row>
     <row r="39" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B39" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I39" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>13</v>
@@ -4724,7 +4719,7 @@
         <v>-</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W39" s="33"/>
       <c r="X39" s="35" t="str">
@@ -4745,20 +4740,20 @@
     </row>
     <row r="40" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B40" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H40" t="s">
         <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>13</v>
@@ -4769,7 +4764,7 @@
         <v>-</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W40" s="33"/>
       <c r="X40" s="35" t="str">
@@ -4797,7 +4792,7 @@
         <v>-</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
@@ -4838,20 +4833,20 @@
     </row>
     <row r="42" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B42" s="43" t="str">
         <f t="shared" ref="B42:B49" si="15">IF(CONCATENATE(M42,X42,AE42,AL42)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K42" t="s">
         <v>12</v>
@@ -4883,20 +4878,20 @@
     </row>
     <row r="43" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H43" t="s">
         <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K43" t="s">
         <v>12</v>
@@ -4926,25 +4921,25 @@
       </c>
       <c r="AS43" s="17"/>
       <c r="AT43" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B44" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H44" t="s">
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K44" t="s">
         <v>12</v>
@@ -4974,25 +4969,25 @@
       </c>
       <c r="AS44" s="28"/>
       <c r="AT44" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B45" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H45" t="s">
         <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K45" t="s">
         <v>12</v>
@@ -5024,20 +5019,20 @@
     </row>
     <row r="46" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B46" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K46" t="s">
         <v>12</v>
@@ -5069,20 +5064,20 @@
     </row>
     <row r="47" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B47" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H47" t="s">
         <v>45</v>
       </c>
       <c r="I47" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>13</v>
@@ -5093,7 +5088,7 @@
         <v>-</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W47" s="33"/>
       <c r="X47" s="35" t="str">
@@ -5115,20 +5110,20 @@
     </row>
     <row r="48" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B48" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K48" t="s">
         <v>12</v>
@@ -5160,20 +5155,20 @@
     </row>
     <row r="49" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B49" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H49" t="s">
         <v>45</v>
       </c>
       <c r="I49" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>13</v>
@@ -5184,7 +5179,7 @@
         <v>-</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W49" s="17"/>
       <c r="X49" s="35" t="str">
@@ -5206,20 +5201,20 @@
     </row>
     <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B50" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H50" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I50" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
@@ -5251,20 +5246,20 @@
     </row>
     <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B51" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I51" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K51" t="s">
         <v>12</v>
@@ -5296,20 +5291,20 @@
     </row>
     <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B52" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I52" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K52" t="s">
         <v>12</v>
@@ -5341,20 +5336,20 @@
     </row>
     <row r="53" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B53" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K53" t="s">
         <v>12</v>
@@ -5386,20 +5381,20 @@
     </row>
     <row r="54" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B54" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H54" t="s">
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>13</v>
@@ -5410,7 +5405,7 @@
         <v>-</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W54" s="33"/>
       <c r="X54" s="35" t="str">
@@ -5432,20 +5427,20 @@
     </row>
     <row r="55" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B55" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K55" t="s">
         <v>12</v>
@@ -5475,25 +5470,25 @@
       </c>
       <c r="AS55" s="33"/>
       <c r="AT55" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B56" s="43" t="str">
         <f>IF(CONCATENATE(M56,X56,AE56,AL56)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I56" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>13</v>
@@ -5519,26 +5514,26 @@
         <v>-</v>
       </c>
       <c r="AO56" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS56" s="34"/>
     </row>
     <row r="57" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B57" s="43" t="str">
         <f>IF(CONCATENATE(M57,X57,AE57,AL57)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I57" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K57" t="s">
         <v>12</v>
@@ -5570,20 +5565,20 @@
     </row>
     <row r="58" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B58" s="43" t="str">
         <f>IF(CONCATENATE(M58,X58,AE58,AL58)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I58" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K58" t="s">
         <v>12</v>
@@ -5612,26 +5607,26 @@
         <v>3</v>
       </c>
       <c r="AO58" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AS58" s="34"/>
     </row>
     <row r="59" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B59" s="43" t="str">
         <f>IF(CONCATENATE(M59,X59,AE59,AL59)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H59" t="s">
         <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K59" t="s">
         <v>12</v>
@@ -5670,7 +5665,7 @@
         <v>-</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
@@ -5711,20 +5706,20 @@
     </row>
     <row r="61" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B61" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H61" t="s">
         <v>45</v>
       </c>
       <c r="I61" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>13</v>
@@ -5735,7 +5730,7 @@
         <v>-</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W61" s="17"/>
       <c r="X61" s="35" t="str">
@@ -5757,14 +5752,14 @@
     </row>
     <row r="62" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B62" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H62" t="s">
         <v>18</v>
@@ -5806,7 +5801,7 @@
         <v>-</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H63" t="s">
         <v>18</v>
@@ -5859,14 +5854,14 @@
     </row>
     <row r="64" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B64" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H64" t="s">
         <v>18</v>
@@ -5891,19 +5886,19 @@
         <v>-</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AD64" s="17"/>
       <c r="AE64" s="35" t="str">
@@ -5982,14 +5977,14 @@
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B66" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D66" s="52"/>
       <c r="E66" s="52"/>
@@ -6097,20 +6092,20 @@
     </row>
     <row r="67" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B67" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H67" t="s">
         <v>39</v>
       </c>
       <c r="I67" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>13</v>
@@ -6121,7 +6116,7 @@
         <v>-</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W67" s="33"/>
       <c r="X67" s="35" t="str">
@@ -6140,28 +6135,28 @@
       </c>
       <c r="AS67" s="33"/>
       <c r="AT67" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B68" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H68" t="s">
         <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L68" s="33"/>
       <c r="M68" s="43" t="str">
@@ -6193,23 +6188,23 @@
     </row>
     <row r="69" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B69" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K69" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L69" s="33"/>
       <c r="M69" s="43" t="str">
@@ -6238,26 +6233,26 @@
     </row>
     <row r="70" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B70" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K70" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L70" s="33"/>
       <c r="M70" s="43" t="str">
@@ -6286,23 +6281,23 @@
     </row>
     <row r="71" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B71" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H71" t="s">
         <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K71" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L71" s="33"/>
       <c r="M71" s="43" t="str">
@@ -6340,23 +6335,23 @@
     </row>
     <row r="72" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B72" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H72" t="s">
         <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L72" s="33"/>
       <c r="M72" s="43" t="str">
@@ -6457,14 +6452,14 @@
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B74" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D74" s="52"/>
       <c r="E74" s="52"/>
@@ -6582,26 +6577,26 @@
     </row>
     <row r="75" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B75" s="43" t="str">
         <f t="shared" ref="B75:B147" si="21">IF(CONCATENATE(M75,X75,AE75,AL75)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H75" t="s">
         <v>20</v>
       </c>
       <c r="I75" t="s">
+        <v>156</v>
+      </c>
+      <c r="K75" t="s">
         <v>159</v>
-      </c>
-      <c r="K75" t="s">
-        <v>162</v>
       </c>
       <c r="L75" s="33"/>
       <c r="M75" s="43" t="str">
@@ -6634,26 +6629,26 @@
     </row>
     <row r="76" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B76" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H76" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I76" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K76" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L76" s="33"/>
       <c r="M76" s="43" t="str">
@@ -6682,26 +6677,26 @@
     </row>
     <row r="77" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B77" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H77" t="s">
         <v>20</v>
       </c>
       <c r="I77" t="s">
+        <v>156</v>
+      </c>
+      <c r="K77" t="s">
         <v>159</v>
-      </c>
-      <c r="K77" t="s">
-        <v>162</v>
       </c>
       <c r="L77" s="33"/>
       <c r="M77" s="43" t="str">
@@ -6730,26 +6725,26 @@
     </row>
     <row r="78" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B78" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H78" t="s">
         <v>20</v>
       </c>
       <c r="I78" t="s">
+        <v>156</v>
+      </c>
+      <c r="K78" t="s">
         <v>159</v>
-      </c>
-      <c r="K78" t="s">
-        <v>162</v>
       </c>
       <c r="L78" s="33"/>
       <c r="M78" s="43" t="str">
@@ -6778,20 +6773,20 @@
     </row>
     <row r="79" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B79" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H79" t="s">
         <v>39</v>
       </c>
       <c r="I79" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>13</v>
@@ -6802,7 +6797,7 @@
         <v>-</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W79" s="33"/>
       <c r="X79" s="35" t="str">
@@ -6823,26 +6818,26 @@
     </row>
     <row r="80" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B80" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H80" t="s">
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L80" s="33"/>
       <c r="M80" s="43" t="str">
@@ -6872,23 +6867,23 @@
     </row>
     <row r="81" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B81" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H81" t="s">
         <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K81" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L81" s="33"/>
       <c r="M81" s="43" t="str">
@@ -6924,14 +6919,14 @@
     </row>
     <row r="82" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B82" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
@@ -6940,7 +6935,7 @@
         <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L82" s="33"/>
       <c r="M82" s="43" t="str">
@@ -6972,23 +6967,23 @@
     </row>
     <row r="83" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B83" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H83" t="s">
         <v>21</v>
       </c>
       <c r="I83" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K83" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L83" s="33"/>
       <c r="M83" s="43" t="str">
@@ -7009,10 +7004,10 @@
         <v>3</v>
       </c>
       <c r="AG83" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AH83" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK83" s="18"/>
       <c r="AL83" s="35" t="str">
@@ -7086,14 +7081,14 @@
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B85" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D85" s="52"/>
       <c r="E85" s="52"/>
@@ -7211,23 +7206,23 @@
     </row>
     <row r="86" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B86" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H86" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="33"/>
@@ -7255,7 +7250,7 @@
       </c>
       <c r="AS86" s="17"/>
       <c r="AT86" s="36" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7267,16 +7262,16 @@
         <v>-</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H87" t="s">
         <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>13</v>
@@ -7312,7 +7307,7 @@
       </c>
       <c r="AS87" s="17"/>
       <c r="AT87" s="36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7324,16 +7319,16 @@
         <v>-</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>13</v>
@@ -7373,7 +7368,7 @@
         <v>-</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>3</v>
@@ -7385,7 +7380,7 @@
         <v>19</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>13</v>
@@ -7415,28 +7410,28 @@
       </c>
       <c r="AS89" s="33"/>
       <c r="AT89" s="36" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B90" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H90" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I90" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>13</v>
@@ -7457,13 +7452,13 @@
         <v>-</v>
       </c>
       <c r="AF90" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG90" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AH90" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK90" s="18"/>
       <c r="AL90" s="35" t="str">
@@ -7472,28 +7467,28 @@
       </c>
       <c r="AS90" s="17"/>
       <c r="AT90" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B91" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>13</v>
@@ -7525,23 +7520,23 @@
     </row>
     <row r="92" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B92" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H92" t="s">
         <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>13</v>
@@ -7573,14 +7568,14 @@
     </row>
     <row r="93" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B93" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>3</v>
@@ -7589,10 +7584,10 @@
         <v>39</v>
       </c>
       <c r="I93" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L93" s="33"/>
       <c r="M93" s="43" t="str">
@@ -7624,14 +7619,14 @@
     </row>
     <row r="94" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B94" s="43" t="str">
         <f t="shared" ref="B94" si="25">IF(CONCATENATE(M94,X94,AE94,AL94)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>3</v>
@@ -7640,10 +7635,10 @@
         <v>39</v>
       </c>
       <c r="I94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L94" s="44"/>
       <c r="M94" s="43" t="str">
@@ -7672,14 +7667,14 @@
     </row>
     <row r="95" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B95" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>3</v>
@@ -7691,7 +7686,7 @@
         <v>19</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L95" s="33"/>
       <c r="M95" s="43" t="str">
@@ -7723,14 +7718,14 @@
     </row>
     <row r="96" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B96" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>3</v>
@@ -7739,7 +7734,7 @@
         <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L96" s="33"/>
       <c r="M96" s="43" t="str">
@@ -7774,14 +7769,14 @@
     </row>
     <row r="97" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B97" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>3</v>
@@ -7790,7 +7785,7 @@
         <v>45</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L97" s="33"/>
       <c r="M97" s="43" t="str">
@@ -7811,7 +7806,7 @@
         <v>3</v>
       </c>
       <c r="AG97" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AH97" s="30" t="s">
         <v>3</v>
@@ -7826,20 +7821,20 @@
     </row>
     <row r="98" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B98" s="43"/>
       <c r="C98" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L98" s="44"/>
       <c r="M98" s="43"/>
@@ -7860,20 +7855,20 @@
     </row>
     <row r="99" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B99" s="43"/>
       <c r="C99" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L99" s="44"/>
       <c r="M99" s="43"/>
@@ -7894,20 +7889,20 @@
     </row>
     <row r="100" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B100" s="43"/>
       <c r="C100" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L100" s="44"/>
       <c r="M100" s="43"/>
@@ -7928,7 +7923,7 @@
     </row>
     <row r="101" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B101" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7941,10 +7936,10 @@
         <v>39</v>
       </c>
       <c r="I101" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L101" s="33"/>
       <c r="M101" s="43" t="str">
@@ -7976,7 +7971,7 @@
     </row>
     <row r="102" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B102" s="43" t="str">
         <f t="shared" ref="B102" si="30">IF(CONCATENATE(M102,X102,AE102,AL102)="","","-")</f>
@@ -7989,10 +7984,10 @@
         <v>39</v>
       </c>
       <c r="I102" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L102" s="44"/>
       <c r="M102" s="43" t="str">
@@ -8021,7 +8016,7 @@
     </row>
     <row r="103" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B103" s="43" t="str">
         <f t="shared" si="21"/>
@@ -8037,7 +8032,7 @@
         <v>19</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L103" s="33"/>
       <c r="M103" s="43" t="str">
@@ -8132,14 +8127,14 @@
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B105" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D105" s="52"/>
       <c r="E105" s="52"/>
@@ -8264,7 +8259,7 @@
         <v>-</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H106" t="s">
         <v>21</v>
@@ -8315,20 +8310,20 @@
     </row>
     <row r="107" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B107" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>13</v>
@@ -8354,20 +8349,20 @@
         <v>-</v>
       </c>
       <c r="AP107" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS107" s="17"/>
     </row>
     <row r="108" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B108" s="43" t="str">
         <f>IF(CONCATENATE(M108,X108,AE108,AL108)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
@@ -8410,7 +8405,7 @@
         <v>-</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
@@ -8456,7 +8451,7 @@
         <v>-</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
@@ -8495,20 +8490,20 @@
     </row>
     <row r="111" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B111" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>13</v>
@@ -8534,29 +8529,29 @@
         <v>-</v>
       </c>
       <c r="AP111" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS111" s="17"/>
     </row>
     <row r="112" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B112" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H112" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I112" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K112" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L112" s="33"/>
       <c r="M112" s="43" t="str">
@@ -8585,23 +8580,23 @@
     </row>
     <row r="113" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B113" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H113" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I113" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K113" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L113" s="33"/>
       <c r="M113" s="43" t="str">
@@ -8630,20 +8625,20 @@
     </row>
     <row r="114" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B114" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H114" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I114" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L114" s="33"/>
       <c r="M114" s="43" t="str">
@@ -8666,23 +8661,23 @@
         <v>-</v>
       </c>
       <c r="AM114" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP114" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS114" s="17"/>
     </row>
     <row r="115" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B115" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H115" t="s">
         <v>21</v>
@@ -8711,23 +8706,23 @@
         <v>-</v>
       </c>
       <c r="AM115" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP115" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AS115" s="33"/>
     </row>
     <row r="116" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B116" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H116" t="s">
         <v>21</v>
@@ -8756,23 +8751,23 @@
         <v>-</v>
       </c>
       <c r="AM116" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP116" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AS116" s="33"/>
     </row>
     <row r="117" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B117" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
@@ -8781,7 +8776,7 @@
         <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L117" s="33"/>
       <c r="M117" s="43" t="str">
@@ -8805,7 +8800,7 @@
         <v>3</v>
       </c>
       <c r="AH117" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK117" s="18"/>
       <c r="AL117" s="35" t="str">
@@ -8816,20 +8811,20 @@
     </row>
     <row r="118" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B118" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H118" t="s">
         <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L118" s="33"/>
       <c r="M118" s="43" t="str">
@@ -8852,29 +8847,29 @@
         <v>-</v>
       </c>
       <c r="AM118" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP118" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS118" s="17"/>
     </row>
     <row r="119" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B119" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H119" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I119" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L119" s="33"/>
       <c r="M119" s="43" t="str">
@@ -8897,29 +8892,29 @@
         <v>-</v>
       </c>
       <c r="AM119" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP119" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS119" s="33"/>
     </row>
     <row r="120" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B120" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H120" t="s">
         <v>21</v>
       </c>
       <c r="I120" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L120" s="33"/>
       <c r="M120" s="43" t="str">
@@ -8942,32 +8937,32 @@
         <v>-</v>
       </c>
       <c r="AM120" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP120" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AS120" s="17"/>
       <c r="AT120" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B121" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H121" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L121" s="33"/>
       <c r="M121" s="43" t="str">
@@ -8990,26 +8985,26 @@
         <v>-</v>
       </c>
       <c r="AP121" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS121" s="17"/>
     </row>
     <row r="122" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B122" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H122" t="s">
         <v>21</v>
       </c>
       <c r="I122" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L122" s="33"/>
       <c r="M122" s="43" t="str">
@@ -9032,32 +9027,32 @@
         <v>-</v>
       </c>
       <c r="AM122" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP122" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AS122" s="33"/>
       <c r="AT122" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B123" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H123" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L123" s="33"/>
       <c r="M123" s="43" t="str">
@@ -9080,26 +9075,26 @@
         <v>-</v>
       </c>
       <c r="AP123" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AS123" s="17"/>
     </row>
     <row r="124" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B124" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H124" t="s">
         <v>21</v>
       </c>
       <c r="I124" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L124" s="33"/>
       <c r="M124" s="43" t="str">
@@ -9122,14 +9117,14 @@
         <v>-</v>
       </c>
       <c r="AM124" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP124" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AS124" s="33"/>
       <c r="AT124" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9141,7 +9136,7 @@
         <v>-</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H125" t="s">
         <v>21</v>
@@ -9150,7 +9145,7 @@
         <v>50</v>
       </c>
       <c r="K125" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L125" s="33"/>
       <c r="M125" s="43" t="str">
@@ -9191,20 +9186,20 @@
     </row>
     <row r="126" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B126" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>13</v>
@@ -9230,23 +9225,23 @@
         <v>-</v>
       </c>
       <c r="AM126" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP126" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AS126" s="33"/>
     </row>
     <row r="127" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B127" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H127" t="s">
         <v>18</v>
@@ -9255,7 +9250,7 @@
         <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L127" s="33"/>
       <c r="M127" s="43" t="str">
@@ -9284,20 +9279,20 @@
     </row>
     <row r="128" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B128" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>13</v>
@@ -9323,10 +9318,10 @@
         <v>-</v>
       </c>
       <c r="AM128" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AP128" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AS128" s="33"/>
     </row>
@@ -9395,14 +9390,14 @@
     </row>
     <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B130" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C130" s="52" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D130" s="52"/>
       <c r="E130" s="52"/>
@@ -9519,14 +9514,14 @@
     </row>
     <row r="131" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B131" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>3</v>
@@ -9535,7 +9530,7 @@
         <v>39</v>
       </c>
       <c r="I131" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>13</v>
@@ -9574,14 +9569,14 @@
     </row>
     <row r="132" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B132" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>3</v>
@@ -9623,14 +9618,14 @@
     </row>
     <row r="133" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B133" s="43" t="str">
         <f t="shared" ref="B133:B135" si="35">IF(CONCATENATE(M133,X133,AE133,AL133)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>3</v>
@@ -9639,7 +9634,7 @@
         <v>39</v>
       </c>
       <c r="I133" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>13</v>
@@ -9672,14 +9667,14 @@
     </row>
     <row r="134" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B134" s="43" t="str">
         <f t="shared" ref="B134" si="40">IF(CONCATENATE(M134,X134,AE134,AL134)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>3</v>
@@ -9688,7 +9683,7 @@
         <v>39</v>
       </c>
       <c r="I134" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>13</v>
@@ -9721,14 +9716,14 @@
     </row>
     <row r="135" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B135" s="43" t="str">
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>3</v>
@@ -9770,14 +9765,14 @@
     </row>
     <row r="136" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B136" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>3</v>
@@ -9786,7 +9781,7 @@
         <v>39</v>
       </c>
       <c r="I136" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>13</v>
@@ -9819,14 +9814,14 @@
     </row>
     <row r="137" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B137" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>3</v>
@@ -9871,14 +9866,14 @@
     </row>
     <row r="138" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B138" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>3</v>
@@ -9923,14 +9918,14 @@
     </row>
     <row r="139" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B139" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>3</v>
@@ -9969,19 +9964,19 @@
       </c>
       <c r="AS139" s="17"/>
       <c r="AT139" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B140" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>3</v>
@@ -10088,7 +10083,7 @@
     </row>
     <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B142" s="43" t="str">
         <f t="shared" si="21"/>
@@ -10208,23 +10203,23 @@
     </row>
     <row r="143" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B143" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H143" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I143" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K143" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L143" s="33"/>
       <c r="M143" s="43" t="str">
@@ -10251,28 +10246,28 @@
       </c>
       <c r="AS143" s="17"/>
       <c r="AT143" s="36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B144" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I144" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L144" s="33"/>
       <c r="M144" s="43" t="str">
@@ -10296,7 +10291,7 @@
         <v>-</v>
       </c>
       <c r="AF144" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AJ144" s="2" t="s">
         <v>3</v>
@@ -10308,28 +10303,28 @@
       </c>
       <c r="AS144" s="17"/>
       <c r="AT144" s="36" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B145" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I145" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L145" s="33"/>
       <c r="M145" s="43" t="str">
@@ -10350,7 +10345,7 @@
         <v>3</v>
       </c>
       <c r="AJ145" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK145" s="18"/>
       <c r="AL145" s="35" t="str">
@@ -10359,28 +10354,28 @@
       </c>
       <c r="AS145" s="33"/>
       <c r="AT145" s="36" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B146" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I146" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L146" s="33"/>
       <c r="M146" s="43" t="str">
@@ -10407,19 +10402,19 @@
       </c>
       <c r="AS146" s="33"/>
       <c r="AT146" s="36" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B147" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -10428,7 +10423,7 @@
         <v>18</v>
       </c>
       <c r="I147" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L147" s="33"/>
       <c r="M147" s="43" t="str">
@@ -10458,14 +10453,14 @@
     </row>
     <row r="148" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B148" s="43" t="str">
         <f t="shared" ref="B148:B211" si="46">IF(CONCATENATE(M148,X148,AE148,AL148)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -10474,7 +10469,7 @@
         <v>18</v>
       </c>
       <c r="I148" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L148" s="33"/>
       <c r="M148" s="43" t="str">
@@ -10501,19 +10496,19 @@
       </c>
       <c r="AS148" s="33"/>
       <c r="AT148" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B149" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -10522,7 +10517,7 @@
         <v>18</v>
       </c>
       <c r="I149" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L149" s="33"/>
       <c r="M149" s="43" t="str">
@@ -10549,19 +10544,19 @@
       </c>
       <c r="AS149" s="33"/>
       <c r="AT149" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="150" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B150" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -10570,7 +10565,7 @@
         <v>18</v>
       </c>
       <c r="I150" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L150" s="33"/>
       <c r="M150" s="43" t="str">
@@ -10597,19 +10592,19 @@
       </c>
       <c r="AS150" s="33"/>
       <c r="AT150" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B151" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -10618,7 +10613,7 @@
         <v>18</v>
       </c>
       <c r="I151" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L151" s="33"/>
       <c r="M151" s="43" t="str">
@@ -10645,19 +10640,19 @@
       </c>
       <c r="AS151" s="33"/>
       <c r="AT151" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B152" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -10666,7 +10661,7 @@
         <v>18</v>
       </c>
       <c r="I152" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L152" s="33"/>
       <c r="M152" s="43" t="str">
@@ -10693,19 +10688,19 @@
       </c>
       <c r="AS152" s="33"/>
       <c r="AT152" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B153" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -10714,7 +10709,7 @@
         <v>18</v>
       </c>
       <c r="I153" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L153" s="33"/>
       <c r="M153" s="43" t="str">
@@ -10741,19 +10736,19 @@
       </c>
       <c r="AS153" s="33"/>
       <c r="AT153" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B154" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -10762,7 +10757,7 @@
         <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L154" s="33"/>
       <c r="M154" s="43" t="str">
@@ -10789,7 +10784,7 @@
       </c>
       <c r="AS154" s="33"/>
       <c r="AT154" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10801,7 +10796,7 @@
         <v>-</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>3</v>
@@ -10853,7 +10848,7 @@
         <v>-</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -10905,7 +10900,7 @@
         <v>-</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>3</v>
@@ -10957,7 +10952,7 @@
         <v>-</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>3</v>
@@ -11012,7 +11007,7 @@
         <v>-</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>3</v>
@@ -11061,7 +11056,7 @@
         <v>-</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>3</v>
@@ -11113,7 +11108,7 @@
         <v>-</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>3</v>
@@ -11168,7 +11163,7 @@
         <v>-</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>3</v>
@@ -11216,7 +11211,7 @@
         <v>-</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -11265,7 +11260,7 @@
         <v>-</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -11304,14 +11299,14 @@
     </row>
     <row r="165" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B165" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -11320,7 +11315,7 @@
         <v>39</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L165" s="33"/>
       <c r="M165" s="43" t="str">
@@ -11341,7 +11336,7 @@
         <v>3</v>
       </c>
       <c r="AJ165" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK165" s="18"/>
       <c r="AL165" s="35" t="str">
@@ -11352,14 +11347,14 @@
     </row>
     <row r="166" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B166" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -11368,7 +11363,7 @@
         <v>18</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L166" s="33"/>
       <c r="M166" s="43" t="str">
@@ -11395,19 +11390,19 @@
       </c>
       <c r="AS166" s="24"/>
       <c r="AT166" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B167" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -11446,7 +11441,7 @@
         <v>3</v>
       </c>
       <c r="AJ167" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK167" s="18"/>
       <c r="AL167" s="35" t="str">
@@ -11457,20 +11452,20 @@
         <v>3</v>
       </c>
       <c r="AP167" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AS167" s="17"/>
     </row>
     <row r="168" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B168" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -11479,7 +11474,7 @@
         <v>39</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L168" s="33"/>
       <c r="M168" s="43" t="str">
@@ -11503,7 +11498,7 @@
         <v>3</v>
       </c>
       <c r="AJ168" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK168" s="18"/>
       <c r="AL168" s="35" t="str">
@@ -11514,14 +11509,14 @@
     </row>
     <row r="169" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B169" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -11562,14 +11557,14 @@
     </row>
     <row r="170" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B170" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -11578,7 +11573,7 @@
         <v>45</v>
       </c>
       <c r="I170" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L170" s="33"/>
       <c r="M170" s="43" t="str">
@@ -11610,14 +11605,14 @@
     </row>
     <row r="171" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B171" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -11639,7 +11634,7 @@
         <v>-</v>
       </c>
       <c r="AA171" s="22" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AD171" s="33"/>
       <c r="AE171" s="35" t="str">
@@ -11653,19 +11648,19 @@
       </c>
       <c r="AS171" s="33"/>
       <c r="AT171" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B172" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -11674,7 +11669,7 @@
         <v>20</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L172" s="33"/>
       <c r="M172" s="43" t="str">
@@ -11703,14 +11698,14 @@
     </row>
     <row r="173" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B173" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -11719,7 +11714,7 @@
         <v>20</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L173" s="33"/>
       <c r="M173" s="43" t="str">
@@ -11748,14 +11743,14 @@
     </row>
     <row r="174" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B174" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -11764,7 +11759,7 @@
         <v>20</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L174" s="33"/>
       <c r="M174" s="43" t="str">
@@ -11793,14 +11788,14 @@
     </row>
     <row r="175" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B175" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -11822,7 +11817,7 @@
         <v>-</v>
       </c>
       <c r="AA175" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AD175" s="33"/>
       <c r="AE175" s="35" t="str">
@@ -11849,7 +11844,7 @@
         <v>-</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -11887,14 +11882,14 @@
     </row>
     <row r="177" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B177" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>3</v>
@@ -11960,7 +11955,7 @@
         <v>3</v>
       </c>
       <c r="AJ177" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK177" s="18"/>
       <c r="AL177" s="35" t="str">
@@ -11979,14 +11974,14 @@
     </row>
     <row r="178" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B178" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -11995,7 +11990,7 @@
         <v>39</v>
       </c>
       <c r="I178" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L178" s="33"/>
       <c r="M178" s="43" t="str">
@@ -12040,14 +12035,14 @@
     </row>
     <row r="179" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B179" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>3</v>
@@ -12102,14 +12097,14 @@
     </row>
     <row r="180" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B180" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -12145,19 +12140,19 @@
       </c>
       <c r="AS180" s="17"/>
       <c r="AT180" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B181" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -12195,23 +12190,23 @@
     </row>
     <row r="182" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B182" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I182" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L182" s="33"/>
       <c r="M182" s="43" t="str">
@@ -12240,23 +12235,23 @@
     </row>
     <row r="183" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B183" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I183" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L183" s="33"/>
       <c r="M183" s="43" t="str">
@@ -12285,23 +12280,23 @@
     </row>
     <row r="184" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B184" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I184" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L184" s="33"/>
       <c r="M184" s="43" t="str">
@@ -12330,14 +12325,14 @@
     </row>
     <row r="185" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B185" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -12346,7 +12341,7 @@
         <v>39</v>
       </c>
       <c r="I185" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L185" s="33"/>
       <c r="M185" s="43" t="str">
@@ -12375,14 +12370,14 @@
     </row>
     <row r="186" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B186" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -12391,7 +12386,7 @@
         <v>39</v>
       </c>
       <c r="I186" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L186" s="33"/>
       <c r="M186" s="43" t="str">
@@ -12420,14 +12415,14 @@
     </row>
     <row r="187" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B187" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -12436,7 +12431,7 @@
         <v>39</v>
       </c>
       <c r="I187" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L187" s="33"/>
       <c r="M187" s="43" t="str">
@@ -12465,14 +12460,14 @@
     </row>
     <row r="188" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B188" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -12507,20 +12502,20 @@
         <v>3</v>
       </c>
       <c r="AP188" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AS188" s="17"/>
     </row>
     <row r="189" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B189" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -12529,7 +12524,7 @@
         <v>21</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L189" s="33"/>
       <c r="M189" s="43" t="str">
@@ -12565,19 +12560,19 @@
       </c>
       <c r="AS189" s="33"/>
       <c r="AT189" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="190" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B190" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -12586,7 +12581,7 @@
         <v>45</v>
       </c>
       <c r="I190" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L190" s="33"/>
       <c r="M190" s="43" t="str">
@@ -12610,7 +12605,7 @@
         <v>3</v>
       </c>
       <c r="AJ190" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK190" s="18"/>
       <c r="AL190" s="35" t="str">
@@ -12621,14 +12616,14 @@
     </row>
     <row r="191" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B191" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -12637,7 +12632,7 @@
         <v>18</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L191" s="33"/>
       <c r="M191" s="43" t="str">
@@ -12664,19 +12659,19 @@
       </c>
       <c r="AS191" s="17"/>
       <c r="AT191" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B192" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -12685,7 +12680,7 @@
         <v>18</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L192" s="33"/>
       <c r="M192" s="43" t="str">
@@ -12712,7 +12707,7 @@
       </c>
       <c r="AS192" s="17"/>
       <c r="AT192" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="193" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -12724,16 +12719,16 @@
         <v>-</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I193" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>13</v>
@@ -12772,16 +12767,16 @@
         <v>-</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H194" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I194" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>13</v>
@@ -12820,7 +12815,7 @@
         <v>-</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -12858,14 +12853,14 @@
     </row>
     <row r="196" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B196" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -12903,14 +12898,14 @@
     </row>
     <row r="197" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B197" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>3</v>
@@ -12919,7 +12914,7 @@
         <v>39</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L197" s="33"/>
       <c r="M197" s="43" t="str">
@@ -12948,14 +12943,14 @@
     </row>
     <row r="198" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B198" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -12964,7 +12959,7 @@
         <v>39</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L198" s="33"/>
       <c r="M198" s="43" t="str">
@@ -12991,19 +12986,19 @@
       </c>
       <c r="AS198" s="17"/>
       <c r="AT198" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B199" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -13012,7 +13007,7 @@
         <v>18</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L199" s="33"/>
       <c r="M199" s="43" t="str">
@@ -13039,19 +13034,19 @@
       </c>
       <c r="AS199" s="17"/>
       <c r="AT199" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B200" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -13060,7 +13055,7 @@
         <v>18</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L200" s="33"/>
       <c r="M200" s="43" t="str">
@@ -13087,19 +13082,19 @@
       </c>
       <c r="AS200" s="17"/>
       <c r="AT200" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="201" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B201" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -13134,29 +13129,29 @@
         <v>3</v>
       </c>
       <c r="AP201" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AS201" s="17"/>
     </row>
     <row r="202" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="36" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B202" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H202" t="s">
         <v>39</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L202" s="33"/>
       <c r="M202" s="43" t="str">
@@ -13183,19 +13178,19 @@
       </c>
       <c r="AS202" s="33"/>
       <c r="AT202" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A203" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B203" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -13204,7 +13199,7 @@
         <v>18</v>
       </c>
       <c r="I203" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L203" s="33"/>
       <c r="M203" s="43" t="str">
@@ -13231,19 +13226,19 @@
       </c>
       <c r="AS203" s="17"/>
       <c r="AT203" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="204" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="36" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B204" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -13252,7 +13247,7 @@
         <v>18</v>
       </c>
       <c r="I204" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L204" s="33"/>
       <c r="M204" s="43" t="str">
@@ -13279,19 +13274,19 @@
       </c>
       <c r="AS204" s="17"/>
       <c r="AT204" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A205" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B205" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -13300,7 +13295,7 @@
         <v>18</v>
       </c>
       <c r="I205" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L205" s="33"/>
       <c r="M205" s="43" t="str">
@@ -13327,19 +13322,19 @@
       </c>
       <c r="AS205" s="17"/>
       <c r="AT205" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="206" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="36" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B206" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -13348,7 +13343,7 @@
         <v>18</v>
       </c>
       <c r="I206" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L206" s="33"/>
       <c r="M206" s="43" t="str">
@@ -13375,25 +13370,25 @@
       </c>
       <c r="AS206" s="24"/>
       <c r="AT206" s="36" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A207" s="36" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B207" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L207" s="33"/>
       <c r="M207" s="43" t="str">
@@ -13423,23 +13418,23 @@
     </row>
     <row r="208" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A208" s="36" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B208" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H208" t="s">
+        <v>302</v>
+      </c>
+      <c r="I208" t="s">
         <v>305</v>
-      </c>
-      <c r="I208" t="s">
-        <v>308</v>
       </c>
       <c r="L208" s="33"/>
       <c r="M208" s="43" t="str">
@@ -13468,23 +13463,23 @@
     </row>
     <row r="209" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="36" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B209" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H209" t="s">
+        <v>298</v>
+      </c>
+      <c r="I209" t="s">
         <v>301</v>
-      </c>
-      <c r="I209" t="s">
-        <v>304</v>
       </c>
       <c r="L209" s="33"/>
       <c r="M209" s="43" t="str">
@@ -13513,23 +13508,23 @@
     </row>
     <row r="210" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A210" s="36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B210" s="43" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I210" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L210" s="33"/>
       <c r="M210" s="43" t="str">
@@ -13565,7 +13560,7 @@
         <v>-</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>3</v>
@@ -13613,7 +13608,7 @@
         <v>-</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>3</v>
@@ -13664,7 +13659,7 @@
         <v>-</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>3</v>
@@ -13718,7 +13713,7 @@
         <v>-</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>3</v>
@@ -13766,7 +13761,7 @@
         <v>-</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>3</v>
@@ -13817,7 +13812,7 @@
         <v>-</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>3</v>
@@ -13927,14 +13922,14 @@
     </row>
     <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B218" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C218" s="52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D218" s="52"/>
       <c r="E218" s="52"/>
@@ -14043,7 +14038,7 @@
         <v>-</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>3</v>
@@ -14099,7 +14094,7 @@
         <v>-</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>3</v>
@@ -14127,7 +14122,7 @@
         <v>3</v>
       </c>
       <c r="AC220" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AD220" s="17"/>
       <c r="AE220" s="35" t="str">
@@ -14151,7 +14146,7 @@
         <v>-</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>3</v>
@@ -14179,7 +14174,7 @@
         <v>3</v>
       </c>
       <c r="AC221" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AD221" s="17"/>
       <c r="AE221" s="35" t="str">
@@ -14203,7 +14198,7 @@
         <v>-</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>3</v>
@@ -14256,14 +14251,14 @@
     </row>
     <row r="223" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A223" s="36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B223" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>3</v>
@@ -14272,7 +14267,7 @@
         <v>39</v>
       </c>
       <c r="I223" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L223" s="33"/>
       <c r="M223" s="43" t="str">
@@ -14299,19 +14294,19 @@
       </c>
       <c r="AS223" s="17"/>
       <c r="AT223" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="224" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A224" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B224" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>3</v>
@@ -14320,7 +14315,7 @@
         <v>39</v>
       </c>
       <c r="I224" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L224" s="33"/>
       <c r="M224" s="43" t="str">
@@ -14347,28 +14342,28 @@
       </c>
       <c r="AS224" s="17"/>
       <c r="AT224" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="225" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="36" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B225" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I225" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L225" s="33"/>
       <c r="M225" s="43" t="str">
@@ -14407,19 +14402,19 @@
       </c>
       <c r="AS225" s="33"/>
       <c r="AT225" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="226" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B226" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>3</v>
@@ -14428,7 +14423,7 @@
         <v>20</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L226" s="33"/>
       <c r="M226" s="43" t="str">
@@ -14466,23 +14461,23 @@
     </row>
     <row r="227" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A227" s="36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B227" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H227" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L227" s="33"/>
       <c r="M227" s="43" t="str">
@@ -14514,14 +14509,14 @@
     </row>
     <row r="228" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A228" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B228" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>3</v>
@@ -14530,7 +14525,7 @@
         <v>21</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L228" s="33"/>
       <c r="M228" s="43" t="str">
@@ -14571,14 +14566,14 @@
     </row>
     <row r="229" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="36" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B229" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>3</v>
@@ -14587,7 +14582,7 @@
         <v>21</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L229" s="33"/>
       <c r="M229" s="43" t="str">
@@ -14614,19 +14609,19 @@
       </c>
       <c r="AS229" s="17"/>
       <c r="AT229" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="230" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A230" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B230" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>3</v>
@@ -14635,7 +14630,7 @@
         <v>45</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L230" s="33"/>
       <c r="M230" s="43" t="str">
@@ -14667,14 +14662,14 @@
     </row>
     <row r="231" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B231" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>3</v>
@@ -14683,7 +14678,7 @@
         <v>21</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L231" s="33"/>
       <c r="M231" s="43" t="str">
@@ -14710,25 +14705,25 @@
       </c>
       <c r="AS231" s="17"/>
       <c r="AT231" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A232" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B232" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H232" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I232" s="10"/>
       <c r="L232" s="33"/>
@@ -14764,14 +14759,14 @@
     </row>
     <row r="233" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B233" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>3</v>
@@ -14810,23 +14805,23 @@
     </row>
     <row r="234" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A234" s="36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B234" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H234" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L234" s="33"/>
       <c r="M234" s="43" t="str">
@@ -14844,13 +14839,13 @@
         <v>-</v>
       </c>
       <c r="AF234" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG234" s="30" t="s">
         <v>3</v>
       </c>
       <c r="AH234" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK234" s="18"/>
       <c r="AL234" s="35" t="str">
@@ -14868,7 +14863,7 @@
         <v>-</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>3</v>
@@ -14922,7 +14917,7 @@
         <v>-</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>3</v>
@@ -14976,7 +14971,7 @@
         <v>-</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>3</v>
@@ -15017,14 +15012,14 @@
     </row>
     <row r="238" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A238" s="36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B238" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>3</v>
@@ -15062,14 +15057,14 @@
     </row>
     <row r="239" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B239" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>3</v>
@@ -15078,7 +15073,7 @@
         <v>45</v>
       </c>
       <c r="I239" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K239" s="3" t="s">
         <v>13</v>
@@ -15110,14 +15105,14 @@
     </row>
     <row r="240" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A240" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B240" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>3</v>
@@ -15126,7 +15121,7 @@
         <v>39</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K240" s="3" t="s">
         <v>13</v>
@@ -15158,14 +15153,14 @@
     </row>
     <row r="241" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A241" s="36" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B241" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>3</v>
@@ -15174,7 +15169,7 @@
         <v>39</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K241" s="3" t="s">
         <v>13</v>
@@ -15206,14 +15201,14 @@
     </row>
     <row r="242" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A242" s="36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B242" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>3</v>
@@ -15222,7 +15217,7 @@
         <v>39</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K242" s="3" t="s">
         <v>13</v>
@@ -15261,7 +15256,7 @@
         <v>-</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>3</v>
@@ -15306,7 +15301,7 @@
         <v>-</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>3</v>
@@ -15351,7 +15346,7 @@
         <v>-</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>3</v>
@@ -15389,14 +15384,14 @@
     </row>
     <row r="246" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A246" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B246" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>3</v>
@@ -15405,7 +15400,7 @@
         <v>45</v>
       </c>
       <c r="I246" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L246" s="33"/>
       <c r="M246" s="43" t="str">
@@ -15434,14 +15429,14 @@
     </row>
     <row r="247" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A247" s="36" t="s">
-        <v>74</v>
+        <v>555</v>
       </c>
       <c r="B247" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>3</v>
@@ -15479,14 +15474,14 @@
     </row>
     <row r="248" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A248" s="36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B248" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>3</v>
@@ -15527,14 +15522,14 @@
     </row>
     <row r="249" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="36" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B249" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>3</v>
@@ -15572,14 +15567,14 @@
     </row>
     <row r="250" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A250" s="36" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B250" s="43" t="str">
         <f t="shared" ref="B250" si="55">IF(CONCATENATE(M250,X250,AE250,AL250)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>3</v>
@@ -15588,7 +15583,7 @@
         <v>45</v>
       </c>
       <c r="I250" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L250" s="51"/>
       <c r="M250" s="43" t="str">
@@ -15617,14 +15612,14 @@
     </row>
     <row r="251" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A251" s="36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B251" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>3</v>
@@ -15662,23 +15657,23 @@
     </row>
     <row r="252" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A252" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B252" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H252" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I252" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L252" s="33"/>
       <c r="M252" s="43" t="str">
@@ -15707,14 +15702,14 @@
     </row>
     <row r="253" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A253" s="36" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B253" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>3</v>
@@ -15752,14 +15747,14 @@
     </row>
     <row r="254" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A254" s="36" t="s">
-        <v>75</v>
+        <v>553</v>
       </c>
       <c r="B254" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>3</v>
@@ -15797,23 +15792,23 @@
     </row>
     <row r="255" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A255" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B255" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H255" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I255" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L255" s="33"/>
       <c r="M255" s="43" t="str">
@@ -15842,14 +15837,14 @@
     </row>
     <row r="256" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B256" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>3</v>
@@ -15858,7 +15853,7 @@
         <v>39</v>
       </c>
       <c r="I256" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L256" s="33"/>
       <c r="M256" s="43" t="str">
@@ -15887,14 +15882,14 @@
     </row>
     <row r="257" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="36" t="s">
-        <v>76</v>
+        <v>554</v>
       </c>
       <c r="B257" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>3</v>
@@ -15932,14 +15927,14 @@
     </row>
     <row r="258" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A258" s="36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B258" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>3</v>
@@ -15977,14 +15972,14 @@
     </row>
     <row r="259" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A259" s="36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B259" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>3</v>
@@ -16022,23 +16017,23 @@
     </row>
     <row r="260" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A260" s="36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B260" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H260" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I260" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L260" s="33"/>
       <c r="M260" s="43" t="str">
@@ -16067,14 +16062,14 @@
     </row>
     <row r="261" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A261" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B261" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>3</v>
@@ -16118,14 +16113,14 @@
     </row>
     <row r="262" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B262" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>3</v>
@@ -16134,7 +16129,7 @@
         <v>39</v>
       </c>
       <c r="I262" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L262" s="33"/>
       <c r="M262" s="43" t="str">
@@ -16163,20 +16158,20 @@
     </row>
     <row r="263" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B263" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L263" s="33"/>
       <c r="M263" s="43" t="str">
@@ -16203,28 +16198,28 @@
       </c>
       <c r="AS263" s="17"/>
       <c r="AT263" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A264" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B264" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H264" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I264" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L264" s="33"/>
       <c r="M264" s="43" t="str">
@@ -16253,14 +16248,14 @@
     </row>
     <row r="265" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B265" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>3</v>
@@ -16269,7 +16264,7 @@
         <v>39</v>
       </c>
       <c r="I265" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L265" s="33"/>
       <c r="M265" s="43" t="str">
@@ -16298,14 +16293,14 @@
     </row>
     <row r="266" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B266" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>3</v>
@@ -16314,7 +16309,7 @@
         <v>39</v>
       </c>
       <c r="I266" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L266" s="33"/>
       <c r="M266" s="43" t="str">
@@ -16343,23 +16338,23 @@
     </row>
     <row r="267" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B267" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H267" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I267" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L267" s="33"/>
       <c r="M267" s="43" t="str">
@@ -16391,20 +16386,20 @@
     </row>
     <row r="268" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B268" s="43"/>
       <c r="C268" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H268" t="s">
         <v>21</v>
       </c>
       <c r="I268" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L268" s="45"/>
       <c r="M268" s="43"/>
@@ -16424,14 +16419,14 @@
     </row>
     <row r="269" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A269" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B269" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>3</v>
@@ -16476,7 +16471,7 @@
         <v>3</v>
       </c>
       <c r="AJ269" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AK269" s="18"/>
       <c r="AL269" s="35" t="str">
@@ -16487,14 +16482,14 @@
     </row>
     <row r="270" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B270" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>3</v>
@@ -16532,14 +16527,14 @@
     </row>
     <row r="271" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B271" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>3</v>
@@ -16577,14 +16572,14 @@
     </row>
     <row r="272" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B272" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>3</v>
@@ -16622,14 +16617,14 @@
     </row>
     <row r="273" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A273" s="36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B273" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>3</v>
@@ -16694,7 +16689,7 @@
     </row>
     <row r="275" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B275" s="43" t="str">
         <f t="shared" si="51"/>
@@ -16816,14 +16811,14 @@
     </row>
     <row r="276" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A276" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B276" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>3</v>
@@ -16862,14 +16857,14 @@
     </row>
     <row r="277" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A277" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B277" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>3</v>
@@ -16878,7 +16873,7 @@
         <v>45</v>
       </c>
       <c r="I277" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L277" s="33"/>
       <c r="M277" s="43" t="str">
@@ -16908,14 +16903,14 @@
     </row>
     <row r="278" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A278" s="36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B278" s="43" t="str">
         <f t="shared" ref="B278:B323" si="61">IF(CONCATENATE(M278,X278,AE278,AL278)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>3</v>
@@ -16954,14 +16949,14 @@
     </row>
     <row r="279" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A279" s="36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B279" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>3</v>
@@ -17000,14 +16995,14 @@
     </row>
     <row r="280" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A280" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B280" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>3</v>
@@ -17046,14 +17041,14 @@
     </row>
     <row r="281" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A281" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B281" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>3</v>
@@ -17143,14 +17138,14 @@
     </row>
     <row r="283" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B283" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C283" s="52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D283" s="52"/>
       <c r="E283" s="52"/>
@@ -17267,14 +17262,14 @@
     </row>
     <row r="284" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A284" s="36" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B284" s="43" t="str">
         <f t="shared" ref="B284:B302" si="65">IF(CONCATENATE(M284,X284,AE284,AL284)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>3</v>
@@ -17313,26 +17308,26 @@
     </row>
     <row r="285" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A285" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B285" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H285" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I285" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L285" s="33"/>
       <c r="M285" s="43" t="str">
@@ -17362,14 +17357,14 @@
     </row>
     <row r="286" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A286" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B286" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>3</v>
@@ -17378,7 +17373,7 @@
         <v>45</v>
       </c>
       <c r="I286" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L286" s="33"/>
       <c r="M286" s="43" t="str">
@@ -17407,14 +17402,14 @@
     </row>
     <row r="287" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A287" s="36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B287" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>3</v>
@@ -17423,7 +17418,7 @@
         <v>45</v>
       </c>
       <c r="I287" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L287" s="33"/>
       <c r="M287" s="43" t="str">
@@ -17452,14 +17447,14 @@
     </row>
     <row r="288" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A288" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B288" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>3</v>
@@ -17468,7 +17463,7 @@
         <v>45</v>
       </c>
       <c r="I288" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L288" s="33"/>
       <c r="M288" s="43" t="str">
@@ -17497,14 +17492,14 @@
     </row>
     <row r="289" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A289" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B289" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>3</v>
@@ -17513,7 +17508,7 @@
         <v>45</v>
       </c>
       <c r="I289" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L289" s="33"/>
       <c r="M289" s="43" t="str">
@@ -17542,14 +17537,14 @@
     </row>
     <row r="290" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A290" s="36" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B290" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>3</v>
@@ -17558,7 +17553,7 @@
         <v>21</v>
       </c>
       <c r="I290" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L290" s="34"/>
       <c r="M290" s="43" t="str">
@@ -17587,14 +17582,14 @@
     </row>
     <row r="291" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A291" s="36" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B291" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>3</v>
@@ -17603,7 +17598,7 @@
         <v>21</v>
       </c>
       <c r="I291" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L291" s="34"/>
       <c r="M291" s="43" t="str">
@@ -17632,14 +17627,14 @@
     </row>
     <row r="292" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A292" s="36" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B292" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>3</v>
@@ -17648,7 +17643,7 @@
         <v>45</v>
       </c>
       <c r="I292" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L292" s="33"/>
       <c r="M292" s="43"/>
@@ -17669,23 +17664,23 @@
     </row>
     <row r="293" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A293" s="36" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B293" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H293" t="s">
         <v>45</v>
       </c>
       <c r="I293" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L293" s="33"/>
       <c r="M293" s="43"/>
@@ -17706,14 +17701,14 @@
     </row>
     <row r="294" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A294" s="36" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B294" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>3</v>
@@ -17722,7 +17717,7 @@
         <v>39</v>
       </c>
       <c r="I294" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L294" s="33"/>
       <c r="M294" s="43"/>
@@ -17746,14 +17741,14 @@
     </row>
     <row r="295" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="36" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B295" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>3</v>
@@ -17762,7 +17757,7 @@
         <v>39</v>
       </c>
       <c r="I295" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L295" s="34"/>
       <c r="M295" s="43"/>
@@ -17783,23 +17778,23 @@
     </row>
     <row r="296" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A296" s="36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B296" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H296" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L296" s="34"/>
       <c r="M296" s="43" t="str">
@@ -17826,19 +17821,19 @@
       </c>
       <c r="AS296" s="34"/>
       <c r="AT296" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="297" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A297" s="36" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B297" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>3</v>
@@ -17871,14 +17866,14 @@
     </row>
     <row r="298" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="36" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B298" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>3</v>
@@ -17911,14 +17906,14 @@
     </row>
     <row r="299" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A299" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B299" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>3</v>
@@ -17956,14 +17951,14 @@
     </row>
     <row r="300" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A300" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B300" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>3</v>
@@ -18001,26 +17996,26 @@
     </row>
     <row r="301" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B301" s="43" t="str">
         <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H301" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I301" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L301" s="34"/>
       <c r="M301" s="43" t="str">
@@ -18054,7 +18049,7 @@
         <v>-</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>3</v>
@@ -18063,7 +18058,7 @@
         <v>39</v>
       </c>
       <c r="I302" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L302" s="33"/>
       <c r="M302" s="43"/>
@@ -18138,7 +18133,7 @@
     </row>
     <row r="304" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B304" s="43" t="str">
         <f t="shared" si="61"/>
@@ -18261,14 +18256,14 @@
     </row>
     <row r="305" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A305" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B305" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>3</v>
@@ -18303,17 +18298,17 @@
     </row>
     <row r="306" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A306" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B306" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H306" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L306" s="18"/>
       <c r="M306" s="43" t="str">
@@ -18340,22 +18335,22 @@
       </c>
       <c r="AS306" s="33"/>
       <c r="AT306" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="307" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B307" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H307" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L307" s="18"/>
       <c r="M307" s="43" t="str">
@@ -18385,25 +18380,25 @@
       </c>
       <c r="AS307" s="33"/>
       <c r="AT307" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="308" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A308" s="36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B308" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H308" t="s">
         <v>39</v>
       </c>
       <c r="I308" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L308" s="33"/>
       <c r="M308" s="43" t="str">
@@ -18433,20 +18428,20 @@
     </row>
     <row r="309" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A309" s="36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B309" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H309" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I309" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L309" s="33"/>
       <c r="M309" s="43" t="str">
@@ -18476,14 +18471,14 @@
     </row>
     <row r="310" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A310" s="36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B310" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H310" t="s">
         <v>18</v>
@@ -18492,7 +18487,7 @@
         <v>19</v>
       </c>
       <c r="J310" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L310" s="33"/>
       <c r="M310" s="43" t="str">
@@ -18557,20 +18552,20 @@
     </row>
     <row r="311" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A311" s="36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B311" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H311" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I311" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L311" s="33"/>
       <c r="M311" s="43" t="str">
@@ -18600,14 +18595,14 @@
     </row>
     <row r="312" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A312" s="36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B312" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H312" t="s">
         <v>39</v>
@@ -18641,7 +18636,7 @@
         <v>3</v>
       </c>
       <c r="AC312" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AD312" s="17"/>
       <c r="AE312" s="35" t="str">
@@ -18664,14 +18659,14 @@
     </row>
     <row r="313" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A313" s="36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B313" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H313" t="s">
         <v>18</v>
@@ -18709,14 +18704,14 @@
     </row>
     <row r="314" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="36" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B314" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H314" t="s">
         <v>39</v>
@@ -18751,14 +18746,14 @@
     </row>
     <row r="315" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B315" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H315" t="s">
         <v>39</v>
@@ -18793,14 +18788,14 @@
     </row>
     <row r="316" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B316" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H316" t="s">
         <v>39</v>
@@ -18835,14 +18830,14 @@
     </row>
     <row r="317" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="36" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B317" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H317" t="s">
         <v>39</v>
@@ -18928,7 +18923,7 @@
     </row>
     <row r="319" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A319" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B319" s="43" t="str">
         <f t="shared" si="61"/>
@@ -19041,20 +19036,20 @@
     </row>
     <row r="320" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B320" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H320" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I320" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L320" s="33"/>
       <c r="M320" s="43" t="str">
@@ -19081,22 +19076,22 @@
       </c>
       <c r="AS320" s="17"/>
       <c r="AT320" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="321" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B321" s="43" t="str">
         <f t="shared" si="61"/>
         <v>-</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H321" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L321" s="33"/>
       <c r="M321" s="43" t="str">
@@ -19123,7 +19118,7 @@
       </c>
       <c r="AS321" s="33"/>
       <c r="AT321" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="322" spans="1:46" x14ac:dyDescent="0.25">
@@ -19179,7 +19174,7 @@
     </row>
     <row r="323" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A323" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B323" s="43" t="str">
         <f t="shared" si="61"/>
@@ -19424,33 +19419,33 @@
     </row>
     <row r="329" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I329" s="49" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="330" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I330" s="50" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="331" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I331" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="J331" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="J331" s="6" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="332" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I332" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J332" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="333" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J333" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -19505,60 +19500,60 @@
         <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -19583,7 +19578,7 @@
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -19608,7 +19603,7 @@
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -19633,7 +19628,7 @@
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -19658,7 +19653,7 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -19683,7 +19678,7 @@
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -19708,7 +19703,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -19716,7 +19711,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -19724,7 +19719,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
@@ -19732,7 +19727,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -19740,7 +19735,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -19748,7 +19743,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -19771,7 +19766,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>3</v>
@@ -19779,7 +19774,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>3</v>
@@ -19787,7 +19782,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
@@ -19795,7 +19790,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>3</v>
@@ -19803,7 +19798,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>3</v>
@@ -19811,7 +19806,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
@@ -19819,7 +19814,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
@@ -19827,7 +19822,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -19852,7 +19847,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>3</v>
@@ -19860,7 +19855,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -19868,7 +19863,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -19876,7 +19871,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -19901,7 +19896,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>3</v>
@@ -19909,7 +19904,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
@@ -19917,7 +19912,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
@@ -19925,7 +19920,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
@@ -19950,7 +19945,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>3</v>
@@ -19958,7 +19953,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
@@ -19966,7 +19961,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>3</v>
@@ -19974,7 +19969,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>3</v>
@@ -19982,7 +19977,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>3</v>
@@ -19990,7 +19985,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>3</v>
@@ -19998,7 +19993,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>3</v>
@@ -20006,7 +20001,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>3</v>
@@ -20014,7 +20009,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>3</v>
@@ -20022,7 +20017,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -20030,7 +20025,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
@@ -20038,7 +20033,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -20063,7 +20058,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>3</v>
@@ -20071,7 +20066,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -20096,7 +20091,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>3</v>
@@ -20104,7 +20099,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>3</v>
@@ -20112,7 +20107,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>3</v>
@@ -20120,12 +20115,12 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>3</v>
@@ -20133,7 +20128,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
@@ -20141,7 +20136,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -20149,7 +20144,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>3</v>
@@ -20157,7 +20152,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>3</v>
@@ -20168,7 +20163,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>3</v>
@@ -20176,7 +20171,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>3</v>
@@ -20184,7 +20179,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>3</v>
@@ -20192,7 +20187,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>3</v>
@@ -20200,7 +20195,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>3</v>
@@ -20208,7 +20203,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B59" s="46"/>
       <c r="C59" s="46"/>
@@ -20233,7 +20228,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>3</v>
@@ -20241,7 +20236,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>3</v>
@@ -20249,7 +20244,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>3</v>
@@ -20257,7 +20252,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>3</v>
@@ -20265,7 +20260,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>3</v>
@@ -20324,10 +20319,10 @@
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/l3kernel/expl3-datatype-analysis.xlsx
+++ b/l3kernel/expl3-datatype-analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="21135" windowHeight="15285"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="21135" windowHeight="15225"/>
   </bookViews>
   <sheets>
     <sheet name="data types" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="556">
   <si>
     <t>action</t>
   </si>
@@ -1987,9 +1987,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>wrong name?</t>
-  </si>
-  <si>
     <t>questionable</t>
   </si>
   <si>
@@ -2027,6 +2024,9 @@
   </si>
   <si>
     <t>to_bin</t>
+  </si>
+  <si>
+    <t>&lt;var&gt; {&lt;key&gt;}</t>
   </si>
 </sst>
 </file>
@@ -2127,7 +2127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2270,11 +2270,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2290,9 +2293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2330,7 +2333,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2402,7 +2405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2578,14 +2581,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A248" sqref="A248"/>
+      <selection pane="bottomRight" activeCell="AH97" sqref="AH97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="9" customWidth="1"/>
@@ -2621,7 +2624,7 @@
     <col min="46" max="46" width="40" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" ht="125.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2759,15 +2762,15 @@
         <f>IF(CONCATENATE(M3,X3,AE3,AL3)="","","-")</f>
         <v>-</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="21"/>
       <c r="K3" s="13"/>
       <c r="L3" s="32" t="s">
@@ -5983,15 +5986,15 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
       <c r="J66" s="21"/>
       <c r="K66" s="13"/>
       <c r="L66" s="32" t="s">
@@ -6458,15 +6461,15 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
       <c r="J74" s="21"/>
       <c r="K74" s="13"/>
       <c r="L74" s="32" t="s">
@@ -7087,15 +7090,15 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C85" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
       <c r="J85" s="21"/>
       <c r="K85" s="13"/>
       <c r="L85" s="32" t="s">
@@ -7360,27 +7363,24 @@
       <c r="AT88"/>
     </row>
     <row r="89" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="37" t="s">
-        <v>6</v>
+      <c r="A89" s="38" t="s">
+        <v>294</v>
       </c>
       <c r="B89" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>3</v>
+        <v>228</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="H89" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>13</v>
@@ -7390,32 +7390,38 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="W89" s="33"/>
+      <c r="W89" s="17"/>
       <c r="X89" s="35" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AD89" s="33"/>
+      <c r="AD89" s="17"/>
       <c r="AE89" s="35" t="str">
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="AI89" s="12" t="s">
-        <v>3</v>
+      <c r="AF89" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG89" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH89" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="AK89" s="18"/>
       <c r="AL89" s="35" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AS89" s="33"/>
-      <c r="AT89" s="36" t="s">
-        <v>542</v>
+      <c r="AS89" s="17"/>
+      <c r="AT89" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="38" t="s">
-        <v>294</v>
+      <c r="A90" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="B90" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7424,14 +7430,14 @@
       <c r="C90" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="2" t="s">
         <v>274</v>
       </c>
       <c r="H90" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>13</v>
@@ -7451,14 +7457,8 @@
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="AF90" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG90" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH90" s="22" t="s">
-        <v>224</v>
+      <c r="AG90" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AK90" s="18"/>
       <c r="AL90" s="35" t="str">
@@ -7466,13 +7466,10 @@
         <v/>
       </c>
       <c r="AS90" s="17"/>
-      <c r="AT90" s="7" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="91" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B91" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7520,26 +7517,26 @@
     </row>
     <row r="92" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B92" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>274</v>
+        <v>229</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>13</v>
+        <v>119</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="L92" s="33"/>
       <c r="M92" s="43" t="str">
@@ -7556,7 +7553,10 @@
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="AG92" s="2" t="s">
+      <c r="AF92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AK92" s="18"/>
@@ -7568,10 +7568,10 @@
     </row>
     <row r="93" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>138</v>
+        <v>535</v>
       </c>
       <c r="B93" s="43" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="B93" si="25">IF(CONCATENATE(M93,X93,AE93,AL93)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -7589,40 +7589,37 @@
       <c r="J93" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="L93" s="33"/>
+      <c r="L93" s="44"/>
       <c r="M93" s="43" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="W93" s="17"/>
+        <f t="shared" ref="M93" si="26">IF(CONCATENATE(N93,O93,P93,Q93,R93,S93,T93,U93,V93)="","","-")</f>
+        <v/>
+      </c>
+      <c r="W93" s="44"/>
       <c r="X93" s="35" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AD93" s="17"/>
+        <f t="shared" ref="X93" si="27">IF(CONCATENATE(Y93,Z93,AA93,AB93,AC93)="","","-")</f>
+        <v/>
+      </c>
+      <c r="AD93" s="44"/>
       <c r="AE93" s="35" t="str">
-        <f t="shared" si="23"/>
-        <v>-</v>
-      </c>
-      <c r="AF93" s="2" t="s">
-        <v>3</v>
+        <f t="shared" ref="AE93" si="28">IF(CONCATENATE(AF93,AG93,AH93,AI93,AJ93)="","","-")</f>
+        <v>-</v>
       </c>
       <c r="AJ93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AK93" s="18"/>
       <c r="AL93" s="35" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="AS93" s="17"/>
+        <f t="shared" ref="AL93" si="29">IF(CONCATENATE(AM93,AN93,AO93,AP93,AQ93,AR93)="","","-")</f>
+        <v/>
+      </c>
+      <c r="AS93" s="44"/>
     </row>
     <row r="94" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>535</v>
+        <v>138</v>
       </c>
       <c r="B94" s="43" t="str">
-        <f t="shared" ref="B94" si="25">IF(CONCATENATE(M94,X94,AE94,AL94)="","","-")</f>
+        <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -7632,42 +7629,45 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="L94" s="44"/>
+      <c r="L94" s="33"/>
       <c r="M94" s="43" t="str">
-        <f t="shared" ref="M94" si="26">IF(CONCATENATE(N94,O94,P94,Q94,R94,S94,T94,U94,V94)="","","-")</f>
-        <v/>
-      </c>
-      <c r="W94" s="44"/>
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="W94" s="17"/>
       <c r="X94" s="35" t="str">
-        <f t="shared" ref="X94" si="27">IF(CONCATENATE(Y94,Z94,AA94,AB94,AC94)="","","-")</f>
-        <v/>
-      </c>
-      <c r="AD94" s="44"/>
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AD94" s="17"/>
       <c r="AE94" s="35" t="str">
-        <f t="shared" ref="AE94" si="28">IF(CONCATENATE(AF94,AG94,AH94,AI94,AJ94)="","","-")</f>
-        <v>-</v>
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="AF94" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AJ94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AK94" s="18"/>
       <c r="AL94" s="35" t="str">
-        <f t="shared" ref="AL94" si="29">IF(CONCATENATE(AM94,AN94,AO94,AP94,AQ94,AR94)="","","-")</f>
-        <v/>
-      </c>
-      <c r="AS94" s="44"/>
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AS94" s="17"/>
     </row>
     <row r="95" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="B95" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7680,10 +7680,10 @@
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>230</v>
@@ -7693,12 +7693,12 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="W95" s="17"/>
+      <c r="W95" s="25"/>
       <c r="X95" s="35" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AD95" s="17"/>
+      <c r="AD95" s="25"/>
       <c r="AE95" s="35" t="str">
         <f t="shared" si="23"/>
         <v>-</v>
@@ -7706,7 +7706,10 @@
       <c r="AF95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ95" s="2" t="s">
+      <c r="AG95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AK95" s="18"/>
@@ -7714,14 +7717,14 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AS95" s="17"/>
+      <c r="AS95" s="25"/>
     </row>
     <row r="96" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>164</v>
       </c>
       <c r="B96" s="43" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="B96" si="30">IF(CONCATENATE(M96,X96,AE96,AL96)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -7734,38 +7737,35 @@
         <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>165</v>
-      </c>
-      <c r="L96" s="33"/>
+        <v>555</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="L96" s="52"/>
       <c r="M96" s="43" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="W96" s="25"/>
+        <f t="shared" ref="M96" si="31">IF(CONCATENATE(N96,O96,P96,Q96,R96,S96,T96,U96,V96)="","","-")</f>
+        <v/>
+      </c>
+      <c r="W96" s="52"/>
       <c r="X96" s="35" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AD96" s="25"/>
+        <f t="shared" ref="X96" si="32">IF(CONCATENATE(Y96,Z96,AA96,AB96,AC96)="","","-")</f>
+        <v/>
+      </c>
+      <c r="AD96" s="52"/>
       <c r="AE96" s="35" t="str">
-        <f t="shared" si="23"/>
-        <v>-</v>
-      </c>
-      <c r="AF96" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG96" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH96" s="30" t="s">
+        <f t="shared" ref="AE96" si="33">IF(CONCATENATE(AF96,AG96,AH96,AI96,AJ96)="","","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AI96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AK96" s="18"/>
       <c r="AL96" s="35" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="AS96" s="25"/>
+        <f t="shared" ref="AL96" si="34">IF(CONCATENATE(AM96,AN96,AO96,AP96,AQ96,AR96)="","","-")</f>
+        <v/>
+      </c>
+      <c r="AS96" s="52"/>
     </row>
     <row r="97" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
@@ -7787,6 +7787,9 @@
       <c r="I97" s="6" t="s">
         <v>290</v>
       </c>
+      <c r="J97" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="L97" s="33"/>
       <c r="M97" s="43" t="str">
         <f t="shared" si="22"/>
@@ -7802,14 +7805,12 @@
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
-      <c r="AF97" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG97" s="22" t="s">
+      <c r="AF97" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG97" s="9"/>
+      <c r="AH97" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="AH97" s="30" t="s">
-        <v>3</v>
       </c>
       <c r="AK97" s="18"/>
       <c r="AL97" s="35" t="str">
@@ -7974,7 +7975,7 @@
         <v>536</v>
       </c>
       <c r="B102" s="43" t="str">
-        <f t="shared" ref="B102" si="30">IF(CONCATENATE(M102,X102,AE102,AL102)="","","-")</f>
+        <f t="shared" ref="B102" si="35">IF(CONCATENATE(M102,X102,AE102,AL102)="","","-")</f>
         <v>-</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -7991,17 +7992,17 @@
       </c>
       <c r="L102" s="44"/>
       <c r="M102" s="43" t="str">
-        <f t="shared" ref="M102" si="31">IF(CONCATENATE(N102,O102,P102,Q102,R102,S102,T102,U102,V102)="","","-")</f>
+        <f t="shared" ref="M102" si="36">IF(CONCATENATE(N102,O102,P102,Q102,R102,S102,T102,U102,V102)="","","-")</f>
         <v/>
       </c>
       <c r="W102" s="44"/>
       <c r="X102" s="35" t="str">
-        <f t="shared" ref="X102" si="32">IF(CONCATENATE(Y102,Z102,AA102,AB102,AC102)="","","-")</f>
+        <f t="shared" ref="X102" si="37">IF(CONCATENATE(Y102,Z102,AA102,AB102,AC102)="","","-")</f>
         <v/>
       </c>
       <c r="AD102" s="44"/>
       <c r="AE102" s="35" t="str">
-        <f t="shared" ref="AE102" si="33">IF(CONCATENATE(AF102,AG102,AH102,AI102,AJ102)="","","-")</f>
+        <f t="shared" ref="AE102" si="38">IF(CONCATENATE(AF102,AG102,AH102,AI102,AJ102)="","","-")</f>
         <v>-</v>
       </c>
       <c r="AJ102" s="2" t="s">
@@ -8009,7 +8010,7 @@
       </c>
       <c r="AK102" s="18"/>
       <c r="AL102" s="35" t="str">
-        <f t="shared" ref="AL102" si="34">IF(CONCATENATE(AM102,AN102,AO102,AP102,AQ102,AR102)="","","-")</f>
+        <f t="shared" ref="AL102" si="39">IF(CONCATENATE(AM102,AN102,AO102,AP102,AQ102,AR102)="","","-")</f>
         <v/>
       </c>
       <c r="AS102" s="44"/>
@@ -8133,15 +8134,15 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="52"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
       <c r="J105" s="21"/>
       <c r="K105" s="13"/>
       <c r="L105" s="32" t="s">
@@ -9396,15 +9397,15 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="C130" s="52" t="s">
+      <c r="C130" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="52"/>
-      <c r="H130" s="52"/>
-      <c r="I130" s="52"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="53"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="53"/>
+      <c r="I130" s="53"/>
       <c r="K130" s="2"/>
       <c r="L130" s="32" t="s">
         <v>13</v>
@@ -9621,7 +9622,7 @@
         <v>533</v>
       </c>
       <c r="B133" s="43" t="str">
-        <f t="shared" ref="B133:B135" si="35">IF(CONCATENATE(M133,X133,AE133,AL133)="","","-")</f>
+        <f t="shared" ref="B133:B135" si="40">IF(CONCATENATE(M133,X133,AE133,AL133)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -9641,17 +9642,17 @@
       </c>
       <c r="L133" s="44"/>
       <c r="M133" s="43" t="str">
-        <f t="shared" ref="M133:M135" si="36">IF(CONCATENATE(N133,O133,P133,Q133,R133,S133,T133,U133,V133)="","","-")</f>
+        <f t="shared" ref="M133:M135" si="41">IF(CONCATENATE(N133,O133,P133,Q133,R133,S133,T133,U133,V133)="","","-")</f>
         <v/>
       </c>
       <c r="W133" s="44"/>
       <c r="X133" s="35" t="str">
-        <f t="shared" ref="X133:X135" si="37">IF(CONCATENATE(Y133,Z133,AA133,AB133,AC133)="","","-")</f>
+        <f t="shared" ref="X133:X135" si="42">IF(CONCATENATE(Y133,Z133,AA133,AB133,AC133)="","","-")</f>
         <v/>
       </c>
       <c r="AD133" s="44"/>
       <c r="AE133" s="35" t="str">
-        <f t="shared" ref="AE133:AE135" si="38">IF(CONCATENATE(AF133,AG133,AH133,AI133,AJ133)="","","-")</f>
+        <f t="shared" ref="AE133:AE135" si="43">IF(CONCATENATE(AF133,AG133,AH133,AI133,AJ133)="","","-")</f>
         <v>-</v>
       </c>
       <c r="AJ133" s="2" t="s">
@@ -9659,7 +9660,7 @@
       </c>
       <c r="AK133" s="18"/>
       <c r="AL133" s="35" t="str">
-        <f t="shared" ref="AL133:AL135" si="39">IF(CONCATENATE(AM133,AN133,AO133,AP133,AQ133,AR133)="","","-")</f>
+        <f t="shared" ref="AL133:AL135" si="44">IF(CONCATENATE(AM133,AN133,AO133,AP133,AQ133,AR133)="","","-")</f>
         <v/>
       </c>
       <c r="AS133" s="44"/>
@@ -9670,7 +9671,7 @@
         <v>534</v>
       </c>
       <c r="B134" s="43" t="str">
-        <f t="shared" ref="B134" si="40">IF(CONCATENATE(M134,X134,AE134,AL134)="","","-")</f>
+        <f t="shared" ref="B134" si="45">IF(CONCATENATE(M134,X134,AE134,AL134)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -9690,17 +9691,17 @@
       </c>
       <c r="L134" s="44"/>
       <c r="M134" s="43" t="str">
-        <f t="shared" ref="M134" si="41">IF(CONCATENATE(N134,O134,P134,Q134,R134,S134,T134,U134,V134)="","","-")</f>
+        <f t="shared" ref="M134" si="46">IF(CONCATENATE(N134,O134,P134,Q134,R134,S134,T134,U134,V134)="","","-")</f>
         <v/>
       </c>
       <c r="W134" s="44"/>
       <c r="X134" s="35" t="str">
-        <f t="shared" ref="X134" si="42">IF(CONCATENATE(Y134,Z134,AA134,AB134,AC134)="","","-")</f>
+        <f t="shared" ref="X134" si="47">IF(CONCATENATE(Y134,Z134,AA134,AB134,AC134)="","","-")</f>
         <v/>
       </c>
       <c r="AD134" s="44"/>
       <c r="AE134" s="35" t="str">
-        <f t="shared" ref="AE134" si="43">IF(CONCATENATE(AF134,AG134,AH134,AI134,AJ134)="","","-")</f>
+        <f t="shared" ref="AE134" si="48">IF(CONCATENATE(AF134,AG134,AH134,AI134,AJ134)="","","-")</f>
         <v>-</v>
       </c>
       <c r="AJ134" s="2" t="s">
@@ -9708,7 +9709,7 @@
       </c>
       <c r="AK134" s="18"/>
       <c r="AL134" s="35" t="str">
-        <f t="shared" ref="AL134" si="44">IF(CONCATENATE(AM134,AN134,AO134,AP134,AQ134,AR134)="","","-")</f>
+        <f t="shared" ref="AL134" si="49">IF(CONCATENATE(AM134,AN134,AO134,AP134,AQ134,AR134)="","","-")</f>
         <v/>
       </c>
       <c r="AS134" s="44"/>
@@ -9719,7 +9720,7 @@
         <v>534</v>
       </c>
       <c r="B135" s="43" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -9739,17 +9740,17 @@
       </c>
       <c r="L135" s="44"/>
       <c r="M135" s="43" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W135" s="44"/>
       <c r="X135" s="35" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AD135" s="44"/>
       <c r="AE135" s="35" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>-</v>
       </c>
       <c r="AJ135" s="2" t="s">
@@ -9757,7 +9758,7 @@
       </c>
       <c r="AK135" s="18"/>
       <c r="AL135" s="35" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AS135" s="44"/>
@@ -10435,7 +10436,7 @@
       </c>
       <c r="W147" s="33"/>
       <c r="X147" s="35" t="str">
-        <f t="shared" ref="X147:X210" si="45">IF(CONCATENATE(Y147,Z147,AA147,AB147,AC147)="","","-")</f>
+        <f t="shared" ref="X147:X210" si="50">IF(CONCATENATE(Y147,Z147,AA147,AB147,AC147)="","","-")</f>
         <v/>
       </c>
       <c r="AD147" s="33"/>
@@ -10456,7 +10457,7 @@
         <v>478</v>
       </c>
       <c r="B148" s="43" t="str">
-        <f t="shared" ref="B148:B211" si="46">IF(CONCATENATE(M148,X148,AE148,AL148)="","","-")</f>
+        <f t="shared" ref="B148:B211" si="51">IF(CONCATENATE(M148,X148,AE148,AL148)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -10473,7 +10474,7 @@
       </c>
       <c r="L148" s="33"/>
       <c r="M148" s="43" t="str">
-        <f t="shared" ref="M148:M211" si="47">IF(CONCATENATE(N148,O148,P148,Q148,R148,S148,T148,U148,V148)="","","-")</f>
+        <f t="shared" ref="M148:M211" si="52">IF(CONCATENATE(N148,O148,P148,Q148,R148,S148,T148,U148,V148)="","","-")</f>
         <v>-</v>
       </c>
       <c r="S148" s="2" t="s">
@@ -10481,17 +10482,17 @@
       </c>
       <c r="W148" s="33"/>
       <c r="X148" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD148" s="33"/>
       <c r="AE148" s="35" t="str">
-        <f t="shared" ref="AE148:AE211" si="48">IF(CONCATENATE(AF148,AG148,AH148,AI148,AJ148)="","","-")</f>
+        <f t="shared" ref="AE148:AE211" si="53">IF(CONCATENATE(AF148,AG148,AH148,AI148,AJ148)="","","-")</f>
         <v/>
       </c>
       <c r="AK148" s="18"/>
       <c r="AL148" s="35" t="str">
-        <f t="shared" ref="AL148:AL211" si="49">IF(CONCATENATE(AM148,AN148,AO148,AP148,AQ148,AR148)="","","-")</f>
+        <f t="shared" ref="AL148:AL211" si="54">IF(CONCATENATE(AM148,AN148,AO148,AP148,AQ148,AR148)="","","-")</f>
         <v/>
       </c>
       <c r="AS148" s="33"/>
@@ -10504,7 +10505,7 @@
         <v>479</v>
       </c>
       <c r="B149" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -10521,7 +10522,7 @@
       </c>
       <c r="L149" s="33"/>
       <c r="M149" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S149" s="2" t="s">
@@ -10529,17 +10530,17 @@
       </c>
       <c r="W149" s="33"/>
       <c r="X149" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD149" s="33"/>
       <c r="AE149" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK149" s="18"/>
       <c r="AL149" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS149" s="33"/>
@@ -10552,7 +10553,7 @@
         <v>480</v>
       </c>
       <c r="B150" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -10569,7 +10570,7 @@
       </c>
       <c r="L150" s="33"/>
       <c r="M150" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S150" s="2" t="s">
@@ -10577,17 +10578,17 @@
       </c>
       <c r="W150" s="33"/>
       <c r="X150" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD150" s="33"/>
       <c r="AE150" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK150" s="18"/>
       <c r="AL150" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS150" s="33"/>
@@ -10600,7 +10601,7 @@
         <v>481</v>
       </c>
       <c r="B151" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -10617,7 +10618,7 @@
       </c>
       <c r="L151" s="33"/>
       <c r="M151" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S151" s="2" t="s">
@@ -10625,17 +10626,17 @@
       </c>
       <c r="W151" s="33"/>
       <c r="X151" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD151" s="33"/>
       <c r="AE151" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK151" s="18"/>
       <c r="AL151" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS151" s="33"/>
@@ -10648,7 +10649,7 @@
         <v>482</v>
       </c>
       <c r="B152" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -10665,7 +10666,7 @@
       </c>
       <c r="L152" s="33"/>
       <c r="M152" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S152" s="2" t="s">
@@ -10673,17 +10674,17 @@
       </c>
       <c r="W152" s="33"/>
       <c r="X152" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD152" s="33"/>
       <c r="AE152" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK152" s="18"/>
       <c r="AL152" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS152" s="33"/>
@@ -10696,7 +10697,7 @@
         <v>483</v>
       </c>
       <c r="B153" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -10713,7 +10714,7 @@
       </c>
       <c r="L153" s="33"/>
       <c r="M153" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S153" s="2" t="s">
@@ -10721,17 +10722,17 @@
       </c>
       <c r="W153" s="33"/>
       <c r="X153" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD153" s="33"/>
       <c r="AE153" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK153" s="18"/>
       <c r="AL153" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS153" s="33"/>
@@ -10744,7 +10745,7 @@
         <v>484</v>
       </c>
       <c r="B154" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -10761,7 +10762,7 @@
       </c>
       <c r="L154" s="33"/>
       <c r="M154" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S154" s="2" t="s">
@@ -10769,17 +10770,17 @@
       </c>
       <c r="W154" s="33"/>
       <c r="X154" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD154" s="33"/>
       <c r="AE154" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK154" s="18"/>
       <c r="AL154" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS154" s="33"/>
@@ -10792,7 +10793,7 @@
         <v>61</v>
       </c>
       <c r="B155" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -10809,12 +10810,12 @@
       </c>
       <c r="L155" s="33"/>
       <c r="M155" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W155" s="33"/>
       <c r="X155" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y155" s="2" t="s">
@@ -10828,12 +10829,12 @@
       </c>
       <c r="AD155" s="33"/>
       <c r="AE155" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK155" s="18"/>
       <c r="AL155" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS155" s="33"/>
@@ -10844,7 +10845,7 @@
         <v>61</v>
       </c>
       <c r="B156" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -10861,12 +10862,12 @@
       </c>
       <c r="L156" s="33"/>
       <c r="M156" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W156" s="33"/>
       <c r="X156" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y156" s="2" t="s">
@@ -10880,12 +10881,12 @@
       </c>
       <c r="AD156" s="33"/>
       <c r="AE156" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK156" s="18"/>
       <c r="AL156" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS156" s="33"/>
@@ -10896,7 +10897,7 @@
         <v>66</v>
       </c>
       <c r="B157" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -10913,12 +10914,12 @@
       </c>
       <c r="L157" s="33"/>
       <c r="M157" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W157" s="33"/>
       <c r="X157" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y157" s="2" t="s">
@@ -10932,12 +10933,12 @@
       </c>
       <c r="AD157" s="33"/>
       <c r="AE157" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK157" s="18"/>
       <c r="AL157" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS157" s="33"/>
@@ -10948,7 +10949,7 @@
         <v>66</v>
       </c>
       <c r="B158" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -10965,7 +10966,7 @@
       </c>
       <c r="L158" s="33"/>
       <c r="M158" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="P158" s="2" t="s">
@@ -10973,7 +10974,7 @@
       </c>
       <c r="W158" s="33"/>
       <c r="X158" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y158" s="2" t="s">
@@ -10987,12 +10988,12 @@
       </c>
       <c r="AD158" s="33"/>
       <c r="AE158" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK158" s="18"/>
       <c r="AL158" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS158" s="33"/>
@@ -11003,7 +11004,7 @@
         <v>66</v>
       </c>
       <c r="B159" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -11023,7 +11024,7 @@
       </c>
       <c r="L159" s="33"/>
       <c r="M159" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="P159" s="2" t="s">
@@ -11031,17 +11032,17 @@
       </c>
       <c r="W159" s="33"/>
       <c r="X159" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD159" s="33"/>
       <c r="AE159" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK159" s="18"/>
       <c r="AL159" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS159" s="33"/>
@@ -11052,7 +11053,7 @@
         <v>67</v>
       </c>
       <c r="B160" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -11069,12 +11070,12 @@
       </c>
       <c r="L160" s="33"/>
       <c r="M160" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W160" s="33"/>
       <c r="X160" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y160" s="2" t="s">
@@ -11088,12 +11089,12 @@
       </c>
       <c r="AD160" s="33"/>
       <c r="AE160" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK160" s="18"/>
       <c r="AL160" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS160" s="33"/>
@@ -11104,7 +11105,7 @@
         <v>67</v>
       </c>
       <c r="B161" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -11121,7 +11122,7 @@
       </c>
       <c r="L161" s="33"/>
       <c r="M161" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="P161" s="2" t="s">
@@ -11129,7 +11130,7 @@
       </c>
       <c r="W161" s="17"/>
       <c r="X161" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y161" s="2" t="s">
@@ -11143,12 +11144,12 @@
       </c>
       <c r="AD161" s="17"/>
       <c r="AE161" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK161" s="18"/>
       <c r="AL161" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS161" s="17"/>
@@ -11159,7 +11160,7 @@
         <v>67</v>
       </c>
       <c r="B162" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -11179,7 +11180,7 @@
       </c>
       <c r="L162" s="33"/>
       <c r="M162" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="P162" s="2" t="s">
@@ -11187,17 +11188,17 @@
       </c>
       <c r="W162" s="17"/>
       <c r="X162" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD162" s="17"/>
       <c r="AE162" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK162" s="18"/>
       <c r="AL162" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS162" s="17"/>
@@ -11207,7 +11208,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -11228,7 +11229,7 @@
       <c r="K163" s="3"/>
       <c r="L163" s="33"/>
       <c r="M163" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="P163" s="2" t="s">
@@ -11236,17 +11237,17 @@
       </c>
       <c r="W163" s="17"/>
       <c r="X163" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD163" s="17"/>
       <c r="AE163" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK163" s="18"/>
       <c r="AL163" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS163" s="17"/>
@@ -11256,7 +11257,7 @@
         <v>22</v>
       </c>
       <c r="B164" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -11274,7 +11275,7 @@
       <c r="K164" s="3"/>
       <c r="L164" s="33"/>
       <c r="M164" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="P164" s="2" t="s">
@@ -11282,17 +11283,17 @@
       </c>
       <c r="W164" s="17"/>
       <c r="X164" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD164" s="17"/>
       <c r="AE164" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK164" s="18"/>
       <c r="AL164" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS164" s="17"/>
@@ -11302,7 +11303,7 @@
         <v>120</v>
       </c>
       <c r="B165" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -11319,17 +11320,17 @@
       </c>
       <c r="L165" s="33"/>
       <c r="M165" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W165" s="17"/>
       <c r="X165" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD165" s="17"/>
       <c r="AE165" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF165" s="2" t="s">
@@ -11340,7 +11341,7 @@
       </c>
       <c r="AK165" s="18"/>
       <c r="AL165" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS165" s="17"/>
@@ -11350,7 +11351,7 @@
         <v>454</v>
       </c>
       <c r="B166" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -11367,7 +11368,7 @@
       </c>
       <c r="L166" s="33"/>
       <c r="M166" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="Q166" s="2" t="s">
@@ -11375,17 +11376,17 @@
       </c>
       <c r="W166" s="24"/>
       <c r="X166" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD166" s="24"/>
       <c r="AE166" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK166" s="18"/>
       <c r="AL166" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS166" s="24"/>
@@ -11398,7 +11399,7 @@
         <v>121</v>
       </c>
       <c r="B167" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -11415,17 +11416,17 @@
       </c>
       <c r="L167" s="33"/>
       <c r="M167" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W167" s="17"/>
       <c r="X167" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD167" s="17"/>
       <c r="AE167" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF167" s="2" t="s">
@@ -11445,7 +11446,7 @@
       </c>
       <c r="AK167" s="18"/>
       <c r="AL167" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
       <c r="AM167" s="2" t="s">
@@ -11461,7 +11462,7 @@
         <v>121</v>
       </c>
       <c r="B168" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -11478,17 +11479,17 @@
       </c>
       <c r="L168" s="33"/>
       <c r="M168" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W168" s="17"/>
       <c r="X168" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD168" s="17"/>
       <c r="AE168" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF168" s="2" t="s">
@@ -11502,7 +11503,7 @@
       </c>
       <c r="AK168" s="18"/>
       <c r="AL168" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS168" s="17"/>
@@ -11512,7 +11513,7 @@
         <v>122</v>
       </c>
       <c r="B169" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -11529,7 +11530,7 @@
       </c>
       <c r="L169" s="33"/>
       <c r="M169" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11537,12 +11538,12 @@
       </c>
       <c r="W169" s="17"/>
       <c r="X169" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD169" s="17"/>
       <c r="AE169" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF169" s="2" t="s">
@@ -11550,7 +11551,7 @@
       </c>
       <c r="AK169" s="18"/>
       <c r="AL169" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS169" s="17"/>
@@ -11560,7 +11561,7 @@
         <v>122</v>
       </c>
       <c r="B170" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -11577,17 +11578,17 @@
       </c>
       <c r="L170" s="33"/>
       <c r="M170" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W170" s="33"/>
       <c r="X170" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD170" s="33"/>
       <c r="AE170" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF170" s="2" t="s">
@@ -11598,7 +11599,7 @@
       </c>
       <c r="AK170" s="18"/>
       <c r="AL170" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS170" s="33"/>
@@ -11608,7 +11609,7 @@
         <v>122</v>
       </c>
       <c r="B171" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -11625,12 +11626,12 @@
       </c>
       <c r="L171" s="33"/>
       <c r="M171" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W171" s="33"/>
       <c r="X171" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="AA171" s="22" t="s">
@@ -11638,12 +11639,12 @@
       </c>
       <c r="AD171" s="33"/>
       <c r="AE171" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK171" s="18"/>
       <c r="AL171" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS171" s="33"/>
@@ -11656,7 +11657,7 @@
         <v>450</v>
       </c>
       <c r="B172" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -11673,7 +11674,7 @@
       </c>
       <c r="L172" s="33"/>
       <c r="M172" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="Q172" s="2" t="s">
@@ -11681,17 +11682,17 @@
       </c>
       <c r="W172" s="33"/>
       <c r="X172" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD172" s="33"/>
       <c r="AE172" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK172" s="18"/>
       <c r="AL172" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS172" s="33"/>
@@ -11701,7 +11702,7 @@
         <v>451</v>
       </c>
       <c r="B173" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -11718,7 +11719,7 @@
       </c>
       <c r="L173" s="33"/>
       <c r="M173" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="Q173" s="2" t="s">
@@ -11726,17 +11727,17 @@
       </c>
       <c r="W173" s="33"/>
       <c r="X173" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD173" s="33"/>
       <c r="AE173" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK173" s="18"/>
       <c r="AL173" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS173" s="33"/>
@@ -11746,7 +11747,7 @@
         <v>452</v>
       </c>
       <c r="B174" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -11763,7 +11764,7 @@
       </c>
       <c r="L174" s="33"/>
       <c r="M174" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="Q174" s="2" t="s">
@@ -11771,17 +11772,17 @@
       </c>
       <c r="W174" s="33"/>
       <c r="X174" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD174" s="33"/>
       <c r="AE174" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK174" s="18"/>
       <c r="AL174" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS174" s="33"/>
@@ -11791,7 +11792,7 @@
         <v>317</v>
       </c>
       <c r="B175" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -11808,12 +11809,12 @@
       </c>
       <c r="L175" s="33"/>
       <c r="M175" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W175" s="33"/>
       <c r="X175" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="AA175" s="22" t="s">
@@ -11821,7 +11822,7 @@
       </c>
       <c r="AD175" s="33"/>
       <c r="AE175" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AJ175" s="2" t="s">
@@ -11829,7 +11830,7 @@
       </c>
       <c r="AK175" s="18"/>
       <c r="AL175" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS175" s="33"/>
@@ -11840,7 +11841,7 @@
         <v>64</v>
       </c>
       <c r="B176" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -11857,12 +11858,12 @@
       </c>
       <c r="L176" s="33"/>
       <c r="M176" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W176" s="33"/>
       <c r="X176" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y176" s="2" t="s">
@@ -11870,12 +11871,12 @@
       </c>
       <c r="AD176" s="33"/>
       <c r="AE176" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK176" s="18"/>
       <c r="AL176" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS176" s="33"/>
@@ -11885,7 +11886,7 @@
         <v>209</v>
       </c>
       <c r="B177" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -11902,7 +11903,7 @@
       </c>
       <c r="L177" s="33"/>
       <c r="M177" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -11919,7 +11920,7 @@
       <c r="V177" s="9"/>
       <c r="W177" s="33"/>
       <c r="X177" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y177" s="9" t="s">
@@ -11939,7 +11940,7 @@
       </c>
       <c r="AD177" s="33"/>
       <c r="AE177" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF177" s="9" t="s">
@@ -11959,7 +11960,7 @@
       </c>
       <c r="AK177" s="18"/>
       <c r="AL177" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
       <c r="AM177" s="9" t="s">
@@ -11977,7 +11978,7 @@
         <v>209</v>
       </c>
       <c r="B178" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -11994,7 +11995,7 @@
       </c>
       <c r="L178" s="33"/>
       <c r="M178" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="P178" s="9"/>
@@ -12008,7 +12009,7 @@
       </c>
       <c r="W178" s="33"/>
       <c r="X178" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="Y178" s="9"/>
@@ -12016,7 +12017,7 @@
       <c r="AA178" s="9"/>
       <c r="AD178" s="33"/>
       <c r="AE178" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AF178" s="9"/>
@@ -12025,7 +12026,7 @@
       <c r="AI178" s="9"/>
       <c r="AK178" s="18"/>
       <c r="AL178" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AM178" s="9"/>
@@ -12038,7 +12039,7 @@
         <v>465</v>
       </c>
       <c r="B179" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -12055,7 +12056,7 @@
       </c>
       <c r="L179" s="33"/>
       <c r="M179" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="N179" s="30" t="s">
@@ -12070,7 +12071,7 @@
       <c r="V179" s="9"/>
       <c r="W179" s="17"/>
       <c r="X179" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="Y179" s="9"/>
@@ -12078,7 +12079,7 @@
       <c r="AA179" s="9"/>
       <c r="AD179" s="17"/>
       <c r="AE179" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AF179" s="9"/>
@@ -12087,7 +12088,7 @@
       <c r="AI179" s="9"/>
       <c r="AK179" s="18"/>
       <c r="AL179" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AM179" s="9"/>
@@ -12100,7 +12101,7 @@
         <v>281</v>
       </c>
       <c r="B180" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -12117,12 +12118,12 @@
       </c>
       <c r="L180" s="33"/>
       <c r="M180" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W180" s="17"/>
       <c r="X180" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="AA180" s="2" t="s">
@@ -12130,12 +12131,12 @@
       </c>
       <c r="AD180" s="17"/>
       <c r="AE180" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK180" s="18"/>
       <c r="AL180" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS180" s="17"/>
@@ -12148,7 +12149,7 @@
         <v>437</v>
       </c>
       <c r="B181" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -12165,7 +12166,7 @@
       </c>
       <c r="L181" s="33"/>
       <c r="M181" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -12173,17 +12174,17 @@
       </c>
       <c r="W181" s="17"/>
       <c r="X181" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD181" s="17"/>
       <c r="AE181" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK181" s="18"/>
       <c r="AL181" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS181" s="17"/>
@@ -12193,7 +12194,7 @@
         <v>142</v>
       </c>
       <c r="B182" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -12210,17 +12211,17 @@
       </c>
       <c r="L182" s="33"/>
       <c r="M182" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W182" s="17"/>
       <c r="X182" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD182" s="17"/>
       <c r="AE182" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF182" s="2" t="s">
@@ -12228,7 +12229,7 @@
       </c>
       <c r="AK182" s="18"/>
       <c r="AL182" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS182" s="17"/>
@@ -12238,7 +12239,7 @@
         <v>141</v>
       </c>
       <c r="B183" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -12255,17 +12256,17 @@
       </c>
       <c r="L183" s="33"/>
       <c r="M183" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W183" s="33"/>
       <c r="X183" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD183" s="33"/>
       <c r="AE183" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF183" s="2" t="s">
@@ -12273,7 +12274,7 @@
       </c>
       <c r="AK183" s="18"/>
       <c r="AL183" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS183" s="33"/>
@@ -12283,7 +12284,7 @@
         <v>144</v>
       </c>
       <c r="B184" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -12300,17 +12301,17 @@
       </c>
       <c r="L184" s="33"/>
       <c r="M184" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W184" s="17"/>
       <c r="X184" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD184" s="17"/>
       <c r="AE184" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF184" s="2" t="s">
@@ -12318,7 +12319,7 @@
       </c>
       <c r="AK184" s="18"/>
       <c r="AL184" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS184" s="17"/>
@@ -12328,7 +12329,7 @@
         <v>321</v>
       </c>
       <c r="B185" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -12345,17 +12346,17 @@
       </c>
       <c r="L185" s="33"/>
       <c r="M185" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W185" s="33"/>
       <c r="X185" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD185" s="33"/>
       <c r="AE185" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF185" s="2" t="s">
@@ -12363,7 +12364,7 @@
       </c>
       <c r="AK185" s="18"/>
       <c r="AL185" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS185" s="33"/>
@@ -12373,7 +12374,7 @@
         <v>322</v>
       </c>
       <c r="B186" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -12390,17 +12391,17 @@
       </c>
       <c r="L186" s="33"/>
       <c r="M186" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W186" s="17"/>
       <c r="X186" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD186" s="17"/>
       <c r="AE186" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF186" s="2" t="s">
@@ -12408,7 +12409,7 @@
       </c>
       <c r="AK186" s="18"/>
       <c r="AL186" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS186" s="24"/>
@@ -12418,7 +12419,7 @@
         <v>323</v>
       </c>
       <c r="B187" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -12435,17 +12436,17 @@
       </c>
       <c r="L187" s="33"/>
       <c r="M187" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W187" s="17"/>
       <c r="X187" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD187" s="17"/>
       <c r="AE187" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF187" s="2" t="s">
@@ -12453,7 +12454,7 @@
       </c>
       <c r="AK187" s="18"/>
       <c r="AL187" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS187" s="17"/>
@@ -12463,7 +12464,7 @@
         <v>200</v>
       </c>
       <c r="B188" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C188" s="9" t="s">
@@ -12480,22 +12481,22 @@
       </c>
       <c r="L188" s="33"/>
       <c r="M188" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W188" s="17"/>
       <c r="X188" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD188" s="17"/>
       <c r="AE188" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK188" s="18"/>
       <c r="AL188" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
       <c r="AM188" s="2" t="s">
@@ -12511,7 +12512,7 @@
         <v>124</v>
       </c>
       <c r="B189" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -12528,17 +12529,17 @@
       </c>
       <c r="L189" s="33"/>
       <c r="M189" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W189" s="33"/>
       <c r="X189" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD189" s="33"/>
       <c r="AE189" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF189" s="2" t="s">
@@ -12555,7 +12556,7 @@
       </c>
       <c r="AK189" s="18"/>
       <c r="AL189" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS189" s="33"/>
@@ -12568,7 +12569,7 @@
         <v>124</v>
       </c>
       <c r="B190" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -12585,17 +12586,17 @@
       </c>
       <c r="L190" s="33"/>
       <c r="M190" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W190" s="17"/>
       <c r="X190" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD190" s="17"/>
       <c r="AE190" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF190" s="2" t="s">
@@ -12609,7 +12610,7 @@
       </c>
       <c r="AK190" s="18"/>
       <c r="AL190" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS190" s="17"/>
@@ -12619,7 +12620,7 @@
         <v>455</v>
       </c>
       <c r="B191" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -12636,7 +12637,7 @@
       </c>
       <c r="L191" s="33"/>
       <c r="M191" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="Q191" s="2" t="s">
@@ -12644,17 +12645,17 @@
       </c>
       <c r="W191" s="17"/>
       <c r="X191" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD191" s="17"/>
       <c r="AE191" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK191" s="18"/>
       <c r="AL191" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS191" s="17"/>
@@ -12667,7 +12668,7 @@
         <v>456</v>
       </c>
       <c r="B192" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -12684,7 +12685,7 @@
       </c>
       <c r="L192" s="33"/>
       <c r="M192" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="Q192" s="2" t="s">
@@ -12692,17 +12693,17 @@
       </c>
       <c r="W192" s="17"/>
       <c r="X192" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD192" s="17"/>
       <c r="AE192" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK192" s="18"/>
       <c r="AL192" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS192" s="17"/>
@@ -12715,7 +12716,7 @@
         <v>32</v>
       </c>
       <c r="B193" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -12735,7 +12736,7 @@
       </c>
       <c r="L193" s="33"/>
       <c r="M193" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="O193" s="2" t="s">
@@ -12743,17 +12744,17 @@
       </c>
       <c r="W193" s="17"/>
       <c r="X193" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD193" s="17"/>
       <c r="AE193" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK193" s="18"/>
       <c r="AL193" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS193" s="17"/>
@@ -12763,7 +12764,7 @@
         <v>33</v>
       </c>
       <c r="B194" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C194" s="2" t="s">
@@ -12783,7 +12784,7 @@
       </c>
       <c r="L194" s="33"/>
       <c r="M194" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="O194" s="2" t="s">
@@ -12791,17 +12792,17 @@
       </c>
       <c r="W194" s="17"/>
       <c r="X194" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD194" s="17"/>
       <c r="AE194" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK194" s="18"/>
       <c r="AL194" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS194" s="17"/>
@@ -12811,7 +12812,7 @@
         <v>65</v>
       </c>
       <c r="B195" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C195" s="2" t="s">
@@ -12828,12 +12829,12 @@
       </c>
       <c r="L195" s="33"/>
       <c r="M195" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W195" s="17"/>
       <c r="X195" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y195" s="2" t="s">
@@ -12841,12 +12842,12 @@
       </c>
       <c r="AD195" s="17"/>
       <c r="AE195" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK195" s="18"/>
       <c r="AL195" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS195" s="17"/>
@@ -12856,7 +12857,7 @@
         <v>125</v>
       </c>
       <c r="B196" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -12873,17 +12874,17 @@
       </c>
       <c r="L196" s="33"/>
       <c r="M196" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W196" s="17"/>
       <c r="X196" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD196" s="17"/>
       <c r="AE196" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF196" s="9" t="s">
@@ -12891,7 +12892,7 @@
       </c>
       <c r="AK196" s="18"/>
       <c r="AL196" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS196" s="17"/>
@@ -12901,7 +12902,7 @@
         <v>125</v>
       </c>
       <c r="B197" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -12918,17 +12919,17 @@
       </c>
       <c r="L197" s="33"/>
       <c r="M197" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W197" s="17"/>
       <c r="X197" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD197" s="17"/>
       <c r="AE197" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF197" s="9" t="s">
@@ -12936,7 +12937,7 @@
       </c>
       <c r="AK197" s="18"/>
       <c r="AL197" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS197" s="17"/>
@@ -12946,7 +12947,7 @@
         <v>126</v>
       </c>
       <c r="B198" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -12963,17 +12964,17 @@
       </c>
       <c r="L198" s="33"/>
       <c r="M198" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W198" s="17"/>
       <c r="X198" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD198" s="17"/>
       <c r="AE198" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-</v>
       </c>
       <c r="AF198" s="30" t="s">
@@ -12981,7 +12982,7 @@
       </c>
       <c r="AK198" s="18"/>
       <c r="AL198" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS198" s="17"/>
@@ -12994,7 +12995,7 @@
         <v>457</v>
       </c>
       <c r="B199" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -13011,7 +13012,7 @@
       </c>
       <c r="L199" s="33"/>
       <c r="M199" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="Q199" s="2" t="s">
@@ -13019,17 +13020,17 @@
       </c>
       <c r="W199" s="17"/>
       <c r="X199" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD199" s="17"/>
       <c r="AE199" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK199" s="18"/>
       <c r="AL199" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS199" s="17"/>
@@ -13042,7 +13043,7 @@
         <v>458</v>
       </c>
       <c r="B200" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -13059,7 +13060,7 @@
       </c>
       <c r="L200" s="33"/>
       <c r="M200" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="Q200" s="2" t="s">
@@ -13067,17 +13068,17 @@
       </c>
       <c r="W200" s="17"/>
       <c r="X200" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD200" s="17"/>
       <c r="AE200" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK200" s="18"/>
       <c r="AL200" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS200" s="17"/>
@@ -13090,7 +13091,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C201" s="9" t="s">
@@ -13107,22 +13108,22 @@
       </c>
       <c r="L201" s="33"/>
       <c r="M201" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W201" s="17"/>
       <c r="X201" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD201" s="17"/>
       <c r="AE201" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK201" s="18"/>
       <c r="AL201" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-</v>
       </c>
       <c r="AM201" s="2" t="s">
@@ -13138,7 +13139,7 @@
         <v>494</v>
       </c>
       <c r="B202" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C202" s="9" t="s">
@@ -13155,7 +13156,7 @@
       </c>
       <c r="L202" s="33"/>
       <c r="M202" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="V202" s="2" t="s">
@@ -13163,17 +13164,17 @@
       </c>
       <c r="W202" s="33"/>
       <c r="X202" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD202" s="33"/>
       <c r="AE202" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK202" s="18"/>
       <c r="AL202" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS202" s="33"/>
@@ -13186,7 +13187,7 @@
         <v>210</v>
       </c>
       <c r="B203" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -13203,7 +13204,7 @@
       </c>
       <c r="L203" s="33"/>
       <c r="M203" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S203" s="2" t="s">
@@ -13211,17 +13212,17 @@
       </c>
       <c r="W203" s="17"/>
       <c r="X203" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD203" s="17"/>
       <c r="AE203" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK203" s="18"/>
       <c r="AL203" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS203" s="17"/>
@@ -13234,7 +13235,7 @@
         <v>485</v>
       </c>
       <c r="B204" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -13251,7 +13252,7 @@
       </c>
       <c r="L204" s="33"/>
       <c r="M204" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S204" s="2" t="s">
@@ -13259,17 +13260,17 @@
       </c>
       <c r="W204" s="17"/>
       <c r="X204" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD204" s="17"/>
       <c r="AE204" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK204" s="18"/>
       <c r="AL204" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS204" s="17"/>
@@ -13282,7 +13283,7 @@
         <v>486</v>
       </c>
       <c r="B205" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -13299,7 +13300,7 @@
       </c>
       <c r="L205" s="33"/>
       <c r="M205" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S205" s="2" t="s">
@@ -13307,17 +13308,17 @@
       </c>
       <c r="W205" s="17"/>
       <c r="X205" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD205" s="17"/>
       <c r="AE205" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK205" s="18"/>
       <c r="AL205" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS205" s="17"/>
@@ -13330,7 +13331,7 @@
         <v>487</v>
       </c>
       <c r="B206" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C206" s="2" t="s">
@@ -13347,7 +13348,7 @@
       </c>
       <c r="L206" s="33"/>
       <c r="M206" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S206" s="2" t="s">
@@ -13355,17 +13356,17 @@
       </c>
       <c r="W206" s="24"/>
       <c r="X206" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD206" s="24"/>
       <c r="AE206" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK206" s="18"/>
       <c r="AL206" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS206" s="24"/>
@@ -13378,7 +13379,7 @@
         <v>488</v>
       </c>
       <c r="B207" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C207" s="2" t="s">
@@ -13392,7 +13393,7 @@
       </c>
       <c r="L207" s="33"/>
       <c r="M207" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="S207" s="30" t="s">
@@ -13400,17 +13401,17 @@
       </c>
       <c r="W207" s="33"/>
       <c r="X207" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AD207" s="33"/>
       <c r="AE207" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK207" s="18"/>
       <c r="AL207" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS207" s="33"/>
@@ -13421,7 +13422,7 @@
         <v>299</v>
       </c>
       <c r="B208" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C208" s="9" t="s">
@@ -13438,12 +13439,12 @@
       </c>
       <c r="L208" s="33"/>
       <c r="M208" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W208" s="31"/>
       <c r="X208" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y208" s="2" t="s">
@@ -13451,12 +13452,12 @@
       </c>
       <c r="AD208" s="31"/>
       <c r="AE208" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK208" s="18"/>
       <c r="AL208" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS208" s="31"/>
@@ -13466,7 +13467,7 @@
         <v>297</v>
       </c>
       <c r="B209" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C209" s="9" t="s">
@@ -13483,12 +13484,12 @@
       </c>
       <c r="L209" s="33"/>
       <c r="M209" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W209" s="31"/>
       <c r="X209" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y209" s="2" t="s">
@@ -13496,12 +13497,12 @@
       </c>
       <c r="AD209" s="31"/>
       <c r="AE209" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK209" s="18"/>
       <c r="AL209" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS209" s="31"/>
@@ -13511,7 +13512,7 @@
         <v>300</v>
       </c>
       <c r="B210" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C210" s="9" t="s">
@@ -13528,12 +13529,12 @@
       </c>
       <c r="L210" s="33"/>
       <c r="M210" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="W210" s="31"/>
       <c r="X210" s="35" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-</v>
       </c>
       <c r="Y210" s="2" t="s">
@@ -13541,12 +13542,12 @@
       </c>
       <c r="AD210" s="31"/>
       <c r="AE210" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK210" s="18"/>
       <c r="AL210" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS210" s="31"/>
@@ -13556,7 +13557,7 @@
         <v>25</v>
       </c>
       <c r="B211" s="43" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -13576,7 +13577,7 @@
       </c>
       <c r="L211" s="33"/>
       <c r="M211" s="43" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-</v>
       </c>
       <c r="P211" s="2" t="s">
@@ -13584,17 +13585,17 @@
       </c>
       <c r="W211" s="17"/>
       <c r="X211" s="35" t="str">
-        <f t="shared" ref="X211:X276" si="50">IF(CONCATENATE(Y211,Z211,AA211,AB211,AC211)="","","-")</f>
+        <f t="shared" ref="X211:X276" si="55">IF(CONCATENATE(Y211,Z211,AA211,AB211,AC211)="","","-")</f>
         <v/>
       </c>
       <c r="AD211" s="17"/>
       <c r="AE211" s="35" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AK211" s="18"/>
       <c r="AL211" s="35" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AS211" s="17"/>
@@ -13604,7 +13605,7 @@
         <v>25</v>
       </c>
       <c r="B212" s="43" t="str">
-        <f t="shared" ref="B212:B277" si="51">IF(CONCATENATE(M212,X212,AE212,AL212)="","","-")</f>
+        <f t="shared" ref="B212:B277" si="56">IF(CONCATENATE(M212,X212,AE212,AL212)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -13621,12 +13622,12 @@
       </c>
       <c r="L212" s="33"/>
       <c r="M212" s="43" t="str">
-        <f t="shared" ref="M212:M277" si="52">IF(CONCATENATE(N212,O212,P212,Q212,R212,S212,T212,U212,V212)="","","-")</f>
+        <f t="shared" ref="M212:M277" si="57">IF(CONCATENATE(N212,O212,P212,Q212,R212,S212,T212,U212,V212)="","","-")</f>
         <v/>
       </c>
       <c r="W212" s="24"/>
       <c r="X212" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y212" s="2" t="s">
@@ -13640,12 +13641,12 @@
       </c>
       <c r="AD212" s="24"/>
       <c r="AE212" s="35" t="str">
-        <f t="shared" ref="AE212:AE277" si="53">IF(CONCATENATE(AF212,AG212,AH212,AI212,AJ212)="","","-")</f>
+        <f t="shared" ref="AE212:AE277" si="58">IF(CONCATENATE(AF212,AG212,AH212,AI212,AJ212)="","","-")</f>
         <v/>
       </c>
       <c r="AK212" s="18"/>
       <c r="AL212" s="35" t="str">
-        <f t="shared" ref="AL212:AL277" si="54">IF(CONCATENATE(AM212,AN212,AO212,AP212,AQ212,AR212)="","","-")</f>
+        <f t="shared" ref="AL212:AL277" si="59">IF(CONCATENATE(AM212,AN212,AO212,AP212,AQ212,AR212)="","","-")</f>
         <v/>
       </c>
       <c r="AS212" s="24"/>
@@ -13655,7 +13656,7 @@
         <v>25</v>
       </c>
       <c r="B213" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -13672,7 +13673,7 @@
       </c>
       <c r="L213" s="33"/>
       <c r="M213" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="P213" s="2" t="s">
@@ -13680,7 +13681,7 @@
       </c>
       <c r="W213" s="17"/>
       <c r="X213" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y213" s="2" t="s">
@@ -13694,12 +13695,12 @@
       </c>
       <c r="AD213" s="17"/>
       <c r="AE213" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK213" s="18"/>
       <c r="AL213" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS213" s="17"/>
@@ -13709,7 +13710,7 @@
         <v>29</v>
       </c>
       <c r="B214" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -13729,7 +13730,7 @@
       </c>
       <c r="L214" s="33"/>
       <c r="M214" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="P214" s="2" t="s">
@@ -13737,17 +13738,17 @@
       </c>
       <c r="W214" s="17"/>
       <c r="X214" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD214" s="17"/>
       <c r="AE214" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK214" s="18"/>
       <c r="AL214" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS214" s="17"/>
@@ -13757,7 +13758,7 @@
         <v>29</v>
       </c>
       <c r="B215" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -13774,12 +13775,12 @@
       </c>
       <c r="L215" s="33"/>
       <c r="M215" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W215" s="17"/>
       <c r="X215" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y215" s="2" t="s">
@@ -13793,12 +13794,12 @@
       </c>
       <c r="AD215" s="17"/>
       <c r="AE215" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK215" s="18"/>
       <c r="AL215" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS215" s="17"/>
@@ -13808,7 +13809,7 @@
         <v>29</v>
       </c>
       <c r="B216" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -13825,7 +13826,7 @@
       </c>
       <c r="L216" s="33"/>
       <c r="M216" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="P216" s="2" t="s">
@@ -13833,7 +13834,7 @@
       </c>
       <c r="W216" s="24"/>
       <c r="X216" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y216" s="2" t="s">
@@ -13847,12 +13848,12 @@
       </c>
       <c r="AD216" s="24"/>
       <c r="AE216" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK216" s="18"/>
       <c r="AL216" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS216" s="24"/>
@@ -13860,7 +13861,7 @@
     <row r="217" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="C217" s="4"/>
@@ -13874,7 +13875,7 @@
       <c r="K217" s="5"/>
       <c r="L217" s="18"/>
       <c r="M217" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="N217" s="13"/>
@@ -13888,7 +13889,7 @@
       <c r="V217" s="13"/>
       <c r="W217" s="18"/>
       <c r="X217" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="Y217" s="13"/>
@@ -13898,7 +13899,7 @@
       <c r="AC217" s="13"/>
       <c r="AD217" s="18"/>
       <c r="AE217" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AF217" s="13"/>
@@ -13908,7 +13909,7 @@
       <c r="AJ217" s="13"/>
       <c r="AK217" s="18"/>
       <c r="AL217" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AM217" s="13"/>
@@ -13925,25 +13926,25 @@
         <v>256</v>
       </c>
       <c r="B218" s="43" t="str">
-        <f t="shared" si="51"/>
-        <v>-</v>
-      </c>
-      <c r="C218" s="52" t="s">
+        <f t="shared" si="56"/>
+        <v>-</v>
+      </c>
+      <c r="C218" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="D218" s="52"/>
-      <c r="E218" s="52"/>
-      <c r="F218" s="52"/>
-      <c r="G218" s="52"/>
-      <c r="H218" s="52"/>
-      <c r="I218" s="52"/>
-      <c r="J218" s="52"/>
+      <c r="D218" s="53"/>
+      <c r="E218" s="53"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="53"/>
+      <c r="H218" s="53"/>
+      <c r="I218" s="53"/>
+      <c r="J218" s="53"/>
       <c r="K218" s="2"/>
       <c r="L218" s="32" t="s">
         <v>13</v>
       </c>
       <c r="M218" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="N218" s="32" t="s">
@@ -13967,7 +13968,7 @@
         <v>13</v>
       </c>
       <c r="X218" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y218" s="32" t="s">
@@ -13989,7 +13990,7 @@
         <v>13</v>
       </c>
       <c r="AE218" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF218" s="32" t="s">
@@ -14011,7 +14012,7 @@
         <v>13</v>
       </c>
       <c r="AL218" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-</v>
       </c>
       <c r="AM218" s="32" t="s">
@@ -14034,7 +14035,7 @@
         <v>40</v>
       </c>
       <c r="B219" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -14054,12 +14055,12 @@
       </c>
       <c r="L219" s="33"/>
       <c r="M219" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W219" s="17"/>
       <c r="X219" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y219" s="9" t="s">
@@ -14074,12 +14075,12 @@
       </c>
       <c r="AD219" s="17"/>
       <c r="AE219" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK219" s="18"/>
       <c r="AL219" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS219" s="17"/>
@@ -14090,7 +14091,7 @@
         <v>41</v>
       </c>
       <c r="B220" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -14110,12 +14111,12 @@
       </c>
       <c r="L220" s="33"/>
       <c r="M220" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W220" s="17"/>
       <c r="X220" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y220" s="2" t="s">
@@ -14126,12 +14127,12 @@
       </c>
       <c r="AD220" s="17"/>
       <c r="AE220" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK220" s="18"/>
       <c r="AL220" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS220" s="17"/>
@@ -14142,7 +14143,7 @@
         <v>42</v>
       </c>
       <c r="B221" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -14162,12 +14163,12 @@
       </c>
       <c r="L221" s="33"/>
       <c r="M221" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W221" s="17"/>
       <c r="X221" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y221" s="2" t="s">
@@ -14178,12 +14179,12 @@
       </c>
       <c r="AD221" s="17"/>
       <c r="AE221" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK221" s="18"/>
       <c r="AL221" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS221" s="17"/>
@@ -14194,7 +14195,7 @@
         <v>38</v>
       </c>
       <c r="B222" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -14214,12 +14215,12 @@
       </c>
       <c r="L222" s="33"/>
       <c r="M222" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W222" s="17"/>
       <c r="X222" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y222" s="2" t="s">
@@ -14239,12 +14240,12 @@
       </c>
       <c r="AD222" s="17"/>
       <c r="AE222" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK222" s="18"/>
       <c r="AL222" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS222" s="17"/>
@@ -14254,7 +14255,7 @@
         <v>148</v>
       </c>
       <c r="B223" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -14271,17 +14272,17 @@
       </c>
       <c r="L223" s="33"/>
       <c r="M223" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W223" s="17"/>
       <c r="X223" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD223" s="17"/>
       <c r="AE223" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF223" s="30" t="s">
@@ -14289,7 +14290,7 @@
       </c>
       <c r="AK223" s="18"/>
       <c r="AL223" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS223" s="17"/>
@@ -14302,7 +14303,7 @@
         <v>146</v>
       </c>
       <c r="B224" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -14319,17 +14320,17 @@
       </c>
       <c r="L224" s="33"/>
       <c r="M224" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W224" s="17"/>
       <c r="X224" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD224" s="17"/>
       <c r="AE224" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF224" s="30" t="s">
@@ -14337,7 +14338,7 @@
       </c>
       <c r="AK224" s="18"/>
       <c r="AL224" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS224" s="17"/>
@@ -14350,7 +14351,7 @@
         <v>432</v>
       </c>
       <c r="B225" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -14367,7 +14368,7 @@
       </c>
       <c r="L225" s="33"/>
       <c r="M225" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="T225" s="30" t="s">
@@ -14375,12 +14376,12 @@
       </c>
       <c r="W225" s="33"/>
       <c r="X225" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD225" s="33"/>
       <c r="AE225" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF225" s="2" t="s">
@@ -14397,7 +14398,7 @@
       </c>
       <c r="AK225" s="18"/>
       <c r="AL225" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS225" s="33"/>
@@ -14410,7 +14411,7 @@
         <v>127</v>
       </c>
       <c r="B226" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -14427,17 +14428,17 @@
       </c>
       <c r="L226" s="33"/>
       <c r="M226" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W226" s="17"/>
       <c r="X226" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD226" s="17"/>
       <c r="AE226" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF226" s="2" t="s">
@@ -14454,7 +14455,7 @@
       </c>
       <c r="AK226" s="18"/>
       <c r="AL226" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS226" s="17"/>
@@ -14464,7 +14465,7 @@
         <v>127</v>
       </c>
       <c r="B227" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -14481,17 +14482,17 @@
       </c>
       <c r="L227" s="33"/>
       <c r="M227" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W227" s="17"/>
       <c r="X227" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD227" s="17"/>
       <c r="AE227" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF227" s="2" t="s">
@@ -14502,7 +14503,7 @@
       </c>
       <c r="AK227" s="18"/>
       <c r="AL227" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS227" s="17"/>
@@ -14512,7 +14513,7 @@
         <v>131</v>
       </c>
       <c r="B228" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -14529,7 +14530,7 @@
       </c>
       <c r="L228" s="33"/>
       <c r="M228" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="T228" s="30" t="s">
@@ -14537,12 +14538,12 @@
       </c>
       <c r="W228" s="33"/>
       <c r="X228" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD228" s="33"/>
       <c r="AE228" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF228" s="2" t="s">
@@ -14559,7 +14560,7 @@
       </c>
       <c r="AK228" s="18"/>
       <c r="AL228" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS228" s="33"/>
@@ -14569,7 +14570,7 @@
         <v>466</v>
       </c>
       <c r="B229" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -14586,7 +14587,7 @@
       </c>
       <c r="L229" s="33"/>
       <c r="M229" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="T229" s="30" t="s">
@@ -14594,17 +14595,17 @@
       </c>
       <c r="W229" s="17"/>
       <c r="X229" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD229" s="17"/>
       <c r="AE229" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK229" s="18"/>
       <c r="AL229" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS229" s="17"/>
@@ -14617,7 +14618,7 @@
         <v>131</v>
       </c>
       <c r="B230" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -14634,17 +14635,17 @@
       </c>
       <c r="L230" s="33"/>
       <c r="M230" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W230" s="17"/>
       <c r="X230" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD230" s="17"/>
       <c r="AE230" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF230" s="2" t="s">
@@ -14655,7 +14656,7 @@
       </c>
       <c r="AK230" s="18"/>
       <c r="AL230" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS230" s="17"/>
@@ -14665,7 +14666,7 @@
         <v>184</v>
       </c>
       <c r="B231" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -14682,17 +14683,17 @@
       </c>
       <c r="L231" s="33"/>
       <c r="M231" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W231" s="17"/>
       <c r="X231" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD231" s="17"/>
       <c r="AE231" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AI231" s="30" t="s">
@@ -14700,7 +14701,7 @@
       </c>
       <c r="AK231" s="18"/>
       <c r="AL231" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS231" s="17"/>
@@ -14713,7 +14714,7 @@
         <v>133</v>
       </c>
       <c r="B232" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -14728,17 +14729,17 @@
       <c r="I232" s="10"/>
       <c r="L232" s="33"/>
       <c r="M232" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W232" s="17"/>
       <c r="X232" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD232" s="17"/>
       <c r="AE232" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF232" s="2" t="s">
@@ -14752,7 +14753,7 @@
       </c>
       <c r="AK232" s="18"/>
       <c r="AL232" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS232" s="17"/>
@@ -14762,7 +14763,7 @@
         <v>133</v>
       </c>
       <c r="B233" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -14777,17 +14778,17 @@
       <c r="I233" s="10"/>
       <c r="L233" s="33"/>
       <c r="M233" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W233" s="17"/>
       <c r="X233" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD233" s="17"/>
       <c r="AE233" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF233" s="2" t="s">
@@ -14798,7 +14799,7 @@
       </c>
       <c r="AK233" s="18"/>
       <c r="AL233" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS233" s="17"/>
@@ -14808,7 +14809,7 @@
         <v>166</v>
       </c>
       <c r="B234" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -14825,17 +14826,17 @@
       </c>
       <c r="L234" s="33"/>
       <c r="M234" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W234" s="17"/>
       <c r="X234" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD234" s="17"/>
       <c r="AE234" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF234" s="22" t="s">
@@ -14849,7 +14850,7 @@
       </c>
       <c r="AK234" s="18"/>
       <c r="AL234" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS234" s="17"/>
@@ -14859,7 +14860,7 @@
         <v>43</v>
       </c>
       <c r="B235" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -14879,12 +14880,12 @@
       </c>
       <c r="L235" s="33"/>
       <c r="M235" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W235" s="17"/>
       <c r="X235" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y235" s="2" t="s">
@@ -14898,12 +14899,12 @@
       </c>
       <c r="AD235" s="17"/>
       <c r="AE235" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK235" s="18"/>
       <c r="AL235" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS235" s="17"/>
@@ -14913,7 +14914,7 @@
         <v>44</v>
       </c>
       <c r="B236" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -14933,12 +14934,12 @@
       </c>
       <c r="L236" s="33"/>
       <c r="M236" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W236" s="17"/>
       <c r="X236" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y236" s="2" t="s">
@@ -14952,12 +14953,12 @@
       </c>
       <c r="AD236" s="17"/>
       <c r="AE236" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK236" s="18"/>
       <c r="AL236" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS236" s="17"/>
@@ -14967,7 +14968,7 @@
         <v>48</v>
       </c>
       <c r="B237" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -14987,12 +14988,12 @@
       </c>
       <c r="L237" s="33"/>
       <c r="M237" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W237" s="17"/>
       <c r="X237" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y237" s="2" t="s">
@@ -15000,12 +15001,12 @@
       </c>
       <c r="AD237" s="17"/>
       <c r="AE237" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK237" s="18"/>
       <c r="AL237" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS237" s="17"/>
@@ -15015,7 +15016,7 @@
         <v>93</v>
       </c>
       <c r="B238" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -15032,12 +15033,12 @@
       </c>
       <c r="L238" s="33"/>
       <c r="M238" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W238" s="17"/>
       <c r="X238" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Z238" s="2" t="s">
@@ -15045,12 +15046,12 @@
       </c>
       <c r="AD238" s="17"/>
       <c r="AE238" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK238" s="18"/>
       <c r="AL238" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS238" s="17"/>
@@ -15060,7 +15061,7 @@
         <v>328</v>
       </c>
       <c r="B239" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C239" s="12" t="s">
@@ -15080,17 +15081,17 @@
       </c>
       <c r="L239" s="33"/>
       <c r="M239" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W239" s="17"/>
       <c r="X239" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD239" s="17"/>
       <c r="AE239" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF239" s="2" t="s">
@@ -15098,7 +15099,7 @@
       </c>
       <c r="AK239" s="18"/>
       <c r="AL239" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS239" s="17"/>
@@ -15108,7 +15109,7 @@
         <v>136</v>
       </c>
       <c r="B240" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -15128,17 +15129,17 @@
       </c>
       <c r="L240" s="33"/>
       <c r="M240" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W240" s="33"/>
       <c r="X240" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD240" s="33"/>
       <c r="AE240" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF240" s="2" t="s">
@@ -15146,7 +15147,7 @@
       </c>
       <c r="AK240" s="18"/>
       <c r="AL240" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS240" s="33"/>
@@ -15156,7 +15157,7 @@
         <v>286</v>
       </c>
       <c r="B241" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -15176,17 +15177,17 @@
       </c>
       <c r="L241" s="33"/>
       <c r="M241" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W241" s="33"/>
       <c r="X241" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD241" s="33"/>
       <c r="AE241" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF241" s="2" t="s">
@@ -15194,7 +15195,7 @@
       </c>
       <c r="AK241" s="18"/>
       <c r="AL241" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS241" s="33"/>
@@ -15204,7 +15205,7 @@
         <v>145</v>
       </c>
       <c r="B242" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -15224,17 +15225,17 @@
       </c>
       <c r="L242" s="33"/>
       <c r="M242" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W242" s="33"/>
       <c r="X242" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD242" s="33"/>
       <c r="AE242" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF242" s="30" t="s">
@@ -15242,7 +15243,7 @@
       </c>
       <c r="AK242" s="18"/>
       <c r="AL242" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS242" s="33"/>
@@ -15252,7 +15253,7 @@
         <v>72</v>
       </c>
       <c r="B243" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -15269,12 +15270,12 @@
       </c>
       <c r="L243" s="33"/>
       <c r="M243" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W243" s="17"/>
       <c r="X243" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y243" s="2" t="s">
@@ -15282,12 +15283,12 @@
       </c>
       <c r="AD243" s="17"/>
       <c r="AE243" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK243" s="18"/>
       <c r="AL243" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS243" s="17"/>
@@ -15297,7 +15298,7 @@
         <v>73</v>
       </c>
       <c r="B244" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -15314,12 +15315,12 @@
       </c>
       <c r="L244" s="33"/>
       <c r="M244" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W244" s="17"/>
       <c r="X244" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y244" s="2" t="s">
@@ -15327,12 +15328,12 @@
       </c>
       <c r="AD244" s="17"/>
       <c r="AE244" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK244" s="18"/>
       <c r="AL244" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS244" s="17"/>
@@ -15342,7 +15343,7 @@
         <v>71</v>
       </c>
       <c r="B245" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -15359,12 +15360,12 @@
       </c>
       <c r="L245" s="33"/>
       <c r="M245" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W245" s="17"/>
       <c r="X245" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y245" s="2" t="s">
@@ -15372,12 +15373,12 @@
       </c>
       <c r="AD245" s="17"/>
       <c r="AE245" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK245" s="18"/>
       <c r="AL245" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS245" s="17"/>
@@ -15387,7 +15388,7 @@
         <v>76</v>
       </c>
       <c r="B246" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -15404,12 +15405,12 @@
       </c>
       <c r="L246" s="33"/>
       <c r="M246" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W246" s="17"/>
       <c r="X246" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y246" s="2" t="s">
@@ -15417,22 +15418,22 @@
       </c>
       <c r="AD246" s="17"/>
       <c r="AE246" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK246" s="18"/>
       <c r="AL246" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS246" s="17"/>
     </row>
     <row r="247" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A247" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B247" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -15449,12 +15450,12 @@
       </c>
       <c r="L247" s="33"/>
       <c r="M247" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W247" s="17"/>
       <c r="X247" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y247" s="2" t="s">
@@ -15462,12 +15463,12 @@
       </c>
       <c r="AD247" s="17"/>
       <c r="AE247" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK247" s="18"/>
       <c r="AL247" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS247" s="17"/>
@@ -15477,7 +15478,7 @@
         <v>276</v>
       </c>
       <c r="B248" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C248" s="2" t="s">
@@ -15494,12 +15495,12 @@
       </c>
       <c r="L248" s="51"/>
       <c r="M248" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W248" s="51"/>
       <c r="X248" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Z248" s="2" t="s">
@@ -15510,22 +15511,22 @@
       </c>
       <c r="AD248" s="51"/>
       <c r="AE248" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK248" s="18"/>
       <c r="AL248" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS248" s="51"/>
     </row>
     <row r="249" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B249" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -15542,12 +15543,12 @@
       </c>
       <c r="L249" s="51"/>
       <c r="M249" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W249" s="51"/>
       <c r="X249" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Z249" s="2" t="s">
@@ -15555,22 +15556,22 @@
       </c>
       <c r="AD249" s="51"/>
       <c r="AE249" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK249" s="18"/>
       <c r="AL249" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS249" s="51"/>
     </row>
     <row r="250" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A250" s="36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B250" s="43" t="str">
-        <f t="shared" ref="B250" si="55">IF(CONCATENATE(M250,X250,AE250,AL250)="","","-")</f>
+        <f t="shared" ref="B250" si="60">IF(CONCATENATE(M250,X250,AE250,AL250)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -15583,16 +15584,16 @@
         <v>45</v>
       </c>
       <c r="I250" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L250" s="51"/>
       <c r="M250" s="43" t="str">
-        <f t="shared" ref="M250" si="56">IF(CONCATENATE(N250,O250,P250,Q250,R250,S250,T250,U250,V250)="","","-")</f>
+        <f t="shared" ref="M250" si="61">IF(CONCATENATE(N250,O250,P250,Q250,R250,S250,T250,U250,V250)="","","-")</f>
         <v/>
       </c>
       <c r="W250" s="51"/>
       <c r="X250" s="35" t="str">
-        <f t="shared" ref="X250" si="57">IF(CONCATENATE(Y250,Z250,AA250,AB250,AC250)="","","-")</f>
+        <f t="shared" ref="X250" si="62">IF(CONCATENATE(Y250,Z250,AA250,AB250,AC250)="","","-")</f>
         <v>-</v>
       </c>
       <c r="Z250" s="2" t="s">
@@ -15600,12 +15601,12 @@
       </c>
       <c r="AD250" s="51"/>
       <c r="AE250" s="35" t="str">
-        <f t="shared" ref="AE250" si="58">IF(CONCATENATE(AF250,AG250,AH250,AI250,AJ250)="","","-")</f>
+        <f t="shared" ref="AE250" si="63">IF(CONCATENATE(AF250,AG250,AH250,AI250,AJ250)="","","-")</f>
         <v/>
       </c>
       <c r="AK250" s="18"/>
       <c r="AL250" s="35" t="str">
-        <f t="shared" ref="AL250" si="59">IF(CONCATENATE(AM250,AN250,AO250,AP250,AQ250,AR250)="","","-")</f>
+        <f t="shared" ref="AL250" si="64">IF(CONCATENATE(AM250,AN250,AO250,AP250,AQ250,AR250)="","","-")</f>
         <v/>
       </c>
       <c r="AS250" s="51"/>
@@ -15615,7 +15616,7 @@
         <v>276</v>
       </c>
       <c r="B251" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -15632,12 +15633,12 @@
       </c>
       <c r="L251" s="33"/>
       <c r="M251" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W251" s="33"/>
       <c r="X251" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="AC251" s="2" t="s">
@@ -15645,12 +15646,12 @@
       </c>
       <c r="AD251" s="33"/>
       <c r="AE251" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK251" s="18"/>
       <c r="AL251" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS251" s="33"/>
@@ -15660,7 +15661,7 @@
         <v>219</v>
       </c>
       <c r="B252" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -15677,12 +15678,12 @@
       </c>
       <c r="L252" s="33"/>
       <c r="M252" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W252" s="17"/>
       <c r="X252" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="AC252" s="2" t="s">
@@ -15690,12 +15691,12 @@
       </c>
       <c r="AD252" s="17"/>
       <c r="AE252" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK252" s="18"/>
       <c r="AL252" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS252" s="17"/>
@@ -15705,7 +15706,7 @@
         <v>284</v>
       </c>
       <c r="B253" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -15722,12 +15723,12 @@
       </c>
       <c r="L253" s="33"/>
       <c r="M253" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W253" s="17"/>
       <c r="X253" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Z253" s="2" t="s">
@@ -15735,22 +15736,22 @@
       </c>
       <c r="AD253" s="17"/>
       <c r="AE253" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK253" s="18"/>
       <c r="AL253" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS253" s="17"/>
     </row>
     <row r="254" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A254" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B254" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -15767,12 +15768,12 @@
       </c>
       <c r="L254" s="33"/>
       <c r="M254" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W254" s="24"/>
       <c r="X254" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y254" s="2" t="s">
@@ -15780,12 +15781,12 @@
       </c>
       <c r="AD254" s="24"/>
       <c r="AE254" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK254" s="18"/>
       <c r="AL254" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS254" s="24"/>
@@ -15795,7 +15796,7 @@
         <v>220</v>
       </c>
       <c r="B255" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -15812,12 +15813,12 @@
       </c>
       <c r="L255" s="33"/>
       <c r="M255" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W255" s="24"/>
       <c r="X255" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="AC255" s="2" t="s">
@@ -15825,12 +15826,12 @@
       </c>
       <c r="AD255" s="24"/>
       <c r="AE255" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK255" s="18"/>
       <c r="AL255" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS255" s="24"/>
@@ -15840,7 +15841,7 @@
         <v>117</v>
       </c>
       <c r="B256" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C256" s="12" t="s">
@@ -15857,17 +15858,17 @@
       </c>
       <c r="L256" s="33"/>
       <c r="M256" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W256" s="24"/>
       <c r="X256" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD256" s="24"/>
       <c r="AE256" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF256" s="2" t="s">
@@ -15875,17 +15876,17 @@
       </c>
       <c r="AK256" s="18"/>
       <c r="AL256" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS256" s="24"/>
     </row>
     <row r="257" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B257" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -15902,12 +15903,12 @@
       </c>
       <c r="L257" s="33"/>
       <c r="M257" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W257" s="23"/>
       <c r="X257" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y257" s="2" t="s">
@@ -15915,12 +15916,12 @@
       </c>
       <c r="AD257" s="23"/>
       <c r="AE257" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK257" s="18"/>
       <c r="AL257" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS257" s="23"/>
@@ -15930,7 +15931,7 @@
         <v>74</v>
       </c>
       <c r="B258" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -15947,12 +15948,12 @@
       </c>
       <c r="L258" s="33"/>
       <c r="M258" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W258" s="23"/>
       <c r="X258" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y258" s="2" t="s">
@@ -15960,12 +15961,12 @@
       </c>
       <c r="AD258" s="23"/>
       <c r="AE258" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK258" s="18"/>
       <c r="AL258" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS258" s="23"/>
@@ -15975,7 +15976,7 @@
         <v>75</v>
       </c>
       <c r="B259" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -15992,12 +15993,12 @@
       </c>
       <c r="L259" s="33"/>
       <c r="M259" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W259" s="17"/>
       <c r="X259" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y259" s="2" t="s">
@@ -16005,12 +16006,12 @@
       </c>
       <c r="AD259" s="17"/>
       <c r="AE259" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK259" s="18"/>
       <c r="AL259" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS259" s="17"/>
@@ -16020,7 +16021,7 @@
         <v>277</v>
       </c>
       <c r="B260" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -16037,12 +16038,12 @@
       </c>
       <c r="L260" s="33"/>
       <c r="M260" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W260" s="17"/>
       <c r="X260" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="AC260" s="2" t="s">
@@ -16050,12 +16051,12 @@
       </c>
       <c r="AD260" s="17"/>
       <c r="AE260" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK260" s="18"/>
       <c r="AL260" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS260" s="17"/>
@@ -16065,7 +16066,7 @@
         <v>135</v>
       </c>
       <c r="B261" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -16082,7 +16083,7 @@
       </c>
       <c r="L261" s="33"/>
       <c r="M261" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -16093,12 +16094,12 @@
       </c>
       <c r="W261" s="17"/>
       <c r="X261" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD261" s="17"/>
       <c r="AE261" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF261" s="2" t="s">
@@ -16106,7 +16107,7 @@
       </c>
       <c r="AK261" s="18"/>
       <c r="AL261" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS261" s="17"/>
@@ -16116,7 +16117,7 @@
         <v>135</v>
       </c>
       <c r="B262" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -16133,17 +16134,17 @@
       </c>
       <c r="L262" s="33"/>
       <c r="M262" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W262" s="17"/>
       <c r="X262" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD262" s="17"/>
       <c r="AE262" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF262" s="2" t="s">
@@ -16151,7 +16152,7 @@
       </c>
       <c r="AK262" s="18"/>
       <c r="AL262" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS262" s="17"/>
@@ -16161,7 +16162,7 @@
         <v>278</v>
       </c>
       <c r="B263" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C263" s="2" t="s">
@@ -16175,12 +16176,12 @@
       </c>
       <c r="L263" s="33"/>
       <c r="M263" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W263" s="17"/>
       <c r="X263" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y263" s="2" t="s">
@@ -16188,12 +16189,12 @@
       </c>
       <c r="AD263" s="17"/>
       <c r="AE263" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK263" s="18"/>
       <c r="AL263" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS263" s="17"/>
@@ -16206,7 +16207,7 @@
         <v>221</v>
       </c>
       <c r="B264" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -16223,12 +16224,12 @@
       </c>
       <c r="L264" s="33"/>
       <c r="M264" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W264" s="17"/>
       <c r="X264" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="AC264" s="2" t="s">
@@ -16236,12 +16237,12 @@
       </c>
       <c r="AD264" s="17"/>
       <c r="AE264" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK264" s="18"/>
       <c r="AL264" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS264" s="17"/>
@@ -16251,7 +16252,7 @@
         <v>118</v>
       </c>
       <c r="B265" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C265" s="12" t="s">
@@ -16268,17 +16269,17 @@
       </c>
       <c r="L265" s="33"/>
       <c r="M265" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W265" s="17"/>
       <c r="X265" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD265" s="17"/>
       <c r="AE265" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF265" s="2" t="s">
@@ -16286,7 +16287,7 @@
       </c>
       <c r="AK265" s="18"/>
       <c r="AL265" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS265" s="17"/>
@@ -16296,7 +16297,7 @@
         <v>137</v>
       </c>
       <c r="B266" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -16313,17 +16314,17 @@
       </c>
       <c r="L266" s="33"/>
       <c r="M266" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W266" s="17"/>
       <c r="X266" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD266" s="17"/>
       <c r="AE266" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF266" s="2" t="s">
@@ -16331,7 +16332,7 @@
       </c>
       <c r="AK266" s="18"/>
       <c r="AL266" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS266" s="17"/>
@@ -16341,7 +16342,7 @@
         <v>86</v>
       </c>
       <c r="B267" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -16358,17 +16359,17 @@
       </c>
       <c r="L267" s="33"/>
       <c r="M267" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W267" s="29"/>
       <c r="X267" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD267" s="29"/>
       <c r="AE267" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AG267" s="9" t="s">
@@ -16379,7 +16380,7 @@
       </c>
       <c r="AK267" s="18"/>
       <c r="AL267" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS267" s="29"/>
@@ -16422,7 +16423,7 @@
         <v>86</v>
       </c>
       <c r="B269" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C269" s="2" t="s">
@@ -16439,12 +16440,12 @@
       </c>
       <c r="L269" s="33"/>
       <c r="M269" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W269" s="17"/>
       <c r="X269" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y269" s="2" t="s">
@@ -16464,7 +16465,7 @@
       </c>
       <c r="AD269" s="17"/>
       <c r="AE269" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF269" s="2" t="s">
@@ -16475,7 +16476,7 @@
       </c>
       <c r="AK269" s="18"/>
       <c r="AL269" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS269" s="17"/>
@@ -16485,7 +16486,7 @@
         <v>337</v>
       </c>
       <c r="B270" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -16502,7 +16503,7 @@
       </c>
       <c r="L270" s="33"/>
       <c r="M270" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="R270" s="2" t="s">
@@ -16510,17 +16511,17 @@
       </c>
       <c r="W270" s="33"/>
       <c r="X270" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD270" s="33"/>
       <c r="AE270" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK270" s="18"/>
       <c r="AL270" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS270" s="33"/>
@@ -16530,7 +16531,7 @@
         <v>338</v>
       </c>
       <c r="B271" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -16547,7 +16548,7 @@
       </c>
       <c r="L271" s="33"/>
       <c r="M271" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="R271" s="2" t="s">
@@ -16555,17 +16556,17 @@
       </c>
       <c r="W271" s="33"/>
       <c r="X271" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD271" s="33"/>
       <c r="AE271" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK271" s="18"/>
       <c r="AL271" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS271" s="33"/>
@@ -16575,7 +16576,7 @@
         <v>339</v>
       </c>
       <c r="B272" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -16592,7 +16593,7 @@
       </c>
       <c r="L272" s="33"/>
       <c r="M272" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="R272" s="2" t="s">
@@ -16600,17 +16601,17 @@
       </c>
       <c r="W272" s="33"/>
       <c r="X272" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD272" s="33"/>
       <c r="AE272" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK272" s="18"/>
       <c r="AL272" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS272" s="33"/>
@@ -16620,7 +16621,7 @@
         <v>340</v>
       </c>
       <c r="B273" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -16637,7 +16638,7 @@
       </c>
       <c r="L273" s="33"/>
       <c r="M273" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="R273" s="2" t="s">
@@ -16645,44 +16646,44 @@
       </c>
       <c r="W273" s="33"/>
       <c r="X273" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD273" s="33"/>
       <c r="AE273" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK273" s="18"/>
       <c r="AL273" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS273" s="33"/>
     </row>
     <row r="274" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B274" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="L274" s="33"/>
       <c r="M274" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W274" s="17"/>
       <c r="X274" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AD274" s="17"/>
       <c r="AE274" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK274" s="18"/>
       <c r="AL274" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS274" s="17"/>
@@ -16692,7 +16693,7 @@
         <v>262</v>
       </c>
       <c r="B275" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C275" s="11"/>
@@ -16707,7 +16708,7 @@
         <v>13</v>
       </c>
       <c r="M275" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-</v>
       </c>
       <c r="N275" s="32" t="s">
@@ -16739,7 +16740,7 @@
         <v>13</v>
       </c>
       <c r="X275" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y275" s="32" t="s">
@@ -16761,7 +16762,7 @@
         <v>13</v>
       </c>
       <c r="AE275" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>-</v>
       </c>
       <c r="AF275" s="32" t="s">
@@ -16783,7 +16784,7 @@
         <v>13</v>
       </c>
       <c r="AL275" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-</v>
       </c>
       <c r="AM275" s="32" t="s">
@@ -16814,7 +16815,7 @@
         <v>78</v>
       </c>
       <c r="B276" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -16831,12 +16832,12 @@
       </c>
       <c r="L276" s="33"/>
       <c r="M276" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W276" s="17"/>
       <c r="X276" s="35" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>-</v>
       </c>
       <c r="Y276" s="2" t="s">
@@ -16844,12 +16845,12 @@
       </c>
       <c r="AD276" s="17"/>
       <c r="AE276" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK276" s="18"/>
       <c r="AL276" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS276" s="17"/>
@@ -16860,7 +16861,7 @@
         <v>83</v>
       </c>
       <c r="B277" s="43" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -16877,12 +16878,12 @@
       </c>
       <c r="L277" s="33"/>
       <c r="M277" s="43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="W277" s="17"/>
       <c r="X277" s="35" t="str">
-        <f t="shared" ref="X277:X325" si="60">IF(CONCATENATE(Y277,Z277,AA277,AB277,AC277)="","","-")</f>
+        <f t="shared" ref="X277:X325" si="65">IF(CONCATENATE(Y277,Z277,AA277,AB277,AC277)="","","-")</f>
         <v>-</v>
       </c>
       <c r="Y277" s="2" t="s">
@@ -16890,12 +16891,12 @@
       </c>
       <c r="AD277" s="17"/>
       <c r="AE277" s="35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AK277" s="18"/>
       <c r="AL277" s="35" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AS277" s="17"/>
@@ -16906,7 +16907,7 @@
         <v>79</v>
       </c>
       <c r="B278" s="43" t="str">
-        <f t="shared" ref="B278:B323" si="61">IF(CONCATENATE(M278,X278,AE278,AL278)="","","-")</f>
+        <f t="shared" ref="B278:B323" si="66">IF(CONCATENATE(M278,X278,AE278,AL278)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -16923,12 +16924,12 @@
       </c>
       <c r="L278" s="33"/>
       <c r="M278" s="43" t="str">
-        <f t="shared" ref="M278:M325" si="62">IF(CONCATENATE(N278,O278,P278,Q278,R278,S278,T278,U278,V278)="","","-")</f>
+        <f t="shared" ref="M278:M325" si="67">IF(CONCATENATE(N278,O278,P278,Q278,R278,S278,T278,U278,V278)="","","-")</f>
         <v/>
       </c>
       <c r="W278" s="17"/>
       <c r="X278" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y278" s="2" t="s">
@@ -16936,12 +16937,12 @@
       </c>
       <c r="AD278" s="17"/>
       <c r="AE278" s="35" t="str">
-        <f t="shared" ref="AE278:AE325" si="63">IF(CONCATENATE(AF278,AG278,AH278,AI278,AJ278)="","","-")</f>
+        <f t="shared" ref="AE278:AE325" si="68">IF(CONCATENATE(AF278,AG278,AH278,AI278,AJ278)="","","-")</f>
         <v/>
       </c>
       <c r="AK278" s="18"/>
       <c r="AL278" s="35" t="str">
-        <f t="shared" ref="AL278:AL325" si="64">IF(CONCATENATE(AM278,AN278,AO278,AP278,AQ278,AR278)="","","-")</f>
+        <f t="shared" ref="AL278:AL325" si="69">IF(CONCATENATE(AM278,AN278,AO278,AP278,AQ278,AR278)="","","-")</f>
         <v/>
       </c>
       <c r="AS278" s="17"/>
@@ -16952,7 +16953,7 @@
         <v>80</v>
       </c>
       <c r="B279" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -16969,12 +16970,12 @@
       </c>
       <c r="L279" s="33"/>
       <c r="M279" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W279" s="17"/>
       <c r="X279" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y279" s="2" t="s">
@@ -16982,12 +16983,12 @@
       </c>
       <c r="AD279" s="17"/>
       <c r="AE279" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK279" s="18"/>
       <c r="AL279" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS279" s="17"/>
@@ -16998,7 +16999,7 @@
         <v>81</v>
       </c>
       <c r="B280" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -17015,12 +17016,12 @@
       </c>
       <c r="L280" s="33"/>
       <c r="M280" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W280" s="17"/>
       <c r="X280" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y280" s="2" t="s">
@@ -17028,12 +17029,12 @@
       </c>
       <c r="AD280" s="17"/>
       <c r="AE280" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK280" s="18"/>
       <c r="AL280" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS280" s="17"/>
@@ -17044,7 +17045,7 @@
         <v>82</v>
       </c>
       <c r="B281" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -17061,12 +17062,12 @@
       </c>
       <c r="L281" s="33"/>
       <c r="M281" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W281" s="17"/>
       <c r="X281" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y281" s="2" t="s">
@@ -17074,12 +17075,12 @@
       </c>
       <c r="AD281" s="17"/>
       <c r="AE281" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK281" s="18"/>
       <c r="AL281" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS281" s="17"/>
@@ -17088,7 +17089,7 @@
     <row r="282" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A282" s="16"/>
       <c r="B282" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="F282"/>
@@ -17097,14 +17098,14 @@
       <c r="K282" s="2"/>
       <c r="L282" s="33"/>
       <c r="M282" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="N282"/>
       <c r="O282" s="6"/>
       <c r="W282" s="17"/>
       <c r="X282" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="Y282"/>
@@ -17114,7 +17115,7 @@
       <c r="AC282"/>
       <c r="AD282" s="19"/>
       <c r="AE282" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AF282"/>
@@ -17124,7 +17125,7 @@
       <c r="AJ282"/>
       <c r="AK282" s="18"/>
       <c r="AL282" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AM282"/>
@@ -17141,24 +17142,24 @@
         <v>260</v>
       </c>
       <c r="B283" s="43" t="str">
-        <f t="shared" si="61"/>
-        <v>-</v>
-      </c>
-      <c r="C283" s="52" t="s">
+        <f t="shared" si="66"/>
+        <v>-</v>
+      </c>
+      <c r="C283" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="D283" s="52"/>
-      <c r="E283" s="52"/>
-      <c r="F283" s="52"/>
-      <c r="G283" s="52"/>
-      <c r="H283" s="52"/>
-      <c r="I283" s="52"/>
+      <c r="D283" s="53"/>
+      <c r="E283" s="53"/>
+      <c r="F283" s="53"/>
+      <c r="G283" s="53"/>
+      <c r="H283" s="53"/>
+      <c r="I283" s="53"/>
       <c r="K283" s="2"/>
       <c r="L283" s="32" t="s">
         <v>13</v>
       </c>
       <c r="M283" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="N283" s="32" t="s">
@@ -17190,7 +17191,7 @@
         <v>13</v>
       </c>
       <c r="X283" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y283" s="32" t="s">
@@ -17212,7 +17213,7 @@
         <v>13</v>
       </c>
       <c r="AE283" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>-</v>
       </c>
       <c r="AF283" s="32" t="s">
@@ -17234,7 +17235,7 @@
         <v>13</v>
       </c>
       <c r="AL283" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM283" s="32" t="s">
@@ -17265,7 +17266,7 @@
         <v>399</v>
       </c>
       <c r="B284" s="43" t="str">
-        <f t="shared" ref="B284:B302" si="65">IF(CONCATENATE(M284,X284,AE284,AL284)="","","-")</f>
+        <f t="shared" ref="B284:B302" si="70">IF(CONCATENATE(M284,X284,AE284,AL284)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C284" s="9" t="s">
@@ -17282,22 +17283,22 @@
       </c>
       <c r="L284" s="33"/>
       <c r="M284" s="43" t="str">
-        <f t="shared" ref="M284:M291" si="66">IF(CONCATENATE(N284,O284,P284,Q284,R284,S284,T284,U284,V284)="","","-")</f>
+        <f t="shared" ref="M284:M291" si="71">IF(CONCATENATE(N284,O284,P284,Q284,R284,S284,T284,U284,V284)="","","-")</f>
         <v/>
       </c>
       <c r="W284" s="33"/>
       <c r="X284" s="35" t="str">
-        <f t="shared" ref="X284:X291" si="67">IF(CONCATENATE(Y284,Z284,AA284,AB284,AC284)="","","-")</f>
+        <f t="shared" ref="X284:X291" si="72">IF(CONCATENATE(Y284,Z284,AA284,AB284,AC284)="","","-")</f>
         <v/>
       </c>
       <c r="AD284" s="33"/>
       <c r="AE284" s="35" t="str">
-        <f t="shared" ref="AE284:AE291" si="68">IF(CONCATENATE(AF284,AG284,AH284,AI284,AJ284)="","","-")</f>
+        <f t="shared" ref="AE284:AE291" si="73">IF(CONCATENATE(AF284,AG284,AH284,AI284,AJ284)="","","-")</f>
         <v/>
       </c>
       <c r="AK284" s="18"/>
       <c r="AL284" s="35" t="str">
-        <f t="shared" ref="AL284:AL302" si="69">IF(CONCATENATE(AM284,AN284,AO284,AP284,AQ284,AR284)="","","-")</f>
+        <f t="shared" ref="AL284:AL302" si="74">IF(CONCATENATE(AM284,AN284,AO284,AP284,AQ284,AR284)="","","-")</f>
         <v>-</v>
       </c>
       <c r="AM284" s="2" t="s">
@@ -17311,7 +17312,7 @@
         <v>96</v>
       </c>
       <c r="B285" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C285" s="9" t="s">
@@ -17331,12 +17332,12 @@
       </c>
       <c r="L285" s="33"/>
       <c r="M285" s="43" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W285" s="33"/>
       <c r="X285" s="35" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-</v>
       </c>
       <c r="AA285" s="2" t="s">
@@ -17344,12 +17345,12 @@
       </c>
       <c r="AD285" s="33"/>
       <c r="AE285" s="35" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AK285" s="18"/>
       <c r="AL285" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="AS285" s="33"/>
@@ -17360,7 +17361,7 @@
         <v>191</v>
       </c>
       <c r="B286" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C286" s="9" t="s">
@@ -17377,22 +17378,22 @@
       </c>
       <c r="L286" s="33"/>
       <c r="M286" s="43" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W286" s="33"/>
       <c r="X286" s="35" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AD286" s="33"/>
       <c r="AE286" s="35" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AK286" s="18"/>
       <c r="AL286" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AM286" s="2" t="s">
@@ -17405,7 +17406,7 @@
         <v>189</v>
       </c>
       <c r="B287" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C287" s="9" t="s">
@@ -17422,22 +17423,22 @@
       </c>
       <c r="L287" s="33"/>
       <c r="M287" s="43" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W287" s="33"/>
       <c r="X287" s="35" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AD287" s="33"/>
       <c r="AE287" s="35" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AK287" s="18"/>
       <c r="AL287" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AM287" s="2" t="s">
@@ -17450,7 +17451,7 @@
         <v>188</v>
       </c>
       <c r="B288" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C288" s="9" t="s">
@@ -17467,22 +17468,22 @@
       </c>
       <c r="L288" s="33"/>
       <c r="M288" s="43" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W288" s="33"/>
       <c r="X288" s="35" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AD288" s="33"/>
       <c r="AE288" s="35" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AK288" s="18"/>
       <c r="AL288" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AM288" s="2" t="s">
@@ -17495,7 +17496,7 @@
         <v>190</v>
       </c>
       <c r="B289" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C289" s="9" t="s">
@@ -17512,22 +17513,22 @@
       </c>
       <c r="L289" s="33"/>
       <c r="M289" s="43" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W289" s="17"/>
       <c r="X289" s="35" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AD289" s="17"/>
       <c r="AE289" s="35" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AK289" s="18"/>
       <c r="AL289" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AM289" s="2" t="s">
@@ -17540,7 +17541,7 @@
         <v>525</v>
       </c>
       <c r="B290" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C290" s="9" t="s">
@@ -17557,22 +17558,22 @@
       </c>
       <c r="L290" s="34"/>
       <c r="M290" s="43" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W290" s="34"/>
       <c r="X290" s="35" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AD290" s="34"/>
       <c r="AE290" s="35" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AK290" s="18"/>
       <c r="AL290" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AN290" s="2" t="s">
@@ -17585,7 +17586,7 @@
         <v>526</v>
       </c>
       <c r="B291" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C291" s="9" t="s">
@@ -17602,22 +17603,22 @@
       </c>
       <c r="L291" s="34"/>
       <c r="M291" s="43" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="W291" s="34"/>
       <c r="X291" s="35" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AD291" s="34"/>
       <c r="AE291" s="35" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AK291" s="18"/>
       <c r="AL291" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AN291" s="2" t="s">
@@ -17630,7 +17631,7 @@
         <v>506</v>
       </c>
       <c r="B292" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C292" s="9" t="s">
@@ -17653,7 +17654,7 @@
       <c r="AE292" s="35"/>
       <c r="AK292" s="18"/>
       <c r="AL292" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AO292" s="2" t="s">
@@ -17667,7 +17668,7 @@
         <v>503</v>
       </c>
       <c r="B293" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C293" s="9" t="s">
@@ -17690,7 +17691,7 @@
       <c r="AE293" s="35"/>
       <c r="AK293" s="18"/>
       <c r="AL293" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AN293" s="2" t="s">
@@ -17704,7 +17705,7 @@
         <v>505</v>
       </c>
       <c r="B294" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C294" s="9" t="s">
@@ -17727,7 +17728,7 @@
       <c r="AE294" s="35"/>
       <c r="AK294" s="18"/>
       <c r="AL294" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AN294" s="2" t="s">
@@ -17744,7 +17745,7 @@
         <v>517</v>
       </c>
       <c r="B295" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C295" s="9" t="s">
@@ -17767,7 +17768,7 @@
       <c r="AE295" s="35"/>
       <c r="AK295" s="18"/>
       <c r="AL295" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AO295" s="2" t="s">
@@ -17781,7 +17782,7 @@
         <v>247</v>
       </c>
       <c r="B296" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C296" s="9" t="s">
@@ -17813,7 +17814,7 @@
       </c>
       <c r="AK296" s="18"/>
       <c r="AL296" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AP296" s="2" t="s">
@@ -17829,7 +17830,7 @@
         <v>518</v>
       </c>
       <c r="B297" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C297" s="9" t="s">
@@ -17852,7 +17853,7 @@
       <c r="AE297" s="35"/>
       <c r="AK297" s="18"/>
       <c r="AL297" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AN297" s="2" t="s">
@@ -17869,7 +17870,7 @@
         <v>519</v>
       </c>
       <c r="B298" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C298" s="9" t="s">
@@ -17892,7 +17893,7 @@
       <c r="AE298" s="35"/>
       <c r="AK298" s="18"/>
       <c r="AL298" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AN298" s="2" t="s">
@@ -17909,7 +17910,7 @@
         <v>86</v>
       </c>
       <c r="B299" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C299" s="9" t="s">
@@ -17941,7 +17942,7 @@
       </c>
       <c r="AK299" s="18"/>
       <c r="AL299" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AM299" s="2" t="s">
@@ -17954,7 +17955,7 @@
         <v>187</v>
       </c>
       <c r="B300" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C300" s="9" t="s">
@@ -17986,7 +17987,7 @@
       </c>
       <c r="AK300" s="18"/>
       <c r="AL300" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AM300" s="2" t="s">
@@ -17999,7 +18000,7 @@
         <v>97</v>
       </c>
       <c r="B301" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C301" s="9" t="s">
@@ -18037,7 +18038,7 @@
       </c>
       <c r="AK301" s="18"/>
       <c r="AL301" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="AS301" s="34"/>
@@ -18045,7 +18046,7 @@
     <row r="302" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A302" s="36"/>
       <c r="B302" s="43" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C302" s="9" t="s">
@@ -18068,7 +18069,7 @@
       <c r="AE302" s="35"/>
       <c r="AK302" s="18"/>
       <c r="AL302" s="35" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-</v>
       </c>
       <c r="AN302" s="2" t="s">
@@ -18083,7 +18084,7 @@
     <row r="303" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A303" s="16"/>
       <c r="B303" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="F303"/>
@@ -18092,14 +18093,14 @@
       <c r="K303" s="2"/>
       <c r="L303" s="33"/>
       <c r="M303" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="N303"/>
       <c r="O303" s="6"/>
       <c r="W303" s="17"/>
       <c r="X303" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="Y303"/>
@@ -18109,7 +18110,7 @@
       <c r="AC303"/>
       <c r="AD303" s="19"/>
       <c r="AE303" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AF303"/>
@@ -18119,7 +18120,7 @@
       <c r="AJ303"/>
       <c r="AK303" s="18"/>
       <c r="AL303" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AM303"/>
@@ -18136,7 +18137,7 @@
         <v>257</v>
       </c>
       <c r="B304" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C304" s="11"/>
@@ -18152,7 +18153,7 @@
         <v>13</v>
       </c>
       <c r="M304" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="N304" s="32" t="s">
@@ -18184,7 +18185,7 @@
         <v>13</v>
       </c>
       <c r="X304" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y304" s="32" t="s">
@@ -18206,7 +18207,7 @@
         <v>13</v>
       </c>
       <c r="AE304" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>-</v>
       </c>
       <c r="AF304" s="32" t="s">
@@ -18228,7 +18229,7 @@
         <v>13</v>
       </c>
       <c r="AL304" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM304" s="32" t="s">
@@ -18259,7 +18260,7 @@
         <v>248</v>
       </c>
       <c r="B305" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C305" s="2" t="s">
@@ -18273,22 +18274,22 @@
       </c>
       <c r="L305" s="18"/>
       <c r="M305" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W305" s="18"/>
       <c r="X305" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD305" s="17"/>
       <c r="AE305" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK305" s="18"/>
       <c r="AL305" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AP305" s="2" t="s">
@@ -18301,7 +18302,7 @@
         <v>461</v>
       </c>
       <c r="B306" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C306" s="2" t="s">
@@ -18312,7 +18313,7 @@
       </c>
       <c r="L306" s="18"/>
       <c r="M306" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="V306" s="2" t="s">
@@ -18320,17 +18321,17 @@
       </c>
       <c r="W306" s="18"/>
       <c r="X306" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD306" s="33"/>
       <c r="AE306" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK306" s="18"/>
       <c r="AL306" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS306" s="33"/>
@@ -18343,7 +18344,7 @@
         <v>462</v>
       </c>
       <c r="B307" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C307" s="2" t="s">
@@ -18354,7 +18355,7 @@
       </c>
       <c r="L307" s="18"/>
       <c r="M307" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="T307" s="2" t="s">
@@ -18365,17 +18366,17 @@
       </c>
       <c r="W307" s="18"/>
       <c r="X307" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD307" s="33"/>
       <c r="AE307" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK307" s="18"/>
       <c r="AL307" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS307" s="33"/>
@@ -18388,7 +18389,7 @@
         <v>365</v>
       </c>
       <c r="B308" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -18402,7 +18403,7 @@
       </c>
       <c r="L308" s="33"/>
       <c r="M308" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="U308" s="2" t="s">
@@ -18410,18 +18411,18 @@
       </c>
       <c r="W308" s="33"/>
       <c r="X308" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD308" s="33"/>
       <c r="AE308" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AG308" s="9"/>
       <c r="AK308" s="18"/>
       <c r="AL308" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS308" s="33"/>
@@ -18431,7 +18432,7 @@
         <v>365</v>
       </c>
       <c r="B309" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -18445,23 +18446,23 @@
       </c>
       <c r="L309" s="33"/>
       <c r="M309" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W309" s="17"/>
       <c r="X309" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD309" s="17"/>
       <c r="AE309" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AG309" s="9"/>
       <c r="AK309" s="18"/>
       <c r="AL309" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM309" s="2" t="s">
@@ -18474,7 +18475,7 @@
         <v>84</v>
       </c>
       <c r="B310" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C310" s="2" t="s">
@@ -18491,7 +18492,7 @@
       </c>
       <c r="L310" s="33"/>
       <c r="M310" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -18502,7 +18503,7 @@
       </c>
       <c r="W310" s="33"/>
       <c r="X310" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y310" s="2" t="s">
@@ -18522,7 +18523,7 @@
       </c>
       <c r="AD310" s="33"/>
       <c r="AE310" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>-</v>
       </c>
       <c r="AF310" s="2" t="s">
@@ -18542,7 +18543,7 @@
       </c>
       <c r="AK310" s="18"/>
       <c r="AL310" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM310" s="2" t="s">
@@ -18555,7 +18556,7 @@
         <v>84</v>
       </c>
       <c r="B311" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C311" s="2" t="s">
@@ -18569,23 +18570,23 @@
       </c>
       <c r="L311" s="33"/>
       <c r="M311" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W311" s="33"/>
       <c r="X311" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD311" s="33"/>
       <c r="AE311" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AG311" s="9"/>
       <c r="AK311" s="18"/>
       <c r="AL311" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM311" s="2" t="s">
@@ -18598,7 +18599,7 @@
         <v>84</v>
       </c>
       <c r="B312" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C312" s="2" t="s">
@@ -18612,7 +18613,7 @@
       </c>
       <c r="L312" s="33"/>
       <c r="M312" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="P312" s="2" t="s">
@@ -18620,7 +18621,7 @@
       </c>
       <c r="W312" s="17"/>
       <c r="X312" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y312" s="2" t="s">
@@ -18640,7 +18641,7 @@
       </c>
       <c r="AD312" s="17"/>
       <c r="AE312" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>-</v>
       </c>
       <c r="AF312" s="2" t="s">
@@ -18652,7 +18653,7 @@
       </c>
       <c r="AK312" s="18"/>
       <c r="AL312" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS312" s="17"/>
@@ -18662,7 +18663,7 @@
         <v>252</v>
       </c>
       <c r="B313" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C313" s="2" t="s">
@@ -18676,7 +18677,7 @@
       </c>
       <c r="L313" s="33"/>
       <c r="M313" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="R313" s="2" t="s">
@@ -18684,17 +18685,17 @@
       </c>
       <c r="W313" s="17"/>
       <c r="X313" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD313" s="17"/>
       <c r="AE313" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK313" s="18"/>
       <c r="AL313" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AP313" s="2" t="s">
@@ -18707,7 +18708,7 @@
         <v>333</v>
       </c>
       <c r="B314" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C314" s="2" t="s">
@@ -18721,7 +18722,7 @@
       </c>
       <c r="L314" s="33"/>
       <c r="M314" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="R314" s="2" t="s">
@@ -18729,17 +18730,17 @@
       </c>
       <c r="W314" s="33"/>
       <c r="X314" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD314" s="33"/>
       <c r="AE314" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK314" s="18"/>
       <c r="AL314" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS314" s="33"/>
@@ -18749,7 +18750,7 @@
         <v>334</v>
       </c>
       <c r="B315" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C315" s="2" t="s">
@@ -18763,7 +18764,7 @@
       </c>
       <c r="L315" s="33"/>
       <c r="M315" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="R315" s="2" t="s">
@@ -18771,17 +18772,17 @@
       </c>
       <c r="W315" s="33"/>
       <c r="X315" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD315" s="33"/>
       <c r="AE315" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK315" s="18"/>
       <c r="AL315" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS315" s="33"/>
@@ -18791,7 +18792,7 @@
         <v>335</v>
       </c>
       <c r="B316" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -18805,7 +18806,7 @@
       </c>
       <c r="L316" s="33"/>
       <c r="M316" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="R316" s="2" t="s">
@@ -18813,17 +18814,17 @@
       </c>
       <c r="W316" s="33"/>
       <c r="X316" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD316" s="33"/>
       <c r="AE316" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK316" s="18"/>
       <c r="AL316" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS316" s="33"/>
@@ -18833,7 +18834,7 @@
         <v>336</v>
       </c>
       <c r="B317" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C317" s="2" t="s">
@@ -18847,7 +18848,7 @@
       </c>
       <c r="L317" s="33"/>
       <c r="M317" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="R317" s="2" t="s">
@@ -18855,17 +18856,17 @@
       </c>
       <c r="W317" s="33"/>
       <c r="X317" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD317" s="33"/>
       <c r="AE317" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK317" s="18"/>
       <c r="AL317" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS317" s="33"/>
@@ -18873,7 +18874,7 @@
     <row r="318" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A318" s="16"/>
       <c r="B318" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="F318"/>
@@ -18882,14 +18883,14 @@
       <c r="K318" s="2"/>
       <c r="L318" s="33"/>
       <c r="M318" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="N318"/>
       <c r="O318" s="6"/>
       <c r="W318" s="17"/>
       <c r="X318" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="Y318"/>
@@ -18899,7 +18900,7 @@
       <c r="AC318"/>
       <c r="AD318" s="19"/>
       <c r="AE318" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AF318"/>
@@ -18909,7 +18910,7 @@
       <c r="AJ318"/>
       <c r="AK318" s="18"/>
       <c r="AL318" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AM318"/>
@@ -18926,7 +18927,7 @@
         <v>264</v>
       </c>
       <c r="B319" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C319" s="11"/>
@@ -18942,7 +18943,7 @@
         <v>13</v>
       </c>
       <c r="M319" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="N319" s="32" t="s">
@@ -18964,7 +18965,7 @@
         <v>13</v>
       </c>
       <c r="X319" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y319" s="32" t="s">
@@ -18986,7 +18987,7 @@
         <v>13</v>
       </c>
       <c r="AE319" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>-</v>
       </c>
       <c r="AF319" s="32" t="s">
@@ -19008,7 +19009,7 @@
         <v>13</v>
       </c>
       <c r="AL319" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM319" s="32" t="s">
@@ -19039,7 +19040,7 @@
         <v>249</v>
       </c>
       <c r="B320" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C320" s="2" t="s">
@@ -19053,22 +19054,22 @@
       </c>
       <c r="L320" s="33"/>
       <c r="M320" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W320" s="17"/>
       <c r="X320" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD320" s="17"/>
       <c r="AE320" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK320" s="18"/>
       <c r="AL320" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AP320" s="2" t="s">
@@ -19084,7 +19085,7 @@
         <v>282</v>
       </c>
       <c r="B321" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C321" s="2" t="s">
@@ -19095,12 +19096,12 @@
       </c>
       <c r="L321" s="33"/>
       <c r="M321" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W321" s="33"/>
       <c r="X321" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="AA321" s="30" t="s">
@@ -19108,12 +19109,12 @@
       </c>
       <c r="AD321" s="33"/>
       <c r="AE321" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK321" s="18"/>
       <c r="AL321" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS321" s="33"/>
@@ -19124,7 +19125,7 @@
     <row r="322" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A322" s="16"/>
       <c r="B322" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="F322"/>
@@ -19133,14 +19134,14 @@
       <c r="K322" s="2"/>
       <c r="L322" s="33"/>
       <c r="M322" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="N322"/>
       <c r="O322" s="6"/>
       <c r="W322" s="17"/>
       <c r="X322" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="Y322"/>
@@ -19150,7 +19151,7 @@
       <c r="AC322"/>
       <c r="AD322" s="19"/>
       <c r="AE322" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AF322"/>
@@ -19160,7 +19161,7 @@
       <c r="AJ322"/>
       <c r="AK322" s="18"/>
       <c r="AL322" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AM322"/>
@@ -19177,7 +19178,7 @@
         <v>265</v>
       </c>
       <c r="B323" s="43" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C323" s="11"/>
@@ -19193,7 +19194,7 @@
         <v>13</v>
       </c>
       <c r="M323" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="N323" s="32" t="s">
@@ -19215,7 +19216,7 @@
         <v>13</v>
       </c>
       <c r="X323" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y323" s="32" t="s">
@@ -19237,7 +19238,7 @@
         <v>13</v>
       </c>
       <c r="AE323" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>-</v>
       </c>
       <c r="AF323" s="32" t="s">
@@ -19259,7 +19260,7 @@
         <v>13</v>
       </c>
       <c r="AL323" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM323" s="32" t="s">
@@ -19288,22 +19289,22 @@
     <row r="324" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L324" s="33"/>
       <c r="M324" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W324" s="23"/>
       <c r="X324" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="AD324" s="23"/>
       <c r="AE324" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="AK324" s="18"/>
       <c r="AL324" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AS324" s="23"/>
@@ -19314,7 +19315,7 @@
         <v>13</v>
       </c>
       <c r="M325" s="43" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-</v>
       </c>
       <c r="N325" s="32" t="s">
@@ -19348,7 +19349,7 @@
         <v>13</v>
       </c>
       <c r="X325" s="35" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-</v>
       </c>
       <c r="Y325" s="32" t="s">
@@ -19370,7 +19371,7 @@
         <v>13</v>
       </c>
       <c r="AE325" s="35" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>-</v>
       </c>
       <c r="AF325" s="32" t="s">
@@ -19392,7 +19393,7 @@
         <v>13</v>
       </c>
       <c r="AL325" s="35" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>-</v>
       </c>
       <c r="AM325" s="32" t="s">
@@ -19419,33 +19420,33 @@
     </row>
     <row r="329" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I329" s="49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="330" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I330" s="50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="331" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I331" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J331" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="332" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I332" t="s">
+        <v>546</v>
+      </c>
+      <c r="J332" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="J332" s="6" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="333" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J333" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -19485,7 +19486,7 @@
       <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="2" customWidth="1"/>
@@ -20312,7 +20313,7 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>

--- a/l3kernel/expl3-datatype-analysis.xlsx
+++ b/l3kernel/expl3-datatype-analysis.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mittelba\Documents\svn\l3\l3kernel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="255" windowWidth="21135" windowHeight="15225"/>
   </bookViews>
@@ -15,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">constants!$A$1:$C$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data types'!$A$2:$AT$327</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
     <author>Frank</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="0">
+    <comment ref="AF5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0">
+    <comment ref="AG5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="0">
+    <comment ref="AH5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI5" authorId="0">
+    <comment ref="AI5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM5" authorId="0">
+    <comment ref="AM5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y64" authorId="0">
+    <comment ref="Y64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z64" authorId="0">
+    <comment ref="Z64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA64" authorId="0">
+    <comment ref="AA64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB64" authorId="0">
+    <comment ref="AB64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC64" authorId="0">
+    <comment ref="AC64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI189" authorId="0">
+    <comment ref="AI189" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ190" authorId="0">
+    <comment ref="AJ190" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,15 +603,6 @@
     <t>from_alph</t>
   </si>
   <si>
-    <t>from_binary</t>
-  </si>
-  <si>
-    <t>from_hexadecimal</t>
-  </si>
-  <si>
-    <t>from_octal</t>
-  </si>
-  <si>
     <t>from_roman</t>
   </si>
   <si>
@@ -2027,6 +2023,15 @@
   </si>
   <si>
     <t>&lt;var&gt; {&lt;key&gt;}</t>
+  </si>
+  <si>
+    <t>from_bin</t>
+  </si>
+  <si>
+    <t>from_hex</t>
+  </si>
+  <si>
+    <t>from_oct</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2282,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2293,9 +2298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2333,9 +2338,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2370,7 +2375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2405,7 +2410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2588,7 +2593,7 @@
       <selection pane="bottomRight" activeCell="AH97" sqref="AH97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="9" customWidth="1"/>
@@ -2624,27 +2629,27 @@
     <col min="46" max="46" width="40" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" s="1" customFormat="1" ht="125.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>17</v>
@@ -2653,17 +2658,17 @@
         <v>17</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="41" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>31</v>
@@ -2681,73 +2686,73 @@
         <v>36</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="41" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Y2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" s="26" t="s">
-        <v>95</v>
-      </c>
       <c r="AC2" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AD2" s="18"/>
       <c r="AE2" s="41" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH2" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AJ2" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AK2" s="18"/>
       <c r="AL2" s="41" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AN2" s="13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AQ2" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AS2" s="18"/>
       <c r="AT2" s="5" t="s">
@@ -2756,14 +2761,14 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3" s="43" t="str">
         <f>IF(CONCATENATE(M3,X3,AE3,AL3)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
@@ -2883,14 +2888,14 @@
     </row>
     <row r="4" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="43" t="str">
         <f t="shared" ref="B4:B74" si="1">IF(CONCATENATE(M4,X4,AE4,AL4)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -2899,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="43" t="str">
@@ -2930,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="AJ4" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK4" s="18"/>
       <c r="AL4" s="35" t="str">
@@ -2951,14 +2956,14 @@
     </row>
     <row r="5" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -2967,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="43" t="str">
@@ -2986,19 +2991,19 @@
         <v>-</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AJ5" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK5" s="18"/>
       <c r="AL5" s="35" t="str">
@@ -3006,10 +3011,10 @@
         <v>-</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AP5" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AQ5" s="9"/>
       <c r="AS5" s="17"/>
@@ -3017,23 +3022,23 @@
     </row>
     <row r="6" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B6" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="43" t="str">
@@ -3060,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="AJ6" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK6" s="18"/>
       <c r="AL6" s="35" t="str">
@@ -3069,7 +3074,7 @@
       </c>
       <c r="AS6" s="33"/>
       <c r="AT6" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3081,7 +3086,7 @@
         <v>-</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -3090,7 +3095,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>13</v>
@@ -3106,19 +3111,19 @@
         <v>-</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AD7" s="17"/>
       <c r="AE7" s="35" t="str">
@@ -3126,19 +3131,19 @@
         <v>-</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AG7" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AK7" s="18"/>
       <c r="AL7" s="35" t="str">
@@ -3156,7 +3161,7 @@
         <v>-</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -3176,19 +3181,19 @@
         <v>-</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="W8" s="17"/>
       <c r="X8" s="35" t="str">
@@ -3196,19 +3201,19 @@
         <v>-</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AD8" s="17"/>
       <c r="AE8" s="35" t="str">
@@ -3216,19 +3221,19 @@
         <v>-</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AK8" s="18"/>
       <c r="AL8" s="35" t="str">
@@ -3236,10 +3241,10 @@
         <v>-</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AS8" s="17"/>
     </row>
@@ -3252,13 +3257,13 @@
         <v>-</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>13</v>
@@ -3269,7 +3274,7 @@
         <v>-</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="W9" s="17"/>
       <c r="X9" s="35" t="str">
@@ -3290,14 +3295,14 @@
     </row>
     <row r="10" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B10" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
@@ -3335,20 +3340,20 @@
     </row>
     <row r="11" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B11" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>13</v>
@@ -3359,7 +3364,7 @@
         <v>-</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="35" t="str">
@@ -3380,20 +3385,20 @@
     </row>
     <row r="12" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B12" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>13</v>
@@ -3404,7 +3409,7 @@
         <v>-</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="35" t="str">
@@ -3425,20 +3430,20 @@
     </row>
     <row r="13" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B13" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>13</v>
@@ -3449,7 +3454,7 @@
         <v>-</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="35" t="str">
@@ -3477,7 +3482,7 @@
         <v>-</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
@@ -3528,13 +3533,13 @@
         <v>3</v>
       </c>
       <c r="AG14" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AH14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AI14" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>3</v>
@@ -3551,11 +3556,11 @@
         <v>3</v>
       </c>
       <c r="AQ14" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS14" s="33"/>
       <c r="AT14" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3567,13 +3572,13 @@
         <v>-</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>13</v>
@@ -3599,7 +3604,7 @@
         <v>-</v>
       </c>
       <c r="AR15" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS15" s="33"/>
     </row>
@@ -3612,13 +3617,13 @@
         <v>-</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -3651,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="AQ16" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS16" s="17"/>
     </row>
@@ -3664,13 +3669,13 @@
         <v>-</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I17" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>13</v>
@@ -3696,23 +3701,23 @@
         <v>-</v>
       </c>
       <c r="AR17" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS17" s="34"/>
     </row>
     <row r="18" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B18" s="43" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H18" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>12</v>
@@ -3744,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="AQ18" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AR18" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS18" s="33"/>
     </row>
@@ -3760,13 +3765,13 @@
         <v>-</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I19" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -3805,7 +3810,7 @@
         <v>-</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -3868,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="AJ20" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK20" s="18"/>
       <c r="AL20" s="35" t="str">
@@ -3879,26 +3884,26 @@
         <v>3</v>
       </c>
       <c r="AP20" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS20" s="17"/>
     </row>
     <row r="21" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B21" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
         <v>12</v>
@@ -3930,14 +3935,14 @@
     </row>
     <row r="22" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B22" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
@@ -3973,19 +3978,19 @@
       </c>
       <c r="AS22" s="33"/>
       <c r="AT22" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B23" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -4023,20 +4028,20 @@
     </row>
     <row r="24" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B24" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H24" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I24" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>13</v>
@@ -4047,7 +4052,7 @@
         <v>-</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W24" s="33"/>
       <c r="X24" s="35" t="str">
@@ -4068,20 +4073,20 @@
     </row>
     <row r="25" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B25" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>13</v>
@@ -4092,7 +4097,7 @@
         <v>-</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W25" s="33"/>
       <c r="X25" s="35" t="str">
@@ -4113,20 +4118,20 @@
     </row>
     <row r="26" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B26" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I26" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>13</v>
@@ -4137,7 +4142,7 @@
         <v>-</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W26" s="33"/>
       <c r="X26" s="35" t="str">
@@ -4158,20 +4163,20 @@
     </row>
     <row r="27" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B27" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I27" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>13</v>
@@ -4182,7 +4187,7 @@
         <v>-</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W27" s="33"/>
       <c r="X27" s="35" t="str">
@@ -4203,20 +4208,20 @@
     </row>
     <row r="28" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B28" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I28" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>13</v>
@@ -4227,7 +4232,7 @@
         <v>-</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W28" s="33"/>
       <c r="X28" s="35" t="str">
@@ -4248,20 +4253,20 @@
     </row>
     <row r="29" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B29" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>13</v>
@@ -4272,7 +4277,7 @@
         <v>-</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W29" s="33"/>
       <c r="X29" s="35" t="str">
@@ -4293,20 +4298,20 @@
     </row>
     <row r="30" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B30" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H30" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I30" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>13</v>
@@ -4317,7 +4322,7 @@
         <v>-</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W30" s="33"/>
       <c r="X30" s="35" t="str">
@@ -4338,20 +4343,20 @@
     </row>
     <row r="31" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B31" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>13</v>
@@ -4362,7 +4367,7 @@
         <v>-</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W31" s="33"/>
       <c r="X31" s="35" t="str">
@@ -4383,20 +4388,20 @@
     </row>
     <row r="32" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B32" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>13</v>
@@ -4407,7 +4412,7 @@
         <v>-</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W32" s="33"/>
       <c r="X32" s="35" t="str">
@@ -4428,20 +4433,20 @@
     </row>
     <row r="33" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B33" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I33" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>13</v>
@@ -4452,7 +4457,7 @@
         <v>-</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W33" s="33"/>
       <c r="X33" s="35" t="str">
@@ -4473,20 +4478,20 @@
     </row>
     <row r="34" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B34" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H34" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>13</v>
@@ -4497,7 +4502,7 @@
         <v>-</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W34" s="33"/>
       <c r="X34" s="35" t="str">
@@ -4518,20 +4523,20 @@
     </row>
     <row r="35" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B35" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I35" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>13</v>
@@ -4542,7 +4547,7 @@
         <v>-</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W35" s="33"/>
       <c r="X35" s="35" t="str">
@@ -4563,20 +4568,20 @@
     </row>
     <row r="36" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B36" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H36" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I36" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>13</v>
@@ -4587,7 +4592,7 @@
         <v>-</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W36" s="33"/>
       <c r="X36" s="35" t="str">
@@ -4608,20 +4613,20 @@
     </row>
     <row r="37" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B37" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H37" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I37" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>13</v>
@@ -4632,7 +4637,7 @@
         <v>-</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W37" s="33"/>
       <c r="X37" s="35" t="str">
@@ -4653,20 +4658,20 @@
     </row>
     <row r="38" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B38" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I38" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>13</v>
@@ -4677,7 +4682,7 @@
         <v>-</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W38" s="33"/>
       <c r="X38" s="35" t="str">
@@ -4698,20 +4703,20 @@
     </row>
     <row r="39" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B39" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I39" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>13</v>
@@ -4722,7 +4727,7 @@
         <v>-</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W39" s="33"/>
       <c r="X39" s="35" t="str">
@@ -4743,20 +4748,20 @@
     </row>
     <row r="40" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B40" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H40" t="s">
         <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>13</v>
@@ -4767,7 +4772,7 @@
         <v>-</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W40" s="33"/>
       <c r="X40" s="35" t="str">
@@ -4795,7 +4800,7 @@
         <v>-</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
@@ -4836,20 +4841,20 @@
     </row>
     <row r="42" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B42" s="43" t="str">
         <f t="shared" ref="B42:B49" si="15">IF(CONCATENATE(M42,X42,AE42,AL42)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K42" t="s">
         <v>12</v>
@@ -4881,20 +4886,20 @@
     </row>
     <row r="43" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B43" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H43" t="s">
         <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s">
         <v>12</v>
@@ -4924,25 +4929,25 @@
       </c>
       <c r="AS43" s="17"/>
       <c r="AT43" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B44" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H44" t="s">
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K44" t="s">
         <v>12</v>
@@ -4972,25 +4977,25 @@
       </c>
       <c r="AS44" s="28"/>
       <c r="AT44" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B45" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H45" t="s">
         <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K45" t="s">
         <v>12</v>
@@ -5022,20 +5027,20 @@
     </row>
     <row r="46" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B46" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K46" t="s">
         <v>12</v>
@@ -5067,20 +5072,20 @@
     </row>
     <row r="47" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B47" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
         <v>45</v>
       </c>
       <c r="I47" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>13</v>
@@ -5091,7 +5096,7 @@
         <v>-</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W47" s="33"/>
       <c r="X47" s="35" t="str">
@@ -5113,20 +5118,20 @@
     </row>
     <row r="48" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B48" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K48" t="s">
         <v>12</v>
@@ -5158,20 +5163,20 @@
     </row>
     <row r="49" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B49" s="43" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
         <v>45</v>
       </c>
       <c r="I49" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>13</v>
@@ -5182,7 +5187,7 @@
         <v>-</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W49" s="17"/>
       <c r="X49" s="35" t="str">
@@ -5204,20 +5209,20 @@
     </row>
     <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B50" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I50" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
@@ -5249,20 +5254,20 @@
     </row>
     <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B51" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H51" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I51" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
         <v>12</v>
@@ -5294,20 +5299,20 @@
     </row>
     <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B52" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H52" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I52" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K52" t="s">
         <v>12</v>
@@ -5339,20 +5344,20 @@
     </row>
     <row r="53" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B53" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K53" t="s">
         <v>12</v>
@@ -5384,20 +5389,20 @@
     </row>
     <row r="54" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B54" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s">
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>13</v>
@@ -5408,7 +5413,7 @@
         <v>-</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W54" s="33"/>
       <c r="X54" s="35" t="str">
@@ -5430,20 +5435,20 @@
     </row>
     <row r="55" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B55" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I55" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K55" t="s">
         <v>12</v>
@@ -5473,25 +5478,25 @@
       </c>
       <c r="AS55" s="33"/>
       <c r="AT55" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B56" s="43" t="str">
         <f>IF(CONCATENATE(M56,X56,AE56,AL56)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I56" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>13</v>
@@ -5517,26 +5522,26 @@
         <v>-</v>
       </c>
       <c r="AO56" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS56" s="34"/>
     </row>
     <row r="57" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B57" s="43" t="str">
         <f>IF(CONCATENATE(M57,X57,AE57,AL57)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I57" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K57" t="s">
         <v>12</v>
@@ -5568,20 +5573,20 @@
     </row>
     <row r="58" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B58" s="43" t="str">
         <f>IF(CONCATENATE(M58,X58,AE58,AL58)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I58" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K58" t="s">
         <v>12</v>
@@ -5610,26 +5615,26 @@
         <v>3</v>
       </c>
       <c r="AO58" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AS58" s="34"/>
     </row>
     <row r="59" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B59" s="43" t="str">
         <f>IF(CONCATENATE(M59,X59,AE59,AL59)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H59" t="s">
         <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K59" t="s">
         <v>12</v>
@@ -5668,7 +5673,7 @@
         <v>-</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
@@ -5709,20 +5714,20 @@
     </row>
     <row r="61" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B61" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H61" t="s">
         <v>45</v>
       </c>
       <c r="I61" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>13</v>
@@ -5733,7 +5738,7 @@
         <v>-</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W61" s="17"/>
       <c r="X61" s="35" t="str">
@@ -5755,14 +5760,14 @@
     </row>
     <row r="62" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B62" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s">
         <v>18</v>
@@ -5804,7 +5809,7 @@
         <v>-</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H63" t="s">
         <v>18</v>
@@ -5857,14 +5862,14 @@
     </row>
     <row r="64" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B64" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H64" t="s">
         <v>18</v>
@@ -5889,19 +5894,19 @@
         <v>-</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AD64" s="17"/>
       <c r="AE64" s="35" t="str">
@@ -5980,14 +5985,14 @@
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B66" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D66" s="53"/>
       <c r="E66" s="53"/>
@@ -6095,20 +6100,20 @@
     </row>
     <row r="67" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B67" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H67" t="s">
         <v>39</v>
       </c>
       <c r="I67" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>13</v>
@@ -6119,7 +6124,7 @@
         <v>-</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W67" s="33"/>
       <c r="X67" s="35" t="str">
@@ -6138,28 +6143,28 @@
       </c>
       <c r="AS67" s="33"/>
       <c r="AT67" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B68" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H68" t="s">
         <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L68" s="33"/>
       <c r="M68" s="43" t="str">
@@ -6191,23 +6196,23 @@
     </row>
     <row r="69" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B69" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H69" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I69" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L69" s="33"/>
       <c r="M69" s="43" t="str">
@@ -6236,26 +6241,26 @@
     </row>
     <row r="70" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B70" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H70" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I70" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L70" s="33"/>
       <c r="M70" s="43" t="str">
@@ -6284,23 +6289,23 @@
     </row>
     <row r="71" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B71" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H71" t="s">
         <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L71" s="33"/>
       <c r="M71" s="43" t="str">
@@ -6338,23 +6343,23 @@
     </row>
     <row r="72" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B72" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H72" t="s">
         <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K72" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L72" s="33"/>
       <c r="M72" s="43" t="str">
@@ -6455,14 +6460,14 @@
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B74" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D74" s="53"/>
       <c r="E74" s="53"/>
@@ -6580,26 +6585,26 @@
     </row>
     <row r="75" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B75" s="43" t="str">
         <f t="shared" ref="B75:B147" si="21">IF(CONCATENATE(M75,X75,AE75,AL75)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H75" t="s">
         <v>20</v>
       </c>
       <c r="I75" t="s">
+        <v>153</v>
+      </c>
+      <c r="K75" t="s">
         <v>156</v>
-      </c>
-      <c r="K75" t="s">
-        <v>159</v>
       </c>
       <c r="L75" s="33"/>
       <c r="M75" s="43" t="str">
@@ -6632,26 +6637,26 @@
     </row>
     <row r="76" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B76" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H76" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I76" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L76" s="33"/>
       <c r="M76" s="43" t="str">
@@ -6680,26 +6685,26 @@
     </row>
     <row r="77" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B77" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H77" t="s">
         <v>20</v>
       </c>
       <c r="I77" t="s">
+        <v>153</v>
+      </c>
+      <c r="K77" t="s">
         <v>156</v>
-      </c>
-      <c r="K77" t="s">
-        <v>159</v>
       </c>
       <c r="L77" s="33"/>
       <c r="M77" s="43" t="str">
@@ -6728,26 +6733,26 @@
     </row>
     <row r="78" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B78" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H78" t="s">
         <v>20</v>
       </c>
       <c r="I78" t="s">
+        <v>153</v>
+      </c>
+      <c r="K78" t="s">
         <v>156</v>
-      </c>
-      <c r="K78" t="s">
-        <v>159</v>
       </c>
       <c r="L78" s="33"/>
       <c r="M78" s="43" t="str">
@@ -6776,20 +6781,20 @@
     </row>
     <row r="79" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B79" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H79" t="s">
         <v>39</v>
       </c>
       <c r="I79" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>13</v>
@@ -6800,7 +6805,7 @@
         <v>-</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="W79" s="33"/>
       <c r="X79" s="35" t="str">
@@ -6821,26 +6826,26 @@
     </row>
     <row r="80" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B80" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H80" t="s">
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L80" s="33"/>
       <c r="M80" s="43" t="str">
@@ -6870,23 +6875,23 @@
     </row>
     <row r="81" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B81" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H81" t="s">
         <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L81" s="33"/>
       <c r="M81" s="43" t="str">
@@ -6922,14 +6927,14 @@
     </row>
     <row r="82" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B82" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
@@ -6938,7 +6943,7 @@
         <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L82" s="33"/>
       <c r="M82" s="43" t="str">
@@ -6970,23 +6975,23 @@
     </row>
     <row r="83" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B83" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H83" t="s">
         <v>21</v>
       </c>
       <c r="I83" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L83" s="33"/>
       <c r="M83" s="43" t="str">
@@ -7007,10 +7012,10 @@
         <v>3</v>
       </c>
       <c r="AG83" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AH83" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK83" s="18"/>
       <c r="AL83" s="35" t="str">
@@ -7084,14 +7089,14 @@
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B85" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D85" s="53"/>
       <c r="E85" s="53"/>
@@ -7209,23 +7214,23 @@
     </row>
     <row r="86" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B86" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I86" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="33"/>
@@ -7253,7 +7258,7 @@
       </c>
       <c r="AS86" s="17"/>
       <c r="AT86" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7265,16 +7270,16 @@
         <v>-</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H87" t="s">
         <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>13</v>
@@ -7310,7 +7315,7 @@
       </c>
       <c r="AS87" s="17"/>
       <c r="AT87" s="36" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7322,16 +7327,16 @@
         <v>-</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H88" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I88" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>13</v>
@@ -7364,23 +7369,23 @@
     </row>
     <row r="89" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B89" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I89" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>13</v>
@@ -7401,13 +7406,13 @@
         <v>-</v>
       </c>
       <c r="AF89" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG89" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AH89" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK89" s="18"/>
       <c r="AL89" s="35" t="str">
@@ -7416,28 +7421,28 @@
       </c>
       <c r="AS89" s="17"/>
       <c r="AT89" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B90" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H90" t="s">
         <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>13</v>
@@ -7469,23 +7474,23 @@
     </row>
     <row r="91" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B91" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>13</v>
@@ -7517,14 +7522,14 @@
     </row>
     <row r="92" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B92" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>3</v>
@@ -7533,10 +7538,10 @@
         <v>39</v>
       </c>
       <c r="I92" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L92" s="33"/>
       <c r="M92" s="43" t="str">
@@ -7568,14 +7573,14 @@
     </row>
     <row r="93" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B93" s="43" t="str">
         <f t="shared" ref="B93" si="25">IF(CONCATENATE(M93,X93,AE93,AL93)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>3</v>
@@ -7584,10 +7589,10 @@
         <v>39</v>
       </c>
       <c r="I93" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L93" s="44"/>
       <c r="M93" s="43" t="str">
@@ -7616,14 +7621,14 @@
     </row>
     <row r="94" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B94" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>3</v>
@@ -7635,7 +7640,7 @@
         <v>19</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L94" s="33"/>
       <c r="M94" s="43" t="str">
@@ -7667,14 +7672,14 @@
     </row>
     <row r="95" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B95" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>3</v>
@@ -7683,10 +7688,10 @@
         <v>21</v>
       </c>
       <c r="I95" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L95" s="33"/>
       <c r="M95" s="43" t="str">
@@ -7721,14 +7726,14 @@
     </row>
     <row r="96" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B96" s="43" t="str">
         <f t="shared" ref="B96" si="30">IF(CONCATENATE(M96,X96,AE96,AL96)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>3</v>
@@ -7737,10 +7742,10 @@
         <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L96" s="52"/>
       <c r="M96" s="43" t="str">
@@ -7769,14 +7774,14 @@
     </row>
     <row r="97" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B97" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>3</v>
@@ -7785,10 +7790,10 @@
         <v>45</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L97" s="33"/>
       <c r="M97" s="43" t="str">
@@ -7809,8 +7814,8 @@
         <v>3</v>
       </c>
       <c r="AG97" s="9"/>
-      <c r="AH97" s="22" t="s">
-        <v>224</v>
+      <c r="AH97" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AK97" s="18"/>
       <c r="AL97" s="35" t="str">
@@ -7822,20 +7827,20 @@
     </row>
     <row r="98" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B98" s="43"/>
       <c r="C98" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L98" s="44"/>
       <c r="M98" s="43"/>
@@ -7856,20 +7861,20 @@
     </row>
     <row r="99" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B99" s="43"/>
       <c r="C99" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L99" s="44"/>
       <c r="M99" s="43"/>
@@ -7890,20 +7895,20 @@
     </row>
     <row r="100" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B100" s="43"/>
       <c r="C100" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L100" s="44"/>
       <c r="M100" s="43"/>
@@ -7924,7 +7929,7 @@
     </row>
     <row r="101" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B101" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7937,10 +7942,10 @@
         <v>39</v>
       </c>
       <c r="I101" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L101" s="33"/>
       <c r="M101" s="43" t="str">
@@ -7972,7 +7977,7 @@
     </row>
     <row r="102" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B102" s="43" t="str">
         <f t="shared" ref="B102" si="35">IF(CONCATENATE(M102,X102,AE102,AL102)="","","-")</f>
@@ -7985,10 +7990,10 @@
         <v>39</v>
       </c>
       <c r="I102" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L102" s="44"/>
       <c r="M102" s="43" t="str">
@@ -8017,7 +8022,7 @@
     </row>
     <row r="103" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B103" s="43" t="str">
         <f t="shared" si="21"/>
@@ -8033,7 +8038,7 @@
         <v>19</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L103" s="33"/>
       <c r="M103" s="43" t="str">
@@ -8128,14 +8133,14 @@
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B105" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C105" s="53" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D105" s="53"/>
       <c r="E105" s="53"/>
@@ -8260,7 +8265,7 @@
         <v>-</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H106" t="s">
         <v>21</v>
@@ -8311,20 +8316,20 @@
     </row>
     <row r="107" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B107" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>13</v>
@@ -8350,20 +8355,20 @@
         <v>-</v>
       </c>
       <c r="AP107" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS107" s="17"/>
     </row>
     <row r="108" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B108" s="43" t="str">
         <f>IF(CONCATENATE(M108,X108,AE108,AL108)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
@@ -8406,7 +8411,7 @@
         <v>-</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
@@ -8452,7 +8457,7 @@
         <v>-</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
@@ -8491,20 +8496,20 @@
     </row>
     <row r="111" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B111" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>13</v>
@@ -8530,29 +8535,29 @@
         <v>-</v>
       </c>
       <c r="AP111" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS111" s="17"/>
     </row>
     <row r="112" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B112" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H112" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I112" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K112" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L112" s="33"/>
       <c r="M112" s="43" t="str">
@@ -8581,23 +8586,23 @@
     </row>
     <row r="113" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B113" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H113" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I113" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K113" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L113" s="33"/>
       <c r="M113" s="43" t="str">
@@ -8626,20 +8631,20 @@
     </row>
     <row r="114" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B114" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H114" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I114" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L114" s="33"/>
       <c r="M114" s="43" t="str">
@@ -8662,23 +8667,23 @@
         <v>-</v>
       </c>
       <c r="AM114" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP114" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS114" s="17"/>
     </row>
     <row r="115" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B115" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H115" t="s">
         <v>21</v>
@@ -8707,23 +8712,23 @@
         <v>-</v>
       </c>
       <c r="AM115" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP115" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AS115" s="33"/>
     </row>
     <row r="116" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B116" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H116" t="s">
         <v>21</v>
@@ -8752,23 +8757,23 @@
         <v>-</v>
       </c>
       <c r="AM116" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP116" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AS116" s="33"/>
     </row>
     <row r="117" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B117" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
@@ -8777,7 +8782,7 @@
         <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L117" s="33"/>
       <c r="M117" s="43" t="str">
@@ -8801,7 +8806,7 @@
         <v>3</v>
       </c>
       <c r="AH117" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK117" s="18"/>
       <c r="AL117" s="35" t="str">
@@ -8812,20 +8817,20 @@
     </row>
     <row r="118" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B118" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H118" t="s">
         <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L118" s="33"/>
       <c r="M118" s="43" t="str">
@@ -8848,29 +8853,29 @@
         <v>-</v>
       </c>
       <c r="AM118" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP118" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS118" s="17"/>
     </row>
     <row r="119" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B119" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H119" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I119" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L119" s="33"/>
       <c r="M119" s="43" t="str">
@@ -8893,29 +8898,29 @@
         <v>-</v>
       </c>
       <c r="AM119" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP119" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS119" s="33"/>
     </row>
     <row r="120" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B120" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H120" t="s">
         <v>21</v>
       </c>
       <c r="I120" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L120" s="33"/>
       <c r="M120" s="43" t="str">
@@ -8938,32 +8943,32 @@
         <v>-</v>
       </c>
       <c r="AM120" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP120" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AS120" s="17"/>
       <c r="AT120" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B121" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H121" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L121" s="33"/>
       <c r="M121" s="43" t="str">
@@ -8986,26 +8991,26 @@
         <v>-</v>
       </c>
       <c r="AP121" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS121" s="17"/>
     </row>
     <row r="122" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B122" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H122" t="s">
         <v>21</v>
       </c>
       <c r="I122" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L122" s="33"/>
       <c r="M122" s="43" t="str">
@@ -9028,32 +9033,32 @@
         <v>-</v>
       </c>
       <c r="AM122" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP122" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AS122" s="33"/>
       <c r="AT122" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B123" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H123" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L123" s="33"/>
       <c r="M123" s="43" t="str">
@@ -9076,26 +9081,26 @@
         <v>-</v>
       </c>
       <c r="AP123" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AS123" s="17"/>
     </row>
     <row r="124" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B124" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H124" t="s">
         <v>21</v>
       </c>
       <c r="I124" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L124" s="33"/>
       <c r="M124" s="43" t="str">
@@ -9118,14 +9123,14 @@
         <v>-</v>
       </c>
       <c r="AM124" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP124" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AS124" s="33"/>
       <c r="AT124" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9137,7 +9142,7 @@
         <v>-</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H125" t="s">
         <v>21</v>
@@ -9146,7 +9151,7 @@
         <v>50</v>
       </c>
       <c r="K125" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L125" s="33"/>
       <c r="M125" s="43" t="str">
@@ -9187,20 +9192,20 @@
     </row>
     <row r="126" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B126" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>13</v>
@@ -9226,23 +9231,23 @@
         <v>-</v>
       </c>
       <c r="AM126" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP126" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AS126" s="33"/>
     </row>
     <row r="127" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B127" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H127" t="s">
         <v>18</v>
@@ -9251,7 +9256,7 @@
         <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L127" s="33"/>
       <c r="M127" s="43" t="str">
@@ -9280,20 +9285,20 @@
     </row>
     <row r="128" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B128" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>13</v>
@@ -9319,10 +9324,10 @@
         <v>-</v>
       </c>
       <c r="AM128" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AP128" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AS128" s="33"/>
     </row>
@@ -9391,14 +9396,14 @@
     </row>
     <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B130" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C130" s="53" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D130" s="53"/>
       <c r="E130" s="53"/>
@@ -9515,14 +9520,14 @@
     </row>
     <row r="131" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B131" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>3</v>
@@ -9531,7 +9536,7 @@
         <v>39</v>
       </c>
       <c r="I131" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>13</v>
@@ -9570,14 +9575,14 @@
     </row>
     <row r="132" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B132" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>3</v>
@@ -9619,14 +9624,14 @@
     </row>
     <row r="133" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B133" s="43" t="str">
         <f t="shared" ref="B133:B135" si="40">IF(CONCATENATE(M133,X133,AE133,AL133)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>3</v>
@@ -9635,7 +9640,7 @@
         <v>39</v>
       </c>
       <c r="I133" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>13</v>
@@ -9668,14 +9673,14 @@
     </row>
     <row r="134" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B134" s="43" t="str">
         <f t="shared" ref="B134" si="45">IF(CONCATENATE(M134,X134,AE134,AL134)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>3</v>
@@ -9684,7 +9689,7 @@
         <v>39</v>
       </c>
       <c r="I134" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>13</v>
@@ -9717,14 +9722,14 @@
     </row>
     <row r="135" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B135" s="43" t="str">
         <f t="shared" si="40"/>
         <v>-</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>3</v>
@@ -9766,14 +9771,14 @@
     </row>
     <row r="136" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B136" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>3</v>
@@ -9782,7 +9787,7 @@
         <v>39</v>
       </c>
       <c r="I136" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>13</v>
@@ -9815,14 +9820,14 @@
     </row>
     <row r="137" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B137" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>3</v>
@@ -9867,14 +9872,14 @@
     </row>
     <row r="138" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B138" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>3</v>
@@ -9919,14 +9924,14 @@
     </row>
     <row r="139" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B139" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>3</v>
@@ -9965,19 +9970,19 @@
       </c>
       <c r="AS139" s="17"/>
       <c r="AT139" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B140" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>3</v>
@@ -10084,7 +10089,7 @@
     </row>
     <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B142" s="43" t="str">
         <f t="shared" si="21"/>
@@ -10204,23 +10209,23 @@
     </row>
     <row r="143" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B143" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H143" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I143" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K143" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L143" s="33"/>
       <c r="M143" s="43" t="str">
@@ -10247,28 +10252,28 @@
       </c>
       <c r="AS143" s="17"/>
       <c r="AT143" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B144" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I144" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L144" s="33"/>
       <c r="M144" s="43" t="str">
@@ -10292,7 +10297,7 @@
         <v>-</v>
       </c>
       <c r="AF144" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AJ144" s="2" t="s">
         <v>3</v>
@@ -10304,28 +10309,28 @@
       </c>
       <c r="AS144" s="17"/>
       <c r="AT144" s="36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B145" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I145" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L145" s="33"/>
       <c r="M145" s="43" t="str">
@@ -10346,7 +10351,7 @@
         <v>3</v>
       </c>
       <c r="AJ145" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK145" s="18"/>
       <c r="AL145" s="35" t="str">
@@ -10355,28 +10360,28 @@
       </c>
       <c r="AS145" s="33"/>
       <c r="AT145" s="36" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B146" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I146" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L146" s="33"/>
       <c r="M146" s="43" t="str">
@@ -10403,19 +10408,19 @@
       </c>
       <c r="AS146" s="33"/>
       <c r="AT146" s="36" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B147" s="43" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -10424,7 +10429,7 @@
         <v>18</v>
       </c>
       <c r="I147" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L147" s="33"/>
       <c r="M147" s="43" t="str">
@@ -10454,14 +10459,14 @@
     </row>
     <row r="148" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B148" s="43" t="str">
         <f t="shared" ref="B148:B211" si="51">IF(CONCATENATE(M148,X148,AE148,AL148)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -10470,7 +10475,7 @@
         <v>18</v>
       </c>
       <c r="I148" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L148" s="33"/>
       <c r="M148" s="43" t="str">
@@ -10497,19 +10502,19 @@
       </c>
       <c r="AS148" s="33"/>
       <c r="AT148" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B149" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -10518,7 +10523,7 @@
         <v>18</v>
       </c>
       <c r="I149" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L149" s="33"/>
       <c r="M149" s="43" t="str">
@@ -10545,19 +10550,19 @@
       </c>
       <c r="AS149" s="33"/>
       <c r="AT149" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B150" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -10566,7 +10571,7 @@
         <v>18</v>
       </c>
       <c r="I150" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L150" s="33"/>
       <c r="M150" s="43" t="str">
@@ -10593,19 +10598,19 @@
       </c>
       <c r="AS150" s="33"/>
       <c r="AT150" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B151" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -10614,7 +10619,7 @@
         <v>18</v>
       </c>
       <c r="I151" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L151" s="33"/>
       <c r="M151" s="43" t="str">
@@ -10641,19 +10646,19 @@
       </c>
       <c r="AS151" s="33"/>
       <c r="AT151" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="152" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B152" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>3</v>
@@ -10662,7 +10667,7 @@
         <v>18</v>
       </c>
       <c r="I152" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L152" s="33"/>
       <c r="M152" s="43" t="str">
@@ -10689,19 +10694,19 @@
       </c>
       <c r="AS152" s="33"/>
       <c r="AT152" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="153" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B153" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>3</v>
@@ -10710,7 +10715,7 @@
         <v>18</v>
       </c>
       <c r="I153" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L153" s="33"/>
       <c r="M153" s="43" t="str">
@@ -10737,19 +10742,19 @@
       </c>
       <c r="AS153" s="33"/>
       <c r="AT153" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B154" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>3</v>
@@ -10758,7 +10763,7 @@
         <v>18</v>
       </c>
       <c r="I154" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L154" s="33"/>
       <c r="M154" s="43" t="str">
@@ -10785,7 +10790,7 @@
       </c>
       <c r="AS154" s="33"/>
       <c r="AT154" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10797,7 +10802,7 @@
         <v>-</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>3</v>
@@ -10849,7 +10854,7 @@
         <v>-</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>3</v>
@@ -10901,7 +10906,7 @@
         <v>-</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>3</v>
@@ -10953,7 +10958,7 @@
         <v>-</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>3</v>
@@ -11008,7 +11013,7 @@
         <v>-</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>3</v>
@@ -11057,7 +11062,7 @@
         <v>-</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>3</v>
@@ -11109,7 +11114,7 @@
         <v>-</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>3</v>
@@ -11164,7 +11169,7 @@
         <v>-</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>3</v>
@@ -11212,7 +11217,7 @@
         <v>-</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -11261,7 +11266,7 @@
         <v>-</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -11300,14 +11305,14 @@
     </row>
     <row r="165" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B165" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -11316,7 +11321,7 @@
         <v>39</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L165" s="33"/>
       <c r="M165" s="43" t="str">
@@ -11337,7 +11342,7 @@
         <v>3</v>
       </c>
       <c r="AJ165" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK165" s="18"/>
       <c r="AL165" s="35" t="str">
@@ -11348,14 +11353,14 @@
     </row>
     <row r="166" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B166" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -11364,7 +11369,7 @@
         <v>18</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L166" s="33"/>
       <c r="M166" s="43" t="str">
@@ -11391,19 +11396,19 @@
       </c>
       <c r="AS166" s="24"/>
       <c r="AT166" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B167" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -11442,7 +11447,7 @@
         <v>3</v>
       </c>
       <c r="AJ167" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK167" s="18"/>
       <c r="AL167" s="35" t="str">
@@ -11453,20 +11458,20 @@
         <v>3</v>
       </c>
       <c r="AP167" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AS167" s="17"/>
     </row>
     <row r="168" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B168" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -11475,7 +11480,7 @@
         <v>39</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L168" s="33"/>
       <c r="M168" s="43" t="str">
@@ -11499,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="AJ168" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK168" s="18"/>
       <c r="AL168" s="35" t="str">
@@ -11510,14 +11515,14 @@
     </row>
     <row r="169" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B169" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -11558,14 +11563,14 @@
     </row>
     <row r="170" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B170" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -11574,7 +11579,7 @@
         <v>45</v>
       </c>
       <c r="I170" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L170" s="33"/>
       <c r="M170" s="43" t="str">
@@ -11606,14 +11611,14 @@
     </row>
     <row r="171" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B171" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -11635,7 +11640,7 @@
         <v>-</v>
       </c>
       <c r="AA171" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AD171" s="33"/>
       <c r="AE171" s="35" t="str">
@@ -11649,19 +11654,19 @@
       </c>
       <c r="AS171" s="33"/>
       <c r="AT171" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B172" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>3</v>
@@ -11670,7 +11675,7 @@
         <v>20</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L172" s="33"/>
       <c r="M172" s="43" t="str">
@@ -11699,14 +11704,14 @@
     </row>
     <row r="173" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B173" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>3</v>
@@ -11715,7 +11720,7 @@
         <v>20</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L173" s="33"/>
       <c r="M173" s="43" t="str">
@@ -11744,14 +11749,14 @@
     </row>
     <row r="174" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B174" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>3</v>
@@ -11760,7 +11765,7 @@
         <v>20</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L174" s="33"/>
       <c r="M174" s="43" t="str">
@@ -11789,14 +11794,14 @@
     </row>
     <row r="175" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B175" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>3</v>
@@ -11818,7 +11823,7 @@
         <v>-</v>
       </c>
       <c r="AA175" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AD175" s="33"/>
       <c r="AE175" s="35" t="str">
@@ -11845,7 +11850,7 @@
         <v>-</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>3</v>
@@ -11883,14 +11888,14 @@
     </row>
     <row r="177" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B177" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>3</v>
@@ -11956,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="AJ177" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK177" s="18"/>
       <c r="AL177" s="35" t="str">
@@ -11975,14 +11980,14 @@
     </row>
     <row r="178" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B178" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>3</v>
@@ -11991,7 +11996,7 @@
         <v>39</v>
       </c>
       <c r="I178" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L178" s="33"/>
       <c r="M178" s="43" t="str">
@@ -12036,14 +12041,14 @@
     </row>
     <row r="179" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B179" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>3</v>
@@ -12098,14 +12103,14 @@
     </row>
     <row r="180" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B180" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -12141,19 +12146,19 @@
       </c>
       <c r="AS180" s="17"/>
       <c r="AT180" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="181" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B181" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -12191,23 +12196,23 @@
     </row>
     <row r="182" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B182" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I182" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L182" s="33"/>
       <c r="M182" s="43" t="str">
@@ -12236,23 +12241,23 @@
     </row>
     <row r="183" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B183" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I183" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L183" s="33"/>
       <c r="M183" s="43" t="str">
@@ -12281,23 +12286,23 @@
     </row>
     <row r="184" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B184" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I184" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L184" s="33"/>
       <c r="M184" s="43" t="str">
@@ -12326,14 +12331,14 @@
     </row>
     <row r="185" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B185" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -12342,7 +12347,7 @@
         <v>39</v>
       </c>
       <c r="I185" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L185" s="33"/>
       <c r="M185" s="43" t="str">
@@ -12371,14 +12376,14 @@
     </row>
     <row r="186" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B186" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -12387,7 +12392,7 @@
         <v>39</v>
       </c>
       <c r="I186" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L186" s="33"/>
       <c r="M186" s="43" t="str">
@@ -12416,14 +12421,14 @@
     </row>
     <row r="187" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B187" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -12432,7 +12437,7 @@
         <v>39</v>
       </c>
       <c r="I187" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L187" s="33"/>
       <c r="M187" s="43" t="str">
@@ -12461,14 +12466,14 @@
     </row>
     <row r="188" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B188" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -12503,20 +12508,20 @@
         <v>3</v>
       </c>
       <c r="AP188" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AS188" s="17"/>
     </row>
     <row r="189" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B189" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -12525,7 +12530,7 @@
         <v>21</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L189" s="33"/>
       <c r="M189" s="43" t="str">
@@ -12561,19 +12566,19 @@
       </c>
       <c r="AS189" s="33"/>
       <c r="AT189" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B190" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -12582,7 +12587,7 @@
         <v>45</v>
       </c>
       <c r="I190" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L190" s="33"/>
       <c r="M190" s="43" t="str">
@@ -12606,7 +12611,7 @@
         <v>3</v>
       </c>
       <c r="AJ190" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK190" s="18"/>
       <c r="AL190" s="35" t="str">
@@ -12617,14 +12622,14 @@
     </row>
     <row r="191" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B191" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -12633,7 +12638,7 @@
         <v>18</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L191" s="33"/>
       <c r="M191" s="43" t="str">
@@ -12660,19 +12665,19 @@
       </c>
       <c r="AS191" s="17"/>
       <c r="AT191" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B192" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -12681,7 +12686,7 @@
         <v>18</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L192" s="33"/>
       <c r="M192" s="43" t="str">
@@ -12708,7 +12713,7 @@
       </c>
       <c r="AS192" s="17"/>
       <c r="AT192" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="193" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -12720,16 +12725,16 @@
         <v>-</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I193" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>13</v>
@@ -12768,16 +12773,16 @@
         <v>-</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H194" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I194" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>13</v>
@@ -12816,7 +12821,7 @@
         <v>-</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -12854,14 +12859,14 @@
     </row>
     <row r="196" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B196" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -12899,14 +12904,14 @@
     </row>
     <row r="197" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B197" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>3</v>
@@ -12915,7 +12920,7 @@
         <v>39</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L197" s="33"/>
       <c r="M197" s="43" t="str">
@@ -12944,14 +12949,14 @@
     </row>
     <row r="198" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B198" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -12960,7 +12965,7 @@
         <v>39</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L198" s="33"/>
       <c r="M198" s="43" t="str">
@@ -12987,19 +12992,19 @@
       </c>
       <c r="AS198" s="17"/>
       <c r="AT198" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="199" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B199" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -13008,7 +13013,7 @@
         <v>18</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L199" s="33"/>
       <c r="M199" s="43" t="str">
@@ -13035,19 +13040,19 @@
       </c>
       <c r="AS199" s="17"/>
       <c r="AT199" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="200" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B200" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -13056,7 +13061,7 @@
         <v>18</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L200" s="33"/>
       <c r="M200" s="43" t="str">
@@ -13083,19 +13088,19 @@
       </c>
       <c r="AS200" s="17"/>
       <c r="AT200" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="201" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B201" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -13130,29 +13135,29 @@
         <v>3</v>
       </c>
       <c r="AP201" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AS201" s="17"/>
     </row>
     <row r="202" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="36" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B202" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H202" t="s">
         <v>39</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L202" s="33"/>
       <c r="M202" s="43" t="str">
@@ -13179,19 +13184,19 @@
       </c>
       <c r="AS202" s="33"/>
       <c r="AT202" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A203" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B203" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -13200,7 +13205,7 @@
         <v>18</v>
       </c>
       <c r="I203" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L203" s="33"/>
       <c r="M203" s="43" t="str">
@@ -13227,19 +13232,19 @@
       </c>
       <c r="AS203" s="17"/>
       <c r="AT203" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="36" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B204" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -13248,7 +13253,7 @@
         <v>18</v>
       </c>
       <c r="I204" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L204" s="33"/>
       <c r="M204" s="43" t="str">
@@ -13275,19 +13280,19 @@
       </c>
       <c r="AS204" s="17"/>
       <c r="AT204" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A205" s="36" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B205" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -13296,7 +13301,7 @@
         <v>18</v>
       </c>
       <c r="I205" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L205" s="33"/>
       <c r="M205" s="43" t="str">
@@ -13323,19 +13328,19 @@
       </c>
       <c r="AS205" s="17"/>
       <c r="AT205" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="36" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B206" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>3</v>
@@ -13344,7 +13349,7 @@
         <v>18</v>
       </c>
       <c r="I206" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L206" s="33"/>
       <c r="M206" s="43" t="str">
@@ -13371,25 +13376,25 @@
       </c>
       <c r="AS206" s="24"/>
       <c r="AT206" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A207" s="36" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B207" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L207" s="33"/>
       <c r="M207" s="43" t="str">
@@ -13419,23 +13424,23 @@
     </row>
     <row r="208" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A208" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B208" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H208" t="s">
+        <v>299</v>
+      </c>
+      <c r="I208" t="s">
         <v>302</v>
-      </c>
-      <c r="I208" t="s">
-        <v>305</v>
       </c>
       <c r="L208" s="33"/>
       <c r="M208" s="43" t="str">
@@ -13464,23 +13469,23 @@
     </row>
     <row r="209" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="36" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B209" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H209" t="s">
+        <v>295</v>
+      </c>
+      <c r="I209" t="s">
         <v>298</v>
-      </c>
-      <c r="I209" t="s">
-        <v>301</v>
       </c>
       <c r="L209" s="33"/>
       <c r="M209" s="43" t="str">
@@ -13509,23 +13514,23 @@
     </row>
     <row r="210" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A210" s="36" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B210" s="43" t="str">
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I210" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L210" s="33"/>
       <c r="M210" s="43" t="str">
@@ -13561,7 +13566,7 @@
         <v>-</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>3</v>
@@ -13609,7 +13614,7 @@
         <v>-</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>3</v>
@@ -13660,7 +13665,7 @@
         <v>-</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>3</v>
@@ -13714,7 +13719,7 @@
         <v>-</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>3</v>
@@ -13762,7 +13767,7 @@
         <v>-</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>3</v>
@@ -13813,7 +13818,7 @@
         <v>-</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>3</v>
@@ -13923,14 +13928,14 @@
     </row>
     <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B218" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C218" s="53" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D218" s="53"/>
       <c r="E218" s="53"/>
@@ -14039,7 +14044,7 @@
         <v>-</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>3</v>
@@ -14095,7 +14100,7 @@
         <v>-</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>3</v>
@@ -14123,7 +14128,7 @@
         <v>3</v>
       </c>
       <c r="AC220" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AD220" s="17"/>
       <c r="AE220" s="35" t="str">
@@ -14147,7 +14152,7 @@
         <v>-</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>3</v>
@@ -14175,7 +14180,7 @@
         <v>3</v>
       </c>
       <c r="AC221" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AD221" s="17"/>
       <c r="AE221" s="35" t="str">
@@ -14199,7 +14204,7 @@
         <v>-</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>3</v>
@@ -14252,14 +14257,14 @@
     </row>
     <row r="223" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A223" s="36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B223" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>3</v>
@@ -14268,7 +14273,7 @@
         <v>39</v>
       </c>
       <c r="I223" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L223" s="33"/>
       <c r="M223" s="43" t="str">
@@ -14295,19 +14300,19 @@
       </c>
       <c r="AS223" s="17"/>
       <c r="AT223" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="224" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A224" s="36" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B224" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>3</v>
@@ -14316,7 +14321,7 @@
         <v>39</v>
       </c>
       <c r="I224" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L224" s="33"/>
       <c r="M224" s="43" t="str">
@@ -14343,28 +14348,28 @@
       </c>
       <c r="AS224" s="17"/>
       <c r="AT224" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="225" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B225" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I225" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L225" s="33"/>
       <c r="M225" s="43" t="str">
@@ -14403,19 +14408,19 @@
       </c>
       <c r="AS225" s="33"/>
       <c r="AT225" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B226" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>3</v>
@@ -14424,7 +14429,7 @@
         <v>20</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L226" s="33"/>
       <c r="M226" s="43" t="str">
@@ -14462,23 +14467,23 @@
     </row>
     <row r="227" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A227" s="36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B227" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H227" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L227" s="33"/>
       <c r="M227" s="43" t="str">
@@ -14510,14 +14515,14 @@
     </row>
     <row r="228" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A228" s="36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B228" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>3</v>
@@ -14526,7 +14531,7 @@
         <v>21</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L228" s="33"/>
       <c r="M228" s="43" t="str">
@@ -14567,14 +14572,14 @@
     </row>
     <row r="229" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="36" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B229" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>3</v>
@@ -14583,7 +14588,7 @@
         <v>21</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L229" s="33"/>
       <c r="M229" s="43" t="str">
@@ -14610,19 +14615,19 @@
       </c>
       <c r="AS229" s="17"/>
       <c r="AT229" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="230" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A230" s="36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B230" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>3</v>
@@ -14631,7 +14636,7 @@
         <v>45</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L230" s="33"/>
       <c r="M230" s="43" t="str">
@@ -14663,14 +14668,14 @@
     </row>
     <row r="231" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B231" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>3</v>
@@ -14679,7 +14684,7 @@
         <v>21</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L231" s="33"/>
       <c r="M231" s="43" t="str">
@@ -14706,25 +14711,25 @@
       </c>
       <c r="AS231" s="17"/>
       <c r="AT231" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="232" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A232" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B232" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H232" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I232" s="10"/>
       <c r="L232" s="33"/>
@@ -14760,14 +14765,14 @@
     </row>
     <row r="233" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B233" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>3</v>
@@ -14806,23 +14811,23 @@
     </row>
     <row r="234" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A234" s="36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B234" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H234" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L234" s="33"/>
       <c r="M234" s="43" t="str">
@@ -14840,13 +14845,13 @@
         <v>-</v>
       </c>
       <c r="AF234" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG234" s="30" t="s">
         <v>3</v>
       </c>
       <c r="AH234" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK234" s="18"/>
       <c r="AL234" s="35" t="str">
@@ -14864,7 +14869,7 @@
         <v>-</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>3</v>
@@ -14918,7 +14923,7 @@
         <v>-</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>3</v>
@@ -14972,7 +14977,7 @@
         <v>-</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>3</v>
@@ -15013,14 +15018,14 @@
     </row>
     <row r="238" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A238" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B238" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>3</v>
@@ -15058,14 +15063,14 @@
     </row>
     <row r="239" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B239" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>3</v>
@@ -15074,7 +15079,7 @@
         <v>45</v>
       </c>
       <c r="I239" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K239" s="3" t="s">
         <v>13</v>
@@ -15106,14 +15111,14 @@
     </row>
     <row r="240" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A240" s="36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B240" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>3</v>
@@ -15122,7 +15127,7 @@
         <v>39</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K240" s="3" t="s">
         <v>13</v>
@@ -15154,14 +15159,14 @@
     </row>
     <row r="241" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A241" s="36" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B241" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>3</v>
@@ -15170,7 +15175,7 @@
         <v>39</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K241" s="3" t="s">
         <v>13</v>
@@ -15202,14 +15207,14 @@
     </row>
     <row r="242" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A242" s="36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B242" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>3</v>
@@ -15218,7 +15223,7 @@
         <v>39</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K242" s="3" t="s">
         <v>13</v>
@@ -15257,7 +15262,7 @@
         <v>-</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>3</v>
@@ -15302,7 +15307,7 @@
         <v>-</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>3</v>
@@ -15347,7 +15352,7 @@
         <v>-</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>3</v>
@@ -15392,7 +15397,7 @@
         <v>-</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>3</v>
@@ -15430,14 +15435,14 @@
     </row>
     <row r="247" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A247" s="36" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B247" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>3</v>
@@ -15475,14 +15480,14 @@
     </row>
     <row r="248" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A248" s="36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B248" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>3</v>
@@ -15523,14 +15528,14 @@
     </row>
     <row r="249" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="36" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B249" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>3</v>
@@ -15568,14 +15573,14 @@
     </row>
     <row r="250" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A250" s="36" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B250" s="43" t="str">
         <f t="shared" ref="B250" si="60">IF(CONCATENATE(M250,X250,AE250,AL250)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>3</v>
@@ -15584,7 +15589,7 @@
         <v>45</v>
       </c>
       <c r="I250" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L250" s="51"/>
       <c r="M250" s="43" t="str">
@@ -15613,14 +15618,14 @@
     </row>
     <row r="251" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A251" s="36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B251" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>3</v>
@@ -15658,23 +15663,23 @@
     </row>
     <row r="252" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A252" s="36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B252" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H252" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I252" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L252" s="33"/>
       <c r="M252" s="43" t="str">
@@ -15703,14 +15708,14 @@
     </row>
     <row r="253" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A253" s="36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B253" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>3</v>
@@ -15748,14 +15753,14 @@
     </row>
     <row r="254" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A254" s="36" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B254" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>3</v>
@@ -15793,23 +15798,23 @@
     </row>
     <row r="255" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A255" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B255" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H255" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I255" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L255" s="33"/>
       <c r="M255" s="43" t="str">
@@ -15838,14 +15843,14 @@
     </row>
     <row r="256" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B256" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>3</v>
@@ -15854,7 +15859,7 @@
         <v>39</v>
       </c>
       <c r="I256" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L256" s="33"/>
       <c r="M256" s="43" t="str">
@@ -15883,14 +15888,14 @@
     </row>
     <row r="257" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="36" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B257" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>3</v>
@@ -15935,7 +15940,7 @@
         <v>-</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>3</v>
@@ -15980,7 +15985,7 @@
         <v>-</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>3</v>
@@ -16018,23 +16023,23 @@
     </row>
     <row r="260" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A260" s="36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B260" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H260" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I260" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L260" s="33"/>
       <c r="M260" s="43" t="str">
@@ -16063,14 +16068,14 @@
     </row>
     <row r="261" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A261" s="36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B261" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>3</v>
@@ -16114,14 +16119,14 @@
     </row>
     <row r="262" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B262" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>3</v>
@@ -16130,7 +16135,7 @@
         <v>39</v>
       </c>
       <c r="I262" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L262" s="33"/>
       <c r="M262" s="43" t="str">
@@ -16159,20 +16164,20 @@
     </row>
     <row r="263" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B263" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L263" s="33"/>
       <c r="M263" s="43" t="str">
@@ -16199,28 +16204,28 @@
       </c>
       <c r="AS263" s="17"/>
       <c r="AT263" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="264" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A264" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B264" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H264" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I264" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L264" s="33"/>
       <c r="M264" s="43" t="str">
@@ -16249,14 +16254,14 @@
     </row>
     <row r="265" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B265" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>3</v>
@@ -16265,7 +16270,7 @@
         <v>39</v>
       </c>
       <c r="I265" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L265" s="33"/>
       <c r="M265" s="43" t="str">
@@ -16294,14 +16299,14 @@
     </row>
     <row r="266" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B266" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>3</v>
@@ -16310,7 +16315,7 @@
         <v>39</v>
       </c>
       <c r="I266" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L266" s="33"/>
       <c r="M266" s="43" t="str">
@@ -16339,23 +16344,23 @@
     </row>
     <row r="267" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B267" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H267" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I267" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L267" s="33"/>
       <c r="M267" s="43" t="str">
@@ -16387,20 +16392,20 @@
     </row>
     <row r="268" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B268" s="43"/>
       <c r="C268" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H268" t="s">
         <v>21</v>
       </c>
       <c r="I268" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L268" s="45"/>
       <c r="M268" s="43"/>
@@ -16420,14 +16425,14 @@
     </row>
     <row r="269" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A269" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B269" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>3</v>
@@ -16472,7 +16477,7 @@
         <v>3</v>
       </c>
       <c r="AJ269" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AK269" s="18"/>
       <c r="AL269" s="35" t="str">
@@ -16483,14 +16488,14 @@
     </row>
     <row r="270" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B270" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>3</v>
@@ -16528,14 +16533,14 @@
     </row>
     <row r="271" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B271" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>3</v>
@@ -16573,14 +16578,14 @@
     </row>
     <row r="272" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="36" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B272" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>3</v>
@@ -16618,14 +16623,14 @@
     </row>
     <row r="273" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A273" s="36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B273" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>3</v>
@@ -16690,7 +16695,7 @@
     </row>
     <row r="275" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B275" s="43" t="str">
         <f t="shared" si="56"/>
@@ -16819,7 +16824,7 @@
         <v>-</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>3</v>
@@ -16858,14 +16863,14 @@
     </row>
     <row r="277" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A277" s="36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B277" s="43" t="str">
         <f t="shared" si="56"/>
         <v>-</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>3</v>
@@ -16904,14 +16909,14 @@
     </row>
     <row r="278" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A278" s="36" t="s">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="B278" s="43" t="str">
         <f t="shared" ref="B278:B323" si="66">IF(CONCATENATE(M278,X278,AE278,AL278)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>3</v>
@@ -16950,14 +16955,14 @@
     </row>
     <row r="279" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A279" s="36" t="s">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="B279" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>3</v>
@@ -16996,14 +17001,14 @@
     </row>
     <row r="280" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A280" s="36" t="s">
-        <v>81</v>
+        <v>555</v>
       </c>
       <c r="B280" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>3</v>
@@ -17042,14 +17047,14 @@
     </row>
     <row r="281" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A281" s="36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B281" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>3</v>
@@ -17139,14 +17144,14 @@
     </row>
     <row r="283" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B283" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C283" s="53" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D283" s="53"/>
       <c r="E283" s="53"/>
@@ -17263,14 +17268,14 @@
     </row>
     <row r="284" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A284" s="36" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B284" s="43" t="str">
         <f t="shared" ref="B284:B302" si="70">IF(CONCATENATE(M284,X284,AE284,AL284)="","","-")</f>
         <v>-</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>3</v>
@@ -17309,26 +17314,26 @@
     </row>
     <row r="285" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A285" s="36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B285" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H285" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I285" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L285" s="33"/>
       <c r="M285" s="43" t="str">
@@ -17358,14 +17363,14 @@
     </row>
     <row r="286" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A286" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B286" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>3</v>
@@ -17374,7 +17379,7 @@
         <v>45</v>
       </c>
       <c r="I286" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L286" s="33"/>
       <c r="M286" s="43" t="str">
@@ -17403,14 +17408,14 @@
     </row>
     <row r="287" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A287" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B287" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>3</v>
@@ -17419,7 +17424,7 @@
         <v>45</v>
       </c>
       <c r="I287" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L287" s="33"/>
       <c r="M287" s="43" t="str">
@@ -17448,14 +17453,14 @@
     </row>
     <row r="288" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A288" s="36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B288" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>3</v>
@@ -17464,7 +17469,7 @@
         <v>45</v>
       </c>
       <c r="I288" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L288" s="33"/>
       <c r="M288" s="43" t="str">
@@ -17493,14 +17498,14 @@
     </row>
     <row r="289" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A289" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B289" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>3</v>
@@ -17509,7 +17514,7 @@
         <v>45</v>
       </c>
       <c r="I289" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L289" s="33"/>
       <c r="M289" s="43" t="str">
@@ -17538,14 +17543,14 @@
     </row>
     <row r="290" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A290" s="36" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B290" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>3</v>
@@ -17554,7 +17559,7 @@
         <v>21</v>
       </c>
       <c r="I290" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L290" s="34"/>
       <c r="M290" s="43" t="str">
@@ -17583,14 +17588,14 @@
     </row>
     <row r="291" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A291" s="36" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B291" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>3</v>
@@ -17599,7 +17604,7 @@
         <v>21</v>
       </c>
       <c r="I291" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L291" s="34"/>
       <c r="M291" s="43" t="str">
@@ -17628,14 +17633,14 @@
     </row>
     <row r="292" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A292" s="36" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B292" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>3</v>
@@ -17644,7 +17649,7 @@
         <v>45</v>
       </c>
       <c r="I292" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L292" s="33"/>
       <c r="M292" s="43"/>
@@ -17665,23 +17670,23 @@
     </row>
     <row r="293" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A293" s="36" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B293" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H293" t="s">
         <v>45</v>
       </c>
       <c r="I293" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L293" s="33"/>
       <c r="M293" s="43"/>
@@ -17702,14 +17707,14 @@
     </row>
     <row r="294" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A294" s="36" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B294" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>3</v>
@@ -17718,7 +17723,7 @@
         <v>39</v>
       </c>
       <c r="I294" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L294" s="33"/>
       <c r="M294" s="43"/>
@@ -17742,14 +17747,14 @@
     </row>
     <row r="295" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="36" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B295" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>3</v>
@@ -17758,7 +17763,7 @@
         <v>39</v>
       </c>
       <c r="I295" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L295" s="34"/>
       <c r="M295" s="43"/>
@@ -17779,23 +17784,23 @@
     </row>
     <row r="296" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A296" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B296" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H296" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L296" s="34"/>
       <c r="M296" s="43" t="str">
@@ -17822,19 +17827,19 @@
       </c>
       <c r="AS296" s="34"/>
       <c r="AT296" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="297" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A297" s="36" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B297" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>3</v>
@@ -17867,14 +17872,14 @@
     </row>
     <row r="298" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="36" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B298" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>3</v>
@@ -17907,14 +17912,14 @@
     </row>
     <row r="299" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A299" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B299" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>3</v>
@@ -17952,14 +17957,14 @@
     </row>
     <row r="300" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A300" s="36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B300" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>3</v>
@@ -17997,26 +18002,26 @@
     </row>
     <row r="301" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B301" s="43" t="str">
         <f t="shared" si="70"/>
         <v>-</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H301" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I301" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L301" s="34"/>
       <c r="M301" s="43" t="str">
@@ -18050,7 +18055,7 @@
         <v>-</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>3</v>
@@ -18059,7 +18064,7 @@
         <v>39</v>
       </c>
       <c r="I302" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L302" s="33"/>
       <c r="M302" s="43"/>
@@ -18134,7 +18139,7 @@
     </row>
     <row r="304" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B304" s="43" t="str">
         <f t="shared" si="66"/>
@@ -18257,14 +18262,14 @@
     </row>
     <row r="305" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A305" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B305" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>3</v>
@@ -18299,17 +18304,17 @@
     </row>
     <row r="306" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A306" s="36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B306" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H306" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L306" s="18"/>
       <c r="M306" s="43" t="str">
@@ -18336,22 +18341,22 @@
       </c>
       <c r="AS306" s="33"/>
       <c r="AT306" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="307" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B307" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H307" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L307" s="18"/>
       <c r="M307" s="43" t="str">
@@ -18381,25 +18386,25 @@
       </c>
       <c r="AS307" s="33"/>
       <c r="AT307" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="308" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A308" s="36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B308" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H308" t="s">
         <v>39</v>
       </c>
       <c r="I308" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L308" s="33"/>
       <c r="M308" s="43" t="str">
@@ -18429,20 +18434,20 @@
     </row>
     <row r="309" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A309" s="36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B309" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H309" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I309" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L309" s="33"/>
       <c r="M309" s="43" t="str">
@@ -18472,14 +18477,14 @@
     </row>
     <row r="310" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A310" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B310" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H310" t="s">
         <v>18</v>
@@ -18488,7 +18493,7 @@
         <v>19</v>
       </c>
       <c r="J310" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L310" s="33"/>
       <c r="M310" s="43" t="str">
@@ -18553,20 +18558,20 @@
     </row>
     <row r="311" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A311" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B311" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H311" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I311" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L311" s="33"/>
       <c r="M311" s="43" t="str">
@@ -18596,14 +18601,14 @@
     </row>
     <row r="312" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A312" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B312" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H312" t="s">
         <v>39</v>
@@ -18637,7 +18642,7 @@
         <v>3</v>
       </c>
       <c r="AC312" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AD312" s="17"/>
       <c r="AE312" s="35" t="str">
@@ -18660,14 +18665,14 @@
     </row>
     <row r="313" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A313" s="36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B313" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H313" t="s">
         <v>18</v>
@@ -18705,14 +18710,14 @@
     </row>
     <row r="314" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="36" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B314" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H314" t="s">
         <v>39</v>
@@ -18747,14 +18752,14 @@
     </row>
     <row r="315" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="36" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B315" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H315" t="s">
         <v>39</v>
@@ -18789,14 +18794,14 @@
     </row>
     <row r="316" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="36" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B316" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H316" t="s">
         <v>39</v>
@@ -18831,14 +18836,14 @@
     </row>
     <row r="317" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="36" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B317" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H317" t="s">
         <v>39</v>
@@ -18924,7 +18929,7 @@
     </row>
     <row r="319" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A319" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B319" s="43" t="str">
         <f t="shared" si="66"/>
@@ -19037,20 +19042,20 @@
     </row>
     <row r="320" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="36" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B320" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H320" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I320" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L320" s="33"/>
       <c r="M320" s="43" t="str">
@@ -19077,22 +19082,22 @@
       </c>
       <c r="AS320" s="17"/>
       <c r="AT320" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="321" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="36" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B321" s="43" t="str">
         <f t="shared" si="66"/>
         <v>-</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H321" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L321" s="33"/>
       <c r="M321" s="43" t="str">
@@ -19119,7 +19124,7 @@
       </c>
       <c r="AS321" s="33"/>
       <c r="AT321" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="322" spans="1:46" x14ac:dyDescent="0.25">
@@ -19175,7 +19180,7 @@
     </row>
     <row r="323" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A323" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B323" s="43" t="str">
         <f t="shared" si="66"/>
@@ -19420,33 +19425,33 @@
     </row>
     <row r="329" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I329" s="49" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="330" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I330" s="50" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="331" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I331" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="J331" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="J331" s="6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="332" spans="1:46" x14ac:dyDescent="0.25">
       <c r="I332" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J332" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="333" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J333" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -19486,7 +19491,7 @@
       <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="2" customWidth="1"/>
@@ -19501,60 +19506,60 @@
         <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -19579,7 +19584,7 @@
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -19604,7 +19609,7 @@
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -19629,7 +19634,7 @@
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -19654,7 +19659,7 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -19679,7 +19684,7 @@
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -19704,7 +19709,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -19712,7 +19717,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -19720,7 +19725,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
@@ -19728,7 +19733,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -19736,7 +19741,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -19744,7 +19749,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -19767,7 +19772,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>3</v>
@@ -19775,7 +19780,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>3</v>
@@ -19783,7 +19788,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
@@ -19791,7 +19796,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>3</v>
@@ -19799,7 +19804,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>3</v>
@@ -19807,7 +19812,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
@@ -19815,7 +19820,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
@@ -19823,7 +19828,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -19848,7 +19853,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>3</v>
@@ -19856,7 +19861,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -19864,7 +19869,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -19872,7 +19877,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -19897,7 +19902,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>3</v>
@@ -19905,7 +19910,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
@@ -19913,7 +19918,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
@@ -19921,7 +19926,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
@@ -19946,7 +19951,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>3</v>
@@ -19954,7 +19959,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
@@ -19962,7 +19967,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>3</v>
@@ -19970,7 +19975,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>3</v>
@@ -19978,7 +19983,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>3</v>
@@ -19986,7 +19991,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>3</v>
@@ -19994,7 +19999,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>3</v>
@@ -20002,7 +20007,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>3</v>
@@ -20010,7 +20015,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>3</v>
@@ -20018,7 +20023,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -20026,7 +20031,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
@@ -20034,7 +20039,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -20059,7 +20064,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>3</v>
@@ -20067,7 +20072,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -20092,7 +20097,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>3</v>
@@ -20100,7 +20105,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>3</v>
@@ -20108,7 +20113,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>3</v>
@@ -20116,12 +20121,12 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>3</v>
@@ -20129,7 +20134,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
@@ -20137,7 +20142,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -20145,7 +20150,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>3</v>
@@ -20153,7 +20158,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>3</v>
@@ -20164,7 +20169,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>3</v>
@@ -20172,7 +20177,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>3</v>
@@ -20180,7 +20185,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>3</v>
@@ -20188,7 +20193,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>3</v>
@@ -20196,7 +20201,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>3</v>
@@ -20204,7 +20209,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B59" s="46"/>
       <c r="C59" s="46"/>
@@ -20229,7 +20234,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>3</v>
@@ -20237,7 +20242,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>3</v>
@@ -20245,7 +20250,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>3</v>
@@ -20253,7 +20258,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>3</v>
@@ -20261,7 +20266,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>3</v>
@@ -20313,17 +20318,17 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/l3kernel/expl3-datatype-analysis.xlsx
+++ b/l3kernel/expl3-datatype-analysis.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mittelba\Documents\svn\l3\l3kernel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="255" windowWidth="21135" windowHeight="15225"/>
   </bookViews>
@@ -20,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">constants!$A$1:$C$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data types'!$A$2:$AT$327</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +30,7 @@
     <author>Frank</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="0" shapeId="0">
+    <comment ref="AF5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0" shapeId="0">
+    <comment ref="AG5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="0" shapeId="0">
+    <comment ref="AH5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI5" authorId="0" shapeId="0">
+    <comment ref="AI5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM5" authorId="0" shapeId="0">
+    <comment ref="AM5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y64" authorId="0" shapeId="0">
+    <comment ref="Y64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z64" authorId="0" shapeId="0">
+    <comment ref="Z64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA64" authorId="0" shapeId="0">
+    <comment ref="AA64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB64" authorId="0" shapeId="0">
+    <comment ref="AB64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC64" authorId="0" shapeId="0">
+    <comment ref="AC64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI189" authorId="0" shapeId="0">
+    <comment ref="AI189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ190" authorId="0" shapeId="0">
+    <comment ref="AJ190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="556">
   <si>
     <t>action</t>
   </si>
@@ -2282,7 +2277,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2298,9 +2293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2338,9 +2333,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2375,7 +2370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2410,7 +2405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2587,13 +2582,13 @@
   <dimension ref="A2:AT333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH97" sqref="AH97"/>
+      <selection pane="bottomRight" activeCell="AH240" sqref="AH240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="9" customWidth="1"/>
@@ -2629,7 +2624,7 @@
     <col min="46" max="46" width="40" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" ht="125.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8802,11 +8797,11 @@
       <c r="AF117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG117" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH117" s="22" t="s">
-        <v>221</v>
+      <c r="AG117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH117" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="AK117" s="18"/>
       <c r="AL117" s="35" t="str">
@@ -15148,6 +15143,9 @@
         <v>-</v>
       </c>
       <c r="AF240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH240" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AK240" s="18"/>
@@ -19491,7 +19489,7 @@
       <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="2" customWidth="1"/>
@@ -20318,7 +20316,7 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>

--- a/l3kernel/expl3-datatype-analysis.xlsx
+++ b/l3kernel/expl3-datatype-analysis.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="21135" windowHeight="15225"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="21135" windowHeight="15225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data types" sheetId="1" r:id="rId1"/>
     <sheet name="constants" sheetId="4" r:id="rId2"/>
     <sheet name="oddities" sheetId="2" r:id="rId3"/>
+    <sheet name="Modules" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">constants!$A$1:$C$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data types'!$A$2:$AT$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Modules!$A$1:$I$119</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -359,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="653">
   <si>
     <t>action</t>
   </si>
@@ -2027,6 +2029,300 @@
   </si>
   <si>
     <t>from_oct</t>
+  </si>
+  <si>
+    <t>Module name</t>
+  </si>
+  <si>
+    <t>chk</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>these are actually all variables (where the data type is  at the end)</t>
+  </si>
+  <si>
+    <t>etex</t>
+  </si>
+  <si>
+    <t>primitives</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>flow/processing</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>another example … foo?</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>hcoffins</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>what kind of thing is this? Datatype? (no "new")</t>
+  </si>
+  <si>
+    <t>keyval</t>
+  </si>
+  <si>
+    <t>LaTeX3 error</t>
+  </si>
+  <si>
+    <t>fake for expandable errors</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>luatex</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>quark only</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>only exists as mode_if_...</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>multichoice</t>
+  </si>
+  <si>
+    <t>multichoices</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>mymodule</t>
+  </si>
+  <si>
+    <t>mypkg</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>no_value</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>pdftex</t>
+  </si>
+  <si>
+    <t>pdttex</t>
+  </si>
+  <si>
+    <t>BUG :-)</t>
+  </si>
+  <si>
+    <t>prg</t>
+  </si>
+  <si>
+    <t>ptex</t>
+  </si>
+  <si>
+    <t>recursion_stop</t>
+  </si>
+  <si>
+    <t>reverse_if</t>
+  </si>
+  <si>
+    <t>recursion_tail</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>spac</t>
+  </si>
+  <si>
+    <t>BUG ??? But even as space_... Questionable</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>quark and scan mark</t>
+  </si>
+  <si>
+    <t>kind of an input stream data type (no new or set etc operations)</t>
+  </si>
+  <si>
+    <t>tex</t>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>tmpa</t>
+  </si>
+  <si>
+    <t>tmpb</t>
+  </si>
+  <si>
+    <t>unicode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">these are actually all variables/constants (where the data type is  at the end)
+however, this may need to be a module one day (?) </t>
+  </si>
+  <si>
+    <t>uptex</t>
+  </si>
+  <si>
+    <t>utex</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>xetex</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Did we really needed both "lua" and "luatex"? Guess there are arguments either way</t>
+  </si>
+  <si>
+    <t>this sticks out a bit (in comparison to if_, say)</t>
+  </si>
+  <si>
+    <t>not a real module, should have perhaps been prg_... But too late to change</t>
+  </si>
+  <si>
+    <t>covers scan marks besides other things
+would also fall under the prg module really …</t>
+  </si>
+  <si>
+    <t>again really "prg_peek" but the commands are too long already</t>
+  </si>
+  <si>
+    <t>not a really module either but on the other hand not all of this would have been prg</t>
+  </si>
+  <si>
+    <t>!!</t>
+  </si>
+  <si>
+    <t>just some arbitrary example (should not show up in index and probably should not use "add") -- "foo" maybe?</t>
+  </si>
+  <si>
+    <t>should perhaps be _int to be consistent with variable/constant use in other types</t>
+  </si>
+  <si>
+    <t>need to think if h/vcoffins (as well as h/vbox) are really the right way to model this space</t>
+  </si>
+  <si>
+    <t>a bunch of them are used quite often (while :D commands!) so perhaps we need to have a closer look and either add interfaces or drop the usage</t>
+  </si>
+  <si>
+    <t>fully internal</t>
+  </si>
+  <si>
+    <t>questionable as a module; or if it is perhaps should get additional color handling commands (?)</t>
+  </si>
+  <si>
+    <t>fully internal (has only __kernel..) and only a few commands ; questionable</t>
+  </si>
+  <si>
+    <t>is that a data type or a flow control or what?</t>
+  </si>
+  <si>
+    <t>\show_until_if:w only in an example --- so drop and replace by something valid or at least make it not appear in the index</t>
+  </si>
+  <si>
+    <t>:-) but perhaps we want to always use "mymodule" as module name or maybe we always want to use foo but then consistently in all examples</t>
+  </si>
+  <si>
+    <t>nearly only internal and only one external command \keyval_parse:NNn. Strictly speaking this is really just \clist_keyval_parse:NNn with a clist in which = have additional meaning.
+My suggestion would be to drop that module and use \clist_keyval_parse:NNn or perhaps if prefered \keys_value_parse:NNn if you want to keep it with the keys module.</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>these are actually all constants (where the data type is  at the end)</t>
   </si>
 </sst>
 </file>
@@ -2127,7 +2423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2274,6 +2570,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2581,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AH240" sqref="AH240"/>
@@ -2881,7 +3183,7 @@
       </c>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>96</v>
       </c>
@@ -2949,7 +3251,7 @@
       <c r="AS4" s="17"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>98</v>
       </c>
@@ -3015,7 +3317,7 @@
       <c r="AS5" s="17"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>147</v>
       </c>
@@ -3072,7 +3374,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>49</v>
       </c>
@@ -3147,7 +3449,7 @@
       </c>
       <c r="AS7" s="17"/>
     </row>
-    <row r="8" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>1</v>
       </c>
@@ -3243,7 +3545,7 @@
       </c>
       <c r="AS8" s="17"/>
     </row>
-    <row r="9" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
@@ -3288,7 +3590,7 @@
       </c>
       <c r="AS9" s="17"/>
     </row>
-    <row r="10" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>211</v>
       </c>
@@ -3333,7 +3635,7 @@
       </c>
       <c r="AS10" s="17"/>
     </row>
-    <row r="11" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>208</v>
       </c>
@@ -3378,7 +3680,7 @@
       </c>
       <c r="AS11" s="17"/>
     </row>
-    <row r="12" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>209</v>
       </c>
@@ -3423,7 +3725,7 @@
       </c>
       <c r="AS12" s="17"/>
     </row>
-    <row r="13" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>210</v>
       </c>
@@ -3468,7 +3770,7 @@
       </c>
       <c r="AS13" s="17"/>
     </row>
-    <row r="14" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>5</v>
       </c>
@@ -3558,7 +3860,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>5</v>
       </c>
@@ -3603,7 +3905,7 @@
       </c>
       <c r="AS15" s="33"/>
     </row>
-    <row r="16" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>5</v>
       </c>
@@ -3655,7 +3957,7 @@
       </c>
       <c r="AS16" s="17"/>
     </row>
-    <row r="17" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>5</v>
       </c>
@@ -3700,7 +4002,7 @@
       </c>
       <c r="AS17" s="34"/>
     </row>
-    <row r="18" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>507</v>
       </c>
@@ -3751,7 +4053,7 @@
       </c>
       <c r="AS18" s="33"/>
     </row>
-    <row r="19" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>5</v>
       </c>
@@ -3796,7 +4098,7 @@
       </c>
       <c r="AS19" s="17"/>
     </row>
-    <row r="20" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
@@ -3883,7 +4185,7 @@
       </c>
       <c r="AS20" s="17"/>
     </row>
-    <row r="21" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>403</v>
       </c>
@@ -3928,7 +4230,7 @@
       </c>
       <c r="AS21" s="33"/>
     </row>
-    <row r="22" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>404</v>
       </c>
@@ -3976,7 +4278,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>183</v>
       </c>
@@ -4021,7 +4323,7 @@
       </c>
       <c r="AS23" s="17"/>
     </row>
-    <row r="24" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>408</v>
       </c>
@@ -4066,7 +4368,7 @@
       </c>
       <c r="AS24" s="33"/>
     </row>
-    <row r="25" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>409</v>
       </c>
@@ -4111,7 +4413,7 @@
       </c>
       <c r="AS25" s="33"/>
     </row>
-    <row r="26" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>410</v>
       </c>
@@ -4156,7 +4458,7 @@
       </c>
       <c r="AS26" s="33"/>
     </row>
-    <row r="27" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>411</v>
       </c>
@@ -4201,7 +4503,7 @@
       </c>
       <c r="AS27" s="33"/>
     </row>
-    <row r="28" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>412</v>
       </c>
@@ -4246,7 +4548,7 @@
       </c>
       <c r="AS28" s="33"/>
     </row>
-    <row r="29" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>413</v>
       </c>
@@ -4291,7 +4593,7 @@
       </c>
       <c r="AS29" s="33"/>
     </row>
-    <row r="30" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>414</v>
       </c>
@@ -4336,7 +4638,7 @@
       </c>
       <c r="AS30" s="33"/>
     </row>
-    <row r="31" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>415</v>
       </c>
@@ -4381,7 +4683,7 @@
       </c>
       <c r="AS31" s="33"/>
     </row>
-    <row r="32" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>416</v>
       </c>
@@ -4426,7 +4728,7 @@
       </c>
       <c r="AS32" s="33"/>
     </row>
-    <row r="33" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>417</v>
       </c>
@@ -4471,7 +4773,7 @@
       </c>
       <c r="AS33" s="33"/>
     </row>
-    <row r="34" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>418</v>
       </c>
@@ -4516,7 +4818,7 @@
       </c>
       <c r="AS34" s="33"/>
     </row>
-    <row r="35" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>419</v>
       </c>
@@ -4561,7 +4863,7 @@
       </c>
       <c r="AS35" s="33"/>
     </row>
-    <row r="36" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>420</v>
       </c>
@@ -4606,7 +4908,7 @@
       </c>
       <c r="AS36" s="33"/>
     </row>
-    <row r="37" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>421</v>
       </c>
@@ -4651,7 +4953,7 @@
       </c>
       <c r="AS37" s="33"/>
     </row>
-    <row r="38" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>422</v>
       </c>
@@ -4696,7 +4998,7 @@
       </c>
       <c r="AS38" s="33"/>
     </row>
-    <row r="39" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>423</v>
       </c>
@@ -4741,7 +5043,7 @@
       </c>
       <c r="AS39" s="33"/>
     </row>
-    <row r="40" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>406</v>
       </c>
@@ -4786,7 +5088,7 @@
       </c>
       <c r="AS40" s="33"/>
     </row>
-    <row r="41" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>7</v>
       </c>
@@ -4834,7 +5136,7 @@
       </c>
       <c r="AS41" s="17"/>
     </row>
-    <row r="42" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>465</v>
       </c>
@@ -4879,7 +5181,7 @@
       </c>
       <c r="AS42" s="33"/>
     </row>
-    <row r="43" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
         <v>165</v>
       </c>
@@ -4927,7 +5229,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>165</v>
       </c>
@@ -4975,7 +5277,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>214</v>
       </c>
@@ -5020,7 +5322,7 @@
       </c>
       <c r="AS45" s="17"/>
     </row>
-    <row r="46" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>172</v>
       </c>
@@ -5065,7 +5367,7 @@
       </c>
       <c r="AS46" s="33"/>
     </row>
-    <row r="47" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
         <v>425</v>
       </c>
@@ -5111,7 +5413,7 @@
       </c>
       <c r="AS47" s="33"/>
     </row>
-    <row r="48" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>467</v>
       </c>
@@ -5156,7 +5458,7 @@
       </c>
       <c r="AS48" s="33"/>
     </row>
-    <row r="49" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>426</v>
       </c>
@@ -5202,7 +5504,7 @@
       </c>
       <c r="AS49" s="17"/>
     </row>
-    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
         <v>203</v>
       </c>
@@ -5247,7 +5549,7 @@
       </c>
       <c r="AS50" s="17"/>
     </row>
-    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>204</v>
       </c>
@@ -5292,7 +5594,7 @@
       </c>
       <c r="AS51" s="17"/>
     </row>
-    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>205</v>
       </c>
@@ -5337,7 +5639,7 @@
       </c>
       <c r="AS52" s="17"/>
     </row>
-    <row r="53" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>111</v>
       </c>
@@ -5382,7 +5684,7 @@
       </c>
       <c r="AS53" s="17"/>
     </row>
-    <row r="54" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>427</v>
       </c>
@@ -5428,7 +5730,7 @@
       </c>
       <c r="AS54" s="33"/>
     </row>
-    <row r="55" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
         <v>167</v>
       </c>
@@ -5476,7 +5778,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
         <v>510</v>
       </c>
@@ -5521,7 +5823,7 @@
       </c>
       <c r="AS56" s="34"/>
     </row>
-    <row r="57" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
         <v>508</v>
       </c>
@@ -5566,7 +5868,7 @@
       </c>
       <c r="AS57" s="34"/>
     </row>
-    <row r="58" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>520</v>
       </c>
@@ -5614,7 +5916,7 @@
       </c>
       <c r="AS58" s="34"/>
     </row>
-    <row r="59" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>512</v>
       </c>
@@ -5659,7 +5961,7 @@
       </c>
       <c r="AS59" s="34"/>
     </row>
-    <row r="60" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
         <v>8</v>
       </c>
@@ -5707,7 +6009,7 @@
       </c>
       <c r="AS60" s="17"/>
     </row>
-    <row r="61" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
         <v>428</v>
       </c>
@@ -5753,7 +6055,7 @@
       </c>
       <c r="AS61" s="17"/>
     </row>
-    <row r="62" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>212</v>
       </c>
@@ -5795,7 +6097,7 @@
       </c>
       <c r="AS62" s="17"/>
     </row>
-    <row r="63" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
         <v>51</v>
       </c>
@@ -5855,7 +6157,7 @@
       </c>
       <c r="AS63" s="27"/>
     </row>
-    <row r="64" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
         <v>289</v>
       </c>
@@ -5915,7 +6217,7 @@
       </c>
       <c r="AS64" s="17"/>
     </row>
-    <row r="65" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" s="1" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="43" t="str">
         <f t="shared" si="1"/>
@@ -6093,7 +6395,7 @@
       </c>
       <c r="AT66"/>
     </row>
-    <row r="67" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
         <v>493</v>
       </c>
@@ -6141,7 +6443,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
         <v>159</v>
       </c>
@@ -6189,7 +6491,7 @@
       </c>
       <c r="AS68" s="17"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
         <v>175</v>
       </c>
@@ -6234,7 +6536,7 @@
       </c>
       <c r="AS69" s="17"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
         <v>177</v>
       </c>
@@ -6282,7 +6584,7 @@
       </c>
       <c r="AS70" s="17"/>
     </row>
-    <row r="71" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
         <v>99</v>
       </c>
@@ -6336,7 +6638,7 @@
       </c>
       <c r="AS71" s="17"/>
     </row>
-    <row r="72" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
         <v>101</v>
       </c>
@@ -6390,7 +6692,7 @@
       </c>
       <c r="AS72" s="17"/>
     </row>
-    <row r="73" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" s="1" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="43" t="str">
         <f t="shared" si="1"/>
@@ -6578,7 +6880,7 @@
       </c>
       <c r="AT74"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
         <v>158</v>
       </c>
@@ -6630,7 +6932,7 @@
       <c r="AS75" s="17"/>
       <c r="AT75"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
         <v>158</v>
       </c>
@@ -6678,7 +6980,7 @@
       </c>
       <c r="AS76" s="17"/>
     </row>
-    <row r="77" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
         <v>154</v>
       </c>
@@ -6726,7 +7028,7 @@
       </c>
       <c r="AS77" s="17"/>
     </row>
-    <row r="78" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
         <v>155</v>
       </c>
@@ -6774,7 +7076,7 @@
       </c>
       <c r="AS78" s="17"/>
     </row>
-    <row r="79" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
         <v>494</v>
       </c>
@@ -6819,7 +7121,7 @@
       </c>
       <c r="AS79" s="33"/>
     </row>
-    <row r="80" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
         <v>286</v>
       </c>
@@ -6868,7 +7170,7 @@
       <c r="AS80" s="17"/>
       <c r="AT80" s="10"/>
     </row>
-    <row r="81" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
         <v>109</v>
       </c>
@@ -6920,7 +7222,7 @@
       <c r="AS81" s="17"/>
       <c r="AT81" s="10"/>
     </row>
-    <row r="82" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
         <v>157</v>
       </c>
@@ -6968,7 +7270,7 @@
       </c>
       <c r="AS82" s="17"/>
     </row>
-    <row r="83" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
         <v>108</v>
       </c>
@@ -7019,7 +7321,7 @@
       </c>
       <c r="AS83" s="17"/>
     </row>
-    <row r="84" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" s="1" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="43" t="str">
         <f t="shared" si="21"/>
@@ -7207,7 +7509,7 @@
       </c>
       <c r="AT85"/>
     </row>
-    <row r="86" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
         <v>488</v>
       </c>
@@ -7256,7 +7558,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="87" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
         <v>6</v>
       </c>
@@ -7313,7 +7615,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
         <v>6</v>
       </c>
@@ -7362,7 +7664,7 @@
       <c r="AS88" s="17"/>
       <c r="AT88"/>
     </row>
-    <row r="89" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>291</v>
       </c>
@@ -7419,7 +7721,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
         <v>151</v>
       </c>
@@ -7467,7 +7769,7 @@
       </c>
       <c r="AS90" s="17"/>
     </row>
-    <row r="91" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
         <v>152</v>
       </c>
@@ -7515,7 +7817,7 @@
       </c>
       <c r="AS91" s="17"/>
     </row>
-    <row r="92" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
         <v>135</v>
       </c>
@@ -7566,7 +7868,7 @@
       </c>
       <c r="AS92" s="17"/>
     </row>
-    <row r="93" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
         <v>532</v>
       </c>
@@ -7614,7 +7916,7 @@
       </c>
       <c r="AS93" s="44"/>
     </row>
-    <row r="94" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
         <v>135</v>
       </c>
@@ -7665,7 +7967,7 @@
       </c>
       <c r="AS94" s="17"/>
     </row>
-    <row r="95" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
         <v>161</v>
       </c>
@@ -7719,7 +8021,7 @@
       </c>
       <c r="AS95" s="25"/>
     </row>
-    <row r="96" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>161</v>
       </c>
@@ -7767,7 +8069,7 @@
       </c>
       <c r="AS96" s="52"/>
     </row>
-    <row r="97" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
         <v>161</v>
       </c>
@@ -7820,7 +8122,7 @@
       <c r="AS97" s="17"/>
       <c r="AT97" s="10"/>
     </row>
-    <row r="98" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>534</v>
       </c>
@@ -7854,7 +8156,7 @@
       <c r="AS98" s="44"/>
       <c r="AT98" s="10"/>
     </row>
-    <row r="99" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
         <v>534</v>
       </c>
@@ -7888,7 +8190,7 @@
       <c r="AS99" s="44"/>
       <c r="AT99" s="10"/>
     </row>
-    <row r="100" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
         <v>537</v>
       </c>
@@ -7922,7 +8224,7 @@
       <c r="AS100" s="44"/>
       <c r="AT100" s="10"/>
     </row>
-    <row r="101" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>136</v>
       </c>
@@ -7970,7 +8272,7 @@
       </c>
       <c r="AS101" s="25"/>
     </row>
-    <row r="102" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
         <v>533</v>
       </c>
@@ -8015,7 +8317,7 @@
       </c>
       <c r="AS102" s="44"/>
     </row>
-    <row r="103" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
         <v>136</v>
       </c>
@@ -8063,7 +8365,7 @@
       </c>
       <c r="AS103" s="17"/>
     </row>
-    <row r="104" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" s="1" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="43" t="str">
         <f t="shared" si="21"/>
@@ -8251,7 +8553,7 @@
       </c>
       <c r="AT105"/>
     </row>
-    <row r="106" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
         <v>54</v>
       </c>
@@ -8309,7 +8611,7 @@
       <c r="AS106" s="17"/>
       <c r="AT106"/>
     </row>
-    <row r="107" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
         <v>240</v>
       </c>
@@ -8354,7 +8656,7 @@
       </c>
       <c r="AS107" s="17"/>
     </row>
-    <row r="108" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
         <v>395</v>
       </c>
@@ -8397,7 +8699,7 @@
       <c r="AS108" s="17"/>
       <c r="AT108"/>
     </row>
-    <row r="109" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
         <v>55</v>
       </c>
@@ -8443,7 +8745,7 @@
       <c r="AS109" s="17"/>
       <c r="AT109"/>
     </row>
-    <row r="110" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
         <v>56</v>
       </c>
@@ -8489,7 +8791,7 @@
       <c r="AS110" s="17"/>
       <c r="AT110"/>
     </row>
-    <row r="111" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
         <v>241</v>
       </c>
@@ -8534,7 +8836,7 @@
       </c>
       <c r="AS111" s="17"/>
     </row>
-    <row r="112" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
         <v>107</v>
       </c>
@@ -8579,7 +8881,7 @@
       </c>
       <c r="AS112" s="17"/>
     </row>
-    <row r="113" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
         <v>102</v>
       </c>
@@ -8624,7 +8926,7 @@
       </c>
       <c r="AS113" s="17"/>
     </row>
-    <row r="114" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
         <v>236</v>
       </c>
@@ -8669,7 +8971,7 @@
       </c>
       <c r="AS114" s="17"/>
     </row>
-    <row r="115" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
         <v>398</v>
       </c>
@@ -8714,7 +9016,7 @@
       </c>
       <c r="AS115" s="33"/>
     </row>
-    <row r="116" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
         <v>399</v>
       </c>
@@ -8759,7 +9061,7 @@
       </c>
       <c r="AS116" s="33"/>
     </row>
-    <row r="117" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
         <v>133</v>
       </c>
@@ -8810,7 +9112,7 @@
       </c>
       <c r="AS117" s="17"/>
     </row>
-    <row r="118" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36" t="s">
         <v>237</v>
       </c>
@@ -8855,7 +9157,7 @@
       </c>
       <c r="AS118" s="17"/>
     </row>
-    <row r="119" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
         <v>238</v>
       </c>
@@ -8900,7 +9202,7 @@
       </c>
       <c r="AS119" s="33"/>
     </row>
-    <row r="120" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
         <v>193</v>
       </c>
@@ -8948,7 +9250,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="36" t="s">
         <v>232</v>
       </c>
@@ -8990,7 +9292,7 @@
       </c>
       <c r="AS121" s="17"/>
     </row>
-    <row r="122" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
         <v>194</v>
       </c>
@@ -9038,7 +9340,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="36" t="s">
         <v>233</v>
       </c>
@@ -9080,7 +9382,7 @@
       </c>
       <c r="AS123" s="17"/>
     </row>
-    <row r="124" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
         <v>195</v>
       </c>
@@ -9128,7 +9430,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
         <v>60</v>
       </c>
@@ -9185,7 +9487,7 @@
       </c>
       <c r="AS125" s="29"/>
     </row>
-    <row r="126" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
         <v>401</v>
       </c>
@@ -9233,7 +9535,7 @@
       </c>
       <c r="AS126" s="33"/>
     </row>
-    <row r="127" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
         <v>134</v>
       </c>
@@ -9278,7 +9580,7 @@
       </c>
       <c r="AS127" s="33"/>
     </row>
-    <row r="128" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
         <v>402</v>
       </c>
@@ -9326,7 +9628,7 @@
       </c>
       <c r="AS128" s="33"/>
     </row>
-    <row r="129" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" s="1" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="43" t="str">
         <f t="shared" si="21"/>
@@ -9513,7 +9815,7 @@
       </c>
       <c r="AT130"/>
     </row>
-    <row r="131" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
         <v>284</v>
       </c>
@@ -9568,7 +9870,7 @@
       <c r="AS131" s="17"/>
       <c r="AT131"/>
     </row>
-    <row r="132" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
         <v>284</v>
       </c>
@@ -9617,7 +9919,7 @@
       <c r="AS132" s="17"/>
       <c r="AT132"/>
     </row>
-    <row r="133" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
         <v>530</v>
       </c>
@@ -9666,7 +9968,7 @@
       <c r="AS133" s="44"/>
       <c r="AT133"/>
     </row>
-    <row r="134" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
         <v>531</v>
       </c>
@@ -9715,7 +10017,7 @@
       <c r="AS134" s="44"/>
       <c r="AT134"/>
     </row>
-    <row r="135" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
         <v>531</v>
       </c>
@@ -9764,7 +10066,7 @@
       <c r="AS135" s="44"/>
       <c r="AT135"/>
     </row>
-    <row r="136" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
         <v>285</v>
       </c>
@@ -9813,7 +10115,7 @@
       <c r="AS136" s="17"/>
       <c r="AT136"/>
     </row>
-    <row r="137" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
         <v>190</v>
       </c>
@@ -9865,7 +10167,7 @@
       <c r="AS137" s="17"/>
       <c r="AT137"/>
     </row>
-    <row r="138" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
         <v>192</v>
       </c>
@@ -9917,7 +10219,7 @@
       <c r="AS138" s="17"/>
       <c r="AT138"/>
     </row>
-    <row r="139" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
         <v>207</v>
       </c>
@@ -9968,7 +10270,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="140" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
         <v>191</v>
       </c>
@@ -10019,7 +10321,7 @@
       </c>
       <c r="AS140" s="17"/>
     </row>
-    <row r="141" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" s="1" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="43" t="str">
         <f t="shared" si="21"/>
@@ -10202,7 +10504,7 @@
       </c>
       <c r="AT142"/>
     </row>
-    <row r="143" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
         <v>470</v>
       </c>
@@ -10250,7 +10552,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
         <v>440</v>
       </c>
@@ -10307,7 +10609,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
         <v>440</v>
       </c>
@@ -10358,7 +10660,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="146" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
         <v>445</v>
       </c>
@@ -10406,7 +10708,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
         <v>474</v>
       </c>
@@ -10452,7 +10754,7 @@
       <c r="AS147" s="33"/>
       <c r="AT147"/>
     </row>
-    <row r="148" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
         <v>475</v>
       </c>
@@ -10500,7 +10802,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="149" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
         <v>476</v>
       </c>
@@ -10548,7 +10850,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="150" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
         <v>477</v>
       </c>
@@ -10596,7 +10898,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="151" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
         <v>478</v>
       </c>
@@ -10644,7 +10946,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="152" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
         <v>479</v>
       </c>
@@ -10692,7 +10994,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="153" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
         <v>480</v>
       </c>
@@ -10740,7 +11042,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="154" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
         <v>481</v>
       </c>
@@ -10788,7 +11090,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="155" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
         <v>61</v>
       </c>
@@ -10840,7 +11142,7 @@
       <c r="AS155" s="33"/>
       <c r="AT155"/>
     </row>
-    <row r="156" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
         <v>61</v>
       </c>
@@ -10892,7 +11194,7 @@
       <c r="AS156" s="33"/>
       <c r="AT156"/>
     </row>
-    <row r="157" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
         <v>66</v>
       </c>
@@ -10944,7 +11246,7 @@
       <c r="AS157" s="33"/>
       <c r="AT157"/>
     </row>
-    <row r="158" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
         <v>66</v>
       </c>
@@ -10999,7 +11301,7 @@
       <c r="AS158" s="33"/>
       <c r="AT158"/>
     </row>
-    <row r="159" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
         <v>66</v>
       </c>
@@ -11048,7 +11350,7 @@
       <c r="AS159" s="33"/>
       <c r="AT159"/>
     </row>
-    <row r="160" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
         <v>67</v>
       </c>
@@ -11100,7 +11402,7 @@
       <c r="AS160" s="33"/>
       <c r="AT160"/>
     </row>
-    <row r="161" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="36" t="s">
         <v>67</v>
       </c>
@@ -11155,7 +11457,7 @@
       <c r="AS161" s="17"/>
       <c r="AT161"/>
     </row>
-    <row r="162" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A162" s="36" t="s">
         <v>67</v>
       </c>
@@ -11203,7 +11505,7 @@
       </c>
       <c r="AS162" s="17"/>
     </row>
-    <row r="163" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
         <v>22</v>
       </c>
@@ -11252,7 +11554,7 @@
       </c>
       <c r="AS163" s="17"/>
     </row>
-    <row r="164" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
         <v>22</v>
       </c>
@@ -11298,7 +11600,7 @@
       </c>
       <c r="AS164" s="17"/>
     </row>
-    <row r="165" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
         <v>117</v>
       </c>
@@ -11346,7 +11648,7 @@
       </c>
       <c r="AS165" s="17"/>
     </row>
-    <row r="166" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
         <v>451</v>
       </c>
@@ -11394,7 +11696,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="167" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
         <v>118</v>
       </c>
@@ -11457,7 +11759,7 @@
       </c>
       <c r="AS167" s="17"/>
     </row>
-    <row r="168" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
         <v>118</v>
       </c>
@@ -11508,7 +11810,7 @@
       </c>
       <c r="AS168" s="17"/>
     </row>
-    <row r="169" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36" t="s">
         <v>119</v>
       </c>
@@ -11556,7 +11858,7 @@
       </c>
       <c r="AS169" s="17"/>
     </row>
-    <row r="170" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36" t="s">
         <v>119</v>
       </c>
@@ -11604,7 +11906,7 @@
       </c>
       <c r="AS170" s="33"/>
     </row>
-    <row r="171" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36" t="s">
         <v>119</v>
       </c>
@@ -11652,7 +11954,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36" t="s">
         <v>447</v>
       </c>
@@ -11697,7 +11999,7 @@
       </c>
       <c r="AS172" s="33"/>
     </row>
-    <row r="173" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
         <v>448</v>
       </c>
@@ -11742,7 +12044,7 @@
       </c>
       <c r="AS173" s="33"/>
     </row>
-    <row r="174" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36" t="s">
         <v>449</v>
       </c>
@@ -11787,7 +12089,7 @@
       </c>
       <c r="AS174" s="33"/>
     </row>
-    <row r="175" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36" t="s">
         <v>314</v>
       </c>
@@ -11836,7 +12138,7 @@
       <c r="AS175" s="33"/>
       <c r="AT175" s="7"/>
     </row>
-    <row r="176" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A176" s="36" t="s">
         <v>64</v>
       </c>
@@ -11881,7 +12183,7 @@
       </c>
       <c r="AS176" s="33"/>
     </row>
-    <row r="177" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36" t="s">
         <v>206</v>
       </c>
@@ -11973,7 +12275,7 @@
       </c>
       <c r="AS177" s="33"/>
     </row>
-    <row r="178" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36" t="s">
         <v>206</v>
       </c>
@@ -12034,7 +12336,7 @@
       <c r="AO178" s="9"/>
       <c r="AS178" s="33"/>
     </row>
-    <row r="179" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36" t="s">
         <v>462</v>
       </c>
@@ -12096,7 +12398,7 @@
       <c r="AO179" s="9"/>
       <c r="AS179" s="17"/>
     </row>
-    <row r="180" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36" t="s">
         <v>278</v>
       </c>
@@ -12144,7 +12446,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="181" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
         <v>434</v>
       </c>
@@ -12189,7 +12491,7 @@
       </c>
       <c r="AS181" s="17"/>
     </row>
-    <row r="182" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36" t="s">
         <v>139</v>
       </c>
@@ -12234,7 +12536,7 @@
       </c>
       <c r="AS182" s="17"/>
     </row>
-    <row r="183" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36" t="s">
         <v>138</v>
       </c>
@@ -12279,7 +12581,7 @@
       </c>
       <c r="AS183" s="33"/>
     </row>
-    <row r="184" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36" t="s">
         <v>141</v>
       </c>
@@ -12324,7 +12626,7 @@
       </c>
       <c r="AS184" s="17"/>
     </row>
-    <row r="185" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36" t="s">
         <v>318</v>
       </c>
@@ -12369,7 +12671,7 @@
       </c>
       <c r="AS185" s="33"/>
     </row>
-    <row r="186" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
         <v>319</v>
       </c>
@@ -12414,7 +12716,7 @@
       </c>
       <c r="AS186" s="24"/>
     </row>
-    <row r="187" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36" t="s">
         <v>320</v>
       </c>
@@ -12459,7 +12761,7 @@
       </c>
       <c r="AS187" s="17"/>
     </row>
-    <row r="188" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36" t="s">
         <v>197</v>
       </c>
@@ -12507,7 +12809,7 @@
       </c>
       <c r="AS188" s="17"/>
     </row>
-    <row r="189" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="36" t="s">
         <v>121</v>
       </c>
@@ -12564,7 +12866,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36" t="s">
         <v>121</v>
       </c>
@@ -12615,7 +12917,7 @@
       </c>
       <c r="AS190" s="17"/>
     </row>
-    <row r="191" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36" t="s">
         <v>452</v>
       </c>
@@ -12663,7 +12965,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="192" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36" t="s">
         <v>453</v>
       </c>
@@ -12711,7 +13013,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="193" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A193" s="36" t="s">
         <v>32</v>
       </c>
@@ -12759,7 +13061,7 @@
       </c>
       <c r="AS193" s="17"/>
     </row>
-    <row r="194" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A194" s="36" t="s">
         <v>33</v>
       </c>
@@ -12807,7 +13109,7 @@
       </c>
       <c r="AS194" s="17"/>
     </row>
-    <row r="195" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A195" s="36" t="s">
         <v>65</v>
       </c>
@@ -12852,7 +13154,7 @@
       </c>
       <c r="AS195" s="17"/>
     </row>
-    <row r="196" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36" t="s">
         <v>122</v>
       </c>
@@ -12897,7 +13199,7 @@
       </c>
       <c r="AS196" s="17"/>
     </row>
-    <row r="197" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
         <v>122</v>
       </c>
@@ -12942,7 +13244,7 @@
       </c>
       <c r="AS197" s="17"/>
     </row>
-    <row r="198" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36" t="s">
         <v>123</v>
       </c>
@@ -12990,7 +13292,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36" t="s">
         <v>454</v>
       </c>
@@ -13038,7 +13340,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="200" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36" t="s">
         <v>455</v>
       </c>
@@ -13086,7 +13388,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="201" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="36" t="s">
         <v>198</v>
       </c>
@@ -13134,7 +13436,7 @@
       </c>
       <c r="AS201" s="17"/>
     </row>
-    <row r="202" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="36" t="s">
         <v>491</v>
       </c>
@@ -13182,7 +13484,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A203" s="36" t="s">
         <v>207</v>
       </c>
@@ -13230,7 +13532,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="204" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="36" t="s">
         <v>482</v>
       </c>
@@ -13278,7 +13580,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="205" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A205" s="36" t="s">
         <v>483</v>
       </c>
@@ -13326,7 +13628,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="36" t="s">
         <v>484</v>
       </c>
@@ -13374,7 +13676,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="207" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A207" s="36" t="s">
         <v>485</v>
       </c>
@@ -13417,7 +13719,7 @@
       <c r="AS207" s="33"/>
       <c r="AT207"/>
     </row>
-    <row r="208" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A208" s="36" t="s">
         <v>296</v>
       </c>
@@ -13462,7 +13764,7 @@
       </c>
       <c r="AS208" s="31"/>
     </row>
-    <row r="209" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="36" t="s">
         <v>294</v>
       </c>
@@ -13507,7 +13809,7 @@
       </c>
       <c r="AS209" s="31"/>
     </row>
-    <row r="210" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A210" s="36" t="s">
         <v>297</v>
       </c>
@@ -13552,7 +13854,7 @@
       </c>
       <c r="AS210" s="31"/>
     </row>
-    <row r="211" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A211" s="36" t="s">
         <v>25</v>
       </c>
@@ -13600,7 +13902,7 @@
       </c>
       <c r="AS211" s="17"/>
     </row>
-    <row r="212" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A212" s="36" t="s">
         <v>25</v>
       </c>
@@ -13651,7 +13953,7 @@
       </c>
       <c r="AS212" s="24"/>
     </row>
-    <row r="213" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A213" s="36" t="s">
         <v>25</v>
       </c>
@@ -13705,7 +14007,7 @@
       </c>
       <c r="AS213" s="17"/>
     </row>
-    <row r="214" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A214" s="36" t="s">
         <v>29</v>
       </c>
@@ -13753,7 +14055,7 @@
       </c>
       <c r="AS214" s="17"/>
     </row>
-    <row r="215" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A215" s="36" t="s">
         <v>29</v>
       </c>
@@ -13804,7 +14106,7 @@
       </c>
       <c r="AS215" s="17"/>
     </row>
-    <row r="216" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A216" s="36" t="s">
         <v>29</v>
       </c>
@@ -13858,7 +14160,7 @@
       </c>
       <c r="AS216" s="24"/>
     </row>
-    <row r="217" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" s="1" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="43" t="str">
         <f t="shared" si="56"/>
@@ -14030,7 +14332,7 @@
       </c>
       <c r="AT218"/>
     </row>
-    <row r="219" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A219" s="36" t="s">
         <v>40</v>
       </c>
@@ -14086,7 +14388,7 @@
       <c r="AS219" s="17"/>
       <c r="AT219"/>
     </row>
-    <row r="220" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A220" s="36" t="s">
         <v>41</v>
       </c>
@@ -14138,7 +14440,7 @@
       <c r="AS220" s="17"/>
       <c r="AT220"/>
     </row>
-    <row r="221" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A221" s="36" t="s">
         <v>42</v>
       </c>
@@ -14190,7 +14492,7 @@
       <c r="AS221" s="17"/>
       <c r="AT221"/>
     </row>
-    <row r="222" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A222" s="36" t="s">
         <v>38</v>
       </c>
@@ -14250,7 +14552,7 @@
       </c>
       <c r="AS222" s="17"/>
     </row>
-    <row r="223" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A223" s="36" t="s">
         <v>145</v>
       </c>
@@ -14298,7 +14600,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="224" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A224" s="36" t="s">
         <v>143</v>
       </c>
@@ -14346,7 +14648,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="225" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="36" t="s">
         <v>429</v>
       </c>
@@ -14406,7 +14708,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="36" t="s">
         <v>124</v>
       </c>
@@ -14460,7 +14762,7 @@
       </c>
       <c r="AS226" s="17"/>
     </row>
-    <row r="227" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A227" s="36" t="s">
         <v>124</v>
       </c>
@@ -14508,7 +14810,7 @@
       </c>
       <c r="AS227" s="17"/>
     </row>
-    <row r="228" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A228" s="36" t="s">
         <v>128</v>
       </c>
@@ -14565,7 +14867,7 @@
       </c>
       <c r="AS228" s="33"/>
     </row>
-    <row r="229" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="36" t="s">
         <v>463</v>
       </c>
@@ -14613,7 +14915,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="230" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A230" s="36" t="s">
         <v>128</v>
       </c>
@@ -14661,7 +14963,7 @@
       </c>
       <c r="AS230" s="17"/>
     </row>
-    <row r="231" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
         <v>181</v>
       </c>
@@ -14709,7 +15011,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="232" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A232" s="36" t="s">
         <v>130</v>
       </c>
@@ -14758,7 +15060,7 @@
       </c>
       <c r="AS232" s="17"/>
     </row>
-    <row r="233" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="36" t="s">
         <v>130</v>
       </c>
@@ -14804,7 +15106,7 @@
       </c>
       <c r="AS233" s="17"/>
     </row>
-    <row r="234" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A234" s="36" t="s">
         <v>163</v>
       </c>
@@ -14855,7 +15157,7 @@
       </c>
       <c r="AS234" s="17"/>
     </row>
-    <row r="235" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A235" s="36" t="s">
         <v>43</v>
       </c>
@@ -14909,7 +15211,7 @@
       </c>
       <c r="AS235" s="17"/>
     </row>
-    <row r="236" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A236" s="36" t="s">
         <v>44</v>
       </c>
@@ -14963,7 +15265,7 @@
       </c>
       <c r="AS236" s="17"/>
     </row>
-    <row r="237" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A237" s="36" t="s">
         <v>48</v>
       </c>
@@ -15011,7 +15313,7 @@
       </c>
       <c r="AS237" s="17"/>
     </row>
-    <row r="238" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A238" s="36" t="s">
         <v>90</v>
       </c>
@@ -15056,7 +15358,7 @@
       </c>
       <c r="AS238" s="17"/>
     </row>
-    <row r="239" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
         <v>325</v>
       </c>
@@ -15104,7 +15406,7 @@
       </c>
       <c r="AS239" s="17"/>
     </row>
-    <row r="240" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A240" s="36" t="s">
         <v>133</v>
       </c>
@@ -15155,7 +15457,7 @@
       </c>
       <c r="AS240" s="33"/>
     </row>
-    <row r="241" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A241" s="36" t="s">
         <v>283</v>
       </c>
@@ -15203,7 +15505,7 @@
       </c>
       <c r="AS241" s="33"/>
     </row>
-    <row r="242" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A242" s="36" t="s">
         <v>142</v>
       </c>
@@ -15251,7 +15553,7 @@
       </c>
       <c r="AS242" s="33"/>
     </row>
-    <row r="243" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A243" s="36" t="s">
         <v>72</v>
       </c>
@@ -15296,7 +15598,7 @@
       </c>
       <c r="AS243" s="17"/>
     </row>
-    <row r="244" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A244" s="36" t="s">
         <v>73</v>
       </c>
@@ -15341,7 +15643,7 @@
       </c>
       <c r="AS244" s="17"/>
     </row>
-    <row r="245" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A245" s="36" t="s">
         <v>71</v>
       </c>
@@ -15386,7 +15688,7 @@
       </c>
       <c r="AS245" s="17"/>
     </row>
-    <row r="246" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A246" s="36" t="s">
         <v>76</v>
       </c>
@@ -15431,7 +15733,7 @@
       </c>
       <c r="AS246" s="17"/>
     </row>
-    <row r="247" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A247" s="36" t="s">
         <v>551</v>
       </c>
@@ -15476,7 +15778,7 @@
       </c>
       <c r="AS247" s="17"/>
     </row>
-    <row r="248" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A248" s="36" t="s">
         <v>273</v>
       </c>
@@ -15524,7 +15826,7 @@
       </c>
       <c r="AS248" s="51"/>
     </row>
-    <row r="249" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="36" t="s">
         <v>547</v>
       </c>
@@ -15569,7 +15871,7 @@
       </c>
       <c r="AS249" s="51"/>
     </row>
-    <row r="250" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A250" s="36" t="s">
         <v>548</v>
       </c>
@@ -15614,7 +15916,7 @@
       </c>
       <c r="AS250" s="51"/>
     </row>
-    <row r="251" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A251" s="36" t="s">
         <v>273</v>
       </c>
@@ -15659,7 +15961,7 @@
       </c>
       <c r="AS251" s="33"/>
     </row>
-    <row r="252" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A252" s="36" t="s">
         <v>216</v>
       </c>
@@ -15704,7 +16006,7 @@
       </c>
       <c r="AS252" s="17"/>
     </row>
-    <row r="253" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A253" s="36" t="s">
         <v>281</v>
       </c>
@@ -15749,7 +16051,7 @@
       </c>
       <c r="AS253" s="17"/>
     </row>
-    <row r="254" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A254" s="36" t="s">
         <v>549</v>
       </c>
@@ -15794,7 +16096,7 @@
       </c>
       <c r="AS254" s="24"/>
     </row>
-    <row r="255" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A255" s="36" t="s">
         <v>217</v>
       </c>
@@ -15839,7 +16141,7 @@
       </c>
       <c r="AS255" s="24"/>
     </row>
-    <row r="256" spans="1:45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
         <v>114</v>
       </c>
@@ -15884,7 +16186,7 @@
       </c>
       <c r="AS256" s="24"/>
     </row>
-    <row r="257" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="36" t="s">
         <v>550</v>
       </c>
@@ -15929,7 +16231,7 @@
       </c>
       <c r="AS257" s="23"/>
     </row>
-    <row r="258" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A258" s="36" t="s">
         <v>74</v>
       </c>
@@ -15974,7 +16276,7 @@
       </c>
       <c r="AS258" s="23"/>
     </row>
-    <row r="259" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A259" s="36" t="s">
         <v>75</v>
       </c>
@@ -16019,7 +16321,7 @@
       </c>
       <c r="AS259" s="17"/>
     </row>
-    <row r="260" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A260" s="36" t="s">
         <v>274</v>
       </c>
@@ -16064,7 +16366,7 @@
       </c>
       <c r="AS260" s="17"/>
     </row>
-    <row r="261" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A261" s="36" t="s">
         <v>132</v>
       </c>
@@ -16115,7 +16417,7 @@
       </c>
       <c r="AS261" s="17"/>
     </row>
-    <row r="262" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="36" t="s">
         <v>132</v>
       </c>
@@ -16160,7 +16462,7 @@
       </c>
       <c r="AS262" s="17"/>
     </row>
-    <row r="263" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="36" t="s">
         <v>275</v>
       </c>
@@ -16205,7 +16507,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="264" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A264" s="36" t="s">
         <v>218</v>
       </c>
@@ -16250,7 +16552,7 @@
       </c>
       <c r="AS264" s="17"/>
     </row>
-    <row r="265" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="37" t="s">
         <v>115</v>
       </c>
@@ -16295,7 +16597,7 @@
       </c>
       <c r="AS265" s="17"/>
     </row>
-    <row r="266" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="36" t="s">
         <v>134</v>
       </c>
@@ -16340,7 +16642,7 @@
       </c>
       <c r="AS266" s="17"/>
     </row>
-    <row r="267" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="36" t="s">
         <v>83</v>
       </c>
@@ -16388,7 +16690,7 @@
       </c>
       <c r="AS267" s="29"/>
     </row>
-    <row r="268" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="36" t="s">
         <v>83</v>
       </c>
@@ -16421,7 +16723,7 @@
       <c r="AL268" s="35"/>
       <c r="AS268" s="45"/>
     </row>
-    <row r="269" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A269" s="36" t="s">
         <v>83</v>
       </c>
@@ -16484,7 +16786,7 @@
       </c>
       <c r="AS269" s="17"/>
     </row>
-    <row r="270" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="36" t="s">
         <v>334</v>
       </c>
@@ -16529,7 +16831,7 @@
       </c>
       <c r="AS270" s="33"/>
     </row>
-    <row r="271" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A271" s="36" t="s">
         <v>335</v>
       </c>
@@ -16574,7 +16876,7 @@
       </c>
       <c r="AS271" s="33"/>
     </row>
-    <row r="272" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="36" t="s">
         <v>336</v>
       </c>
@@ -16619,7 +16921,7 @@
       </c>
       <c r="AS272" s="33"/>
     </row>
-    <row r="273" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A273" s="36" t="s">
         <v>337</v>
       </c>
@@ -16664,7 +16966,7 @@
       </c>
       <c r="AS273" s="33"/>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:46" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B274" s="43" t="str">
         <f t="shared" si="56"/>
         <v/>
@@ -16813,7 +17115,7 @@
       </c>
       <c r="AT275"/>
     </row>
-    <row r="276" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A276" s="36" t="s">
         <v>78</v>
       </c>
@@ -16859,7 +17161,7 @@
       <c r="AS276" s="17"/>
       <c r="AT276"/>
     </row>
-    <row r="277" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A277" s="36" t="s">
         <v>80</v>
       </c>
@@ -16905,7 +17207,7 @@
       <c r="AS277" s="17"/>
       <c r="AT277"/>
     </row>
-    <row r="278" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A278" s="36" t="s">
         <v>553</v>
       </c>
@@ -16951,7 +17253,7 @@
       <c r="AS278" s="17"/>
       <c r="AT278"/>
     </row>
-    <row r="279" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A279" s="36" t="s">
         <v>554</v>
       </c>
@@ -16997,7 +17299,7 @@
       <c r="AS279" s="17"/>
       <c r="AT279"/>
     </row>
-    <row r="280" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A280" s="36" t="s">
         <v>555</v>
       </c>
@@ -17043,7 +17345,7 @@
       <c r="AS280" s="17"/>
       <c r="AT280"/>
     </row>
-    <row r="281" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A281" s="36" t="s">
         <v>79</v>
       </c>
@@ -17089,7 +17391,7 @@
       <c r="AS281" s="17"/>
       <c r="AT281"/>
     </row>
-    <row r="282" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:46" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A282" s="16"/>
       <c r="B282" s="43" t="str">
         <f t="shared" si="66"/>
@@ -17264,7 +17566,7 @@
       </c>
       <c r="AT283"/>
     </row>
-    <row r="284" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A284" s="36" t="s">
         <v>396</v>
       </c>
@@ -17310,7 +17612,7 @@
       <c r="AS284" s="33"/>
       <c r="AT284"/>
     </row>
-    <row r="285" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A285" s="36" t="s">
         <v>93</v>
       </c>
@@ -17359,7 +17661,7 @@
       <c r="AS285" s="33"/>
       <c r="AT285"/>
     </row>
-    <row r="286" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A286" s="36" t="s">
         <v>188</v>
       </c>
@@ -17404,7 +17706,7 @@
       </c>
       <c r="AS286" s="33"/>
     </row>
-    <row r="287" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A287" s="36" t="s">
         <v>186</v>
       </c>
@@ -17449,7 +17751,7 @@
       </c>
       <c r="AS287" s="33"/>
     </row>
-    <row r="288" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A288" s="36" t="s">
         <v>185</v>
       </c>
@@ -17494,7 +17796,7 @@
       </c>
       <c r="AS288" s="33"/>
     </row>
-    <row r="289" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A289" s="36" t="s">
         <v>187</v>
       </c>
@@ -17539,7 +17841,7 @@
       </c>
       <c r="AS289" s="17"/>
     </row>
-    <row r="290" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A290" s="36" t="s">
         <v>522</v>
       </c>
@@ -17584,7 +17886,7 @@
       </c>
       <c r="AS290" s="34"/>
     </row>
-    <row r="291" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A291" s="36" t="s">
         <v>523</v>
       </c>
@@ -17629,7 +17931,7 @@
       </c>
       <c r="AS291" s="34"/>
     </row>
-    <row r="292" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A292" s="36" t="s">
         <v>503</v>
       </c>
@@ -17666,7 +17968,7 @@
       <c r="AS292" s="33"/>
       <c r="AT292"/>
     </row>
-    <row r="293" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A293" s="36" t="s">
         <v>500</v>
       </c>
@@ -17703,7 +18005,7 @@
       <c r="AS293" s="17"/>
       <c r="AT293"/>
     </row>
-    <row r="294" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A294" s="36" t="s">
         <v>502</v>
       </c>
@@ -17743,7 +18045,7 @@
       <c r="AS294" s="17"/>
       <c r="AT294"/>
     </row>
-    <row r="295" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="36" t="s">
         <v>514</v>
       </c>
@@ -17780,7 +18082,7 @@
       <c r="AS295" s="34"/>
       <c r="AT295"/>
     </row>
-    <row r="296" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A296" s="36" t="s">
         <v>244</v>
       </c>
@@ -17828,7 +18130,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="297" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A297" s="36" t="s">
         <v>515</v>
       </c>
@@ -17868,7 +18170,7 @@
       <c r="AS297" s="17"/>
       <c r="AT297"/>
     </row>
-    <row r="298" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="36" t="s">
         <v>516</v>
       </c>
@@ -17908,7 +18210,7 @@
       <c r="AS298" s="17"/>
       <c r="AT298"/>
     </row>
-    <row r="299" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A299" s="36" t="s">
         <v>83</v>
       </c>
@@ -17953,7 +18255,7 @@
       </c>
       <c r="AS299" s="33"/>
     </row>
-    <row r="300" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A300" s="36" t="s">
         <v>184</v>
       </c>
@@ -17998,7 +18300,7 @@
       </c>
       <c r="AS300" s="17"/>
     </row>
-    <row r="301" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="36" t="s">
         <v>94</v>
       </c>
@@ -18046,7 +18348,7 @@
       </c>
       <c r="AS301" s="34"/>
     </row>
-    <row r="302" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A302" s="36"/>
       <c r="B302" s="43" t="str">
         <f t="shared" si="70"/>
@@ -18084,7 +18386,7 @@
       <c r="AS302" s="17"/>
       <c r="AT302"/>
     </row>
-    <row r="303" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:46" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A303" s="16"/>
       <c r="B303" s="43" t="str">
         <f t="shared" si="66"/>
@@ -18258,7 +18560,7 @@
       </c>
       <c r="AT304"/>
     </row>
-    <row r="305" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A305" s="36" t="s">
         <v>245</v>
       </c>
@@ -18300,7 +18602,7 @@
       </c>
       <c r="AS305" s="17"/>
     </row>
-    <row r="306" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A306" s="36" t="s">
         <v>458</v>
       </c>
@@ -18342,7 +18644,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="307" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="36" t="s">
         <v>459</v>
       </c>
@@ -18387,7 +18689,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="308" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A308" s="36" t="s">
         <v>362</v>
       </c>
@@ -18430,7 +18732,7 @@
       </c>
       <c r="AS308" s="33"/>
     </row>
-    <row r="309" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A309" s="36" t="s">
         <v>362</v>
       </c>
@@ -18473,7 +18775,7 @@
       </c>
       <c r="AS309" s="17"/>
     </row>
-    <row r="310" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A310" s="36" t="s">
         <v>81</v>
       </c>
@@ -18554,7 +18856,7 @@
       </c>
       <c r="AS310" s="33"/>
     </row>
-    <row r="311" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A311" s="36" t="s">
         <v>81</v>
       </c>
@@ -18597,7 +18899,7 @@
       </c>
       <c r="AS311" s="33"/>
     </row>
-    <row r="312" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A312" s="36" t="s">
         <v>81</v>
       </c>
@@ -18661,7 +18963,7 @@
       </c>
       <c r="AS312" s="17"/>
     </row>
-    <row r="313" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A313" s="36" t="s">
         <v>249</v>
       </c>
@@ -18706,7 +19008,7 @@
       </c>
       <c r="AS313" s="17"/>
     </row>
-    <row r="314" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="36" t="s">
         <v>330</v>
       </c>
@@ -18748,7 +19050,7 @@
       </c>
       <c r="AS314" s="33"/>
     </row>
-    <row r="315" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="36" t="s">
         <v>331</v>
       </c>
@@ -18790,7 +19092,7 @@
       </c>
       <c r="AS315" s="33"/>
     </row>
-    <row r="316" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="36" t="s">
         <v>332</v>
       </c>
@@ -18832,7 +19134,7 @@
       </c>
       <c r="AS316" s="33"/>
     </row>
-    <row r="317" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="36" t="s">
         <v>333</v>
       </c>
@@ -18874,7 +19176,7 @@
       </c>
       <c r="AS317" s="33"/>
     </row>
-    <row r="318" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:46" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A318" s="16"/>
       <c r="B318" s="43" t="str">
         <f t="shared" si="66"/>
@@ -19038,7 +19340,7 @@
       </c>
       <c r="AT319"/>
     </row>
-    <row r="320" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="36" t="s">
         <v>246</v>
       </c>
@@ -19083,7 +19385,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="321" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="36" t="s">
         <v>279</v>
       </c>
@@ -19125,7 +19427,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="322" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:46" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A322" s="16"/>
       <c r="B322" s="43" t="str">
         <f t="shared" si="66"/>
@@ -19289,7 +19591,7 @@
       </c>
       <c r="AT323"/>
     </row>
-    <row r="324" spans="1:46" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:46" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L324" s="33"/>
       <c r="M324" s="43" t="str">
         <f t="shared" si="67"/>
@@ -19313,7 +19615,7 @@
       <c r="AS324" s="23"/>
       <c r="AT324"/>
     </row>
-    <row r="325" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:46" collapsed="1" x14ac:dyDescent="0.25">
       <c r="L325" s="32" t="s">
         <v>13</v>
       </c>
@@ -20337,4 +20639,1464 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G127" sqref="G127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="77.42578125" style="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G7" t="s">
+        <v>632</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>561</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>564</v>
+      </c>
+      <c r="G13" t="s">
+        <v>563</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>565</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="G18" t="s">
+        <v>563</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" t="s">
+        <v>563</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" t="s">
+        <v>563</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>567</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>632</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" t="s">
+        <v>563</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>569</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>571</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>352</v>
+      </c>
+      <c r="G25" t="s">
+        <v>563</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>573</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>632</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>353</v>
+      </c>
+      <c r="G27" t="s">
+        <v>563</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>316</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G29" t="s">
+        <v>563</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>574</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>355</v>
+      </c>
+      <c r="G31" t="s">
+        <v>563</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>356</v>
+      </c>
+      <c r="G32" t="s">
+        <v>563</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>575</v>
+      </c>
+      <c r="G34" t="s">
+        <v>563</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>577</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>578</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>579</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>558</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>359</v>
+      </c>
+      <c r="G40" t="s">
+        <v>563</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>580</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>581</v>
+      </c>
+      <c r="G45" t="s">
+        <v>563</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I45" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>582</v>
+      </c>
+      <c r="G46" t="s">
+        <v>563</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>583</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>632</v>
+      </c>
+      <c r="I47" s="55" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>585</v>
+      </c>
+      <c r="G48" t="s">
+        <v>639</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>586</v>
+      </c>
+      <c r="I49" s="55" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50" t="s">
+        <v>563</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I50" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>588</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>632</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>589</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>590</v>
+      </c>
+      <c r="G53" t="s">
+        <v>563</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I53" s="55" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>592</v>
+      </c>
+      <c r="G54" t="s">
+        <v>563</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I54" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s">
+        <v>563</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I55" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>594</v>
+      </c>
+      <c r="G56" t="s">
+        <v>563</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I56" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" t="s">
+        <v>563</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I57" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>595</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>563</v>
+      </c>
+      <c r="I58" s="55" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>597</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>598</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>599</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>600</v>
+      </c>
+      <c r="G63" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I63" s="55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>601</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I64" s="55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>602</v>
+      </c>
+      <c r="G65" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I65" s="55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>603</v>
+      </c>
+      <c r="G66" t="s">
+        <v>563</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I66" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>604</v>
+      </c>
+      <c r="G67" t="s">
+        <v>563</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I67" s="55" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>370</v>
+      </c>
+      <c r="G68" t="s">
+        <v>563</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I68" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>605</v>
+      </c>
+      <c r="G69" t="s">
+        <v>563</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I69" s="55" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>371</v>
+      </c>
+      <c r="G70" t="s">
+        <v>563</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I70" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>606</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" s="55" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>375</v>
+      </c>
+      <c r="G72" t="s">
+        <v>563</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I72" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>607</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>608</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" t="s">
+        <v>639</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I74" s="55" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>632</v>
+      </c>
+      <c r="I75" s="55" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>376</v>
+      </c>
+      <c r="G76" t="s">
+        <v>563</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I76" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>610</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>611</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>612</v>
+      </c>
+      <c r="G81" t="s">
+        <v>563</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I81" s="55" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>614</v>
+      </c>
+      <c r="G82" t="s">
+        <v>563</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I82" s="55" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>613</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>563</v>
+      </c>
+      <c r="I83" s="55" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>615</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>632</v>
+      </c>
+      <c r="I84" s="55" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>377</v>
+      </c>
+      <c r="G86" t="s">
+        <v>563</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I86" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I87" s="55" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>378</v>
+      </c>
+      <c r="G88" t="s">
+        <v>563</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I88" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>379</v>
+      </c>
+      <c r="G89" t="s">
+        <v>563</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I89" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>616</v>
+      </c>
+      <c r="G91" t="s">
+        <v>639</v>
+      </c>
+      <c r="I91" s="55" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>380</v>
+      </c>
+      <c r="G92" t="s">
+        <v>563</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I92" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>618</v>
+      </c>
+      <c r="G93" t="s">
+        <v>563</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I93" s="55" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" t="s">
+        <v>563</v>
+      </c>
+      <c r="I94" s="55" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>381</v>
+      </c>
+      <c r="G95" t="s">
+        <v>563</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I95" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>382</v>
+      </c>
+      <c r="G96" t="s">
+        <v>563</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I96" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>621</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>639</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I97" s="55" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>383</v>
+      </c>
+      <c r="G98" t="s">
+        <v>563</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I98" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>622</v>
+      </c>
+      <c r="G99" t="s">
+        <v>563</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I99" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>387</v>
+      </c>
+      <c r="G100" t="s">
+        <v>563</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I100" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>623</v>
+      </c>
+      <c r="G102" t="s">
+        <v>563</v>
+      </c>
+      <c r="I102" s="55" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>624</v>
+      </c>
+      <c r="G103" t="s">
+        <v>563</v>
+      </c>
+      <c r="I103" s="55" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>388</v>
+      </c>
+      <c r="G105" t="s">
+        <v>563</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I105" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>389</v>
+      </c>
+      <c r="G106" t="s">
+        <v>563</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I106" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>390</v>
+      </c>
+      <c r="G107" t="s">
+        <v>563</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I107" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>625</v>
+      </c>
+      <c r="G109" t="s">
+        <v>563</v>
+      </c>
+      <c r="I109" s="55" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>627</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" t="s">
+        <v>632</v>
+      </c>
+      <c r="I111" s="55" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>628</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>629</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>505</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>304</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>558</v>
+      </c>
+      <c r="I115" s="55" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>630</v>
+      </c>
+      <c r="G116" t="s">
+        <v>563</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I116" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>631</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="G118" t="s">
+        <v>563</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I118" s="55" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="G119" t="s">
+        <v>563</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I119" s="55" t="s">
+        <v>652</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I119">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/l3kernel/expl3-datatype-analysis.xlsx
+++ b/l3kernel/expl3-datatype-analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="255" windowWidth="21135" windowHeight="15225" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="21135" windowHeight="15165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data types" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="652">
   <si>
     <t>action</t>
   </si>
@@ -2212,9 +2212,6 @@
   </si>
   <si>
     <t>spac</t>
-  </si>
-  <si>
-    <t>BUG ??? But even as space_... Questionable</t>
   </si>
   <si>
     <t>stop</t>
@@ -2303,9 +2300,6 @@
     <t>questionable as a module; or if it is perhaps should get additional color handling commands (?)</t>
   </si>
   <si>
-    <t>fully internal (has only __kernel..) and only a few commands ; questionable</t>
-  </si>
-  <si>
     <t>is that a data type or a flow control or what?</t>
   </si>
   <si>
@@ -2323,6 +2317,9 @@
   </si>
   <si>
     <t>these are actually all constants (where the data type is  at the end)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">those are conTeXt commands </t>
   </si>
 </sst>
 </file>
@@ -20643,14 +20640,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G127" sqref="G127"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20682,24 +20678,24 @@
         <v>572</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I1" s="56" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>226</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -20712,16 +20708,22 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>474</v>
       </c>
@@ -20732,26 +20734,29 @@
         <v>226</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>557</v>
       </c>
       <c r="G7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -20761,6 +20766,9 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -20769,13 +20777,19 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -20785,27 +20799,36 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>231</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>564</v>
       </c>
       <c r="G13" t="s">
         <v>563</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="I13" s="55" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -20814,6 +20837,9 @@
       </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -20823,21 +20849,27 @@
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>347</v>
       </c>
@@ -20848,10 +20880,10 @@
         <v>226</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>348</v>
       </c>
@@ -20862,10 +20894,10 @@
         <v>226</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>350</v>
       </c>
@@ -20876,10 +20908,10 @@
         <v>226</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>567</v>
       </c>
@@ -20887,13 +20919,13 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>351</v>
       </c>
@@ -20904,10 +20936,10 @@
         <v>226</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>569</v>
       </c>
@@ -20918,7 +20950,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>571</v>
       </c>
@@ -20926,7 +20958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>352</v>
       </c>
@@ -20937,10 +20969,10 @@
         <v>226</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>573</v>
       </c>
@@ -20948,13 +20980,13 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>353</v>
       </c>
@@ -20965,18 +20997,18 @@
         <v>226</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>316</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>354</v>
       </c>
@@ -20987,24 +21019,24 @@
         <v>226</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>574</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>226</v>
       </c>
       <c r="I30" s="55" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>355</v>
       </c>
@@ -21015,10 +21047,10 @@
         <v>226</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>356</v>
       </c>
@@ -21029,29 +21061,35 @@
         <v>226</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>213</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>575</v>
       </c>
-      <c r="G34" t="s">
-        <v>563</v>
+      <c r="G34" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="I34" s="55" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>577</v>
       </c>
@@ -21059,7 +21097,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -21069,16 +21107,22 @@
       <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>504</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>579</v>
       </c>
@@ -21088,11 +21132,14 @@
       <c r="G38" t="s">
         <v>558</v>
       </c>
+      <c r="H38" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="I38" s="55" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -21100,10 +21147,10 @@
         <v>3</v>
       </c>
       <c r="I39" s="55" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>359</v>
       </c>
@@ -21114,7 +21161,7 @@
         <v>226</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -21124,6 +21171,9 @@
       <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H41" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -21135,24 +21185,33 @@
       <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>219</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>220</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>581</v>
       </c>
@@ -21163,21 +21222,18 @@
         <v>226</v>
       </c>
       <c r="I45" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>582</v>
       </c>
-      <c r="G46" t="s">
-        <v>563</v>
-      </c>
-      <c r="I46" s="55" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>583</v>
       </c>
@@ -21185,32 +21241,41 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="I47" s="55" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>585</v>
       </c>
       <c r="G48" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="I48" s="55" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>586</v>
       </c>
+      <c r="H49" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="I49" s="55" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>362</v>
       </c>
@@ -21221,10 +21286,10 @@
         <v>226</v>
       </c>
       <c r="I50" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>588</v>
       </c>
@@ -21232,13 +21297,13 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
+        <v>631</v>
+      </c>
+      <c r="I51" s="55" t="s">
         <v>632</v>
       </c>
-      <c r="I51" s="55" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>589</v>
       </c>
@@ -21249,7 +21314,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>590</v>
       </c>
@@ -21263,7 +21328,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>592</v>
       </c>
@@ -21274,10 +21339,10 @@
         <v>226</v>
       </c>
       <c r="I54" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -21288,10 +21353,10 @@
         <v>226</v>
       </c>
       <c r="I55" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>594</v>
       </c>
@@ -21302,10 +21367,10 @@
         <v>226</v>
       </c>
       <c r="I56" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>368</v>
       </c>
@@ -21316,10 +21381,10 @@
         <v>226</v>
       </c>
       <c r="I57" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>595</v>
       </c>
@@ -21333,12 +21398,15 @@
         <v>596</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>597</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -21348,6 +21416,9 @@
       <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H60" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -21356,21 +21427,27 @@
       <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>600</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>226</v>
@@ -21379,12 +21456,12 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>601</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>226</v>
@@ -21393,12 +21470,12 @@
         <v>576</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>602</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>226</v>
@@ -21407,7 +21484,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>603</v>
       </c>
@@ -21418,10 +21495,10 @@
         <v>226</v>
       </c>
       <c r="I66" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>604</v>
       </c>
@@ -21435,7 +21512,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>370</v>
       </c>
@@ -21446,10 +21523,10 @@
         <v>226</v>
       </c>
       <c r="I68" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>605</v>
       </c>
@@ -21463,7 +21540,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>371</v>
       </c>
@@ -21474,10 +21551,10 @@
         <v>226</v>
       </c>
       <c r="I70" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>606</v>
       </c>
@@ -21485,10 +21562,10 @@
         <v>3</v>
       </c>
       <c r="I71" s="55" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>375</v>
       </c>
@@ -21499,10 +21576,10 @@
         <v>226</v>
       </c>
       <c r="I72" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>607</v>
       </c>
@@ -21513,7 +21590,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>608</v>
       </c>
@@ -21521,7 +21598,7 @@
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>226</v>
@@ -21530,7 +21607,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -21538,13 +21615,13 @@
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I75" s="55" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>376</v>
       </c>
@@ -21555,10 +21632,10 @@
         <v>226</v>
       </c>
       <c r="I76" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>610</v>
       </c>
@@ -21566,15 +21643,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>174</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>611</v>
       </c>
@@ -21585,15 +21665,18 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>612</v>
       </c>
@@ -21607,7 +21690,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>614</v>
       </c>
@@ -21621,7 +21704,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>613</v>
       </c>
@@ -21632,10 +21715,10 @@
         <v>563</v>
       </c>
       <c r="I83" s="55" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>615</v>
       </c>
@@ -21646,21 +21729,27 @@
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="I84" s="55" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>146</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>377</v>
       </c>
@@ -21671,24 +21760,24 @@
         <v>226</v>
       </c>
       <c r="I86" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>81</v>
       </c>
       <c r="G87" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>226</v>
       </c>
       <c r="I87" s="55" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>378</v>
       </c>
@@ -21699,10 +21788,10 @@
         <v>226</v>
       </c>
       <c r="I88" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>379</v>
       </c>
@@ -21713,29 +21802,32 @@
         <v>226</v>
       </c>
       <c r="I89" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>616</v>
       </c>
-      <c r="G91" t="s">
-        <v>639</v>
+      <c r="H91" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="I91" s="55" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>380</v>
       </c>
@@ -21746,12 +21838,12 @@
         <v>226</v>
       </c>
       <c r="I92" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G93" t="s">
         <v>563</v>
@@ -21760,24 +21852,24 @@
         <v>226</v>
       </c>
       <c r="I93" s="55" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G94" t="s">
-        <v>563</v>
+      <c r="H94" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="I94" s="55" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>381</v>
       </c>
@@ -21788,10 +21880,10 @@
         <v>226</v>
       </c>
       <c r="I95" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>382</v>
       </c>
@@ -21802,27 +21894,27 @@
         <v>226</v>
       </c>
       <c r="I96" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>226</v>
       </c>
       <c r="I97" s="55" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>383</v>
       </c>
@@ -21833,12 +21925,12 @@
         <v>226</v>
       </c>
       <c r="I98" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G99" t="s">
         <v>563</v>
@@ -21847,10 +21939,10 @@
         <v>226</v>
       </c>
       <c r="I99" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>387</v>
       </c>
@@ -21861,7 +21953,7 @@
         <v>226</v>
       </c>
       <c r="I100" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -21874,38 +21966,50 @@
       <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G102" t="s">
         <v>563</v>
       </c>
+      <c r="H102" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="I102" s="55" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G103" t="s">
         <v>563</v>
       </c>
+      <c r="H103" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="I103" s="55" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>35</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>388</v>
       </c>
@@ -21916,10 +22020,10 @@
         <v>226</v>
       </c>
       <c r="I105" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>389</v>
       </c>
@@ -21930,10 +22034,10 @@
         <v>226</v>
       </c>
       <c r="I106" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>390</v>
       </c>
@@ -21944,7 +22048,7 @@
         <v>226</v>
       </c>
       <c r="I107" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -21954,21 +22058,24 @@
       <c r="D108" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G109" t="s">
         <v>563</v>
       </c>
       <c r="I109" s="55" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>627</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>3</v>
@@ -21977,7 +22084,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -21985,15 +22092,15 @@
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I111" s="55" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>3</v>
@@ -22004,21 +22111,27 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H113" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>505</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>304</v>
       </c>
@@ -22028,13 +22141,16 @@
       <c r="G115" t="s">
         <v>558</v>
       </c>
+      <c r="H115" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="I115" s="55" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G116" t="s">
         <v>563</v>
@@ -22043,12 +22159,12 @@
         <v>226</v>
       </c>
       <c r="I116" s="55" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>3</v>
@@ -22057,7 +22173,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>51</v>
       </c>
@@ -22068,10 +22184,10 @@
         <v>226</v>
       </c>
       <c r="I118" s="55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>51</v>
       </c>
@@ -22082,20 +22198,11 @@
         <v>226</v>
       </c>
       <c r="I119" s="55" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I119">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I119"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
